--- a/Data/2024/Lineup/Results.xlsx
+++ b/Data/2024/Lineup/Results.xlsx
@@ -798,6 +798,9 @@
       <c r="E2" s="4">
         <v>5</v>
       </c>
+      <c r="F2" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="3" t="s">
@@ -815,6 +818,9 @@
       <c r="E3" s="4">
         <v>5</v>
       </c>
+      <c r="F3" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="5" t="s">
@@ -832,6 +838,9 @@
       <c r="E4" s="4">
         <v>13</v>
       </c>
+      <c r="F4" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="5" t="s">
@@ -849,6 +858,9 @@
       <c r="E5" s="4">
         <v>14</v>
       </c>
+      <c r="F5" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="6" t="s">
@@ -866,6 +878,9 @@
       <c r="E6" s="4">
         <v>31</v>
       </c>
+      <c r="F6" s="4">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="6" t="s">
@@ -883,6 +898,9 @@
       <c r="E7" s="4">
         <v>28</v>
       </c>
+      <c r="F7" s="4">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="6" t="s">
@@ -900,6 +918,9 @@
       <c r="E8" s="4">
         <v>0</v>
       </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="7" t="s">
@@ -917,6 +938,9 @@
       <c r="E9" s="4">
         <v>9</v>
       </c>
+      <c r="F9" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="7" t="s">
@@ -934,6 +958,9 @@
       <c r="E10" s="4">
         <v>10</v>
       </c>
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="8" t="s">
@@ -951,6 +978,9 @@
       <c r="E11" s="4">
         <v>8</v>
       </c>
+      <c r="F11" s="4">
+        <v>-14</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="8" t="s">
@@ -968,6 +998,9 @@
       <c r="E12" s="4">
         <v>-17</v>
       </c>
+      <c r="F12" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="9" t="s">
@@ -985,6 +1018,9 @@
       <c r="E13" s="4">
         <v>19</v>
       </c>
+      <c r="F13" s="4">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="9" t="s">
@@ -1002,6 +1038,9 @@
       <c r="E14" s="4">
         <v>10</v>
       </c>
+      <c r="F14" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="10" t="s">
@@ -1019,6 +1058,9 @@
       <c r="E15" s="4">
         <v>5</v>
       </c>
+      <c r="F15" s="4">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="10" t="s">
@@ -1036,6 +1078,9 @@
       <c r="E16" s="4">
         <v>13</v>
       </c>
+      <c r="F16" s="4">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="11" t="s">
@@ -1053,6 +1098,9 @@
       <c r="E17" s="4">
         <v>10</v>
       </c>
+      <c r="F17" s="4">
+        <v>-6</v>
+      </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="11" t="s">
@@ -1070,6 +1118,9 @@
       <c r="E18" s="4">
         <v>-19</v>
       </c>
+      <c r="F18" s="4">
+        <v>-9</v>
+      </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="12" t="s">
@@ -1087,6 +1138,9 @@
       <c r="E19" s="4">
         <v>47</v>
       </c>
+      <c r="F19" s="4">
+        <v>58</v>
+      </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="12" t="s">
@@ -1104,6 +1158,9 @@
       <c r="E20" s="4">
         <v>33</v>
       </c>
+      <c r="F20" s="4">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="13" t="s">
@@ -1121,6 +1178,9 @@
       <c r="E21" s="4">
         <v>-20</v>
       </c>
+      <c r="F21" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="13" t="s">
@@ -1138,6 +1198,9 @@
       <c r="E22" s="4">
         <v>9</v>
       </c>
+      <c r="F22" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
@@ -1232,6 +1295,9 @@
       <c r="E25" s="4">
         <v>8.6</v>
       </c>
+      <c r="F25" s="4">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="3" t="s">
@@ -1249,6 +1315,9 @@
       <c r="E26" s="4">
         <v>7.4</v>
       </c>
+      <c r="F26" s="4">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="5" t="s">
@@ -1266,6 +1335,9 @@
       <c r="E27" s="4">
         <v>12</v>
       </c>
+      <c r="F27" s="4">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="5" t="s">
@@ -1283,6 +1355,9 @@
       <c r="E28" s="4">
         <v>16.3</v>
       </c>
+      <c r="F28" s="4">
+        <v>16.4</v>
+      </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="6" t="s">
@@ -1300,6 +1375,9 @@
       <c r="E29" s="4">
         <v>21.4</v>
       </c>
+      <c r="F29" s="4">
+        <v>21.7</v>
+      </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="6" t="s">
@@ -1317,6 +1395,9 @@
       <c r="E30" s="4">
         <v>19.8</v>
       </c>
+      <c r="F30" s="4">
+        <v>20.1</v>
+      </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="6" t="s">
@@ -1334,6 +1415,9 @@
       <c r="E31" s="4">
         <v>0</v>
       </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="7" t="s">
@@ -1351,6 +1435,9 @@
       <c r="E32" s="4">
         <v>7.7</v>
       </c>
+      <c r="F32" s="4">
+        <v>8.199999999999999</v>
+      </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="7" t="s">
@@ -1368,6 +1455,9 @@
       <c r="E33" s="4">
         <v>7.2</v>
       </c>
+      <c r="F33" s="4">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="8" t="s">
@@ -1385,6 +1475,9 @@
       <c r="E34" s="4">
         <v>5.9</v>
       </c>
+      <c r="F34" s="4">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="8" t="s">
@@ -1402,6 +1495,9 @@
       <c r="E35" s="4">
         <v>6.8</v>
       </c>
+      <c r="F35" s="4">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="9" t="s">
@@ -1419,6 +1515,9 @@
       <c r="E36" s="4">
         <v>23.5</v>
       </c>
+      <c r="F36" s="4">
+        <v>23.8</v>
+      </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="9" t="s">
@@ -1436,6 +1535,9 @@
       <c r="E37" s="4">
         <v>19.7</v>
       </c>
+      <c r="F37" s="4">
+        <v>19.8</v>
+      </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="10" t="s">
@@ -1453,6 +1555,9 @@
       <c r="E38" s="4">
         <v>19</v>
       </c>
+      <c r="F38" s="4">
+        <v>18.7</v>
+      </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="10" t="s">
@@ -1470,6 +1575,9 @@
       <c r="E39" s="4">
         <v>18.7</v>
       </c>
+      <c r="F39" s="4">
+        <v>18.8</v>
+      </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="11" t="s">
@@ -1487,6 +1595,9 @@
       <c r="E40" s="4">
         <v>8.1</v>
       </c>
+      <c r="F40" s="4">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="11" t="s">
@@ -1504,6 +1615,9 @@
       <c r="E41" s="4">
         <v>9.199999999999999</v>
       </c>
+      <c r="F41" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="12" t="s">
@@ -1521,6 +1635,9 @@
       <c r="E42" s="4">
         <v>29.7</v>
       </c>
+      <c r="F42" s="4">
+        <v>29.9</v>
+      </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="12" t="s">
@@ -1538,6 +1655,9 @@
       <c r="E43" s="4">
         <v>22.4</v>
       </c>
+      <c r="F43" s="4">
+        <v>22.7</v>
+      </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="13" t="s">
@@ -1555,6 +1675,9 @@
       <c r="E44" s="4">
         <v>7.2</v>
       </c>
+      <c r="F44" s="4">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="13" t="s">
@@ -1572,6 +1695,9 @@
       <c r="E45" s="4">
         <v>5.9</v>
       </c>
+      <c r="F45" s="4">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="1" t="s">
@@ -1666,8 +1792,11 @@
       <c r="E48" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
         <v>26</v>
       </c>
@@ -1683,8 +1812,11 @@
       <c r="E49" s="4">
         <v>-4</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="5" t="s">
         <v>27</v>
       </c>
@@ -1700,8 +1832,11 @@
       <c r="E50" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="5" t="s">
         <v>28</v>
       </c>
@@ -1717,8 +1852,11 @@
       <c r="E51" s="4">
         <v>46</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="6" t="s">
         <v>29</v>
       </c>
@@ -1734,8 +1872,11 @@
       <c r="E52" s="4">
         <v>128</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" s="4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="6" t="s">
         <v>30</v>
       </c>
@@ -1751,8 +1892,11 @@
       <c r="E53" s="4">
         <v>110</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="7" t="s">
         <v>32</v>
       </c>
@@ -1768,8 +1912,11 @@
       <c r="E54" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="7" t="s">
         <v>33</v>
       </c>
@@ -1785,8 +1932,11 @@
       <c r="E55" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="8" t="s">
         <v>34</v>
       </c>
@@ -1802,8 +1952,11 @@
       <c r="E56" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" s="4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="8" t="s">
         <v>35</v>
       </c>
@@ -1819,8 +1972,11 @@
       <c r="E57" s="4">
         <v>-4</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="9" t="s">
         <v>36</v>
       </c>
@@ -1836,8 +1992,11 @@
       <c r="E58" s="4">
         <v>66</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="9" t="s">
         <v>37</v>
       </c>
@@ -1853,8 +2012,11 @@
       <c r="E59" s="4">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="10" t="s">
         <v>38</v>
       </c>
@@ -1870,8 +2032,11 @@
       <c r="E60" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="10" t="s">
         <v>39</v>
       </c>
@@ -1887,8 +2052,11 @@
       <c r="E61" s="4">
         <v>45</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="11" t="s">
         <v>40</v>
       </c>
@@ -1904,8 +2072,11 @@
       <c r="E62" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="11" t="s">
         <v>41</v>
       </c>
@@ -1921,8 +2092,11 @@
       <c r="E63" s="4">
         <v>-6</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" s="4">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="12" t="s">
         <v>42</v>
       </c>
@@ -1937,6 +2111,9 @@
       </c>
       <c r="E64" s="4">
         <v>118</v>
+      </c>
+      <c r="F64" s="4">
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -1955,6 +2132,9 @@
       <c r="E65" s="4">
         <v>117</v>
       </c>
+      <c r="F65" s="4">
+        <v>157</v>
+      </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="13" t="s">
@@ -1972,6 +2152,9 @@
       <c r="E66" s="4">
         <v>-10</v>
       </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="13" t="s">
@@ -1989,6 +2172,9 @@
       <c r="E67" s="4">
         <v>19</v>
       </c>
+      <c r="F67" s="4">
+        <v>27</v>
+      </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="6" t="s">
@@ -2006,6 +2192,9 @@
       <c r="E68" s="4">
         <v>26</v>
       </c>
+      <c r="F68" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="1" t="s">
@@ -2100,6 +2289,9 @@
       <c r="E71" s="4">
         <v>33.5</v>
       </c>
+      <c r="F71" s="4">
+        <v>42</v>
+      </c>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" s="3" t="s">
@@ -2117,6 +2309,9 @@
       <c r="E72" s="4">
         <v>30.4</v>
       </c>
+      <c r="F72" s="4">
+        <v>37.7</v>
+      </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="5" t="s">
@@ -2134,6 +2329,9 @@
       <c r="E73" s="4">
         <v>44.9</v>
       </c>
+      <c r="F73" s="4">
+        <v>57.4</v>
+      </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" s="5" t="s">
@@ -2151,6 +2349,9 @@
       <c r="E74" s="4">
         <v>64.2</v>
       </c>
+      <c r="F74" s="4">
+        <v>80.59999999999999</v>
+      </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="6" t="s">
@@ -2168,6 +2369,9 @@
       <c r="E75" s="4">
         <v>80.3</v>
       </c>
+      <c r="F75" s="4">
+        <v>102</v>
+      </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="6" t="s">
@@ -2185,6 +2389,9 @@
       <c r="E76" s="4">
         <v>58.09999999999999</v>
       </c>
+      <c r="F76" s="4">
+        <v>78.19999999999999</v>
+      </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="7" t="s">
@@ -2202,6 +2409,9 @@
       <c r="E77" s="4">
         <v>27.8</v>
       </c>
+      <c r="F77" s="4">
+        <v>36</v>
+      </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="7" t="s">
@@ -2219,6 +2429,9 @@
       <c r="E78" s="4">
         <v>26.5</v>
       </c>
+      <c r="F78" s="4">
+        <v>34.2</v>
+      </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="8" t="s">
@@ -2236,6 +2449,9 @@
       <c r="E79" s="4">
         <v>24.5</v>
       </c>
+      <c r="F79" s="4">
+        <v>30.9</v>
+      </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="8" t="s">
@@ -2253,6 +2469,9 @@
       <c r="E80" s="4">
         <v>27.4</v>
       </c>
+      <c r="F80" s="4">
+        <v>34</v>
+      </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" s="9" t="s">
@@ -2270,6 +2489,9 @@
       <c r="E81" s="4">
         <v>92.8</v>
       </c>
+      <c r="F81" s="4">
+        <v>116.6</v>
+      </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="9" t="s">
@@ -2287,6 +2509,9 @@
       <c r="E82" s="4">
         <v>77.2</v>
       </c>
+      <c r="F82" s="4">
+        <v>97</v>
+      </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="10" t="s">
@@ -2304,6 +2529,9 @@
       <c r="E83" s="4">
         <v>77.2</v>
       </c>
+      <c r="F83" s="4">
+        <v>95.90000000000001</v>
+      </c>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" s="10" t="s">
@@ -2321,6 +2549,9 @@
       <c r="E84" s="4">
         <v>75.80000000000001</v>
       </c>
+      <c r="F84" s="4">
+        <v>94.60000000000001</v>
+      </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="11" t="s">
@@ -2338,6 +2569,9 @@
       <c r="E85" s="4">
         <v>31.5</v>
       </c>
+      <c r="F85" s="4">
+        <v>40.1</v>
+      </c>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" s="11" t="s">
@@ -2355,6 +2589,9 @@
       <c r="E86" s="4">
         <v>35.8</v>
       </c>
+      <c r="F86" s="4">
+        <v>44.8</v>
+      </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" s="12" t="s">
@@ -2372,6 +2609,9 @@
       <c r="E87" s="4">
         <v>120.3</v>
       </c>
+      <c r="F87" s="4">
+        <v>150.2</v>
+      </c>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" s="12" t="s">
@@ -2389,6 +2629,9 @@
       <c r="E88" s="4">
         <v>86.5</v>
       </c>
+      <c r="F88" s="4">
+        <v>109.2</v>
+      </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" s="13" t="s">
@@ -2406,6 +2649,9 @@
       <c r="E89" s="4">
         <v>28.3</v>
       </c>
+      <c r="F89" s="4">
+        <v>35.5</v>
+      </c>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" s="13" t="s">
@@ -2423,6 +2669,9 @@
       <c r="E90" s="4">
         <v>22.7</v>
       </c>
+      <c r="F90" s="4">
+        <v>29.1</v>
+      </c>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" s="6" t="s">
@@ -2440,6 +2689,9 @@
       <c r="E91" s="4">
         <v>14</v>
       </c>
+      <c r="F91" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" s="1" t="s">
@@ -2534,6 +2786,9 @@
       <c r="E94" s="4">
         <v>5</v>
       </c>
+      <c r="F94" s="4">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="3" t="s">
@@ -2551,6 +2806,9 @@
       <c r="E95" s="4">
         <v>-1</v>
       </c>
+      <c r="F95" s="4">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="96" spans="1:25">
       <c r="A96" s="5" t="s">
@@ -2568,8 +2826,11 @@
       <c r="E96" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96" s="4">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="5" t="s">
         <v>28</v>
       </c>
@@ -2585,8 +2846,11 @@
       <c r="E97" s="4">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97" s="4">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="6" t="s">
         <v>29</v>
       </c>
@@ -2602,8 +2866,11 @@
       <c r="E98" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98" s="4">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="6" t="s">
         <v>30</v>
       </c>
@@ -2619,8 +2886,11 @@
       <c r="E99" s="4">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="7" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2906,11 @@
       <c r="E100" s="4">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100" s="4">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="7" t="s">
         <v>33</v>
       </c>
@@ -2653,8 +2926,11 @@
       <c r="E101" s="4">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101" s="4">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="8" t="s">
         <v>34</v>
       </c>
@@ -2670,8 +2946,11 @@
       <c r="E102" s="4">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="8" t="s">
         <v>35</v>
       </c>
@@ -2687,8 +2966,11 @@
       <c r="E103" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="9" t="s">
         <v>36</v>
       </c>
@@ -2704,8 +2986,11 @@
       <c r="E104" s="4">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104" s="4">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="9" t="s">
         <v>37</v>
       </c>
@@ -2721,8 +3006,11 @@
       <c r="E105" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105" s="4">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="10" t="s">
         <v>38</v>
       </c>
@@ -2738,8 +3026,11 @@
       <c r="E106" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106" s="4">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="10" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +3046,11 @@
       <c r="E107" s="4">
         <v>11.25</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107" s="4">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="11" t="s">
         <v>40</v>
       </c>
@@ -2772,8 +3066,11 @@
       <c r="E108" s="4">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108" s="4">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="11" t="s">
         <v>41</v>
       </c>
@@ -2789,8 +3086,11 @@
       <c r="E109" s="4">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109" s="4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="12" t="s">
         <v>42</v>
       </c>
@@ -2806,8 +3106,11 @@
       <c r="E110" s="4">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110" s="4">
+        <v>35.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="12" t="s">
         <v>43</v>
       </c>
@@ -2823,8 +3126,11 @@
       <c r="E111" s="4">
         <v>29.25</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111" s="4">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="13" t="s">
         <v>44</v>
       </c>
@@ -2839,6 +3145,9 @@
       </c>
       <c r="E112" s="4">
         <v>-2.5</v>
+      </c>
+      <c r="F112" s="4">
+        <v>0.2</v>
       </c>
     </row>
     <row r="113" spans="1:25">
@@ -2857,6 +3166,9 @@
       <c r="E113" s="4">
         <v>4.75</v>
       </c>
+      <c r="F113" s="4">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="114" spans="1:25">
       <c r="A114" s="6" t="s">
@@ -2874,6 +3186,9 @@
       <c r="E114" s="4">
         <v>6.5</v>
       </c>
+      <c r="F114" s="4">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="116" spans="1:25">
       <c r="A116" s="1" t="s">
@@ -2968,6 +3283,9 @@
       <c r="E117" s="4">
         <v>8.375</v>
       </c>
+      <c r="F117" s="4">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="118" spans="1:25">
       <c r="A118" s="3" t="s">
@@ -2985,6 +3303,9 @@
       <c r="E118" s="4">
         <v>7.6</v>
       </c>
+      <c r="F118" s="4">
+        <v>7.539999999999999</v>
+      </c>
     </row>
     <row r="119" spans="1:25">
       <c r="A119" s="5" t="s">
@@ -3002,6 +3323,9 @@
       <c r="E119" s="4">
         <v>11.225</v>
       </c>
+      <c r="F119" s="4">
+        <v>11.48</v>
+      </c>
     </row>
     <row r="120" spans="1:25">
       <c r="A120" s="5" t="s">
@@ -3019,6 +3343,9 @@
       <c r="E120" s="4">
         <v>16.05</v>
       </c>
+      <c r="F120" s="4">
+        <v>16.12</v>
+      </c>
     </row>
     <row r="121" spans="1:25">
       <c r="A121" s="6" t="s">
@@ -3036,6 +3363,9 @@
       <c r="E121" s="4">
         <v>20.075</v>
       </c>
+      <c r="F121" s="4">
+        <v>20.4</v>
+      </c>
     </row>
     <row r="122" spans="1:25">
       <c r="A122" s="6" t="s">
@@ -3053,6 +3383,9 @@
       <c r="E122" s="4">
         <v>14.525</v>
       </c>
+      <c r="F122" s="4">
+        <v>15.64</v>
+      </c>
     </row>
     <row r="123" spans="1:25">
       <c r="A123" s="7" t="s">
@@ -3070,6 +3403,9 @@
       <c r="E123" s="4">
         <v>6.95</v>
       </c>
+      <c r="F123" s="4">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="124" spans="1:25">
       <c r="A124" s="7" t="s">
@@ -3087,6 +3423,9 @@
       <c r="E124" s="4">
         <v>6.625</v>
       </c>
+      <c r="F124" s="4">
+        <v>6.840000000000001</v>
+      </c>
     </row>
     <row r="125" spans="1:25">
       <c r="A125" s="8" t="s">
@@ -3104,6 +3443,9 @@
       <c r="E125" s="4">
         <v>6.125</v>
       </c>
+      <c r="F125" s="4">
+        <v>6.18</v>
+      </c>
     </row>
     <row r="126" spans="1:25">
       <c r="A126" s="8" t="s">
@@ -3121,6 +3463,9 @@
       <c r="E126" s="4">
         <v>6.850000000000001</v>
       </c>
+      <c r="F126" s="4">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="127" spans="1:25">
       <c r="A127" s="9" t="s">
@@ -3138,6 +3483,9 @@
       <c r="E127" s="4">
         <v>23.2</v>
       </c>
+      <c r="F127" s="4">
+        <v>23.32</v>
+      </c>
     </row>
     <row r="128" spans="1:25">
       <c r="A128" s="9" t="s">
@@ -3155,6 +3503,9 @@
       <c r="E128" s="4">
         <v>19.3</v>
       </c>
+      <c r="F128" s="4">
+        <v>19.4</v>
+      </c>
     </row>
     <row r="129" spans="1:25">
       <c r="A129" s="10" t="s">
@@ -3172,6 +3523,9 @@
       <c r="E129" s="4">
         <v>19.3</v>
       </c>
+      <c r="F129" s="4">
+        <v>19.18</v>
+      </c>
     </row>
     <row r="130" spans="1:25">
       <c r="A130" s="10" t="s">
@@ -3189,6 +3543,9 @@
       <c r="E130" s="4">
         <v>18.95</v>
       </c>
+      <c r="F130" s="4">
+        <v>18.92</v>
+      </c>
     </row>
     <row r="131" spans="1:25">
       <c r="A131" s="11" t="s">
@@ -3206,6 +3563,9 @@
       <c r="E131" s="4">
         <v>7.875</v>
       </c>
+      <c r="F131" s="4">
+        <v>8.02</v>
+      </c>
     </row>
     <row r="132" spans="1:25">
       <c r="A132" s="11" t="s">
@@ -3223,6 +3583,9 @@
       <c r="E132" s="4">
         <v>8.949999999999999</v>
       </c>
+      <c r="F132" s="4">
+        <v>8.959999999999999</v>
+      </c>
     </row>
     <row r="133" spans="1:25">
       <c r="A133" s="12" t="s">
@@ -3240,6 +3603,9 @@
       <c r="E133" s="4">
         <v>30.075</v>
       </c>
+      <c r="F133" s="4">
+        <v>30.04</v>
+      </c>
     </row>
     <row r="134" spans="1:25">
       <c r="A134" s="12" t="s">
@@ -3257,6 +3623,9 @@
       <c r="E134" s="4">
         <v>21.625</v>
       </c>
+      <c r="F134" s="4">
+        <v>21.84</v>
+      </c>
     </row>
     <row r="135" spans="1:25">
       <c r="A135" s="13" t="s">
@@ -3274,6 +3643,9 @@
       <c r="E135" s="4">
         <v>7.075</v>
       </c>
+      <c r="F135" s="4">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="136" spans="1:25">
       <c r="A136" s="13" t="s">
@@ -3291,6 +3663,9 @@
       <c r="E136" s="4">
         <v>5.675000000000001</v>
       </c>
+      <c r="F136" s="4">
+        <v>5.82</v>
+      </c>
     </row>
     <row r="137" spans="1:25">
       <c r="A137" s="6" t="s">
@@ -3308,6 +3683,9 @@
       <c r="E137" s="4">
         <v>3.5</v>
       </c>
+      <c r="F137" s="4">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="139" spans="1:25">
       <c r="A139" s="1" t="s">
@@ -3402,6 +3780,9 @@
       <c r="E140" s="4">
         <v>0.5813953488372093</v>
       </c>
+      <c r="F140" s="4">
+        <v>1.411764705882353</v>
+      </c>
     </row>
     <row r="141" spans="1:25">
       <c r="A141" s="3" t="s">
@@ -3419,6 +3800,9 @@
       <c r="E141" s="4">
         <v>0.6756756756756757</v>
       </c>
+      <c r="F141" s="4">
+        <v>1.780821917808219</v>
+      </c>
     </row>
     <row r="142" spans="1:25">
       <c r="A142" s="5" t="s">
@@ -3436,6 +3820,9 @@
       <c r="E142" s="4">
         <v>1.083333333333333</v>
       </c>
+      <c r="F142" s="4">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="143" spans="1:25">
       <c r="A143" s="5" t="s">
@@ -3453,6 +3840,9 @@
       <c r="E143" s="4">
         <v>0.8588957055214723</v>
       </c>
+      <c r="F143" s="4">
+        <v>0.9146341463414634</v>
+      </c>
     </row>
     <row r="144" spans="1:25">
       <c r="A144" s="6" t="s">
@@ -3470,8 +3860,11 @@
       <c r="E144" s="4">
         <v>1.448598130841122</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="F144" s="4">
+        <v>1.566820276497696</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="6" t="s">
         <v>30</v>
       </c>
@@ -3487,8 +3880,11 @@
       <c r="E145" s="4">
         <v>1.414141414141414</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="F145" s="4">
+        <v>1.492537313432836</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="7" t="s">
         <v>32</v>
       </c>
@@ -3504,8 +3900,11 @@
       <c r="E146" s="4">
         <v>1.168831168831169</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="F146" s="4">
+        <v>2.073170731707317</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="7" t="s">
         <v>33</v>
       </c>
@@ -3521,8 +3920,11 @@
       <c r="E147" s="4">
         <v>1.388888888888889</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="F147" s="4">
+        <v>0.5194805194805194</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" s="8" t="s">
         <v>34</v>
       </c>
@@ -3538,8 +3940,11 @@
       <c r="E148" s="4">
         <v>1.35593220338983</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="F148" s="4">
+        <v>-2.1875</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" s="8" t="s">
         <v>35</v>
       </c>
@@ -3555,8 +3960,11 @@
       <c r="E149" s="4">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="F149" s="4">
+        <v>1.96969696969697</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" s="9" t="s">
         <v>36</v>
       </c>
@@ -3572,8 +3980,11 @@
       <c r="E150" s="4">
         <v>0.8085106382978723</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="F150" s="4">
+        <v>1.512605042016807</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" s="9" t="s">
         <v>37</v>
       </c>
@@ -3589,8 +4000,11 @@
       <c r="E151" s="4">
         <v>0.5076142131979695</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="F151" s="4">
+        <v>0.6060606060606061</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" s="10" t="s">
         <v>38</v>
       </c>
@@ -3606,8 +4020,11 @@
       <c r="E152" s="4">
         <v>0.2631578947368421</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="F152" s="4">
+        <v>1.60427807486631</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="10" t="s">
         <v>39</v>
       </c>
@@ -3623,8 +4040,11 @@
       <c r="E153" s="4">
         <v>0.6951871657754011</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="F153" s="4">
+        <v>1.436170212765957</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" s="11" t="s">
         <v>40</v>
       </c>
@@ -3640,8 +4060,11 @@
       <c r="E154" s="4">
         <v>1.234567901234568</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="F154" s="4">
+        <v>-0.6976744186046512</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" s="11" t="s">
         <v>41</v>
       </c>
@@ -3657,8 +4080,11 @@
       <c r="E155" s="4">
         <v>-2.065217391304348</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" s="12" t="s">
         <v>42</v>
       </c>
@@ -3674,8 +4100,11 @@
       <c r="E156" s="4">
         <v>1.582491582491583</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="F156" s="4">
+        <v>1.939799331103679</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" s="12" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +4120,11 @@
       <c r="E157" s="4">
         <v>1.473214285714286</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="F157" s="4">
+        <v>1.762114537444934</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" s="13" t="s">
         <v>44</v>
       </c>
@@ -3708,8 +4140,11 @@
       <c r="E158" s="4">
         <v>-2.777777777777778</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="F158" s="4">
+        <v>1.527777777777778</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" s="13" t="s">
         <v>45</v>
       </c>
@@ -3725,8 +4160,11 @@
       <c r="E159" s="4">
         <v>1.525423728813559</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="F159" s="4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" s="6" t="s">
         <v>31</v>
       </c>
@@ -3740,6 +4178,9 @@
         <v>0</v>
       </c>
       <c r="E160" s="4">
+        <v>0</v>
+      </c>
+      <c r="F160" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3836,6 +4277,9 @@
       <c r="E163" s="4">
         <v>0.8097165991902833</v>
       </c>
+      <c r="F163" s="4">
+        <v>0.9638554216867469</v>
+      </c>
     </row>
     <row r="164" spans="1:25">
       <c r="A164" s="3" t="s">
@@ -3853,6 +4297,9 @@
       <c r="E164" s="4">
         <v>-0.131578947368421</v>
       </c>
+      <c r="F164" s="4">
+        <v>0.2387267904509284</v>
+      </c>
     </row>
     <row r="165" spans="1:25">
       <c r="A165" s="5" t="s">
@@ -3870,6 +4317,9 @@
       <c r="E165" s="4">
         <v>0.44543429844098</v>
       </c>
+      <c r="F165" s="4">
+        <v>0.5052264808362369</v>
+      </c>
     </row>
     <row r="166" spans="1:25">
       <c r="A166" s="5" t="s">
@@ -3887,6 +4337,9 @@
       <c r="E166" s="4">
         <v>0.7165109034267912</v>
       </c>
+      <c r="F166" s="4">
+        <v>0.7568238213399504</v>
+      </c>
     </row>
     <row r="167" spans="1:25">
       <c r="A167" s="6" t="s">
@@ -3904,6 +4357,9 @@
       <c r="E167" s="4">
         <v>1.594022415940224</v>
       </c>
+      <c r="F167" s="4">
+        <v>1.588235294117647</v>
+      </c>
     </row>
     <row r="168" spans="1:25">
       <c r="A168" s="6" t="s">
@@ -3921,6 +4377,9 @@
       <c r="E168" s="4">
         <v>1.89328743545611</v>
       </c>
+      <c r="F168" s="4">
+        <v>1.790281329923274</v>
+      </c>
     </row>
     <row r="169" spans="1:25">
       <c r="A169" s="7" t="s">
@@ -3938,6 +4397,9 @@
       <c r="E169" s="4">
         <v>1.115107913669065</v>
       </c>
+      <c r="F169" s="4">
+        <v>1.333333333333333</v>
+      </c>
     </row>
     <row r="170" spans="1:25">
       <c r="A170" s="7" t="s">
@@ -3955,6 +4417,9 @@
       <c r="E170" s="4">
         <v>1.018867924528302</v>
       </c>
+      <c r="F170" s="4">
+        <v>0.9064327485380116</v>
+      </c>
     </row>
     <row r="171" spans="1:25">
       <c r="A171" s="8" t="s">
@@ -3972,6 +4437,9 @@
       <c r="E171" s="4">
         <v>0.4972375690607734</v>
       </c>
+      <c r="F171" s="4">
+        <v>-0.2040816326530612</v>
+      </c>
     </row>
     <row r="172" spans="1:25">
       <c r="A172" s="8" t="s">
@@ -3989,6 +4457,9 @@
       <c r="E172" s="4">
         <v>-0.145985401459854</v>
       </c>
+      <c r="F172" s="4">
+        <v>0.2647058823529412</v>
+      </c>
     </row>
     <row r="173" spans="1:25">
       <c r="A173" s="9" t="s">
@@ -4006,6 +4477,9 @@
       <c r="E173" s="4">
         <v>0.7112068965517242</v>
       </c>
+      <c r="F173" s="4">
+        <v>0.8747855917667239</v>
+      </c>
     </row>
     <row r="174" spans="1:25">
       <c r="A174" s="9" t="s">
@@ -4023,6 +4497,9 @@
       <c r="E174" s="4">
         <v>0.8290155440414507</v>
       </c>
+      <c r="F174" s="4">
+        <v>0.7835051546391752</v>
+      </c>
     </row>
     <row r="175" spans="1:25">
       <c r="A175" s="10" t="s">
@@ -4040,6 +4517,9 @@
       <c r="E175" s="4">
         <v>0.05181347150259067</v>
       </c>
+      <c r="F175" s="4">
+        <v>0.3545359749739311</v>
+      </c>
     </row>
     <row r="176" spans="1:25">
       <c r="A176" s="10" t="s">
@@ -4057,8 +4537,11 @@
       <c r="E176" s="4">
         <v>0.5936675461741424</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="F176" s="4">
+        <v>0.7610993657505285</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" s="11" t="s">
         <v>40</v>
       </c>
@@ -4074,8 +4557,11 @@
       <c r="E177" s="4">
         <v>0.6031746031746031</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="F177" s="4">
+        <v>0.3241895261845387</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" s="11" t="s">
         <v>41</v>
       </c>
@@ -4091,8 +4577,11 @@
       <c r="E178" s="4">
         <v>-0.2230483271375465</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="F178" s="4">
+        <v>-0.4178272980501393</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" s="12" t="s">
         <v>42</v>
       </c>
@@ -4108,8 +4597,11 @@
       <c r="E179" s="4">
         <v>0.9808811305070657</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179" s="4">
+        <v>1.171770972037284</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" s="12" t="s">
         <v>43</v>
       </c>
@@ -4125,8 +4617,11 @@
       <c r="E180" s="4">
         <v>1.352601156069364</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="F180" s="4">
+        <v>1.437728937728938</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" s="13" t="s">
         <v>44</v>
       </c>
@@ -4142,8 +4637,11 @@
       <c r="E181" s="4">
         <v>-0.4694835680751174</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="F181" s="4">
+        <v>0.03508771929824561</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" s="13" t="s">
         <v>45</v>
       </c>
@@ -4159,8 +4657,11 @@
       <c r="E182" s="4">
         <v>1.130952380952381</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="F182" s="4">
+        <v>1.163793103448276</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" s="6" t="s">
         <v>31</v>
       </c>
@@ -4174,6 +4675,9 @@
         <v>1.857142857142857</v>
       </c>
       <c r="E183" s="4">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="F183" s="4">
         <v>1.857142857142857</v>
       </c>
     </row>
@@ -4283,6 +4787,9 @@
       <c r="E2" s="4">
         <v>11</v>
       </c>
+      <c r="F2" s="4">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="5" t="s">
@@ -4300,6 +4807,9 @@
       <c r="E3" s="4">
         <v>32</v>
       </c>
+      <c r="F3" s="4">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="6" t="s">
@@ -4317,6 +4827,9 @@
       <c r="E4" s="4">
         <v>59</v>
       </c>
+      <c r="F4" s="4">
+        <v>74</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="7" t="s">
@@ -4334,6 +4847,9 @@
       <c r="E5" s="4">
         <v>20</v>
       </c>
+      <c r="F5" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="8" t="s">
@@ -4351,6 +4867,9 @@
       <c r="E6" s="4">
         <v>-8</v>
       </c>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="9" t="s">
@@ -4368,6 +4887,9 @@
       <c r="E7" s="4">
         <v>39</v>
       </c>
+      <c r="F7" s="4">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="10" t="s">
@@ -4385,6 +4907,9 @@
       <c r="E8" s="4">
         <v>28</v>
       </c>
+      <c r="F8" s="4">
+        <v>62</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="11" t="s">
@@ -4402,6 +4927,9 @@
       <c r="E9" s="4">
         <v>-4</v>
       </c>
+      <c r="F9" s="4">
+        <v>-14</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="12" t="s">
@@ -4419,6 +4947,9 @@
       <c r="E10" s="4">
         <v>108</v>
       </c>
+      <c r="F10" s="4">
+        <v>126</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="13" t="s">
@@ -4436,6 +4967,9 @@
       <c r="E11" s="4">
         <v>-10</v>
       </c>
+      <c r="F11" s="4">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
@@ -4530,6 +5064,9 @@
       <c r="E14" s="4">
         <v>8</v>
       </c>
+      <c r="F14" s="4">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="5" t="s">
@@ -4547,6 +5084,9 @@
       <c r="E15" s="4">
         <v>14.5</v>
       </c>
+      <c r="F15" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="6" t="s">
@@ -4564,6 +5104,9 @@
       <c r="E16" s="4">
         <v>20.9</v>
       </c>
+      <c r="F16" s="4">
+        <v>21.2</v>
+      </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="7" t="s">
@@ -4581,6 +5124,9 @@
       <c r="E17" s="4">
         <v>7.2</v>
       </c>
+      <c r="F17" s="4">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="8" t="s">
@@ -4598,6 +5144,9 @@
       <c r="E18" s="4">
         <v>6.2</v>
       </c>
+      <c r="F18" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="9" t="s">
@@ -4615,6 +5164,9 @@
       <c r="E19" s="4">
         <v>23.9</v>
       </c>
+      <c r="F19" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="10" t="s">
@@ -4632,6 +5184,9 @@
       <c r="E20" s="4">
         <v>19.8</v>
       </c>
+      <c r="F20" s="4">
+        <v>19.9</v>
+      </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="11" t="s">
@@ -4649,6 +5204,9 @@
       <c r="E21" s="4">
         <v>8.800000000000001</v>
       </c>
+      <c r="F21" s="4">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="12" t="s">
@@ -4666,6 +5224,9 @@
       <c r="E22" s="4">
         <v>28.2</v>
       </c>
+      <c r="F22" s="4">
+        <v>28.4</v>
+      </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="13" t="s">
@@ -4683,6 +5244,9 @@
       <c r="E23" s="4">
         <v>6.6</v>
       </c>
+      <c r="F23" s="4">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
@@ -4777,6 +5341,9 @@
       <c r="E26" s="4">
         <v>16</v>
       </c>
+      <c r="F26" s="4">
+        <v>44</v>
+      </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="5" t="s">
@@ -4794,6 +5361,9 @@
       <c r="E27" s="4">
         <v>96</v>
       </c>
+      <c r="F27" s="4">
+        <v>125</v>
+      </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="6" t="s">
@@ -4811,6 +5381,9 @@
       <c r="E28" s="4">
         <v>282</v>
       </c>
+      <c r="F28" s="4">
+        <v>356</v>
+      </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="7" t="s">
@@ -4828,6 +5401,9 @@
       <c r="E29" s="4">
         <v>68</v>
       </c>
+      <c r="F29" s="4">
+        <v>94</v>
+      </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="8" t="s">
@@ -4845,6 +5421,9 @@
       <c r="E30" s="4">
         <v>5</v>
       </c>
+      <c r="F30" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="9" t="s">
@@ -4862,6 +5441,9 @@
       <c r="E31" s="4">
         <v>170</v>
       </c>
+      <c r="F31" s="4">
+        <v>218</v>
+      </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="10" t="s">
@@ -4879,6 +5461,9 @@
       <c r="E32" s="4">
         <v>89</v>
       </c>
+      <c r="F32" s="4">
+        <v>151</v>
+      </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="11" t="s">
@@ -4896,6 +5481,9 @@
       <c r="E33" s="4">
         <v>31</v>
       </c>
+      <c r="F33" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="12" t="s">
@@ -4913,6 +5501,9 @@
       <c r="E34" s="4">
         <v>319</v>
       </c>
+      <c r="F34" s="4">
+        <v>445</v>
+      </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="13" t="s">
@@ -4930,6 +5521,9 @@
       <c r="E35" s="4">
         <v>13</v>
       </c>
+      <c r="F35" s="4">
+        <v>33</v>
+      </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="1" t="s">
@@ -5024,6 +5618,9 @@
       <c r="E38" s="4">
         <v>30.8</v>
       </c>
+      <c r="F38" s="4">
+        <v>38.7</v>
+      </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="5" t="s">
@@ -5041,6 +5638,9 @@
       <c r="E39" s="4">
         <v>56.2</v>
       </c>
+      <c r="F39" s="4">
+        <v>71.2</v>
+      </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="6" t="s">
@@ -5058,6 +5658,9 @@
       <c r="E40" s="4">
         <v>79.7</v>
       </c>
+      <c r="F40" s="4">
+        <v>100.9</v>
+      </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="7" t="s">
@@ -5075,6 +5678,9 @@
       <c r="E41" s="4">
         <v>26.4</v>
       </c>
+      <c r="F41" s="4">
+        <v>34.1</v>
+      </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="8" t="s">
@@ -5092,6 +5698,9 @@
       <c r="E42" s="4">
         <v>25.6</v>
       </c>
+      <c r="F42" s="4">
+        <v>31.6</v>
+      </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="9" t="s">
@@ -5109,6 +5718,9 @@
       <c r="E43" s="4">
         <v>94</v>
       </c>
+      <c r="F43" s="4">
+        <v>118</v>
+      </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="10" t="s">
@@ -5126,6 +5738,9 @@
       <c r="E44" s="4">
         <v>80.39999999999999</v>
       </c>
+      <c r="F44" s="4">
+        <v>100.3</v>
+      </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="11" t="s">
@@ -5143,6 +5758,9 @@
       <c r="E45" s="4">
         <v>34</v>
       </c>
+      <c r="F45" s="4">
+        <v>42.6</v>
+      </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="12" t="s">
@@ -5160,6 +5778,9 @@
       <c r="E46" s="4">
         <v>112.3</v>
       </c>
+      <c r="F46" s="4">
+        <v>140.7</v>
+      </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="13" t="s">
@@ -5177,6 +5798,9 @@
       <c r="E47" s="4">
         <v>25.8</v>
       </c>
+      <c r="F47" s="4">
+        <v>32.2</v>
+      </c>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" s="1" t="s">
@@ -5271,6 +5895,9 @@
       <c r="E50" s="4">
         <v>4</v>
       </c>
+      <c r="F50" s="4">
+        <v>8.800000000000001</v>
+      </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="5" t="s">
@@ -5288,6 +5915,9 @@
       <c r="E51" s="4">
         <v>24</v>
       </c>
+      <c r="F51" s="4">
+        <v>25</v>
+      </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" s="6" t="s">
@@ -5305,6 +5935,9 @@
       <c r="E52" s="4">
         <v>70.5</v>
       </c>
+      <c r="F52" s="4">
+        <v>71.2</v>
+      </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" s="7" t="s">
@@ -5322,6 +5955,9 @@
       <c r="E53" s="4">
         <v>17</v>
       </c>
+      <c r="F53" s="4">
+        <v>18.8</v>
+      </c>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" s="8" t="s">
@@ -5339,6 +5975,9 @@
       <c r="E54" s="4">
         <v>1.25</v>
       </c>
+      <c r="F54" s="4">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="9" t="s">
@@ -5356,6 +5995,9 @@
       <c r="E55" s="4">
         <v>42.5</v>
       </c>
+      <c r="F55" s="4">
+        <v>43.6</v>
+      </c>
     </row>
     <row r="56" spans="1:25">
       <c r="A56" s="10" t="s">
@@ -5373,6 +6015,9 @@
       <c r="E56" s="4">
         <v>22.25</v>
       </c>
+      <c r="F56" s="4">
+        <v>30.2</v>
+      </c>
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="11" t="s">
@@ -5390,6 +6035,9 @@
       <c r="E57" s="4">
         <v>7.75</v>
       </c>
+      <c r="F57" s="4">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" s="12" t="s">
@@ -5407,6 +6055,9 @@
       <c r="E58" s="4">
         <v>79.75</v>
       </c>
+      <c r="F58" s="4">
+        <v>89</v>
+      </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" s="13" t="s">
@@ -5424,6 +6075,9 @@
       <c r="E59" s="4">
         <v>3.25</v>
       </c>
+      <c r="F59" s="4">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="1" t="s">
@@ -5518,6 +6172,9 @@
       <c r="E62" s="4">
         <v>7.7</v>
       </c>
+      <c r="F62" s="4">
+        <v>7.74</v>
+      </c>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" s="5" t="s">
@@ -5535,6 +6192,9 @@
       <c r="E63" s="4">
         <v>14.05</v>
       </c>
+      <c r="F63" s="4">
+        <v>14.24</v>
+      </c>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" s="6" t="s">
@@ -5552,6 +6212,9 @@
       <c r="E64" s="4">
         <v>19.925</v>
       </c>
+      <c r="F64" s="4">
+        <v>20.18</v>
+      </c>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="7" t="s">
@@ -5569,6 +6232,9 @@
       <c r="E65" s="4">
         <v>6.6</v>
       </c>
+      <c r="F65" s="4">
+        <v>6.82</v>
+      </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="8" t="s">
@@ -5586,6 +6252,9 @@
       <c r="E66" s="4">
         <v>6.399999999999999</v>
       </c>
+      <c r="F66" s="4">
+        <v>6.319999999999999</v>
+      </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="9" t="s">
@@ -5603,6 +6272,9 @@
       <c r="E67" s="4">
         <v>23.5</v>
       </c>
+      <c r="F67" s="4">
+        <v>23.6</v>
+      </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="10" t="s">
@@ -5620,6 +6292,9 @@
       <c r="E68" s="4">
         <v>20.1</v>
       </c>
+      <c r="F68" s="4">
+        <v>20.06</v>
+      </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="11" t="s">
@@ -5637,6 +6312,9 @@
       <c r="E69" s="4">
         <v>8.5</v>
       </c>
+      <c r="F69" s="4">
+        <v>8.52</v>
+      </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="12" t="s">
@@ -5654,6 +6332,9 @@
       <c r="E70" s="4">
         <v>28.075</v>
       </c>
+      <c r="F70" s="4">
+        <v>28.14</v>
+      </c>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="13" t="s">
@@ -5671,6 +6352,9 @@
       <c r="E71" s="4">
         <v>6.449999999999999</v>
       </c>
+      <c r="F71" s="4">
+        <v>6.44</v>
+      </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="1" t="s">
@@ -5765,6 +6449,9 @@
       <c r="E74" s="4">
         <v>1.375</v>
       </c>
+      <c r="F74" s="4">
+        <v>3.544303797468354</v>
+      </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="5" t="s">
@@ -5782,6 +6469,9 @@
       <c r="E75" s="4">
         <v>2.206896551724138</v>
       </c>
+      <c r="F75" s="4">
+        <v>1.933333333333333</v>
+      </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="6" t="s">
@@ -5799,6 +6489,9 @@
       <c r="E76" s="4">
         <v>2.822966507177034</v>
       </c>
+      <c r="F76" s="4">
+        <v>3.490566037735849</v>
+      </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="7" t="s">
@@ -5816,6 +6509,9 @@
       <c r="E77" s="4">
         <v>2.777777777777778</v>
       </c>
+      <c r="F77" s="4">
+        <v>3.376623376623376</v>
+      </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="8" t="s">
@@ -5833,6 +6529,9 @@
       <c r="E78" s="4">
         <v>-1.290322580645161</v>
       </c>
+      <c r="F78" s="4">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="9" t="s">
@@ -5850,6 +6549,9 @@
       <c r="E79" s="4">
         <v>1.631799163179916</v>
       </c>
+      <c r="F79" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="10" t="s">
@@ -5867,6 +6569,9 @@
       <c r="E80" s="4">
         <v>1.414141414141414</v>
       </c>
+      <c r="F80" s="4">
+        <v>3.115577889447236</v>
+      </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" s="11" t="s">
@@ -5884,6 +6589,9 @@
       <c r="E81" s="4">
         <v>-0.4545454545454545</v>
       </c>
+      <c r="F81" s="4">
+        <v>-1.627906976744186</v>
+      </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="12" t="s">
@@ -5901,6 +6609,9 @@
       <c r="E82" s="4">
         <v>3.829787234042553</v>
       </c>
+      <c r="F82" s="4">
+        <v>4.436619718309859</v>
+      </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="13" t="s">
@@ -5918,6 +6629,9 @@
       <c r="E83" s="4">
         <v>-1.515151515151515</v>
       </c>
+      <c r="F83" s="4">
+        <v>3.125</v>
+      </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="1" t="s">
@@ -6012,6 +6726,9 @@
       <c r="E86" s="4">
         <v>0.5194805194805194</v>
       </c>
+      <c r="F86" s="4">
+        <v>1.136950904392765</v>
+      </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" s="5" t="s">
@@ -6029,6 +6746,9 @@
       <c r="E87" s="4">
         <v>1.708185053380783</v>
       </c>
+      <c r="F87" s="4">
+        <v>1.75561797752809</v>
+      </c>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" s="6" t="s">
@@ -6046,6 +6766,9 @@
       <c r="E88" s="4">
         <v>3.538268506900878</v>
       </c>
+      <c r="F88" s="4">
+        <v>3.52824578790882</v>
+      </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" s="7" t="s">
@@ -6063,6 +6786,9 @@
       <c r="E89" s="4">
         <v>2.575757575757576</v>
       </c>
+      <c r="F89" s="4">
+        <v>2.756598240469208</v>
+      </c>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" s="8" t="s">
@@ -6080,6 +6806,9 @@
       <c r="E90" s="4">
         <v>0.1953125</v>
       </c>
+      <c r="F90" s="4">
+        <v>0.2848101265822785</v>
+      </c>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" s="9" t="s">
@@ -6097,6 +6826,9 @@
       <c r="E91" s="4">
         <v>1.808510638297872</v>
       </c>
+      <c r="F91" s="4">
+        <v>1.847457627118644</v>
+      </c>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" s="10" t="s">
@@ -6114,6 +6846,9 @@
       <c r="E92" s="4">
         <v>1.106965174129353</v>
       </c>
+      <c r="F92" s="4">
+        <v>1.505483549351945</v>
+      </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" s="11" t="s">
@@ -6131,6 +6866,9 @@
       <c r="E93" s="4">
         <v>0.9117647058823529</v>
       </c>
+      <c r="F93" s="4">
+        <v>0.3990610328638498</v>
+      </c>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" s="12" t="s">
@@ -6148,6 +6886,9 @@
       <c r="E94" s="4">
         <v>2.840605520926091</v>
       </c>
+      <c r="F94" s="4">
+        <v>3.162757640369581</v>
+      </c>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="13" t="s">
@@ -6164,6 +6905,9 @@
       </c>
       <c r="E95" s="4">
         <v>0.5038759689922481</v>
+      </c>
+      <c r="F95" s="4">
+        <v>1.024844720496894</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2024/Lineup/Results.xlsx
+++ b/Data/2024/Lineup/Results.xlsx
@@ -801,6 +801,9 @@
       <c r="F2" s="4">
         <v>12</v>
       </c>
+      <c r="G2" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="3" t="s">
@@ -821,6 +824,9 @@
       <c r="F3" s="4">
         <v>13</v>
       </c>
+      <c r="G3" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="5" t="s">
@@ -841,6 +847,9 @@
       <c r="F4" s="4">
         <v>9</v>
       </c>
+      <c r="G4" s="4">
+        <v>-19</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="5" t="s">
@@ -861,6 +870,9 @@
       <c r="F5" s="4">
         <v>15</v>
       </c>
+      <c r="G5" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="6" t="s">
@@ -881,6 +893,9 @@
       <c r="F6" s="4">
         <v>34</v>
       </c>
+      <c r="G6" s="4">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="6" t="s">
@@ -901,6 +916,9 @@
       <c r="F7" s="4">
         <v>30</v>
       </c>
+      <c r="G7" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="6" t="s">
@@ -921,6 +939,9 @@
       <c r="F8" s="4">
         <v>0</v>
       </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="7" t="s">
@@ -941,6 +962,9 @@
       <c r="F9" s="4">
         <v>17</v>
       </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="7" t="s">
@@ -961,6 +985,9 @@
       <c r="F10" s="4">
         <v>4</v>
       </c>
+      <c r="G10" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="8" t="s">
@@ -981,6 +1008,9 @@
       <c r="F11" s="4">
         <v>-14</v>
       </c>
+      <c r="G11" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="8" t="s">
@@ -1001,6 +1031,9 @@
       <c r="F12" s="4">
         <v>13</v>
       </c>
+      <c r="G12" s="4">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="9" t="s">
@@ -1021,6 +1054,9 @@
       <c r="F13" s="4">
         <v>36</v>
       </c>
+      <c r="G13" s="4">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="9" t="s">
@@ -1041,6 +1077,9 @@
       <c r="F14" s="4">
         <v>12</v>
       </c>
+      <c r="G14" s="4">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="10" t="s">
@@ -1061,6 +1100,9 @@
       <c r="F15" s="4">
         <v>30</v>
       </c>
+      <c r="G15" s="4">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="10" t="s">
@@ -1081,6 +1123,9 @@
       <c r="F16" s="4">
         <v>27</v>
       </c>
+      <c r="G16" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="11" t="s">
@@ -1101,6 +1146,9 @@
       <c r="F17" s="4">
         <v>-6</v>
       </c>
+      <c r="G17" s="4">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="11" t="s">
@@ -1121,6 +1169,9 @@
       <c r="F18" s="4">
         <v>-9</v>
       </c>
+      <c r="G18" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="12" t="s">
@@ -1141,6 +1192,9 @@
       <c r="F19" s="4">
         <v>58</v>
       </c>
+      <c r="G19" s="4">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="12" t="s">
@@ -1161,6 +1215,9 @@
       <c r="F20" s="4">
         <v>40</v>
       </c>
+      <c r="G20" s="4">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="13" t="s">
@@ -1181,6 +1238,9 @@
       <c r="F21" s="4">
         <v>11</v>
       </c>
+      <c r="G21" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="13" t="s">
@@ -1201,6 +1261,9 @@
       <c r="F22" s="4">
         <v>8</v>
       </c>
+      <c r="G22" s="4">
+        <v>-7</v>
+      </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
@@ -1298,6 +1361,9 @@
       <c r="F25" s="4">
         <v>8.5</v>
       </c>
+      <c r="G25" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="3" t="s">
@@ -1318,6 +1384,9 @@
       <c r="F26" s="4">
         <v>7.3</v>
       </c>
+      <c r="G26" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="5" t="s">
@@ -1338,6 +1407,9 @@
       <c r="F27" s="4">
         <v>12.5</v>
       </c>
+      <c r="G27" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="5" t="s">
@@ -1358,6 +1430,9 @@
       <c r="F28" s="4">
         <v>16.4</v>
       </c>
+      <c r="G28" s="4">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="6" t="s">
@@ -1378,6 +1453,9 @@
       <c r="F29" s="4">
         <v>21.7</v>
       </c>
+      <c r="G29" s="4">
+        <v>22</v>
+      </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="6" t="s">
@@ -1398,6 +1476,9 @@
       <c r="F30" s="4">
         <v>20.1</v>
       </c>
+      <c r="G30" s="4">
+        <v>20.4</v>
+      </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="6" t="s">
@@ -1418,6 +1499,9 @@
       <c r="F31" s="4">
         <v>0</v>
       </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="7" t="s">
@@ -1438,6 +1522,9 @@
       <c r="F32" s="4">
         <v>8.199999999999999</v>
       </c>
+      <c r="G32" s="4">
+        <v>8.699999999999999</v>
+      </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="7" t="s">
@@ -1458,6 +1545,9 @@
       <c r="F33" s="4">
         <v>7.7</v>
       </c>
+      <c r="G33" s="4">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="8" t="s">
@@ -1478,6 +1568,9 @@
       <c r="F34" s="4">
         <v>6.4</v>
       </c>
+      <c r="G34" s="4">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="8" t="s">
@@ -1498,6 +1591,9 @@
       <c r="F35" s="4">
         <v>6.6</v>
       </c>
+      <c r="G35" s="4">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="9" t="s">
@@ -1518,6 +1614,9 @@
       <c r="F36" s="4">
         <v>23.8</v>
       </c>
+      <c r="G36" s="4">
+        <v>24.1</v>
+      </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="9" t="s">
@@ -1538,6 +1637,9 @@
       <c r="F37" s="4">
         <v>19.8</v>
       </c>
+      <c r="G37" s="4">
+        <v>19.9</v>
+      </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="10" t="s">
@@ -1558,6 +1660,9 @@
       <c r="F38" s="4">
         <v>18.7</v>
       </c>
+      <c r="G38" s="4">
+        <v>19</v>
+      </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="10" t="s">
@@ -1578,6 +1683,9 @@
       <c r="F39" s="4">
         <v>18.8</v>
       </c>
+      <c r="G39" s="4">
+        <v>19.1</v>
+      </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="11" t="s">
@@ -1598,6 +1706,9 @@
       <c r="F40" s="4">
         <v>8.6</v>
       </c>
+      <c r="G40" s="4">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="11" t="s">
@@ -1618,6 +1729,9 @@
       <c r="F41" s="4">
         <v>9</v>
       </c>
+      <c r="G41" s="4">
+        <v>8.800000000000001</v>
+      </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="12" t="s">
@@ -1638,6 +1752,9 @@
       <c r="F42" s="4">
         <v>29.9</v>
       </c>
+      <c r="G42" s="4">
+        <v>30.1</v>
+      </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="12" t="s">
@@ -1658,6 +1775,9 @@
       <c r="F43" s="4">
         <v>22.7</v>
       </c>
+      <c r="G43" s="4">
+        <v>23</v>
+      </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="13" t="s">
@@ -1678,6 +1798,9 @@
       <c r="F44" s="4">
         <v>7.2</v>
       </c>
+      <c r="G44" s="4">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="13" t="s">
@@ -1698,6 +1821,9 @@
       <c r="F45" s="4">
         <v>6.4</v>
       </c>
+      <c r="G45" s="4">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="1" t="s">
@@ -1795,8 +1921,11 @@
       <c r="F48" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="3" t="s">
         <v>26</v>
       </c>
@@ -1815,8 +1944,11 @@
       <c r="F49" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="5" t="s">
         <v>27</v>
       </c>
@@ -1835,8 +1967,11 @@
       <c r="F50" s="4">
         <v>29</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="5" t="s">
         <v>28</v>
       </c>
@@ -1855,8 +1990,11 @@
       <c r="F51" s="4">
         <v>61</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="6" t="s">
         <v>29</v>
       </c>
@@ -1875,8 +2013,11 @@
       <c r="F52" s="4">
         <v>162</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" s="4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="6" t="s">
         <v>30</v>
       </c>
@@ -1895,8 +2036,11 @@
       <c r="F53" s="4">
         <v>140</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" s="4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="7" t="s">
         <v>32</v>
       </c>
@@ -1915,8 +2059,11 @@
       <c r="F54" s="4">
         <v>48</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="7" t="s">
         <v>33</v>
       </c>
@@ -1935,8 +2082,11 @@
       <c r="F55" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="8" t="s">
         <v>34</v>
       </c>
@@ -1955,8 +2105,11 @@
       <c r="F56" s="4">
         <v>-5</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="8" t="s">
         <v>35</v>
       </c>
@@ -1975,8 +2128,11 @@
       <c r="F57" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="9" t="s">
         <v>36</v>
       </c>
@@ -1995,8 +2151,11 @@
       <c r="F58" s="4">
         <v>102</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" s="4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="9" t="s">
         <v>37</v>
       </c>
@@ -2015,8 +2174,11 @@
       <c r="F59" s="4">
         <v>76</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="10" t="s">
         <v>38</v>
       </c>
@@ -2035,8 +2197,11 @@
       <c r="F60" s="4">
         <v>34</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="10" t="s">
         <v>39</v>
       </c>
@@ -2055,8 +2220,11 @@
       <c r="F61" s="4">
         <v>72</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="11" t="s">
         <v>40</v>
       </c>
@@ -2075,8 +2243,11 @@
       <c r="F62" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="11" t="s">
         <v>41</v>
       </c>
@@ -2095,8 +2266,11 @@
       <c r="F63" s="4">
         <v>-15</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="12" t="s">
         <v>42</v>
       </c>
@@ -2114,6 +2288,9 @@
       </c>
       <c r="F64" s="4">
         <v>176</v>
+      </c>
+      <c r="G64" s="4">
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -2135,6 +2312,9 @@
       <c r="F65" s="4">
         <v>157</v>
       </c>
+      <c r="G65" s="4">
+        <v>187</v>
+      </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="13" t="s">
@@ -2155,6 +2335,9 @@
       <c r="F66" s="4">
         <v>1</v>
       </c>
+      <c r="G66" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="13" t="s">
@@ -2175,6 +2358,9 @@
       <c r="F67" s="4">
         <v>27</v>
       </c>
+      <c r="G67" s="4">
+        <v>20</v>
+      </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="6" t="s">
@@ -2195,6 +2381,9 @@
       <c r="F68" s="4">
         <v>26</v>
       </c>
+      <c r="G68" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="1" t="s">
@@ -2292,6 +2481,9 @@
       <c r="F71" s="4">
         <v>42</v>
       </c>
+      <c r="G71" s="4">
+        <v>51</v>
+      </c>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" s="3" t="s">
@@ -2312,6 +2504,9 @@
       <c r="F72" s="4">
         <v>37.7</v>
       </c>
+      <c r="G72" s="4">
+        <v>45.7</v>
+      </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="5" t="s">
@@ -2332,6 +2527,9 @@
       <c r="F73" s="4">
         <v>57.4</v>
       </c>
+      <c r="G73" s="4">
+        <v>70.40000000000001</v>
+      </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" s="5" t="s">
@@ -2352,6 +2550,9 @@
       <c r="F74" s="4">
         <v>80.59999999999999</v>
       </c>
+      <c r="G74" s="4">
+        <v>97.09999999999999</v>
+      </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="6" t="s">
@@ -2372,6 +2573,9 @@
       <c r="F75" s="4">
         <v>102</v>
       </c>
+      <c r="G75" s="4">
+        <v>124</v>
+      </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="6" t="s">
@@ -2392,6 +2596,9 @@
       <c r="F76" s="4">
         <v>78.19999999999999</v>
       </c>
+      <c r="G76" s="4">
+        <v>98.59999999999999</v>
+      </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="7" t="s">
@@ -2412,6 +2619,9 @@
       <c r="F77" s="4">
         <v>36</v>
       </c>
+      <c r="G77" s="4">
+        <v>44.7</v>
+      </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="7" t="s">
@@ -2432,6 +2642,9 @@
       <c r="F78" s="4">
         <v>34.2</v>
       </c>
+      <c r="G78" s="4">
+        <v>41.8</v>
+      </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="8" t="s">
@@ -2452,6 +2665,9 @@
       <c r="F79" s="4">
         <v>30.9</v>
       </c>
+      <c r="G79" s="4">
+        <v>37.1</v>
+      </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="8" t="s">
@@ -2472,6 +2688,9 @@
       <c r="F80" s="4">
         <v>34</v>
       </c>
+      <c r="G80" s="4">
+        <v>41.1</v>
+      </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" s="9" t="s">
@@ -2492,6 +2711,9 @@
       <c r="F81" s="4">
         <v>116.6</v>
       </c>
+      <c r="G81" s="4">
+        <v>140.7</v>
+      </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="9" t="s">
@@ -2512,6 +2734,9 @@
       <c r="F82" s="4">
         <v>97</v>
       </c>
+      <c r="G82" s="4">
+        <v>116.9</v>
+      </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="10" t="s">
@@ -2532,6 +2757,9 @@
       <c r="F83" s="4">
         <v>95.90000000000001</v>
       </c>
+      <c r="G83" s="4">
+        <v>114.9</v>
+      </c>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" s="10" t="s">
@@ -2552,6 +2780,9 @@
       <c r="F84" s="4">
         <v>94.60000000000001</v>
       </c>
+      <c r="G84" s="4">
+        <v>113.7</v>
+      </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="11" t="s">
@@ -2572,6 +2803,9 @@
       <c r="F85" s="4">
         <v>40.1</v>
       </c>
+      <c r="G85" s="4">
+        <v>48.5</v>
+      </c>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" s="11" t="s">
@@ -2592,6 +2826,9 @@
       <c r="F86" s="4">
         <v>44.8</v>
       </c>
+      <c r="G86" s="4">
+        <v>53.59999999999999</v>
+      </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" s="12" t="s">
@@ -2612,6 +2849,9 @@
       <c r="F87" s="4">
         <v>150.2</v>
       </c>
+      <c r="G87" s="4">
+        <v>180.3</v>
+      </c>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" s="12" t="s">
@@ -2632,6 +2872,9 @@
       <c r="F88" s="4">
         <v>109.2</v>
       </c>
+      <c r="G88" s="4">
+        <v>132.2</v>
+      </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" s="13" t="s">
@@ -2652,6 +2895,9 @@
       <c r="F89" s="4">
         <v>35.5</v>
       </c>
+      <c r="G89" s="4">
+        <v>43</v>
+      </c>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" s="13" t="s">
@@ -2672,6 +2918,9 @@
       <c r="F90" s="4">
         <v>29.1</v>
       </c>
+      <c r="G90" s="4">
+        <v>35</v>
+      </c>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" s="6" t="s">
@@ -2692,6 +2941,9 @@
       <c r="F91" s="4">
         <v>14</v>
       </c>
+      <c r="G91" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" s="1" t="s">
@@ -2789,6 +3041,9 @@
       <c r="F94" s="4">
         <v>6.4</v>
       </c>
+      <c r="G94" s="4">
+        <v>7.166666666666667</v>
+      </c>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="3" t="s">
@@ -2809,6 +3064,9 @@
       <c r="F95" s="4">
         <v>1.8</v>
       </c>
+      <c r="G95" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="96" spans="1:25">
       <c r="A96" s="5" t="s">
@@ -2829,8 +3087,11 @@
       <c r="F96" s="4">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96" s="4">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="5" t="s">
         <v>28</v>
       </c>
@@ -2849,8 +3110,11 @@
       <c r="F97" s="4">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97" s="4">
+        <v>11.66666666666667</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="6" t="s">
         <v>29</v>
       </c>
@@ -2869,8 +3133,11 @@
       <c r="F98" s="4">
         <v>32.4</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98" s="4">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="6" t="s">
         <v>30</v>
       </c>
@@ -2889,8 +3156,11 @@
       <c r="F99" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99" s="4">
+        <v>27.66666666666667</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="7" t="s">
         <v>32</v>
       </c>
@@ -2909,8 +3179,11 @@
       <c r="F100" s="4">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100" s="4">
+        <v>8.166666666666666</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="7" t="s">
         <v>33</v>
       </c>
@@ -2929,8 +3202,11 @@
       <c r="F101" s="4">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101" s="4">
+        <v>7.333333333333333</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="8" t="s">
         <v>34</v>
       </c>
@@ -2949,8 +3225,11 @@
       <c r="F102" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102" s="4">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="8" t="s">
         <v>35</v>
       </c>
@@ -2969,8 +3248,11 @@
       <c r="F103" s="4">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103" s="4">
+        <v>4.833333333333333</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="9" t="s">
         <v>36</v>
       </c>
@@ -2989,8 +3271,11 @@
       <c r="F104" s="4">
         <v>20.4</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104" s="4">
+        <v>21.16666666666667</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="9" t="s">
         <v>37</v>
       </c>
@@ -3009,8 +3294,11 @@
       <c r="F105" s="4">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105" s="4">
+        <v>16.33333333333333</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="10" t="s">
         <v>38</v>
       </c>
@@ -3029,8 +3317,11 @@
       <c r="F106" s="4">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="10" t="s">
         <v>39</v>
       </c>
@@ -3049,8 +3340,11 @@
       <c r="F107" s="4">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107" s="4">
+        <v>13.66666666666667</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="11" t="s">
         <v>40</v>
       </c>
@@ -3069,8 +3363,11 @@
       <c r="F108" s="4">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="G108" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="11" t="s">
         <v>41</v>
       </c>
@@ -3089,8 +3386,11 @@
       <c r="F109" s="4">
         <v>-3</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109" s="4">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="12" t="s">
         <v>42</v>
       </c>
@@ -3109,8 +3409,11 @@
       <c r="F110" s="4">
         <v>35.2</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="12" t="s">
         <v>43</v>
       </c>
@@ -3129,8 +3432,11 @@
       <c r="F111" s="4">
         <v>31.4</v>
       </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111" s="4">
+        <v>31.16666666666667</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="13" t="s">
         <v>44</v>
       </c>
@@ -3148,6 +3454,9 @@
       </c>
       <c r="F112" s="4">
         <v>0.2</v>
+      </c>
+      <c r="G112" s="4">
+        <v>1.833333333333333</v>
       </c>
     </row>
     <row r="113" spans="1:25">
@@ -3169,6 +3478,9 @@
       <c r="F113" s="4">
         <v>5.4</v>
       </c>
+      <c r="G113" s="4">
+        <v>3.333333333333333</v>
+      </c>
     </row>
     <row r="114" spans="1:25">
       <c r="A114" s="6" t="s">
@@ -3189,6 +3501,9 @@
       <c r="F114" s="4">
         <v>5.2</v>
       </c>
+      <c r="G114" s="4">
+        <v>4.333333333333333</v>
+      </c>
     </row>
     <row r="116" spans="1:25">
       <c r="A116" s="1" t="s">
@@ -3286,6 +3601,9 @@
       <c r="F117" s="4">
         <v>8.4</v>
       </c>
+      <c r="G117" s="4">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="118" spans="1:25">
       <c r="A118" s="3" t="s">
@@ -3306,6 +3624,9 @@
       <c r="F118" s="4">
         <v>7.539999999999999</v>
       </c>
+      <c r="G118" s="4">
+        <v>7.616666666666666</v>
+      </c>
     </row>
     <row r="119" spans="1:25">
       <c r="A119" s="5" t="s">
@@ -3326,6 +3647,9 @@
       <c r="F119" s="4">
         <v>11.48</v>
       </c>
+      <c r="G119" s="4">
+        <v>11.73333333333333</v>
+      </c>
     </row>
     <row r="120" spans="1:25">
       <c r="A120" s="5" t="s">
@@ -3346,6 +3670,9 @@
       <c r="F120" s="4">
         <v>16.12</v>
       </c>
+      <c r="G120" s="4">
+        <v>16.18333333333333</v>
+      </c>
     </row>
     <row r="121" spans="1:25">
       <c r="A121" s="6" t="s">
@@ -3366,6 +3693,9 @@
       <c r="F121" s="4">
         <v>20.4</v>
       </c>
+      <c r="G121" s="4">
+        <v>20.66666666666667</v>
+      </c>
     </row>
     <row r="122" spans="1:25">
       <c r="A122" s="6" t="s">
@@ -3386,6 +3716,9 @@
       <c r="F122" s="4">
         <v>15.64</v>
       </c>
+      <c r="G122" s="4">
+        <v>16.43333333333333</v>
+      </c>
     </row>
     <row r="123" spans="1:25">
       <c r="A123" s="7" t="s">
@@ -3406,6 +3739,9 @@
       <c r="F123" s="4">
         <v>7.2</v>
       </c>
+      <c r="G123" s="4">
+        <v>7.45</v>
+      </c>
     </row>
     <row r="124" spans="1:25">
       <c r="A124" s="7" t="s">
@@ -3426,6 +3762,9 @@
       <c r="F124" s="4">
         <v>6.840000000000001</v>
       </c>
+      <c r="G124" s="4">
+        <v>6.966666666666668</v>
+      </c>
     </row>
     <row r="125" spans="1:25">
       <c r="A125" s="8" t="s">
@@ -3446,6 +3785,9 @@
       <c r="F125" s="4">
         <v>6.18</v>
       </c>
+      <c r="G125" s="4">
+        <v>6.183333333333334</v>
+      </c>
     </row>
     <row r="126" spans="1:25">
       <c r="A126" s="8" t="s">
@@ -3466,6 +3808,9 @@
       <c r="F126" s="4">
         <v>6.8</v>
       </c>
+      <c r="G126" s="4">
+        <v>6.850000000000001</v>
+      </c>
     </row>
     <row r="127" spans="1:25">
       <c r="A127" s="9" t="s">
@@ -3486,6 +3831,9 @@
       <c r="F127" s="4">
         <v>23.32</v>
       </c>
+      <c r="G127" s="4">
+        <v>23.45</v>
+      </c>
     </row>
     <row r="128" spans="1:25">
       <c r="A128" s="9" t="s">
@@ -3506,6 +3854,9 @@
       <c r="F128" s="4">
         <v>19.4</v>
       </c>
+      <c r="G128" s="4">
+        <v>19.48333333333333</v>
+      </c>
     </row>
     <row r="129" spans="1:25">
       <c r="A129" s="10" t="s">
@@ -3526,6 +3877,9 @@
       <c r="F129" s="4">
         <v>19.18</v>
       </c>
+      <c r="G129" s="4">
+        <v>19.15</v>
+      </c>
     </row>
     <row r="130" spans="1:25">
       <c r="A130" s="10" t="s">
@@ -3546,6 +3900,9 @@
       <c r="F130" s="4">
         <v>18.92</v>
       </c>
+      <c r="G130" s="4">
+        <v>18.95</v>
+      </c>
     </row>
     <row r="131" spans="1:25">
       <c r="A131" s="11" t="s">
@@ -3566,6 +3923,9 @@
       <c r="F131" s="4">
         <v>8.02</v>
       </c>
+      <c r="G131" s="4">
+        <v>8.083333333333334</v>
+      </c>
     </row>
     <row r="132" spans="1:25">
       <c r="A132" s="11" t="s">
@@ -3586,6 +3946,9 @@
       <c r="F132" s="4">
         <v>8.959999999999999</v>
       </c>
+      <c r="G132" s="4">
+        <v>8.933333333333332</v>
+      </c>
     </row>
     <row r="133" spans="1:25">
       <c r="A133" s="12" t="s">
@@ -3606,6 +3969,9 @@
       <c r="F133" s="4">
         <v>30.04</v>
       </c>
+      <c r="G133" s="4">
+        <v>30.05</v>
+      </c>
     </row>
     <row r="134" spans="1:25">
       <c r="A134" s="12" t="s">
@@ -3626,6 +3992,9 @@
       <c r="F134" s="4">
         <v>21.84</v>
       </c>
+      <c r="G134" s="4">
+        <v>22.03333333333333</v>
+      </c>
     </row>
     <row r="135" spans="1:25">
       <c r="A135" s="13" t="s">
@@ -3646,6 +4015,9 @@
       <c r="F135" s="4">
         <v>7.1</v>
       </c>
+      <c r="G135" s="4">
+        <v>7.166666666666667</v>
+      </c>
     </row>
     <row r="136" spans="1:25">
       <c r="A136" s="13" t="s">
@@ -3666,6 +4038,9 @@
       <c r="F136" s="4">
         <v>5.82</v>
       </c>
+      <c r="G136" s="4">
+        <v>5.833333333333333</v>
+      </c>
     </row>
     <row r="137" spans="1:25">
       <c r="A137" s="6" t="s">
@@ -3686,6 +4061,9 @@
       <c r="F137" s="4">
         <v>2.8</v>
       </c>
+      <c r="G137" s="4">
+        <v>2.333333333333333</v>
+      </c>
     </row>
     <row r="139" spans="1:25">
       <c r="A139" s="1" t="s">
@@ -3783,6 +4161,9 @@
       <c r="F140" s="4">
         <v>1.411764705882353</v>
       </c>
+      <c r="G140" s="4">
+        <v>1.222222222222222</v>
+      </c>
     </row>
     <row r="141" spans="1:25">
       <c r="A141" s="3" t="s">
@@ -3803,6 +4184,9 @@
       <c r="F141" s="4">
         <v>1.780821917808219</v>
       </c>
+      <c r="G141" s="4">
+        <v>1.875</v>
+      </c>
     </row>
     <row r="142" spans="1:25">
       <c r="A142" s="5" t="s">
@@ -3823,6 +4207,9 @@
       <c r="F142" s="4">
         <v>0.72</v>
       </c>
+      <c r="G142" s="4">
+        <v>-1.461538461538461</v>
+      </c>
     </row>
     <row r="143" spans="1:25">
       <c r="A143" s="5" t="s">
@@ -3843,6 +4230,9 @@
       <c r="F143" s="4">
         <v>0.9146341463414634</v>
       </c>
+      <c r="G143" s="4">
+        <v>0.5454545454545454</v>
+      </c>
     </row>
     <row r="144" spans="1:25">
       <c r="A144" s="6" t="s">
@@ -3863,8 +4253,11 @@
       <c r="F144" s="4">
         <v>1.566820276497696</v>
       </c>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="G144" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="6" t="s">
         <v>30</v>
       </c>
@@ -3883,8 +4276,11 @@
       <c r="F145" s="4">
         <v>1.492537313432836</v>
       </c>
-    </row>
-    <row r="146" spans="1:6">
+      <c r="G145" s="4">
+        <v>1.274509803921569</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="7" t="s">
         <v>32</v>
       </c>
@@ -3903,8 +4299,11 @@
       <c r="F146" s="4">
         <v>2.073170731707317</v>
       </c>
-    </row>
-    <row r="147" spans="1:6">
+      <c r="G146" s="4">
+        <v>0.1149425287356322</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="7" t="s">
         <v>33</v>
       </c>
@@ -3923,8 +4322,11 @@
       <c r="F147" s="4">
         <v>0.5194805194805194</v>
       </c>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="G147" s="4">
+        <v>1.710526315789474</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" s="8" t="s">
         <v>34</v>
       </c>
@@ -3943,8 +4345,11 @@
       <c r="F148" s="4">
         <v>-2.1875</v>
       </c>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="G148" s="4">
+        <v>1.612903225806452</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="8" t="s">
         <v>35</v>
       </c>
@@ -3963,8 +4368,11 @@
       <c r="F149" s="4">
         <v>1.96969696969697</v>
       </c>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="G149" s="4">
+        <v>2.816901408450704</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="9" t="s">
         <v>36</v>
       </c>
@@ -3983,8 +4391,11 @@
       <c r="F150" s="4">
         <v>1.512605042016807</v>
       </c>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="G150" s="4">
+        <v>1.037344398340249</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="9" t="s">
         <v>37</v>
       </c>
@@ -4003,8 +4414,11 @@
       <c r="F151" s="4">
         <v>0.6060606060606061</v>
       </c>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="G151" s="4">
+        <v>1.105527638190955</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" s="10" t="s">
         <v>38</v>
       </c>
@@ -4023,8 +4437,11 @@
       <c r="F152" s="4">
         <v>1.60427807486631</v>
       </c>
-    </row>
-    <row r="153" spans="1:6">
+      <c r="G152" s="4">
+        <v>1.052631578947368</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" s="10" t="s">
         <v>39</v>
       </c>
@@ -4043,8 +4460,11 @@
       <c r="F153" s="4">
         <v>1.436170212765957</v>
       </c>
-    </row>
-    <row r="154" spans="1:6">
+      <c r="G153" s="4">
+        <v>0.5235602094240838</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="11" t="s">
         <v>40</v>
       </c>
@@ -4063,8 +4483,11 @@
       <c r="F154" s="4">
         <v>-0.6976744186046512</v>
       </c>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="G154" s="4">
+        <v>2.738095238095238</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="11" t="s">
         <v>41</v>
       </c>
@@ -4083,8 +4506,11 @@
       <c r="F155" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="156" spans="1:6">
+      <c r="G155" s="4">
+        <v>1.818181818181818</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" s="12" t="s">
         <v>42</v>
       </c>
@@ -4103,8 +4529,11 @@
       <c r="F156" s="4">
         <v>1.939799331103679</v>
       </c>
-    </row>
-    <row r="157" spans="1:6">
+      <c r="G156" s="4">
+        <v>1.32890365448505</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" s="12" t="s">
         <v>43</v>
       </c>
@@ -4123,8 +4552,11 @@
       <c r="F157" s="4">
         <v>1.762114537444934</v>
       </c>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="G157" s="4">
+        <v>1.304347826086957</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="13" t="s">
         <v>44</v>
       </c>
@@ -4143,8 +4575,11 @@
       <c r="F158" s="4">
         <v>1.527777777777778</v>
       </c>
-    </row>
-    <row r="159" spans="1:6">
+      <c r="G158" s="4">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="13" t="s">
         <v>45</v>
       </c>
@@ -4163,8 +4598,11 @@
       <c r="F159" s="4">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="G159" s="4">
+        <v>-1.186440677966102</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="6" t="s">
         <v>31</v>
       </c>
@@ -4181,6 +4619,9 @@
         <v>0</v>
       </c>
       <c r="F160" s="4">
+        <v>0</v>
+      </c>
+      <c r="G160" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4275,10 +4716,13 @@
         <v>0.9316770186335402</v>
       </c>
       <c r="E163" s="4">
-        <v>0.8097165991902833</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="F163" s="4">
         <v>0.9638554216867469</v>
+      </c>
+      <c r="G163" s="4">
+        <v>1.018957345971564</v>
       </c>
     </row>
     <row r="164" spans="1:25">
@@ -4300,6 +4744,9 @@
       <c r="F164" s="4">
         <v>0.2387267904509284</v>
       </c>
+      <c r="G164" s="4">
+        <v>0.5251641137855579</v>
+      </c>
     </row>
     <row r="165" spans="1:25">
       <c r="A165" s="5" t="s">
@@ -4320,6 +4767,9 @@
       <c r="F165" s="4">
         <v>0.5052264808362369</v>
       </c>
+      <c r="G165" s="4">
+        <v>0.1420454545454545</v>
+      </c>
     </row>
     <row r="166" spans="1:25">
       <c r="A166" s="5" t="s">
@@ -4332,13 +4782,16 @@
         <v>0.725552050473186</v>
       </c>
       <c r="D166" s="4">
-        <v>0.6680584551148224</v>
+        <v>0.6680584551148225</v>
       </c>
       <c r="E166" s="4">
         <v>0.7165109034267912</v>
       </c>
       <c r="F166" s="4">
         <v>0.7568238213399504</v>
+      </c>
+      <c r="G166" s="4">
+        <v>0.7209062821833162</v>
       </c>
     </row>
     <row r="167" spans="1:25">
@@ -4360,6 +4813,9 @@
       <c r="F167" s="4">
         <v>1.588235294117647</v>
       </c>
+      <c r="G167" s="4">
+        <v>1.57258064516129</v>
+      </c>
     </row>
     <row r="168" spans="1:25">
       <c r="A168" s="6" t="s">
@@ -4380,6 +4836,9 @@
       <c r="F168" s="4">
         <v>1.790281329923274</v>
       </c>
+      <c r="G168" s="4">
+        <v>1.683569979716024</v>
+      </c>
     </row>
     <row r="169" spans="1:25">
       <c r="A169" s="7" t="s">
@@ -4400,6 +4859,9 @@
       <c r="F169" s="4">
         <v>1.333333333333333</v>
       </c>
+      <c r="G169" s="4">
+        <v>1.096196868008948</v>
+      </c>
     </row>
     <row r="170" spans="1:25">
       <c r="A170" s="7" t="s">
@@ -4420,6 +4882,9 @@
       <c r="F170" s="4">
         <v>0.9064327485380116</v>
       </c>
+      <c r="G170" s="4">
+        <v>1.052631578947369</v>
+      </c>
     </row>
     <row r="171" spans="1:25">
       <c r="A171" s="8" t="s">
@@ -4440,6 +4905,9 @@
       <c r="F171" s="4">
         <v>-0.2040816326530612</v>
       </c>
+      <c r="G171" s="4">
+        <v>0.1628664495114006</v>
+      </c>
     </row>
     <row r="172" spans="1:25">
       <c r="A172" s="8" t="s">
@@ -4460,6 +4928,9 @@
       <c r="F172" s="4">
         <v>0.2647058823529412</v>
       </c>
+      <c r="G172" s="4">
+        <v>0.7055961070559611</v>
+      </c>
     </row>
     <row r="173" spans="1:25">
       <c r="A173" s="9" t="s">
@@ -4480,6 +4951,9 @@
       <c r="F173" s="4">
         <v>0.8747855917667239</v>
       </c>
+      <c r="G173" s="4">
+        <v>0.9026297085998579</v>
+      </c>
     </row>
     <row r="174" spans="1:25">
       <c r="A174" s="9" t="s">
@@ -4500,6 +4974,9 @@
       <c r="F174" s="4">
         <v>0.7835051546391752</v>
       </c>
+      <c r="G174" s="4">
+        <v>0.8383233532934131</v>
+      </c>
     </row>
     <row r="175" spans="1:25">
       <c r="A175" s="10" t="s">
@@ -4520,6 +4997,9 @@
       <c r="F175" s="4">
         <v>0.3545359749739311</v>
       </c>
+      <c r="G175" s="4">
+        <v>0.4699738903394255</v>
+      </c>
     </row>
     <row r="176" spans="1:25">
       <c r="A176" s="10" t="s">
@@ -4532,16 +5012,19 @@
         <v>0.9234828496042214</v>
       </c>
       <c r="D176" s="4">
-        <v>0.5604203152364272</v>
+        <v>0.5604203152364273</v>
       </c>
       <c r="E176" s="4">
-        <v>0.5936675461741424</v>
+        <v>0.5936675461741425</v>
       </c>
       <c r="F176" s="4">
-        <v>0.7610993657505285</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
+        <v>0.7610993657505286</v>
+      </c>
+      <c r="G176" s="4">
+        <v>0.7211961301671064</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" s="11" t="s">
         <v>40</v>
       </c>
@@ -4560,8 +5043,11 @@
       <c r="F177" s="4">
         <v>0.3241895261845387</v>
       </c>
-    </row>
-    <row r="178" spans="1:6">
+      <c r="G177" s="4">
+        <v>0.7422680412371134</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" s="11" t="s">
         <v>41</v>
       </c>
@@ -4580,8 +5066,11 @@
       <c r="F178" s="4">
         <v>-0.4178272980501393</v>
       </c>
-    </row>
-    <row r="179" spans="1:6">
+      <c r="G178" s="4">
+        <v>0.02237136465324385</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" s="12" t="s">
         <v>42</v>
       </c>
@@ -4600,8 +5089,11 @@
       <c r="F179" s="4">
         <v>1.171770972037284</v>
       </c>
-    </row>
-    <row r="180" spans="1:6">
+      <c r="G179" s="4">
+        <v>1.198003327787021</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" s="12" t="s">
         <v>43</v>
       </c>
@@ -4620,8 +5112,11 @@
       <c r="F180" s="4">
         <v>1.437728937728938</v>
       </c>
-    </row>
-    <row r="181" spans="1:6">
+      <c r="G180" s="4">
+        <v>1.414523449319213</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181" s="13" t="s">
         <v>44</v>
       </c>
@@ -4640,8 +5135,11 @@
       <c r="F181" s="4">
         <v>0.03508771929824561</v>
       </c>
-    </row>
-    <row r="182" spans="1:6">
+      <c r="G181" s="4">
+        <v>0.3055555555555556</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" s="13" t="s">
         <v>45</v>
       </c>
@@ -4660,8 +5158,11 @@
       <c r="F182" s="4">
         <v>1.163793103448276</v>
       </c>
-    </row>
-    <row r="183" spans="1:6">
+      <c r="G182" s="4">
+        <v>0.6872852233676976</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" s="6" t="s">
         <v>31</v>
       </c>
@@ -4678,6 +5179,9 @@
         <v>1.857142857142857</v>
       </c>
       <c r="F183" s="4">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="G183" s="4">
         <v>1.857142857142857</v>
       </c>
     </row>
@@ -4790,6 +5294,9 @@
       <c r="F2" s="4">
         <v>28</v>
       </c>
+      <c r="G2" s="4">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="5" t="s">
@@ -4810,6 +5317,9 @@
       <c r="F3" s="4">
         <v>29</v>
       </c>
+      <c r="G3" s="4">
+        <v>-7</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="6" t="s">
@@ -4830,6 +5340,9 @@
       <c r="F4" s="4">
         <v>74</v>
       </c>
+      <c r="G4" s="4">
+        <v>79</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="7" t="s">
@@ -4850,6 +5363,9 @@
       <c r="F5" s="4">
         <v>26</v>
       </c>
+      <c r="G5" s="4">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="8" t="s">
@@ -4870,6 +5386,9 @@
       <c r="F6" s="4">
         <v>4</v>
       </c>
+      <c r="G6" s="4">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="9" t="s">
@@ -4890,6 +5409,9 @@
       <c r="F7" s="4">
         <v>48</v>
       </c>
+      <c r="G7" s="4">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="10" t="s">
@@ -4910,6 +5432,9 @@
       <c r="F8" s="4">
         <v>62</v>
       </c>
+      <c r="G8" s="4">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="11" t="s">
@@ -4930,6 +5455,9 @@
       <c r="F9" s="4">
         <v>-14</v>
       </c>
+      <c r="G9" s="4">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="12" t="s">
@@ -4950,6 +5478,9 @@
       <c r="F10" s="4">
         <v>126</v>
       </c>
+      <c r="G10" s="4">
+        <v>85</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="13" t="s">
@@ -4970,6 +5501,9 @@
       <c r="F11" s="4">
         <v>20</v>
       </c>
+      <c r="G11" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
@@ -5067,6 +5601,9 @@
       <c r="F14" s="4">
         <v>7.9</v>
       </c>
+      <c r="G14" s="4">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="5" t="s">
@@ -5087,6 +5624,9 @@
       <c r="F15" s="4">
         <v>15</v>
       </c>
+      <c r="G15" s="4">
+        <v>15.1</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="6" t="s">
@@ -5107,6 +5647,9 @@
       <c r="F16" s="4">
         <v>21.2</v>
       </c>
+      <c r="G16" s="4">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="7" t="s">
@@ -5127,6 +5670,9 @@
       <c r="F17" s="4">
         <v>7.7</v>
       </c>
+      <c r="G17" s="4">
+        <v>8.199999999999999</v>
+      </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="8" t="s">
@@ -5147,6 +5693,9 @@
       <c r="F18" s="4">
         <v>6</v>
       </c>
+      <c r="G18" s="4">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="9" t="s">
@@ -5167,6 +5716,9 @@
       <c r="F19" s="4">
         <v>24</v>
       </c>
+      <c r="G19" s="4">
+        <v>24.1</v>
+      </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="10" t="s">
@@ -5187,6 +5739,9 @@
       <c r="F20" s="4">
         <v>19.9</v>
       </c>
+      <c r="G20" s="4">
+        <v>20.2</v>
+      </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="11" t="s">
@@ -5207,6 +5762,9 @@
       <c r="F21" s="4">
         <v>8.6</v>
       </c>
+      <c r="G21" s="4">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="12" t="s">
@@ -5227,6 +5785,9 @@
       <c r="F22" s="4">
         <v>28.4</v>
       </c>
+      <c r="G22" s="4">
+        <v>28.6</v>
+      </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="13" t="s">
@@ -5247,6 +5808,9 @@
       <c r="F23" s="4">
         <v>6.4</v>
       </c>
+      <c r="G23" s="4">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
@@ -5344,6 +5908,9 @@
       <c r="F26" s="4">
         <v>44</v>
       </c>
+      <c r="G26" s="4">
+        <v>73</v>
+      </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="5" t="s">
@@ -5364,6 +5931,9 @@
       <c r="F27" s="4">
         <v>125</v>
       </c>
+      <c r="G27" s="4">
+        <v>118</v>
+      </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="6" t="s">
@@ -5384,6 +5954,9 @@
       <c r="F28" s="4">
         <v>356</v>
       </c>
+      <c r="G28" s="4">
+        <v>435</v>
+      </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="7" t="s">
@@ -5404,6 +5977,9 @@
       <c r="F29" s="4">
         <v>94</v>
       </c>
+      <c r="G29" s="4">
+        <v>113</v>
+      </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="8" t="s">
@@ -5424,6 +6000,9 @@
       <c r="F30" s="4">
         <v>9</v>
       </c>
+      <c r="G30" s="4">
+        <v>38</v>
+      </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="9" t="s">
@@ -5444,6 +6023,9 @@
       <c r="F31" s="4">
         <v>218</v>
       </c>
+      <c r="G31" s="4">
+        <v>268</v>
+      </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="10" t="s">
@@ -5464,6 +6046,9 @@
       <c r="F32" s="4">
         <v>151</v>
       </c>
+      <c r="G32" s="4">
+        <v>191</v>
+      </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="11" t="s">
@@ -5484,6 +6069,9 @@
       <c r="F33" s="4">
         <v>17</v>
       </c>
+      <c r="G33" s="4">
+        <v>61</v>
+      </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="12" t="s">
@@ -5504,6 +6092,9 @@
       <c r="F34" s="4">
         <v>445</v>
       </c>
+      <c r="G34" s="4">
+        <v>530</v>
+      </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="13" t="s">
@@ -5524,6 +6115,9 @@
       <c r="F35" s="4">
         <v>33</v>
       </c>
+      <c r="G35" s="4">
+        <v>37</v>
+      </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="1" t="s">
@@ -5621,6 +6215,9 @@
       <c r="F38" s="4">
         <v>38.7</v>
       </c>
+      <c r="G38" s="4">
+        <v>47.1</v>
+      </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="5" t="s">
@@ -5641,6 +6238,9 @@
       <c r="F39" s="4">
         <v>71.2</v>
       </c>
+      <c r="G39" s="4">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="6" t="s">
@@ -5661,6 +6261,9 @@
       <c r="F40" s="4">
         <v>100.9</v>
       </c>
+      <c r="G40" s="4">
+        <v>122.4</v>
+      </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="7" t="s">
@@ -5681,6 +6284,9 @@
       <c r="F41" s="4">
         <v>34.1</v>
       </c>
+      <c r="G41" s="4">
+        <v>42.3</v>
+      </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="8" t="s">
@@ -5701,6 +6307,9 @@
       <c r="F42" s="4">
         <v>31.6</v>
       </c>
+      <c r="G42" s="4">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="9" t="s">
@@ -5721,6 +6330,9 @@
       <c r="F43" s="4">
         <v>118</v>
       </c>
+      <c r="G43" s="4">
+        <v>142.1</v>
+      </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="10" t="s">
@@ -5741,6 +6353,9 @@
       <c r="F44" s="4">
         <v>100.3</v>
       </c>
+      <c r="G44" s="4">
+        <v>120.5</v>
+      </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="11" t="s">
@@ -5761,6 +6376,9 @@
       <c r="F45" s="4">
         <v>42.6</v>
       </c>
+      <c r="G45" s="4">
+        <v>51</v>
+      </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="12" t="s">
@@ -5781,6 +6399,9 @@
       <c r="F46" s="4">
         <v>140.7</v>
       </c>
+      <c r="G46" s="4">
+        <v>169.3</v>
+      </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="13" t="s">
@@ -5801,6 +6422,9 @@
       <c r="F47" s="4">
         <v>32.2</v>
       </c>
+      <c r="G47" s="4">
+        <v>38.49999999999999</v>
+      </c>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" s="1" t="s">
@@ -5898,6 +6522,9 @@
       <c r="F50" s="4">
         <v>8.800000000000001</v>
       </c>
+      <c r="G50" s="4">
+        <v>12.16666666666667</v>
+      </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="5" t="s">
@@ -5918,6 +6545,9 @@
       <c r="F51" s="4">
         <v>25</v>
       </c>
+      <c r="G51" s="4">
+        <v>19.66666666666667</v>
+      </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" s="6" t="s">
@@ -5938,6 +6568,9 @@
       <c r="F52" s="4">
         <v>71.2</v>
       </c>
+      <c r="G52" s="4">
+        <v>72.5</v>
+      </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" s="7" t="s">
@@ -5958,6 +6591,9 @@
       <c r="F53" s="4">
         <v>18.8</v>
       </c>
+      <c r="G53" s="4">
+        <v>18.83333333333333</v>
+      </c>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" s="8" t="s">
@@ -5978,6 +6614,9 @@
       <c r="F54" s="4">
         <v>1.8</v>
       </c>
+      <c r="G54" s="4">
+        <v>6.333333333333333</v>
+      </c>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="9" t="s">
@@ -5998,6 +6637,9 @@
       <c r="F55" s="4">
         <v>43.6</v>
       </c>
+      <c r="G55" s="4">
+        <v>44.66666666666666</v>
+      </c>
     </row>
     <row r="56" spans="1:25">
       <c r="A56" s="10" t="s">
@@ -6018,6 +6660,9 @@
       <c r="F56" s="4">
         <v>30.2</v>
       </c>
+      <c r="G56" s="4">
+        <v>31.83333333333333</v>
+      </c>
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="11" t="s">
@@ -6038,6 +6683,9 @@
       <c r="F57" s="4">
         <v>3.4</v>
       </c>
+      <c r="G57" s="4">
+        <v>10.16666666666667</v>
+      </c>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" s="12" t="s">
@@ -6058,6 +6706,9 @@
       <c r="F58" s="4">
         <v>89</v>
       </c>
+      <c r="G58" s="4">
+        <v>88.33333333333333</v>
+      </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" s="13" t="s">
@@ -6078,6 +6729,9 @@
       <c r="F59" s="4">
         <v>6.6</v>
       </c>
+      <c r="G59" s="4">
+        <v>6.166666666666667</v>
+      </c>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="1" t="s">
@@ -6175,6 +6829,9 @@
       <c r="F62" s="4">
         <v>7.74</v>
       </c>
+      <c r="G62" s="4">
+        <v>7.850000000000001</v>
+      </c>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" s="5" t="s">
@@ -6195,6 +6852,9 @@
       <c r="F63" s="4">
         <v>14.24</v>
       </c>
+      <c r="G63" s="4">
+        <v>14.38333333333333</v>
+      </c>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" s="6" t="s">
@@ -6215,6 +6875,9 @@
       <c r="F64" s="4">
         <v>20.18</v>
       </c>
+      <c r="G64" s="4">
+        <v>20.4</v>
+      </c>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="7" t="s">
@@ -6235,6 +6898,9 @@
       <c r="F65" s="4">
         <v>6.82</v>
       </c>
+      <c r="G65" s="4">
+        <v>7.05</v>
+      </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="8" t="s">
@@ -6255,6 +6921,9 @@
       <c r="F66" s="4">
         <v>6.319999999999999</v>
       </c>
+      <c r="G66" s="4">
+        <v>6.25</v>
+      </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="9" t="s">
@@ -6275,6 +6944,9 @@
       <c r="F67" s="4">
         <v>23.6</v>
       </c>
+      <c r="G67" s="4">
+        <v>23.68333333333333</v>
+      </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="10" t="s">
@@ -6295,6 +6967,9 @@
       <c r="F68" s="4">
         <v>20.06</v>
       </c>
+      <c r="G68" s="4">
+        <v>20.08333333333333</v>
+      </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="11" t="s">
@@ -6315,6 +6990,9 @@
       <c r="F69" s="4">
         <v>8.52</v>
       </c>
+      <c r="G69" s="4">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="12" t="s">
@@ -6335,6 +7013,9 @@
       <c r="F70" s="4">
         <v>28.14</v>
       </c>
+      <c r="G70" s="4">
+        <v>28.21666666666667</v>
+      </c>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="13" t="s">
@@ -6355,6 +7036,9 @@
       <c r="F71" s="4">
         <v>6.44</v>
       </c>
+      <c r="G71" s="4">
+        <v>6.416666666666665</v>
+      </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="1" t="s">
@@ -6452,6 +7136,9 @@
       <c r="F74" s="4">
         <v>3.544303797468354</v>
       </c>
+      <c r="G74" s="4">
+        <v>3.452380952380952</v>
+      </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="5" t="s">
@@ -6472,6 +7159,9 @@
       <c r="F75" s="4">
         <v>1.933333333333333</v>
       </c>
+      <c r="G75" s="4">
+        <v>-0.4635761589403974</v>
+      </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="6" t="s">
@@ -6492,6 +7182,9 @@
       <c r="F76" s="4">
         <v>3.490566037735849</v>
       </c>
+      <c r="G76" s="4">
+        <v>3.674418604651163</v>
+      </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="7" t="s">
@@ -6512,6 +7205,9 @@
       <c r="F77" s="4">
         <v>3.376623376623376</v>
       </c>
+      <c r="G77" s="4">
+        <v>2.317073170731708</v>
+      </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="8" t="s">
@@ -6532,6 +7228,9 @@
       <c r="F78" s="4">
         <v>0.6666666666666666</v>
       </c>
+      <c r="G78" s="4">
+        <v>4.915254237288135</v>
+      </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="9" t="s">
@@ -6552,6 +7251,9 @@
       <c r="F79" s="4">
         <v>2</v>
       </c>
+      <c r="G79" s="4">
+        <v>2.074688796680498</v>
+      </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="10" t="s">
@@ -6572,6 +7274,9 @@
       <c r="F80" s="4">
         <v>3.115577889447236</v>
       </c>
+      <c r="G80" s="4">
+        <v>1.98019801980198</v>
+      </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" s="11" t="s">
@@ -6592,6 +7297,9 @@
       <c r="F81" s="4">
         <v>-1.627906976744186</v>
       </c>
+      <c r="G81" s="4">
+        <v>5.238095238095238</v>
+      </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="12" t="s">
@@ -6612,6 +7320,9 @@
       <c r="F82" s="4">
         <v>4.436619718309859</v>
       </c>
+      <c r="G82" s="4">
+        <v>2.972027972027972</v>
+      </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="13" t="s">
@@ -6632,6 +7343,9 @@
       <c r="F83" s="4">
         <v>3.125</v>
       </c>
+      <c r="G83" s="4">
+        <v>0.6349206349206349</v>
+      </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="1" t="s">
@@ -6729,6 +7443,9 @@
       <c r="F86" s="4">
         <v>1.136950904392765</v>
       </c>
+      <c r="G86" s="4">
+        <v>1.549893842887473</v>
+      </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" s="5" t="s">
@@ -6749,6 +7466,9 @@
       <c r="F87" s="4">
         <v>1.75561797752809</v>
       </c>
+      <c r="G87" s="4">
+        <v>1.367323290845887</v>
+      </c>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" s="6" t="s">
@@ -6769,6 +7489,9 @@
       <c r="F88" s="4">
         <v>3.52824578790882</v>
       </c>
+      <c r="G88" s="4">
+        <v>3.553921568627451</v>
+      </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" s="7" t="s">
@@ -6789,6 +7512,9 @@
       <c r="F89" s="4">
         <v>2.756598240469208</v>
       </c>
+      <c r="G89" s="4">
+        <v>2.671394799054374</v>
+      </c>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" s="8" t="s">
@@ -6807,7 +7533,10 @@
         <v>0.1953125</v>
       </c>
       <c r="F90" s="4">
-        <v>0.2848101265822785</v>
+        <v>0.2848101265822784</v>
+      </c>
+      <c r="G90" s="4">
+        <v>1.013333333333333</v>
       </c>
     </row>
     <row r="91" spans="1:25">
@@ -6829,6 +7558,9 @@
       <c r="F91" s="4">
         <v>1.847457627118644</v>
       </c>
+      <c r="G91" s="4">
+        <v>1.885995777621393</v>
+      </c>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" s="10" t="s">
@@ -6847,7 +7579,10 @@
         <v>1.106965174129353</v>
       </c>
       <c r="F92" s="4">
-        <v>1.505483549351945</v>
+        <v>1.505483549351944</v>
+      </c>
+      <c r="G92" s="4">
+        <v>1.5850622406639</v>
       </c>
     </row>
     <row r="93" spans="1:25">
@@ -6869,6 +7604,9 @@
       <c r="F93" s="4">
         <v>0.3990610328638498</v>
       </c>
+      <c r="G93" s="4">
+        <v>1.196078431372549</v>
+      </c>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" s="12" t="s">
@@ -6889,6 +7627,9 @@
       <c r="F94" s="4">
         <v>3.162757640369581</v>
       </c>
+      <c r="G94" s="4">
+        <v>3.130537507383343</v>
+      </c>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="13" t="s">
@@ -6908,6 +7649,9 @@
       </c>
       <c r="F95" s="4">
         <v>1.024844720496894</v>
+      </c>
+      <c r="G95" s="4">
+        <v>0.961038961038961</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2024/Lineup/Results.xlsx
+++ b/Data/2024/Lineup/Results.xlsx
@@ -38,7 +38,7 @@
     <t>Miami</t>
   </si>
   <si>
-    <t>Imola</t>
+    <t>Emilia Romagna</t>
   </si>
   <si>
     <t>Monaco</t>
@@ -804,6 +804,9 @@
       <c r="G2" s="4">
         <v>11</v>
       </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="3" t="s">
@@ -827,6 +830,9 @@
       <c r="G3" s="4">
         <v>15</v>
       </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="5" t="s">
@@ -850,6 +856,9 @@
       <c r="G4" s="4">
         <v>-19</v>
       </c>
+      <c r="H4" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="5" t="s">
@@ -873,6 +882,9 @@
       <c r="G5" s="4">
         <v>9</v>
       </c>
+      <c r="H5" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="6" t="s">
@@ -896,6 +908,9 @@
       <c r="G6" s="4">
         <v>33</v>
       </c>
+      <c r="H6" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="6" t="s">
@@ -919,6 +934,9 @@
       <c r="G7" s="4">
         <v>26</v>
       </c>
+      <c r="H7" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="6" t="s">
@@ -942,6 +960,9 @@
       <c r="G8" s="4">
         <v>0</v>
       </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="7" t="s">
@@ -965,6 +986,9 @@
       <c r="G9" s="4">
         <v>1</v>
       </c>
+      <c r="H9" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="7" t="s">
@@ -988,6 +1012,9 @@
       <c r="G10" s="4">
         <v>13</v>
       </c>
+      <c r="H10" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="8" t="s">
@@ -1011,6 +1038,9 @@
       <c r="G11" s="4">
         <v>10</v>
       </c>
+      <c r="H11" s="4">
+        <v>-2</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="8" t="s">
@@ -1034,6 +1064,9 @@
       <c r="G12" s="4">
         <v>20</v>
       </c>
+      <c r="H12" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="9" t="s">
@@ -1057,6 +1090,9 @@
       <c r="G13" s="4">
         <v>25</v>
       </c>
+      <c r="H13" s="4">
+        <v>37</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="9" t="s">
@@ -1080,6 +1116,9 @@
       <c r="G14" s="4">
         <v>22</v>
       </c>
+      <c r="H14" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="10" t="s">
@@ -1103,6 +1142,9 @@
       <c r="G15" s="4">
         <v>20</v>
       </c>
+      <c r="H15" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="10" t="s">
@@ -1126,6 +1168,9 @@
       <c r="G16" s="4">
         <v>10</v>
       </c>
+      <c r="H16" s="4">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="11" t="s">
@@ -1149,6 +1194,9 @@
       <c r="G17" s="4">
         <v>23</v>
       </c>
+      <c r="H17" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="11" t="s">
@@ -1172,6 +1220,9 @@
       <c r="G18" s="4">
         <v>16</v>
       </c>
+      <c r="H18" s="4">
+        <v>-2</v>
+      </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="12" t="s">
@@ -1195,6 +1246,9 @@
       <c r="G19" s="4">
         <v>40</v>
       </c>
+      <c r="H19" s="4">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="12" t="s">
@@ -1218,6 +1272,9 @@
       <c r="G20" s="4">
         <v>30</v>
       </c>
+      <c r="H20" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="13" t="s">
@@ -1241,6 +1298,9 @@
       <c r="G21" s="4">
         <v>10</v>
       </c>
+      <c r="H21" s="4">
+        <v>-20</v>
+      </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="13" t="s">
@@ -1264,6 +1324,9 @@
       <c r="G22" s="4">
         <v>-7</v>
       </c>
+      <c r="H22" s="4">
+        <v>-2</v>
+      </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
@@ -1364,6 +1427,9 @@
       <c r="G25" s="4">
         <v>9</v>
       </c>
+      <c r="H25" s="4">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="3" t="s">
@@ -1387,6 +1453,9 @@
       <c r="G26" s="4">
         <v>8</v>
       </c>
+      <c r="H26" s="4">
+        <v>8.300000000000001</v>
+      </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="5" t="s">
@@ -1410,6 +1479,9 @@
       <c r="G27" s="4">
         <v>13</v>
       </c>
+      <c r="H27" s="4">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="5" t="s">
@@ -1433,6 +1505,9 @@
       <c r="G28" s="4">
         <v>16.5</v>
       </c>
+      <c r="H28" s="4">
+        <v>16.6</v>
+      </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="6" t="s">
@@ -1456,6 +1531,9 @@
       <c r="G29" s="4">
         <v>22</v>
       </c>
+      <c r="H29" s="4">
+        <v>22.3</v>
+      </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="6" t="s">
@@ -1479,6 +1557,9 @@
       <c r="G30" s="4">
         <v>20.4</v>
       </c>
+      <c r="H30" s="4">
+        <v>20.7</v>
+      </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="6" t="s">
@@ -1502,6 +1583,9 @@
       <c r="G31" s="4">
         <v>0</v>
       </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="7" t="s">
@@ -1525,6 +1609,9 @@
       <c r="G32" s="4">
         <v>8.699999999999999</v>
       </c>
+      <c r="H32" s="4">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="7" t="s">
@@ -1548,6 +1635,9 @@
       <c r="G33" s="4">
         <v>7.6</v>
       </c>
+      <c r="H33" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="8" t="s">
@@ -1571,6 +1661,9 @@
       <c r="G34" s="4">
         <v>6.2</v>
       </c>
+      <c r="H34" s="4">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="8" t="s">
@@ -1594,6 +1687,9 @@
       <c r="G35" s="4">
         <v>7.1</v>
       </c>
+      <c r="H35" s="4">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="9" t="s">
@@ -1617,6 +1713,9 @@
       <c r="G36" s="4">
         <v>24.1</v>
       </c>
+      <c r="H36" s="4">
+        <v>24.4</v>
+      </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="9" t="s">
@@ -1640,6 +1739,9 @@
       <c r="G37" s="4">
         <v>19.9</v>
       </c>
+      <c r="H37" s="4">
+        <v>20.3</v>
+      </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="10" t="s">
@@ -1663,6 +1765,9 @@
       <c r="G38" s="4">
         <v>19</v>
       </c>
+      <c r="H38" s="4">
+        <v>19.1</v>
+      </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="10" t="s">
@@ -1686,6 +1791,9 @@
       <c r="G39" s="4">
         <v>19.1</v>
       </c>
+      <c r="H39" s="4">
+        <v>19.2</v>
+      </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="11" t="s">
@@ -1709,6 +1817,9 @@
       <c r="G40" s="4">
         <v>8.4</v>
       </c>
+      <c r="H40" s="4">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="11" t="s">
@@ -1732,6 +1843,9 @@
       <c r="G41" s="4">
         <v>8.800000000000001</v>
       </c>
+      <c r="H41" s="4">
+        <v>9.300000000000001</v>
+      </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="12" t="s">
@@ -1755,6 +1869,9 @@
       <c r="G42" s="4">
         <v>30.1</v>
       </c>
+      <c r="H42" s="4">
+        <v>30.2</v>
+      </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="12" t="s">
@@ -1778,6 +1895,9 @@
       <c r="G43" s="4">
         <v>23</v>
       </c>
+      <c r="H43" s="4">
+        <v>23.4</v>
+      </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="13" t="s">
@@ -1801,6 +1921,9 @@
       <c r="G44" s="4">
         <v>7.5</v>
       </c>
+      <c r="H44" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="13" t="s">
@@ -1824,6 +1947,9 @@
       <c r="G45" s="4">
         <v>5.9</v>
       </c>
+      <c r="H45" s="4">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="1" t="s">
@@ -1924,8 +2050,11 @@
       <c r="G48" s="4">
         <v>43</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="3" t="s">
         <v>26</v>
       </c>
@@ -1947,8 +2076,11 @@
       <c r="G49" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="5" t="s">
         <v>27</v>
       </c>
@@ -1970,8 +2102,11 @@
       <c r="G50" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="5" t="s">
         <v>28</v>
       </c>
@@ -1993,8 +2128,11 @@
       <c r="G51" s="4">
         <v>70</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="6" t="s">
         <v>29</v>
       </c>
@@ -2016,8 +2154,11 @@
       <c r="G52" s="4">
         <v>195</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" s="4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="6" t="s">
         <v>30</v>
       </c>
@@ -2039,8 +2180,11 @@
       <c r="G53" s="4">
         <v>166</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" s="4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="7" t="s">
         <v>32</v>
       </c>
@@ -2062,8 +2206,11 @@
       <c r="G54" s="4">
         <v>49</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="7" t="s">
         <v>33</v>
       </c>
@@ -2085,8 +2232,11 @@
       <c r="G55" s="4">
         <v>44</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="8" t="s">
         <v>34</v>
       </c>
@@ -2108,8 +2258,11 @@
       <c r="G56" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="8" t="s">
         <v>35</v>
       </c>
@@ -2131,8 +2284,11 @@
       <c r="G57" s="4">
         <v>29</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="9" t="s">
         <v>36</v>
       </c>
@@ -2154,8 +2310,11 @@
       <c r="G58" s="4">
         <v>127</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" s="4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="9" t="s">
         <v>37</v>
       </c>
@@ -2177,8 +2336,11 @@
       <c r="G59" s="4">
         <v>98</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" s="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="10" t="s">
         <v>38</v>
       </c>
@@ -2200,8 +2362,11 @@
       <c r="G60" s="4">
         <v>54</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="10" t="s">
         <v>39</v>
       </c>
@@ -2223,8 +2388,11 @@
       <c r="G61" s="4">
         <v>82</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="11" t="s">
         <v>40</v>
       </c>
@@ -2246,8 +2414,11 @@
       <c r="G62" s="4">
         <v>36</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="11" t="s">
         <v>41</v>
       </c>
@@ -2269,8 +2440,11 @@
       <c r="G63" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="12" t="s">
         <v>42</v>
       </c>
@@ -2291,6 +2465,9 @@
       </c>
       <c r="G64" s="4">
         <v>216</v>
+      </c>
+      <c r="H64" s="4">
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -2315,6 +2492,9 @@
       <c r="G65" s="4">
         <v>187</v>
       </c>
+      <c r="H65" s="4">
+        <v>198</v>
+      </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="13" t="s">
@@ -2338,6 +2518,9 @@
       <c r="G66" s="4">
         <v>11</v>
       </c>
+      <c r="H66" s="4">
+        <v>-9</v>
+      </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="13" t="s">
@@ -2361,6 +2544,9 @@
       <c r="G67" s="4">
         <v>20</v>
       </c>
+      <c r="H67" s="4">
+        <v>18</v>
+      </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="6" t="s">
@@ -2384,6 +2570,9 @@
       <c r="G68" s="4">
         <v>26</v>
       </c>
+      <c r="H68" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="1" t="s">
@@ -2484,6 +2673,9 @@
       <c r="G71" s="4">
         <v>51</v>
       </c>
+      <c r="H71" s="4">
+        <v>60.4</v>
+      </c>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" s="3" t="s">
@@ -2507,6 +2699,9 @@
       <c r="G72" s="4">
         <v>45.7</v>
       </c>
+      <c r="H72" s="4">
+        <v>54</v>
+      </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="5" t="s">
@@ -2530,6 +2725,9 @@
       <c r="G73" s="4">
         <v>70.40000000000001</v>
       </c>
+      <c r="H73" s="4">
+        <v>83.2</v>
+      </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" s="5" t="s">
@@ -2553,6 +2751,9 @@
       <c r="G74" s="4">
         <v>97.09999999999999</v>
       </c>
+      <c r="H74" s="4">
+        <v>113.7</v>
+      </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="6" t="s">
@@ -2576,6 +2777,9 @@
       <c r="G75" s="4">
         <v>124</v>
       </c>
+      <c r="H75" s="4">
+        <v>146.3</v>
+      </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="6" t="s">
@@ -2599,6 +2803,9 @@
       <c r="G76" s="4">
         <v>98.59999999999999</v>
       </c>
+      <c r="H76" s="4">
+        <v>119.3</v>
+      </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="7" t="s">
@@ -2622,6 +2829,9 @@
       <c r="G77" s="4">
         <v>44.7</v>
       </c>
+      <c r="H77" s="4">
+        <v>53.8</v>
+      </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="7" t="s">
@@ -2645,6 +2855,9 @@
       <c r="G78" s="4">
         <v>41.8</v>
       </c>
+      <c r="H78" s="4">
+        <v>49.8</v>
+      </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="8" t="s">
@@ -2668,6 +2881,9 @@
       <c r="G79" s="4">
         <v>37.1</v>
       </c>
+      <c r="H79" s="4">
+        <v>43.8</v>
+      </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="8" t="s">
@@ -2691,6 +2907,9 @@
       <c r="G80" s="4">
         <v>41.1</v>
       </c>
+      <c r="H80" s="4">
+        <v>48.7</v>
+      </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" s="9" t="s">
@@ -2714,6 +2933,9 @@
       <c r="G81" s="4">
         <v>140.7</v>
       </c>
+      <c r="H81" s="4">
+        <v>165.1</v>
+      </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="9" t="s">
@@ -2737,6 +2959,9 @@
       <c r="G82" s="4">
         <v>116.9</v>
       </c>
+      <c r="H82" s="4">
+        <v>137.2</v>
+      </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="10" t="s">
@@ -2760,6 +2985,9 @@
       <c r="G83" s="4">
         <v>114.9</v>
       </c>
+      <c r="H83" s="4">
+        <v>134</v>
+      </c>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" s="10" t="s">
@@ -2783,6 +3011,9 @@
       <c r="G84" s="4">
         <v>113.7</v>
       </c>
+      <c r="H84" s="4">
+        <v>132.9</v>
+      </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="11" t="s">
@@ -2806,6 +3037,9 @@
       <c r="G85" s="4">
         <v>48.5</v>
       </c>
+      <c r="H85" s="4">
+        <v>57.9</v>
+      </c>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" s="11" t="s">
@@ -2829,6 +3063,9 @@
       <c r="G86" s="4">
         <v>53.59999999999999</v>
       </c>
+      <c r="H86" s="4">
+        <v>62.89999999999999</v>
+      </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" s="12" t="s">
@@ -2852,6 +3089,9 @@
       <c r="G87" s="4">
         <v>180.3</v>
       </c>
+      <c r="H87" s="4">
+        <v>210.5</v>
+      </c>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" s="12" t="s">
@@ -2875,6 +3115,9 @@
       <c r="G88" s="4">
         <v>132.2</v>
       </c>
+      <c r="H88" s="4">
+        <v>155.6</v>
+      </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" s="13" t="s">
@@ -2898,6 +3141,9 @@
       <c r="G89" s="4">
         <v>43</v>
       </c>
+      <c r="H89" s="4">
+        <v>51</v>
+      </c>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" s="13" t="s">
@@ -2921,6 +3167,9 @@
       <c r="G90" s="4">
         <v>35</v>
       </c>
+      <c r="H90" s="4">
+        <v>41.1</v>
+      </c>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" s="6" t="s">
@@ -2944,6 +3193,9 @@
       <c r="G91" s="4">
         <v>14</v>
       </c>
+      <c r="H91" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" s="1" t="s">
@@ -3044,6 +3296,9 @@
       <c r="G94" s="4">
         <v>7.166666666666667</v>
       </c>
+      <c r="H94" s="4">
+        <v>6.285714285714286</v>
+      </c>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="3" t="s">
@@ -3067,6 +3322,9 @@
       <c r="G95" s="4">
         <v>4</v>
       </c>
+      <c r="H95" s="4">
+        <v>3.571428571428572</v>
+      </c>
     </row>
     <row r="96" spans="1:25">
       <c r="A96" s="5" t="s">
@@ -3090,8 +3348,11 @@
       <c r="G96" s="4">
         <v>1.666666666666667</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96" s="4">
+        <v>3.142857142857143</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="5" t="s">
         <v>28</v>
       </c>
@@ -3113,8 +3374,11 @@
       <c r="G97" s="4">
         <v>11.66666666666667</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97" s="4">
+        <v>10.28571428571429</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="6" t="s">
         <v>29</v>
       </c>
@@ -3136,8 +3400,11 @@
       <c r="G98" s="4">
         <v>32.5</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98" s="4">
+        <v>31.28571428571428</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="6" t="s">
         <v>30</v>
       </c>
@@ -3159,8 +3426,11 @@
       <c r="G99" s="4">
         <v>27.66666666666667</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99" s="4">
+        <v>26.14285714285714</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="7" t="s">
         <v>32</v>
       </c>
@@ -3182,8 +3452,11 @@
       <c r="G100" s="4">
         <v>8.166666666666666</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100" s="4">
+        <v>8.857142857142858</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="7" t="s">
         <v>33</v>
       </c>
@@ -3205,8 +3478,11 @@
       <c r="G101" s="4">
         <v>7.333333333333333</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101" s="4">
+        <v>6.714285714285714</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="8" t="s">
         <v>34</v>
       </c>
@@ -3228,8 +3504,11 @@
       <c r="G102" s="4">
         <v>0.8333333333333334</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102" s="4">
+        <v>0.4285714285714285</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="8" t="s">
         <v>35</v>
       </c>
@@ -3251,8 +3530,11 @@
       <c r="G103" s="4">
         <v>4.833333333333333</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103" s="4">
+        <v>4.857142857142857</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="9" t="s">
         <v>36</v>
       </c>
@@ -3274,8 +3556,11 @@
       <c r="G104" s="4">
         <v>21.16666666666667</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104" s="4">
+        <v>23.42857142857143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="9" t="s">
         <v>37</v>
       </c>
@@ -3297,8 +3582,11 @@
       <c r="G105" s="4">
         <v>16.33333333333333</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105" s="4">
+        <v>17.42857142857143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="10" t="s">
         <v>38</v>
       </c>
@@ -3320,8 +3608,11 @@
       <c r="G106" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="10" t="s">
         <v>39</v>
       </c>
@@ -3343,8 +3634,11 @@
       <c r="G107" s="4">
         <v>13.66666666666667</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="11" t="s">
         <v>40</v>
       </c>
@@ -3366,8 +3660,11 @@
       <c r="G108" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108" s="4">
+        <v>5.714285714285714</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="11" t="s">
         <v>41</v>
       </c>
@@ -3389,8 +3686,11 @@
       <c r="G109" s="4">
         <v>0.1666666666666667</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109" s="4">
+        <v>-0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="12" t="s">
         <v>42</v>
       </c>
@@ -3412,8 +3712,11 @@
       <c r="G110" s="4">
         <v>36</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110" s="4">
+        <v>35.85714285714285</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="12" t="s">
         <v>43</v>
       </c>
@@ -3435,8 +3738,11 @@
       <c r="G111" s="4">
         <v>31.16666666666667</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111" s="4">
+        <v>28.28571428571428</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="13" t="s">
         <v>44</v>
       </c>
@@ -3457,6 +3763,9 @@
       </c>
       <c r="G112" s="4">
         <v>1.833333333333333</v>
+      </c>
+      <c r="H112" s="4">
+        <v>-1.285714285714286</v>
       </c>
     </row>
     <row r="113" spans="1:25">
@@ -3481,6 +3790,9 @@
       <c r="G113" s="4">
         <v>3.333333333333333</v>
       </c>
+      <c r="H113" s="4">
+        <v>2.571428571428572</v>
+      </c>
     </row>
     <row r="114" spans="1:25">
       <c r="A114" s="6" t="s">
@@ -3504,6 +3816,9 @@
       <c r="G114" s="4">
         <v>4.333333333333333</v>
       </c>
+      <c r="H114" s="4">
+        <v>3.714285714285714</v>
+      </c>
     </row>
     <row r="116" spans="1:25">
       <c r="A116" s="1" t="s">
@@ -3604,6 +3919,9 @@
       <c r="G117" s="4">
         <v>8.5</v>
       </c>
+      <c r="H117" s="4">
+        <v>8.628571428571428</v>
+      </c>
     </row>
     <row r="118" spans="1:25">
       <c r="A118" s="3" t="s">
@@ -3627,6 +3945,9 @@
       <c r="G118" s="4">
         <v>7.616666666666666</v>
       </c>
+      <c r="H118" s="4">
+        <v>7.714285714285714</v>
+      </c>
     </row>
     <row r="119" spans="1:25">
       <c r="A119" s="5" t="s">
@@ -3650,6 +3971,9 @@
       <c r="G119" s="4">
         <v>11.73333333333333</v>
       </c>
+      <c r="H119" s="4">
+        <v>11.88571428571429</v>
+      </c>
     </row>
     <row r="120" spans="1:25">
       <c r="A120" s="5" t="s">
@@ -3673,6 +3997,9 @@
       <c r="G120" s="4">
         <v>16.18333333333333</v>
       </c>
+      <c r="H120" s="4">
+        <v>16.24285714285714</v>
+      </c>
     </row>
     <row r="121" spans="1:25">
       <c r="A121" s="6" t="s">
@@ -3696,6 +4023,9 @@
       <c r="G121" s="4">
         <v>20.66666666666667</v>
       </c>
+      <c r="H121" s="4">
+        <v>20.9</v>
+      </c>
     </row>
     <row r="122" spans="1:25">
       <c r="A122" s="6" t="s">
@@ -3719,6 +4049,9 @@
       <c r="G122" s="4">
         <v>16.43333333333333</v>
       </c>
+      <c r="H122" s="4">
+        <v>17.04285714285714</v>
+      </c>
     </row>
     <row r="123" spans="1:25">
       <c r="A123" s="7" t="s">
@@ -3742,6 +4075,9 @@
       <c r="G123" s="4">
         <v>7.45</v>
       </c>
+      <c r="H123" s="4">
+        <v>7.685714285714286</v>
+      </c>
     </row>
     <row r="124" spans="1:25">
       <c r="A124" s="7" t="s">
@@ -3765,6 +4101,9 @@
       <c r="G124" s="4">
         <v>6.966666666666668</v>
       </c>
+      <c r="H124" s="4">
+        <v>7.114285714285715</v>
+      </c>
     </row>
     <row r="125" spans="1:25">
       <c r="A125" s="8" t="s">
@@ -3788,6 +4127,9 @@
       <c r="G125" s="4">
         <v>6.183333333333334</v>
       </c>
+      <c r="H125" s="4">
+        <v>6.257142857142858</v>
+      </c>
     </row>
     <row r="126" spans="1:25">
       <c r="A126" s="8" t="s">
@@ -3811,6 +4153,9 @@
       <c r="G126" s="4">
         <v>6.850000000000001</v>
       </c>
+      <c r="H126" s="4">
+        <v>6.957142857142857</v>
+      </c>
     </row>
     <row r="127" spans="1:25">
       <c r="A127" s="9" t="s">
@@ -3834,6 +4179,9 @@
       <c r="G127" s="4">
         <v>23.45</v>
       </c>
+      <c r="H127" s="4">
+        <v>23.58571428571429</v>
+      </c>
     </row>
     <row r="128" spans="1:25">
       <c r="A128" s="9" t="s">
@@ -3857,6 +4205,9 @@
       <c r="G128" s="4">
         <v>19.48333333333333</v>
       </c>
+      <c r="H128" s="4">
+        <v>19.6</v>
+      </c>
     </row>
     <row r="129" spans="1:25">
       <c r="A129" s="10" t="s">
@@ -3880,6 +4231,9 @@
       <c r="G129" s="4">
         <v>19.15</v>
       </c>
+      <c r="H129" s="4">
+        <v>19.14285714285714</v>
+      </c>
     </row>
     <row r="130" spans="1:25">
       <c r="A130" s="10" t="s">
@@ -3903,6 +4257,9 @@
       <c r="G130" s="4">
         <v>18.95</v>
       </c>
+      <c r="H130" s="4">
+        <v>18.98571428571429</v>
+      </c>
     </row>
     <row r="131" spans="1:25">
       <c r="A131" s="11" t="s">
@@ -3926,6 +4283,9 @@
       <c r="G131" s="4">
         <v>8.083333333333334</v>
       </c>
+      <c r="H131" s="4">
+        <v>8.27142857142857</v>
+      </c>
     </row>
     <row r="132" spans="1:25">
       <c r="A132" s="11" t="s">
@@ -3949,6 +4309,9 @@
       <c r="G132" s="4">
         <v>8.933333333333332</v>
       </c>
+      <c r="H132" s="4">
+        <v>8.985714285714284</v>
+      </c>
     </row>
     <row r="133" spans="1:25">
       <c r="A133" s="12" t="s">
@@ -3972,6 +4335,9 @@
       <c r="G133" s="4">
         <v>30.05</v>
       </c>
+      <c r="H133" s="4">
+        <v>30.07142857142857</v>
+      </c>
     </row>
     <row r="134" spans="1:25">
       <c r="A134" s="12" t="s">
@@ -3995,6 +4361,9 @@
       <c r="G134" s="4">
         <v>22.03333333333333</v>
       </c>
+      <c r="H134" s="4">
+        <v>22.22857142857143</v>
+      </c>
     </row>
     <row r="135" spans="1:25">
       <c r="A135" s="13" t="s">
@@ -4018,6 +4387,9 @@
       <c r="G135" s="4">
         <v>7.166666666666667</v>
       </c>
+      <c r="H135" s="4">
+        <v>7.285714285714286</v>
+      </c>
     </row>
     <row r="136" spans="1:25">
       <c r="A136" s="13" t="s">
@@ -4041,6 +4413,9 @@
       <c r="G136" s="4">
         <v>5.833333333333333</v>
       </c>
+      <c r="H136" s="4">
+        <v>5.871428571428572</v>
+      </c>
     </row>
     <row r="137" spans="1:25">
       <c r="A137" s="6" t="s">
@@ -4064,6 +4439,9 @@
       <c r="G137" s="4">
         <v>2.333333333333333</v>
       </c>
+      <c r="H137" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="139" spans="1:25">
       <c r="A139" s="1" t="s">
@@ -4164,6 +4542,9 @@
       <c r="G140" s="4">
         <v>1.222222222222222</v>
       </c>
+      <c r="H140" s="4">
+        <v>0.1063829787234043</v>
+      </c>
     </row>
     <row r="141" spans="1:25">
       <c r="A141" s="3" t="s">
@@ -4187,6 +4568,9 @@
       <c r="G141" s="4">
         <v>1.875</v>
       </c>
+      <c r="H141" s="4">
+        <v>0.1204819277108434</v>
+      </c>
     </row>
     <row r="142" spans="1:25">
       <c r="A142" s="5" t="s">
@@ -4210,6 +4594,9 @@
       <c r="G142" s="4">
         <v>-1.461538461538461</v>
       </c>
+      <c r="H142" s="4">
+        <v>0.9375</v>
+      </c>
     </row>
     <row r="143" spans="1:25">
       <c r="A143" s="5" t="s">
@@ -4233,6 +4620,9 @@
       <c r="G143" s="4">
         <v>0.5454545454545454</v>
       </c>
+      <c r="H143" s="4">
+        <v>0.1204819277108434</v>
+      </c>
     </row>
     <row r="144" spans="1:25">
       <c r="A144" s="6" t="s">
@@ -4256,8 +4646,11 @@
       <c r="G144" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="H144" s="4">
+        <v>1.076233183856502</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="6" t="s">
         <v>30</v>
       </c>
@@ -4279,8 +4672,11 @@
       <c r="G145" s="4">
         <v>1.274509803921569</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="H145" s="4">
+        <v>0.821256038647343</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="7" t="s">
         <v>32</v>
       </c>
@@ -4302,8 +4698,11 @@
       <c r="G146" s="4">
         <v>0.1149425287356322</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="H146" s="4">
+        <v>1.428571428571429</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="7" t="s">
         <v>33</v>
       </c>
@@ -4325,8 +4724,11 @@
       <c r="G147" s="4">
         <v>1.710526315789474</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="H147" s="4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="8" t="s">
         <v>34</v>
       </c>
@@ -4348,8 +4750,11 @@
       <c r="G148" s="4">
         <v>1.612903225806452</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="H148" s="4">
+        <v>-0.2985074626865671</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="8" t="s">
         <v>35</v>
       </c>
@@ -4371,8 +4776,11 @@
       <c r="G149" s="4">
         <v>2.816901408450704</v>
       </c>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="H149" s="4">
+        <v>0.6578947368421053</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="9" t="s">
         <v>36</v>
       </c>
@@ -4394,8 +4802,11 @@
       <c r="G150" s="4">
         <v>1.037344398340249</v>
       </c>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="H150" s="4">
+        <v>1.516393442622951</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="9" t="s">
         <v>37</v>
       </c>
@@ -4417,8 +4828,11 @@
       <c r="G151" s="4">
         <v>1.105527638190955</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="H151" s="4">
+        <v>1.182266009852217</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="10" t="s">
         <v>38</v>
       </c>
@@ -4440,8 +4854,11 @@
       <c r="G152" s="4">
         <v>1.052631578947368</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="H152" s="4">
+        <v>0.8376963350785339</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="10" t="s">
         <v>39</v>
       </c>
@@ -4463,8 +4880,11 @@
       <c r="G153" s="4">
         <v>0.5235602094240838</v>
       </c>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="H153" s="4">
+        <v>1.197916666666667</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="11" t="s">
         <v>40</v>
       </c>
@@ -4486,8 +4906,11 @@
       <c r="G154" s="4">
         <v>2.738095238095238</v>
       </c>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="H154" s="4">
+        <v>0.425531914893617</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="11" t="s">
         <v>41</v>
       </c>
@@ -4509,8 +4932,11 @@
       <c r="G155" s="4">
         <v>1.818181818181818</v>
       </c>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="H155" s="4">
+        <v>-0.2150537634408602</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="12" t="s">
         <v>42</v>
       </c>
@@ -4532,8 +4958,11 @@
       <c r="G156" s="4">
         <v>1.32890365448505</v>
       </c>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="H156" s="4">
+        <v>1.158940397350993</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="12" t="s">
         <v>43</v>
       </c>
@@ -4555,8 +4984,11 @@
       <c r="G157" s="4">
         <v>1.304347826086957</v>
       </c>
-    </row>
-    <row r="158" spans="1:7">
+      <c r="H157" s="4">
+        <v>0.4700854700854701</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="13" t="s">
         <v>44</v>
       </c>
@@ -4578,8 +5010,11 @@
       <c r="G158" s="4">
         <v>1.333333333333333</v>
       </c>
-    </row>
-    <row r="159" spans="1:7">
+      <c r="H158" s="4">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="13" t="s">
         <v>45</v>
       </c>
@@ -4601,8 +5036,11 @@
       <c r="G159" s="4">
         <v>-1.186440677966102</v>
       </c>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="H159" s="4">
+        <v>-0.3278688524590164</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="6" t="s">
         <v>31</v>
       </c>
@@ -4622,6 +5060,9 @@
         <v>0</v>
       </c>
       <c r="G160" s="4">
+        <v>0</v>
+      </c>
+      <c r="H160" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4724,6 +5165,9 @@
       <c r="G163" s="4">
         <v>1.018957345971564</v>
       </c>
+      <c r="H163" s="4">
+        <v>0.8527131782945736</v>
+      </c>
     </row>
     <row r="164" spans="1:25">
       <c r="A164" s="3" t="s">
@@ -4747,6 +5191,9 @@
       <c r="G164" s="4">
         <v>0.5251641137855579</v>
       </c>
+      <c r="H164" s="4">
+        <v>0.462962962962963</v>
+      </c>
     </row>
     <row r="165" spans="1:25">
       <c r="A165" s="5" t="s">
@@ -4770,6 +5217,9 @@
       <c r="G165" s="4">
         <v>0.1420454545454545</v>
       </c>
+      <c r="H165" s="4">
+        <v>0.2644230769230769</v>
+      </c>
     </row>
     <row r="166" spans="1:25">
       <c r="A166" s="5" t="s">
@@ -4793,6 +5243,9 @@
       <c r="G166" s="4">
         <v>0.7209062821833162</v>
       </c>
+      <c r="H166" s="4">
+        <v>0.6332453825857519</v>
+      </c>
     </row>
     <row r="167" spans="1:25">
       <c r="A167" s="6" t="s">
@@ -4816,6 +5269,9 @@
       <c r="G167" s="4">
         <v>1.57258064516129</v>
       </c>
+      <c r="H167" s="4">
+        <v>1.496924128503076</v>
+      </c>
     </row>
     <row r="168" spans="1:25">
       <c r="A168" s="6" t="s">
@@ -4839,6 +5295,9 @@
       <c r="G168" s="4">
         <v>1.683569979716024</v>
       </c>
+      <c r="H168" s="4">
+        <v>1.533948030176027</v>
+      </c>
     </row>
     <row r="169" spans="1:25">
       <c r="A169" s="7" t="s">
@@ -4862,6 +5321,9 @@
       <c r="G169" s="4">
         <v>1.096196868008948</v>
       </c>
+      <c r="H169" s="4">
+        <v>1.152416356877324</v>
+      </c>
     </row>
     <row r="170" spans="1:25">
       <c r="A170" s="7" t="s">
@@ -4885,6 +5347,9 @@
       <c r="G170" s="4">
         <v>1.052631578947369</v>
       </c>
+      <c r="H170" s="4">
+        <v>0.9437751004016065</v>
+      </c>
     </row>
     <row r="171" spans="1:25">
       <c r="A171" s="8" t="s">
@@ -4908,6 +5373,9 @@
       <c r="G171" s="4">
         <v>0.1628664495114006</v>
       </c>
+      <c r="H171" s="4">
+        <v>0.08021390374331551</v>
+      </c>
     </row>
     <row r="172" spans="1:25">
       <c r="A172" s="8" t="s">
@@ -4931,6 +5399,9 @@
       <c r="G172" s="4">
         <v>0.7055961070559611</v>
       </c>
+      <c r="H172" s="4">
+        <v>0.6981519507186859</v>
+      </c>
     </row>
     <row r="173" spans="1:25">
       <c r="A173" s="9" t="s">
@@ -4954,6 +5425,9 @@
       <c r="G173" s="4">
         <v>0.9026297085998579</v>
       </c>
+      <c r="H173" s="4">
+        <v>0.9933373712901272</v>
+      </c>
     </row>
     <row r="174" spans="1:25">
       <c r="A174" s="9" t="s">
@@ -4977,6 +5451,9 @@
       <c r="G174" s="4">
         <v>0.8383233532934131</v>
       </c>
+      <c r="H174" s="4">
+        <v>0.8892128279883382</v>
+      </c>
     </row>
     <row r="175" spans="1:25">
       <c r="A175" s="10" t="s">
@@ -5000,6 +5477,9 @@
       <c r="G175" s="4">
         <v>0.4699738903394255</v>
       </c>
+      <c r="H175" s="4">
+        <v>0.5223880597014925</v>
+      </c>
     </row>
     <row r="176" spans="1:25">
       <c r="A176" s="10" t="s">
@@ -5023,8 +5503,11 @@
       <c r="G176" s="4">
         <v>0.7211961301671064</v>
       </c>
-    </row>
-    <row r="177" spans="1:7">
+      <c r="H176" s="4">
+        <v>0.7900677200902935</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="11" t="s">
         <v>40</v>
       </c>
@@ -5046,8 +5529,11 @@
       <c r="G177" s="4">
         <v>0.7422680412371134</v>
       </c>
-    </row>
-    <row r="178" spans="1:7">
+      <c r="H177" s="4">
+        <v>0.690846286701209</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="11" t="s">
         <v>41</v>
       </c>
@@ -5069,8 +5555,11 @@
       <c r="G178" s="4">
         <v>0.02237136465324385</v>
       </c>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="H178" s="4">
+        <v>-0.01851851851851852</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="12" t="s">
         <v>42</v>
       </c>
@@ -5092,8 +5581,11 @@
       <c r="G179" s="4">
         <v>1.198003327787021</v>
       </c>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="H179" s="4">
+        <v>1.192399049881235</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="12" t="s">
         <v>43</v>
       </c>
@@ -5115,8 +5607,11 @@
       <c r="G180" s="4">
         <v>1.414523449319213</v>
       </c>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="H180" s="4">
+        <v>1.272493573264782</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="13" t="s">
         <v>44</v>
       </c>
@@ -5138,8 +5633,11 @@
       <c r="G181" s="4">
         <v>0.3055555555555556</v>
       </c>
-    </row>
-    <row r="182" spans="1:7">
+      <c r="H181" s="4">
+        <v>-0.2045454545454546</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="13" t="s">
         <v>45</v>
       </c>
@@ -5161,8 +5659,11 @@
       <c r="G182" s="4">
         <v>0.6872852233676976</v>
       </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="H182" s="4">
+        <v>0.5113636363636364</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="6" t="s">
         <v>31</v>
       </c>
@@ -5182,6 +5683,9 @@
         <v>1.857142857142857</v>
       </c>
       <c r="G183" s="4">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="H183" s="4">
         <v>1.857142857142857</v>
       </c>
     </row>
@@ -5297,6 +5801,9 @@
       <c r="G2" s="4">
         <v>29</v>
       </c>
+      <c r="H2" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="5" t="s">
@@ -5320,6 +5827,9 @@
       <c r="G3" s="4">
         <v>-7</v>
       </c>
+      <c r="H3" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="6" t="s">
@@ -5343,6 +5853,9 @@
       <c r="G4" s="4">
         <v>79</v>
       </c>
+      <c r="H4" s="4">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="7" t="s">
@@ -5366,6 +5879,9 @@
       <c r="G5" s="4">
         <v>19</v>
       </c>
+      <c r="H5" s="4">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="8" t="s">
@@ -5389,6 +5905,9 @@
       <c r="G6" s="4">
         <v>29</v>
       </c>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="9" t="s">
@@ -5412,6 +5931,9 @@
       <c r="G7" s="4">
         <v>50</v>
       </c>
+      <c r="H7" s="4">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="10" t="s">
@@ -5435,6 +5957,9 @@
       <c r="G8" s="4">
         <v>40</v>
       </c>
+      <c r="H8" s="4">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="11" t="s">
@@ -5458,6 +5983,9 @@
       <c r="G9" s="4">
         <v>44</v>
       </c>
+      <c r="H9" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="12" t="s">
@@ -5481,6 +6009,9 @@
       <c r="G10" s="4">
         <v>85</v>
       </c>
+      <c r="H10" s="4">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="13" t="s">
@@ -5504,6 +6035,9 @@
       <c r="G11" s="4">
         <v>4</v>
       </c>
+      <c r="H11" s="4">
+        <v>-21</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
@@ -5604,6 +6138,9 @@
       <c r="G14" s="4">
         <v>8.4</v>
       </c>
+      <c r="H14" s="4">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="5" t="s">
@@ -5627,6 +6164,9 @@
       <c r="G15" s="4">
         <v>15.1</v>
       </c>
+      <c r="H15" s="4">
+        <v>14.6</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="6" t="s">
@@ -5650,6 +6190,9 @@
       <c r="G16" s="4">
         <v>21.5</v>
       </c>
+      <c r="H16" s="4">
+        <v>21.8</v>
+      </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="7" t="s">
@@ -5673,6 +6216,9 @@
       <c r="G17" s="4">
         <v>8.199999999999999</v>
       </c>
+      <c r="H17" s="4">
+        <v>8.699999999999999</v>
+      </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="8" t="s">
@@ -5696,6 +6242,9 @@
       <c r="G18" s="4">
         <v>5.9</v>
       </c>
+      <c r="H18" s="4">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="9" t="s">
@@ -5719,6 +6268,9 @@
       <c r="G19" s="4">
         <v>24.1</v>
       </c>
+      <c r="H19" s="4">
+        <v>24.2</v>
+      </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="10" t="s">
@@ -5742,6 +6294,9 @@
       <c r="G20" s="4">
         <v>20.2</v>
       </c>
+      <c r="H20" s="4">
+        <v>20.3</v>
+      </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="11" t="s">
@@ -5765,6 +6320,9 @@
       <c r="G21" s="4">
         <v>8.4</v>
       </c>
+      <c r="H21" s="4">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="12" t="s">
@@ -5788,6 +6346,9 @@
       <c r="G22" s="4">
         <v>28.6</v>
       </c>
+      <c r="H22" s="4">
+        <v>28.7</v>
+      </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="13" t="s">
@@ -5811,6 +6372,9 @@
       <c r="G23" s="4">
         <v>6.3</v>
       </c>
+      <c r="H23" s="4">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
@@ -5911,6 +6475,9 @@
       <c r="G26" s="4">
         <v>73</v>
       </c>
+      <c r="H26" s="4">
+        <v>78</v>
+      </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="5" t="s">
@@ -5934,6 +6501,9 @@
       <c r="G27" s="4">
         <v>118</v>
       </c>
+      <c r="H27" s="4">
+        <v>133</v>
+      </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="6" t="s">
@@ -5957,6 +6527,9 @@
       <c r="G28" s="4">
         <v>435</v>
       </c>
+      <c r="H28" s="4">
+        <v>486</v>
+      </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="7" t="s">
@@ -5980,6 +6553,9 @@
       <c r="G29" s="4">
         <v>113</v>
       </c>
+      <c r="H29" s="4">
+        <v>134</v>
+      </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="8" t="s">
@@ -6003,6 +6579,9 @@
       <c r="G30" s="4">
         <v>38</v>
       </c>
+      <c r="H30" s="4">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="9" t="s">
@@ -6026,6 +6605,9 @@
       <c r="G31" s="4">
         <v>268</v>
       </c>
+      <c r="H31" s="4">
+        <v>332</v>
+      </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="10" t="s">
@@ -6049,6 +6631,9 @@
       <c r="G32" s="4">
         <v>191</v>
       </c>
+      <c r="H32" s="4">
+        <v>245</v>
+      </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="11" t="s">
@@ -6072,6 +6657,9 @@
       <c r="G33" s="4">
         <v>61</v>
       </c>
+      <c r="H33" s="4">
+        <v>73</v>
+      </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="12" t="s">
@@ -6095,6 +6683,9 @@
       <c r="G34" s="4">
         <v>530</v>
       </c>
+      <c r="H34" s="4">
+        <v>591</v>
+      </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="13" t="s">
@@ -6118,6 +6709,9 @@
       <c r="G35" s="4">
         <v>37</v>
       </c>
+      <c r="H35" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="1" t="s">
@@ -6218,6 +6812,9 @@
       <c r="G38" s="4">
         <v>47.1</v>
       </c>
+      <c r="H38" s="4">
+        <v>56</v>
+      </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="5" t="s">
@@ -6241,6 +6838,9 @@
       <c r="G39" s="4">
         <v>86.3</v>
       </c>
+      <c r="H39" s="4">
+        <v>100.9</v>
+      </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="6" t="s">
@@ -6264,6 +6864,9 @@
       <c r="G40" s="4">
         <v>122.4</v>
       </c>
+      <c r="H40" s="4">
+        <v>144.2</v>
+      </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="7" t="s">
@@ -6287,6 +6890,9 @@
       <c r="G41" s="4">
         <v>42.3</v>
       </c>
+      <c r="H41" s="4">
+        <v>51</v>
+      </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="8" t="s">
@@ -6310,6 +6916,9 @@
       <c r="G42" s="4">
         <v>37.5</v>
       </c>
+      <c r="H42" s="4">
+        <v>43.9</v>
+      </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="9" t="s">
@@ -6333,6 +6942,9 @@
       <c r="G43" s="4">
         <v>142.1</v>
       </c>
+      <c r="H43" s="4">
+        <v>166.3</v>
+      </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="10" t="s">
@@ -6356,6 +6968,9 @@
       <c r="G44" s="4">
         <v>120.5</v>
       </c>
+      <c r="H44" s="4">
+        <v>140.8</v>
+      </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="11" t="s">
@@ -6379,6 +6994,9 @@
       <c r="G45" s="4">
         <v>51</v>
       </c>
+      <c r="H45" s="4">
+        <v>59.9</v>
+      </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="12" t="s">
@@ -6402,6 +7020,9 @@
       <c r="G46" s="4">
         <v>169.3</v>
       </c>
+      <c r="H46" s="4">
+        <v>198</v>
+      </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="13" t="s">
@@ -6425,6 +7046,9 @@
       <c r="G47" s="4">
         <v>38.49999999999999</v>
       </c>
+      <c r="H47" s="4">
+        <v>44.7</v>
+      </c>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" s="1" t="s">
@@ -6525,6 +7149,9 @@
       <c r="G50" s="4">
         <v>12.16666666666667</v>
       </c>
+      <c r="H50" s="4">
+        <v>11.14285714285714</v>
+      </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="5" t="s">
@@ -6548,6 +7175,9 @@
       <c r="G51" s="4">
         <v>19.66666666666667</v>
       </c>
+      <c r="H51" s="4">
+        <v>19</v>
+      </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" s="6" t="s">
@@ -6571,6 +7201,9 @@
       <c r="G52" s="4">
         <v>72.5</v>
       </c>
+      <c r="H52" s="4">
+        <v>69.42857142857143</v>
+      </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" s="7" t="s">
@@ -6594,6 +7227,9 @@
       <c r="G53" s="4">
         <v>18.83333333333333</v>
       </c>
+      <c r="H53" s="4">
+        <v>19.14285714285714</v>
+      </c>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" s="8" t="s">
@@ -6617,6 +7253,9 @@
       <c r="G54" s="4">
         <v>6.333333333333333</v>
       </c>
+      <c r="H54" s="4">
+        <v>5.714285714285714</v>
+      </c>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="9" t="s">
@@ -6640,6 +7279,9 @@
       <c r="G55" s="4">
         <v>44.66666666666666</v>
       </c>
+      <c r="H55" s="4">
+        <v>47.42857142857143</v>
+      </c>
     </row>
     <row r="56" spans="1:25">
       <c r="A56" s="10" t="s">
@@ -6663,6 +7305,9 @@
       <c r="G56" s="4">
         <v>31.83333333333333</v>
       </c>
+      <c r="H56" s="4">
+        <v>35</v>
+      </c>
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="11" t="s">
@@ -6686,6 +7331,9 @@
       <c r="G57" s="4">
         <v>10.16666666666667</v>
       </c>
+      <c r="H57" s="4">
+        <v>10.42857142857143</v>
+      </c>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" s="12" t="s">
@@ -6709,6 +7357,9 @@
       <c r="G58" s="4">
         <v>88.33333333333333</v>
       </c>
+      <c r="H58" s="4">
+        <v>84.42857142857143</v>
+      </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" s="13" t="s">
@@ -6732,6 +7383,9 @@
       <c r="G59" s="4">
         <v>6.166666666666667</v>
       </c>
+      <c r="H59" s="4">
+        <v>2.285714285714286</v>
+      </c>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="1" t="s">
@@ -6832,6 +7486,9 @@
       <c r="G62" s="4">
         <v>7.850000000000001</v>
       </c>
+      <c r="H62" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" s="5" t="s">
@@ -6855,6 +7512,9 @@
       <c r="G63" s="4">
         <v>14.38333333333333</v>
       </c>
+      <c r="H63" s="4">
+        <v>14.41428571428571</v>
+      </c>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" s="6" t="s">
@@ -6878,6 +7538,9 @@
       <c r="G64" s="4">
         <v>20.4</v>
       </c>
+      <c r="H64" s="4">
+        <v>20.6</v>
+      </c>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="7" t="s">
@@ -6901,6 +7564,9 @@
       <c r="G65" s="4">
         <v>7.05</v>
       </c>
+      <c r="H65" s="4">
+        <v>7.285714285714286</v>
+      </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="8" t="s">
@@ -6924,6 +7590,9 @@
       <c r="G66" s="4">
         <v>6.25</v>
       </c>
+      <c r="H66" s="4">
+        <v>6.271428571428571</v>
+      </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="9" t="s">
@@ -6947,6 +7616,9 @@
       <c r="G67" s="4">
         <v>23.68333333333333</v>
       </c>
+      <c r="H67" s="4">
+        <v>23.75714285714286</v>
+      </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="10" t="s">
@@ -6970,6 +7642,9 @@
       <c r="G68" s="4">
         <v>20.08333333333333</v>
       </c>
+      <c r="H68" s="4">
+        <v>20.11428571428571</v>
+      </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="11" t="s">
@@ -6993,6 +7668,9 @@
       <c r="G69" s="4">
         <v>8.5</v>
       </c>
+      <c r="H69" s="4">
+        <v>8.557142857142857</v>
+      </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="12" t="s">
@@ -7016,6 +7694,9 @@
       <c r="G70" s="4">
         <v>28.21666666666667</v>
       </c>
+      <c r="H70" s="4">
+        <v>28.28571428571428</v>
+      </c>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="13" t="s">
@@ -7039,6 +7720,9 @@
       <c r="G71" s="4">
         <v>6.416666666666665</v>
       </c>
+      <c r="H71" s="4">
+        <v>6.385714285714285</v>
+      </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="1" t="s">
@@ -7139,6 +7823,9 @@
       <c r="G74" s="4">
         <v>3.452380952380952</v>
       </c>
+      <c r="H74" s="4">
+        <v>0.5617977528089887</v>
+      </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="5" t="s">
@@ -7162,6 +7849,9 @@
       <c r="G75" s="4">
         <v>-0.4635761589403974</v>
       </c>
+      <c r="H75" s="4">
+        <v>1.027397260273973</v>
+      </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="6" t="s">
@@ -7185,6 +7875,9 @@
       <c r="G76" s="4">
         <v>3.674418604651163</v>
       </c>
+      <c r="H76" s="4">
+        <v>2.339449541284404</v>
+      </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="7" t="s">
@@ -7208,6 +7901,9 @@
       <c r="G77" s="4">
         <v>2.317073170731708</v>
       </c>
+      <c r="H77" s="4">
+        <v>2.413793103448276</v>
+      </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="8" t="s">
@@ -7231,6 +7927,9 @@
       <c r="G78" s="4">
         <v>4.915254237288135</v>
       </c>
+      <c r="H78" s="4">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="9" t="s">
@@ -7254,6 +7953,9 @@
       <c r="G79" s="4">
         <v>2.074688796680498</v>
       </c>
+      <c r="H79" s="4">
+        <v>2.644628099173554</v>
+      </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="10" t="s">
@@ -7277,6 +7979,9 @@
       <c r="G80" s="4">
         <v>1.98019801980198</v>
       </c>
+      <c r="H80" s="4">
+        <v>2.660098522167488</v>
+      </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" s="11" t="s">
@@ -7300,6 +8005,9 @@
       <c r="G81" s="4">
         <v>5.238095238095238</v>
       </c>
+      <c r="H81" s="4">
+        <v>1.348314606741573</v>
+      </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="12" t="s">
@@ -7323,6 +8031,9 @@
       <c r="G82" s="4">
         <v>2.972027972027972</v>
       </c>
+      <c r="H82" s="4">
+        <v>2.125435540069686</v>
+      </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="13" t="s">
@@ -7346,6 +8057,9 @@
       <c r="G83" s="4">
         <v>0.6349206349206349</v>
       </c>
+      <c r="H83" s="4">
+        <v>-3.387096774193548</v>
+      </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="1" t="s">
@@ -7446,6 +8160,9 @@
       <c r="G86" s="4">
         <v>1.549893842887473</v>
       </c>
+      <c r="H86" s="4">
+        <v>1.392857142857143</v>
+      </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" s="5" t="s">
@@ -7469,6 +8186,9 @@
       <c r="G87" s="4">
         <v>1.367323290845887</v>
       </c>
+      <c r="H87" s="4">
+        <v>1.318136769078295</v>
+      </c>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" s="6" t="s">
@@ -7492,6 +8212,9 @@
       <c r="G88" s="4">
         <v>3.553921568627451</v>
       </c>
+      <c r="H88" s="4">
+        <v>3.370319001386963</v>
+      </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" s="7" t="s">
@@ -7515,6 +8238,9 @@
       <c r="G89" s="4">
         <v>2.671394799054374</v>
       </c>
+      <c r="H89" s="4">
+        <v>2.627450980392157</v>
+      </c>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" s="8" t="s">
@@ -7538,6 +8264,9 @@
       <c r="G90" s="4">
         <v>1.013333333333333</v>
       </c>
+      <c r="H90" s="4">
+        <v>0.9111617312072893</v>
+      </c>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" s="9" t="s">
@@ -7561,6 +8290,9 @@
       <c r="G91" s="4">
         <v>1.885995777621393</v>
       </c>
+      <c r="H91" s="4">
+        <v>1.996392062537583</v>
+      </c>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" s="10" t="s">
@@ -7584,6 +8316,9 @@
       <c r="G92" s="4">
         <v>1.5850622406639</v>
       </c>
+      <c r="H92" s="4">
+        <v>1.740056818181818</v>
+      </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" s="11" t="s">
@@ -7607,6 +8342,9 @@
       <c r="G93" s="4">
         <v>1.196078431372549</v>
       </c>
+      <c r="H93" s="4">
+        <v>1.218697829716193</v>
+      </c>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" s="12" t="s">
@@ -7630,6 +8368,9 @@
       <c r="G94" s="4">
         <v>3.130537507383343</v>
       </c>
+      <c r="H94" s="4">
+        <v>2.984848484848485</v>
+      </c>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="13" t="s">
@@ -7652,6 +8393,9 @@
       </c>
       <c r="G95" s="4">
         <v>0.961038961038961</v>
+      </c>
+      <c r="H95" s="4">
+        <v>0.3579418344519015</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2024/Lineup/Results.xlsx
+++ b/Data/2024/Lineup/Results.xlsx
@@ -807,6 +807,9 @@
       <c r="H2" s="4">
         <v>1</v>
       </c>
+      <c r="I2" s="4">
+        <v>-19</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="3" t="s">
@@ -833,6 +836,9 @@
       <c r="H3" s="4">
         <v>1</v>
       </c>
+      <c r="I3" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="5" t="s">
@@ -859,6 +865,9 @@
       <c r="H4" s="4">
         <v>12</v>
       </c>
+      <c r="I4" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="5" t="s">
@@ -885,6 +894,9 @@
       <c r="H5" s="4">
         <v>2</v>
       </c>
+      <c r="I5" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="6" t="s">
@@ -911,6 +923,9 @@
       <c r="H6" s="4">
         <v>24</v>
       </c>
+      <c r="I6" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="6" t="s">
@@ -937,6 +952,9 @@
       <c r="H7" s="4">
         <v>17</v>
       </c>
+      <c r="I7" s="4">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="6" t="s">
@@ -963,6 +981,9 @@
       <c r="H8" s="4">
         <v>0</v>
       </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="7" t="s">
@@ -989,6 +1010,9 @@
       <c r="H9" s="4">
         <v>13</v>
       </c>
+      <c r="I9" s="4">
+        <v>-33</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="7" t="s">
@@ -1015,6 +1039,9 @@
       <c r="H10" s="4">
         <v>3</v>
       </c>
+      <c r="I10" s="4">
+        <v>-32</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="8" t="s">
@@ -1041,6 +1068,9 @@
       <c r="H11" s="4">
         <v>-2</v>
       </c>
+      <c r="I11" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="8" t="s">
@@ -1067,6 +1097,9 @@
       <c r="H12" s="4">
         <v>5</v>
       </c>
+      <c r="I12" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="9" t="s">
@@ -1093,6 +1126,9 @@
       <c r="H13" s="4">
         <v>37</v>
       </c>
+      <c r="I13" s="4">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="9" t="s">
@@ -1119,6 +1155,9 @@
       <c r="H14" s="4">
         <v>24</v>
       </c>
+      <c r="I14" s="4">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="10" t="s">
@@ -1145,6 +1184,9 @@
       <c r="H15" s="4">
         <v>16</v>
       </c>
+      <c r="I15" s="4">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="10" t="s">
@@ -1171,6 +1213,9 @@
       <c r="H16" s="4">
         <v>23</v>
       </c>
+      <c r="I16" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="11" t="s">
@@ -1197,6 +1242,9 @@
       <c r="H17" s="4">
         <v>4</v>
       </c>
+      <c r="I17" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="11" t="s">
@@ -1223,6 +1271,9 @@
       <c r="H18" s="4">
         <v>-2</v>
       </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="12" t="s">
@@ -1249,6 +1300,9 @@
       <c r="H19" s="4">
         <v>35</v>
       </c>
+      <c r="I19" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="12" t="s">
@@ -1275,6 +1329,9 @@
       <c r="H20" s="4">
         <v>11</v>
       </c>
+      <c r="I20" s="4">
+        <v>-20</v>
+      </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="13" t="s">
@@ -1301,6 +1358,9 @@
       <c r="H21" s="4">
         <v>-20</v>
       </c>
+      <c r="I21" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="13" t="s">
@@ -1327,6 +1387,9 @@
       <c r="H22" s="4">
         <v>-2</v>
       </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
@@ -1430,6 +1493,9 @@
       <c r="H25" s="4">
         <v>9.4</v>
       </c>
+      <c r="I25" s="4">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="3" t="s">
@@ -1456,6 +1522,9 @@
       <c r="H26" s="4">
         <v>8.300000000000001</v>
       </c>
+      <c r="I26" s="4">
+        <v>8.199999999999999</v>
+      </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="5" t="s">
@@ -1482,6 +1551,9 @@
       <c r="H27" s="4">
         <v>12.8</v>
       </c>
+      <c r="I27" s="4">
+        <v>13.3</v>
+      </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="5" t="s">
@@ -1508,6 +1580,9 @@
       <c r="H28" s="4">
         <v>16.6</v>
       </c>
+      <c r="I28" s="4">
+        <v>16.3</v>
+      </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="6" t="s">
@@ -1534,6 +1609,9 @@
       <c r="H29" s="4">
         <v>22.3</v>
       </c>
+      <c r="I29" s="4">
+        <v>22.6</v>
+      </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="6" t="s">
@@ -1560,6 +1638,9 @@
       <c r="H30" s="4">
         <v>20.7</v>
       </c>
+      <c r="I30" s="4">
+        <v>21</v>
+      </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="6" t="s">
@@ -1586,6 +1667,9 @@
       <c r="H31" s="4">
         <v>0</v>
       </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="7" t="s">
@@ -1612,6 +1696,9 @@
       <c r="H32" s="4">
         <v>9.1</v>
       </c>
+      <c r="I32" s="4">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="7" t="s">
@@ -1638,6 +1725,9 @@
       <c r="H33" s="4">
         <v>8</v>
       </c>
+      <c r="I33" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="8" t="s">
@@ -1664,6 +1754,9 @@
       <c r="H34" s="4">
         <v>6.7</v>
       </c>
+      <c r="I34" s="4">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="8" t="s">
@@ -1690,6 +1783,9 @@
       <c r="H35" s="4">
         <v>7.6</v>
       </c>
+      <c r="I35" s="4">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="9" t="s">
@@ -1716,6 +1812,9 @@
       <c r="H36" s="4">
         <v>24.4</v>
       </c>
+      <c r="I36" s="4">
+        <v>25.4</v>
+      </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="9" t="s">
@@ -1742,6 +1841,9 @@
       <c r="H37" s="4">
         <v>20.3</v>
       </c>
+      <c r="I37" s="4">
+        <v>20.3</v>
+      </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="10" t="s">
@@ -1768,6 +1870,9 @@
       <c r="H38" s="4">
         <v>19.1</v>
       </c>
+      <c r="I38" s="4">
+        <v>19.4</v>
+      </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="10" t="s">
@@ -1794,6 +1899,9 @@
       <c r="H39" s="4">
         <v>19.2</v>
       </c>
+      <c r="I39" s="4">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="11" t="s">
@@ -1820,6 +1928,9 @@
       <c r="H40" s="4">
         <v>9.4</v>
       </c>
+      <c r="I40" s="4">
+        <v>9.300000000000001</v>
+      </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="11" t="s">
@@ -1846,6 +1957,9 @@
       <c r="H41" s="4">
         <v>9.300000000000001</v>
       </c>
+      <c r="I41" s="4">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="12" t="s">
@@ -1872,6 +1986,9 @@
       <c r="H42" s="4">
         <v>30.2</v>
       </c>
+      <c r="I42" s="4">
+        <v>30.4</v>
+      </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="12" t="s">
@@ -1898,6 +2015,9 @@
       <c r="H43" s="4">
         <v>23.4</v>
       </c>
+      <c r="I43" s="4">
+        <v>23.4</v>
+      </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="13" t="s">
@@ -1924,6 +2044,9 @@
       <c r="H44" s="4">
         <v>8</v>
       </c>
+      <c r="I44" s="4">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="13" t="s">
@@ -1950,6 +2073,9 @@
       <c r="H45" s="4">
         <v>6.1</v>
       </c>
+      <c r="I45" s="4">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="1" t="s">
@@ -2053,8 +2179,11 @@
       <c r="H48" s="4">
         <v>44</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="3" t="s">
         <v>26</v>
       </c>
@@ -2079,8 +2208,11 @@
       <c r="H49" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="5" t="s">
         <v>27</v>
       </c>
@@ -2105,8 +2237,11 @@
       <c r="H50" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
         <v>28</v>
       </c>
@@ -2131,8 +2266,11 @@
       <c r="H51" s="4">
         <v>72</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="6" t="s">
         <v>29</v>
       </c>
@@ -2157,8 +2295,11 @@
       <c r="H52" s="4">
         <v>219</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" s="4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="6" t="s">
         <v>30</v>
       </c>
@@ -2183,8 +2324,11 @@
       <c r="H53" s="4">
         <v>183</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" s="4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="7" t="s">
         <v>32</v>
       </c>
@@ -2209,8 +2353,11 @@
       <c r="H54" s="4">
         <v>62</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
         <v>33</v>
       </c>
@@ -2235,8 +2382,11 @@
       <c r="H55" s="4">
         <v>47</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="8" t="s">
         <v>34</v>
       </c>
@@ -2261,8 +2411,11 @@
       <c r="H56" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="8" t="s">
         <v>35</v>
       </c>
@@ -2287,8 +2440,11 @@
       <c r="H57" s="4">
         <v>34</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="9" t="s">
         <v>36</v>
       </c>
@@ -2313,8 +2469,11 @@
       <c r="H58" s="4">
         <v>164</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" s="4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="9" t="s">
         <v>37</v>
       </c>
@@ -2339,8 +2498,11 @@
       <c r="H59" s="4">
         <v>122</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" s="4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="10" t="s">
         <v>38</v>
       </c>
@@ -2365,8 +2527,11 @@
       <c r="H60" s="4">
         <v>70</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="10" t="s">
         <v>39</v>
       </c>
@@ -2391,8 +2556,11 @@
       <c r="H61" s="4">
         <v>105</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" s="4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="11" t="s">
         <v>40</v>
       </c>
@@ -2417,8 +2585,11 @@
       <c r="H62" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="11" t="s">
         <v>41</v>
       </c>
@@ -2443,8 +2614,11 @@
       <c r="H63" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="12" t="s">
         <v>42</v>
       </c>
@@ -2468,6 +2642,9 @@
       </c>
       <c r="H64" s="4">
         <v>251</v>
+      </c>
+      <c r="I64" s="4">
+        <v>264</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -2495,6 +2672,9 @@
       <c r="H65" s="4">
         <v>198</v>
       </c>
+      <c r="I65" s="4">
+        <v>178</v>
+      </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="13" t="s">
@@ -2521,6 +2701,9 @@
       <c r="H66" s="4">
         <v>-9</v>
       </c>
+      <c r="I66" s="4">
+        <v>-4</v>
+      </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="13" t="s">
@@ -2547,6 +2730,9 @@
       <c r="H67" s="4">
         <v>18</v>
       </c>
+      <c r="I67" s="4">
+        <v>19</v>
+      </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="6" t="s">
@@ -2573,6 +2759,9 @@
       <c r="H68" s="4">
         <v>26</v>
       </c>
+      <c r="I68" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="1" t="s">
@@ -2676,6 +2865,9 @@
       <c r="H71" s="4">
         <v>60.4</v>
       </c>
+      <c r="I71" s="4">
+        <v>69.8</v>
+      </c>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" s="3" t="s">
@@ -2702,6 +2894,9 @@
       <c r="H72" s="4">
         <v>54</v>
       </c>
+      <c r="I72" s="4">
+        <v>62.2</v>
+      </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="5" t="s">
@@ -2728,6 +2923,9 @@
       <c r="H73" s="4">
         <v>83.2</v>
       </c>
+      <c r="I73" s="4">
+        <v>96.5</v>
+      </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" s="5" t="s">
@@ -2754,6 +2952,9 @@
       <c r="H74" s="4">
         <v>113.7</v>
       </c>
+      <c r="I74" s="4">
+        <v>130</v>
+      </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="6" t="s">
@@ -2780,6 +2981,9 @@
       <c r="H75" s="4">
         <v>146.3</v>
       </c>
+      <c r="I75" s="4">
+        <v>168.9</v>
+      </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="6" t="s">
@@ -2806,6 +3010,9 @@
       <c r="H76" s="4">
         <v>119.3</v>
       </c>
+      <c r="I76" s="4">
+        <v>140.3</v>
+      </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="7" t="s">
@@ -2832,6 +3039,9 @@
       <c r="H77" s="4">
         <v>53.8</v>
       </c>
+      <c r="I77" s="4">
+        <v>62.90000000000001</v>
+      </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="7" t="s">
@@ -2858,6 +3068,9 @@
       <c r="H78" s="4">
         <v>49.8</v>
       </c>
+      <c r="I78" s="4">
+        <v>57.8</v>
+      </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="8" t="s">
@@ -2884,6 +3097,9 @@
       <c r="H79" s="4">
         <v>43.8</v>
       </c>
+      <c r="I79" s="4">
+        <v>50.3</v>
+      </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="8" t="s">
@@ -2910,6 +3126,9 @@
       <c r="H80" s="4">
         <v>48.7</v>
       </c>
+      <c r="I80" s="4">
+        <v>56.2</v>
+      </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" s="9" t="s">
@@ -2936,6 +3155,9 @@
       <c r="H81" s="4">
         <v>165.1</v>
       </c>
+      <c r="I81" s="4">
+        <v>190.5</v>
+      </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="9" t="s">
@@ -2962,6 +3184,9 @@
       <c r="H82" s="4">
         <v>137.2</v>
       </c>
+      <c r="I82" s="4">
+        <v>157.5</v>
+      </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="10" t="s">
@@ -2988,6 +3213,9 @@
       <c r="H83" s="4">
         <v>134</v>
       </c>
+      <c r="I83" s="4">
+        <v>153.4</v>
+      </c>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" s="10" t="s">
@@ -3014,6 +3242,9 @@
       <c r="H84" s="4">
         <v>132.9</v>
       </c>
+      <c r="I84" s="4">
+        <v>152.4</v>
+      </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="11" t="s">
@@ -3040,6 +3271,9 @@
       <c r="H85" s="4">
         <v>57.9</v>
       </c>
+      <c r="I85" s="4">
+        <v>67.2</v>
+      </c>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" s="11" t="s">
@@ -3066,6 +3300,9 @@
       <c r="H86" s="4">
         <v>62.89999999999999</v>
       </c>
+      <c r="I86" s="4">
+        <v>71.99999999999999</v>
+      </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" s="12" t="s">
@@ -3092,6 +3329,9 @@
       <c r="H87" s="4">
         <v>210.5</v>
       </c>
+      <c r="I87" s="4">
+        <v>240.9</v>
+      </c>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" s="12" t="s">
@@ -3118,6 +3358,9 @@
       <c r="H88" s="4">
         <v>155.6</v>
       </c>
+      <c r="I88" s="4">
+        <v>179</v>
+      </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" s="13" t="s">
@@ -3144,6 +3387,9 @@
       <c r="H89" s="4">
         <v>51</v>
       </c>
+      <c r="I89" s="4">
+        <v>58.8</v>
+      </c>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" s="13" t="s">
@@ -3170,6 +3416,9 @@
       <c r="H90" s="4">
         <v>41.1</v>
       </c>
+      <c r="I90" s="4">
+        <v>47</v>
+      </c>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" s="6" t="s">
@@ -3196,6 +3445,9 @@
       <c r="H91" s="4">
         <v>14</v>
       </c>
+      <c r="I91" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" s="1" t="s">
@@ -3299,6 +3551,9 @@
       <c r="H94" s="4">
         <v>6.285714285714286</v>
       </c>
+      <c r="I94" s="4">
+        <v>3.125</v>
+      </c>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="3" t="s">
@@ -3325,6 +3580,9 @@
       <c r="H95" s="4">
         <v>3.571428571428572</v>
       </c>
+      <c r="I95" s="4">
+        <v>3.375</v>
+      </c>
     </row>
     <row r="96" spans="1:25">
       <c r="A96" s="5" t="s">
@@ -3351,8 +3609,11 @@
       <c r="H96" s="4">
         <v>3.142857142857143</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="5" t="s">
         <v>28</v>
       </c>
@@ -3377,8 +3638,11 @@
       <c r="H97" s="4">
         <v>10.28571428571429</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" s="4">
+        <v>9.625</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="6" t="s">
         <v>29</v>
       </c>
@@ -3403,8 +3667,11 @@
       <c r="H98" s="4">
         <v>31.28571428571428</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="6" t="s">
         <v>30</v>
       </c>
@@ -3429,8 +3696,11 @@
       <c r="H99" s="4">
         <v>26.14285714285714</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" s="4">
+        <v>25.75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="7" t="s">
         <v>32</v>
       </c>
@@ -3455,8 +3725,11 @@
       <c r="H100" s="4">
         <v>8.857142857142858</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" s="4">
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="7" t="s">
         <v>33</v>
       </c>
@@ -3481,8 +3754,11 @@
       <c r="H101" s="4">
         <v>6.714285714285714</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101" s="4">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="8" t="s">
         <v>34</v>
       </c>
@@ -3507,8 +3783,11 @@
       <c r="H102" s="4">
         <v>0.4285714285714285</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102" s="4">
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="8" t="s">
         <v>35</v>
       </c>
@@ -3533,8 +3812,11 @@
       <c r="H103" s="4">
         <v>4.857142857142857</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="9" t="s">
         <v>36</v>
       </c>
@@ -3559,8 +3841,11 @@
       <c r="H104" s="4">
         <v>23.42857142857143</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104" s="4">
+        <v>22.875</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="9" t="s">
         <v>37</v>
       </c>
@@ -3585,8 +3870,11 @@
       <c r="H105" s="4">
         <v>17.42857142857143</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105" s="4">
+        <v>18.625</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="10" t="s">
         <v>38</v>
       </c>
@@ -3611,8 +3899,11 @@
       <c r="H106" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106" s="4">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="10" t="s">
         <v>39</v>
       </c>
@@ -3637,8 +3928,11 @@
       <c r="H107" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107" s="4">
+        <v>15.125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="11" t="s">
         <v>40</v>
       </c>
@@ -3663,8 +3957,11 @@
       <c r="H108" s="4">
         <v>5.714285714285714</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108" s="4">
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="11" t="s">
         <v>41</v>
       </c>
@@ -3689,8 +3986,11 @@
       <c r="H109" s="4">
         <v>-0.1428571428571428</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109" s="4">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="12" t="s">
         <v>42</v>
       </c>
@@ -3715,8 +4015,11 @@
       <c r="H110" s="4">
         <v>35.85714285714285</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="12" t="s">
         <v>43</v>
       </c>
@@ -3741,8 +4044,11 @@
       <c r="H111" s="4">
         <v>28.28571428571428</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111" s="4">
+        <v>22.25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="13" t="s">
         <v>44</v>
       </c>
@@ -3766,6 +4072,9 @@
       </c>
       <c r="H112" s="4">
         <v>-1.285714285714286</v>
+      </c>
+      <c r="I112" s="4">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="113" spans="1:25">
@@ -3793,6 +4102,9 @@
       <c r="H113" s="4">
         <v>2.571428571428572</v>
       </c>
+      <c r="I113" s="4">
+        <v>2.375</v>
+      </c>
     </row>
     <row r="114" spans="1:25">
       <c r="A114" s="6" t="s">
@@ -3819,6 +4131,9 @@
       <c r="H114" s="4">
         <v>3.714285714285714</v>
       </c>
+      <c r="I114" s="4">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="116" spans="1:25">
       <c r="A116" s="1" t="s">
@@ -3922,6 +4237,9 @@
       <c r="H117" s="4">
         <v>8.628571428571428</v>
       </c>
+      <c r="I117" s="4">
+        <v>8.725</v>
+      </c>
     </row>
     <row r="118" spans="1:25">
       <c r="A118" s="3" t="s">
@@ -3948,6 +4266,9 @@
       <c r="H118" s="4">
         <v>7.714285714285714</v>
       </c>
+      <c r="I118" s="4">
+        <v>7.775</v>
+      </c>
     </row>
     <row r="119" spans="1:25">
       <c r="A119" s="5" t="s">
@@ -3974,6 +4295,9 @@
       <c r="H119" s="4">
         <v>11.88571428571429</v>
       </c>
+      <c r="I119" s="4">
+        <v>12.0625</v>
+      </c>
     </row>
     <row r="120" spans="1:25">
       <c r="A120" s="5" t="s">
@@ -4000,6 +4324,9 @@
       <c r="H120" s="4">
         <v>16.24285714285714</v>
       </c>
+      <c r="I120" s="4">
+        <v>16.25</v>
+      </c>
     </row>
     <row r="121" spans="1:25">
       <c r="A121" s="6" t="s">
@@ -4026,6 +4353,9 @@
       <c r="H121" s="4">
         <v>20.9</v>
       </c>
+      <c r="I121" s="4">
+        <v>21.1125</v>
+      </c>
     </row>
     <row r="122" spans="1:25">
       <c r="A122" s="6" t="s">
@@ -4052,6 +4382,9 @@
       <c r="H122" s="4">
         <v>17.04285714285714</v>
       </c>
+      <c r="I122" s="4">
+        <v>17.5375</v>
+      </c>
     </row>
     <row r="123" spans="1:25">
       <c r="A123" s="7" t="s">
@@ -4078,6 +4411,9 @@
       <c r="H123" s="4">
         <v>7.685714285714286</v>
       </c>
+      <c r="I123" s="4">
+        <v>7.862500000000001</v>
+      </c>
     </row>
     <row r="124" spans="1:25">
       <c r="A124" s="7" t="s">
@@ -4104,6 +4440,9 @@
       <c r="H124" s="4">
         <v>7.114285714285715</v>
       </c>
+      <c r="I124" s="4">
+        <v>7.225000000000001</v>
+      </c>
     </row>
     <row r="125" spans="1:25">
       <c r="A125" s="8" t="s">
@@ -4130,6 +4469,9 @@
       <c r="H125" s="4">
         <v>6.257142857142858</v>
       </c>
+      <c r="I125" s="4">
+        <v>6.287500000000001</v>
+      </c>
     </row>
     <row r="126" spans="1:25">
       <c r="A126" s="8" t="s">
@@ -4156,6 +4498,9 @@
       <c r="H126" s="4">
         <v>6.957142857142857</v>
       </c>
+      <c r="I126" s="4">
+        <v>7.025</v>
+      </c>
     </row>
     <row r="127" spans="1:25">
       <c r="A127" s="9" t="s">
@@ -4182,6 +4527,9 @@
       <c r="H127" s="4">
         <v>23.58571428571429</v>
       </c>
+      <c r="I127" s="4">
+        <v>23.8125</v>
+      </c>
     </row>
     <row r="128" spans="1:25">
       <c r="A128" s="9" t="s">
@@ -4208,6 +4556,9 @@
       <c r="H128" s="4">
         <v>19.6</v>
       </c>
+      <c r="I128" s="4">
+        <v>19.6875</v>
+      </c>
     </row>
     <row r="129" spans="1:25">
       <c r="A129" s="10" t="s">
@@ -4234,6 +4585,9 @@
       <c r="H129" s="4">
         <v>19.14285714285714</v>
       </c>
+      <c r="I129" s="4">
+        <v>19.175</v>
+      </c>
     </row>
     <row r="130" spans="1:25">
       <c r="A130" s="10" t="s">
@@ -4260,6 +4614,9 @@
       <c r="H130" s="4">
         <v>18.98571428571429</v>
       </c>
+      <c r="I130" s="4">
+        <v>19.05</v>
+      </c>
     </row>
     <row r="131" spans="1:25">
       <c r="A131" s="11" t="s">
@@ -4286,6 +4643,9 @@
       <c r="H131" s="4">
         <v>8.27142857142857</v>
       </c>
+      <c r="I131" s="4">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="132" spans="1:25">
       <c r="A132" s="11" t="s">
@@ -4312,6 +4672,9 @@
       <c r="H132" s="4">
         <v>8.985714285714284</v>
       </c>
+      <c r="I132" s="4">
+        <v>8.999999999999998</v>
+      </c>
     </row>
     <row r="133" spans="1:25">
       <c r="A133" s="12" t="s">
@@ -4338,6 +4701,9 @@
       <c r="H133" s="4">
         <v>30.07142857142857</v>
       </c>
+      <c r="I133" s="4">
+        <v>30.1125</v>
+      </c>
     </row>
     <row r="134" spans="1:25">
       <c r="A134" s="12" t="s">
@@ -4364,6 +4730,9 @@
       <c r="H134" s="4">
         <v>22.22857142857143</v>
       </c>
+      <c r="I134" s="4">
+        <v>22.375</v>
+      </c>
     </row>
     <row r="135" spans="1:25">
       <c r="A135" s="13" t="s">
@@ -4390,6 +4759,9 @@
       <c r="H135" s="4">
         <v>7.285714285714286</v>
       </c>
+      <c r="I135" s="4">
+        <v>7.35</v>
+      </c>
     </row>
     <row r="136" spans="1:25">
       <c r="A136" s="13" t="s">
@@ -4416,6 +4788,9 @@
       <c r="H136" s="4">
         <v>5.871428571428572</v>
       </c>
+      <c r="I136" s="4">
+        <v>5.875</v>
+      </c>
     </row>
     <row r="137" spans="1:25">
       <c r="A137" s="6" t="s">
@@ -4442,6 +4817,9 @@
       <c r="H137" s="4">
         <v>2</v>
       </c>
+      <c r="I137" s="4">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="139" spans="1:25">
       <c r="A139" s="1" t="s">
@@ -4545,6 +4923,9 @@
       <c r="H140" s="4">
         <v>0.1063829787234043</v>
       </c>
+      <c r="I140" s="4">
+        <v>-2.021276595744681</v>
+      </c>
     </row>
     <row r="141" spans="1:25">
       <c r="A141" s="3" t="s">
@@ -4571,6 +4952,9 @@
       <c r="H141" s="4">
         <v>0.1204819277108434</v>
       </c>
+      <c r="I141" s="4">
+        <v>0.2439024390243903</v>
+      </c>
     </row>
     <row r="142" spans="1:25">
       <c r="A142" s="5" t="s">
@@ -4597,6 +4981,9 @@
       <c r="H142" s="4">
         <v>0.9375</v>
       </c>
+      <c r="I142" s="4">
+        <v>0.1503759398496241</v>
+      </c>
     </row>
     <row r="143" spans="1:25">
       <c r="A143" s="5" t="s">
@@ -4623,6 +5010,9 @@
       <c r="H143" s="4">
         <v>0.1204819277108434</v>
       </c>
+      <c r="I143" s="4">
+        <v>0.3067484662576687</v>
+      </c>
     </row>
     <row r="144" spans="1:25">
       <c r="A144" s="6" t="s">
@@ -4649,8 +5039,11 @@
       <c r="H144" s="4">
         <v>1.076233183856502</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="I144" s="4">
+        <v>1.991150442477876</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="6" t="s">
         <v>30</v>
       </c>
@@ -4675,8 +5068,11 @@
       <c r="H145" s="4">
         <v>0.821256038647343</v>
       </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="I145" s="4">
+        <v>1.095238095238095</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="7" t="s">
         <v>32</v>
       </c>
@@ -4701,8 +5097,11 @@
       <c r="H146" s="4">
         <v>1.428571428571429</v>
       </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="I146" s="4">
+        <v>-3.626373626373626</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="7" t="s">
         <v>33</v>
       </c>
@@ -4727,8 +5126,11 @@
       <c r="H147" s="4">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="I147" s="4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="8" t="s">
         <v>34</v>
       </c>
@@ -4753,8 +5155,11 @@
       <c r="H148" s="4">
         <v>-0.2985074626865671</v>
       </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="I148" s="4">
+        <v>1.230769230769231</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="8" t="s">
         <v>35</v>
       </c>
@@ -4779,8 +5184,11 @@
       <c r="H149" s="4">
         <v>0.6578947368421053</v>
       </c>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="I149" s="4">
+        <v>0.2666666666666667</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="9" t="s">
         <v>36</v>
       </c>
@@ -4805,8 +5213,11 @@
       <c r="H150" s="4">
         <v>1.516393442622951</v>
       </c>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="I150" s="4">
+        <v>0.7480314960629921</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="9" t="s">
         <v>37</v>
       </c>
@@ -4831,8 +5242,11 @@
       <c r="H151" s="4">
         <v>1.182266009852217</v>
       </c>
-    </row>
-    <row r="152" spans="1:8">
+      <c r="I151" s="4">
+        <v>1.330049261083744</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="10" t="s">
         <v>38</v>
       </c>
@@ -4857,8 +5271,11 @@
       <c r="H152" s="4">
         <v>0.8376963350785339</v>
       </c>
-    </row>
-    <row r="153" spans="1:8">
+      <c r="I152" s="4">
+        <v>1.030927835051547</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="10" t="s">
         <v>39</v>
       </c>
@@ -4883,8 +5300,11 @@
       <c r="H153" s="4">
         <v>1.197916666666667</v>
       </c>
-    </row>
-    <row r="154" spans="1:8">
+      <c r="I153" s="4">
+        <v>0.8205128205128205</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="11" t="s">
         <v>40</v>
       </c>
@@ -4909,8 +5329,11 @@
       <c r="H154" s="4">
         <v>0.425531914893617</v>
       </c>
-    </row>
-    <row r="155" spans="1:8">
+      <c r="I154" s="4">
+        <v>0.7526881720430108</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="11" t="s">
         <v>41</v>
       </c>
@@ -4935,8 +5358,11 @@
       <c r="H155" s="4">
         <v>-0.2150537634408602</v>
       </c>
-    </row>
-    <row r="156" spans="1:8">
+      <c r="I155" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="12" t="s">
         <v>42</v>
       </c>
@@ -4961,8 +5387,11 @@
       <c r="H156" s="4">
         <v>1.158940397350993</v>
       </c>
-    </row>
-    <row r="157" spans="1:8">
+      <c r="I156" s="4">
+        <v>0.4276315789473684</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="12" t="s">
         <v>43</v>
       </c>
@@ -4987,8 +5416,11 @@
       <c r="H157" s="4">
         <v>0.4700854700854701</v>
       </c>
-    </row>
-    <row r="158" spans="1:8">
+      <c r="I157" s="4">
+        <v>-0.8547008547008548</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="13" t="s">
         <v>44</v>
       </c>
@@ -5013,8 +5445,11 @@
       <c r="H158" s="4">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="159" spans="1:8">
+      <c r="I158" s="4">
+        <v>0.6410256410256411</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="13" t="s">
         <v>45</v>
       </c>
@@ -5039,8 +5474,11 @@
       <c r="H159" s="4">
         <v>-0.3278688524590164</v>
       </c>
-    </row>
-    <row r="160" spans="1:8">
+      <c r="I159" s="4">
+        <v>0.1694915254237288</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="6" t="s">
         <v>31</v>
       </c>
@@ -5063,6 +5501,9 @@
         <v>0</v>
       </c>
       <c r="H160" s="4">
+        <v>0</v>
+      </c>
+      <c r="I160" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5168,6 +5609,9 @@
       <c r="H163" s="4">
         <v>0.8527131782945736</v>
       </c>
+      <c r="I163" s="4">
+        <v>0.4098360655737705</v>
+      </c>
     </row>
     <row r="164" spans="1:25">
       <c r="A164" s="3" t="s">
@@ -5194,6 +5638,9 @@
       <c r="H164" s="4">
         <v>0.462962962962963</v>
       </c>
+      <c r="I164" s="4">
+        <v>0.4340836012861736</v>
+      </c>
     </row>
     <row r="165" spans="1:25">
       <c r="A165" s="5" t="s">
@@ -5220,6 +5667,9 @@
       <c r="H165" s="4">
         <v>0.2644230769230769</v>
       </c>
+      <c r="I165" s="4">
+        <v>0.2487046632124352</v>
+      </c>
     </row>
     <row r="166" spans="1:25">
       <c r="A166" s="5" t="s">
@@ -5246,6 +5696,9 @@
       <c r="H166" s="4">
         <v>0.6332453825857519</v>
       </c>
+      <c r="I166" s="4">
+        <v>0.5923076923076923</v>
+      </c>
     </row>
     <row r="167" spans="1:25">
       <c r="A167" s="6" t="s">
@@ -5272,6 +5725,9 @@
       <c r="H167" s="4">
         <v>1.496924128503076</v>
       </c>
+      <c r="I167" s="4">
+        <v>1.563055062166963</v>
+      </c>
     </row>
     <row r="168" spans="1:25">
       <c r="A168" s="6" t="s">
@@ -5298,6 +5754,9 @@
       <c r="H168" s="4">
         <v>1.533948030176027</v>
       </c>
+      <c r="I168" s="4">
+        <v>1.468282252316465</v>
+      </c>
     </row>
     <row r="169" spans="1:25">
       <c r="A169" s="7" t="s">
@@ -5324,6 +5783,9 @@
       <c r="H169" s="4">
         <v>1.152416356877324</v>
       </c>
+      <c r="I169" s="4">
+        <v>0.4610492845786964</v>
+      </c>
     </row>
     <row r="170" spans="1:25">
       <c r="A170" s="7" t="s">
@@ -5350,6 +5812,9 @@
       <c r="H170" s="4">
         <v>0.9437751004016065</v>
       </c>
+      <c r="I170" s="4">
+        <v>0.2595155709342561</v>
+      </c>
     </row>
     <row r="171" spans="1:25">
       <c r="A171" s="8" t="s">
@@ -5376,6 +5841,9 @@
       <c r="H171" s="4">
         <v>0.08021390374331551</v>
       </c>
+      <c r="I171" s="4">
+        <v>0.2505694760820046</v>
+      </c>
     </row>
     <row r="172" spans="1:25">
       <c r="A172" s="8" t="s">
@@ -5402,6 +5870,9 @@
       <c r="H172" s="4">
         <v>0.6981519507186859</v>
       </c>
+      <c r="I172" s="4">
+        <v>0.6405693950177936</v>
+      </c>
     </row>
     <row r="173" spans="1:25">
       <c r="A173" s="9" t="s">
@@ -5428,6 +5899,9 @@
       <c r="H173" s="4">
         <v>0.9933373712901272</v>
       </c>
+      <c r="I173" s="4">
+        <v>0.9606299212598425</v>
+      </c>
     </row>
     <row r="174" spans="1:25">
       <c r="A174" s="9" t="s">
@@ -5454,6 +5928,9 @@
       <c r="H174" s="4">
         <v>0.8892128279883382</v>
       </c>
+      <c r="I174" s="4">
+        <v>0.946031746031746</v>
+      </c>
     </row>
     <row r="175" spans="1:25">
       <c r="A175" s="10" t="s">
@@ -5480,6 +5957,9 @@
       <c r="H175" s="4">
         <v>0.5223880597014925</v>
       </c>
+      <c r="I175" s="4">
+        <v>0.5867014341590613</v>
+      </c>
     </row>
     <row r="176" spans="1:25">
       <c r="A176" s="10" t="s">
@@ -5506,8 +5986,11 @@
       <c r="H176" s="4">
         <v>0.7900677200902935</v>
       </c>
-    </row>
-    <row r="177" spans="1:8">
+      <c r="I176" s="4">
+        <v>0.7939632545931758</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="11" t="s">
         <v>40</v>
       </c>
@@ -5532,8 +6015,11 @@
       <c r="H177" s="4">
         <v>0.690846286701209</v>
       </c>
-    </row>
-    <row r="178" spans="1:8">
+      <c r="I177" s="4">
+        <v>0.6994047619047619</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="11" t="s">
         <v>41</v>
       </c>
@@ -5558,8 +6044,11 @@
       <c r="H178" s="4">
         <v>-0.01851851851851852</v>
       </c>
-    </row>
-    <row r="179" spans="1:8">
+      <c r="I178" s="4">
+        <v>-0.01851851851851852</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="12" t="s">
         <v>42</v>
       </c>
@@ -5584,8 +6073,11 @@
       <c r="H179" s="4">
         <v>1.192399049881235</v>
       </c>
-    </row>
-    <row r="180" spans="1:8">
+      <c r="I179" s="4">
+        <v>1.095890410958904</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="12" t="s">
         <v>43</v>
       </c>
@@ -5610,8 +6102,11 @@
       <c r="H180" s="4">
         <v>1.272493573264782</v>
       </c>
-    </row>
-    <row r="181" spans="1:8">
+      <c r="I180" s="4">
+        <v>0.994413407821229</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="13" t="s">
         <v>44</v>
       </c>
@@ -5636,8 +6131,11 @@
       <c r="H181" s="4">
         <v>-0.2045454545454546</v>
       </c>
-    </row>
-    <row r="182" spans="1:8">
+      <c r="I181" s="4">
+        <v>-0.07722007722007722</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="13" t="s">
         <v>45</v>
       </c>
@@ -5662,8 +6160,11 @@
       <c r="H182" s="4">
         <v>0.5113636363636364</v>
       </c>
-    </row>
-    <row r="183" spans="1:8">
+      <c r="I182" s="4">
+        <v>0.462287104622871</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="6" t="s">
         <v>31</v>
       </c>
@@ -5686,6 +6187,9 @@
         <v>1.857142857142857</v>
       </c>
       <c r="H183" s="4">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="I183" s="4">
         <v>1.857142857142857</v>
       </c>
     </row>
@@ -5804,6 +6308,9 @@
       <c r="H2" s="4">
         <v>5</v>
       </c>
+      <c r="I2" s="4">
+        <v>-12</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="5" t="s">
@@ -5830,6 +6337,9 @@
       <c r="H3" s="4">
         <v>15</v>
       </c>
+      <c r="I3" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="6" t="s">
@@ -5856,6 +6366,9 @@
       <c r="H4" s="4">
         <v>51</v>
       </c>
+      <c r="I4" s="4">
+        <v>68</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="7" t="s">
@@ -5882,6 +6395,9 @@
       <c r="H5" s="4">
         <v>21</v>
       </c>
+      <c r="I5" s="4">
+        <v>-65</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="8" t="s">
@@ -5908,6 +6424,9 @@
       <c r="H6" s="4">
         <v>2</v>
       </c>
+      <c r="I6" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="9" t="s">
@@ -5934,6 +6453,9 @@
       <c r="H7" s="4">
         <v>64</v>
       </c>
+      <c r="I7" s="4">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="10" t="s">
@@ -5960,6 +6482,9 @@
       <c r="H8" s="4">
         <v>54</v>
       </c>
+      <c r="I8" s="4">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="11" t="s">
@@ -5986,6 +6511,9 @@
       <c r="H9" s="4">
         <v>12</v>
       </c>
+      <c r="I9" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="12" t="s">
@@ -6012,6 +6540,9 @@
       <c r="H10" s="4">
         <v>61</v>
       </c>
+      <c r="I10" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="13" t="s">
@@ -6038,6 +6569,9 @@
       <c r="H11" s="4">
         <v>-21</v>
       </c>
+      <c r="I11" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
@@ -6141,6 +6675,9 @@
       <c r="H14" s="4">
         <v>8.9</v>
       </c>
+      <c r="I14" s="4">
+        <v>8.800000000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="5" t="s">
@@ -6167,6 +6704,9 @@
       <c r="H15" s="4">
         <v>14.6</v>
       </c>
+      <c r="I15" s="4">
+        <v>15.1</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="6" t="s">
@@ -6193,6 +6733,9 @@
       <c r="H16" s="4">
         <v>21.8</v>
       </c>
+      <c r="I16" s="4">
+        <v>22.1</v>
+      </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="7" t="s">
@@ -6219,6 +6762,9 @@
       <c r="H17" s="4">
         <v>8.699999999999999</v>
       </c>
+      <c r="I17" s="4">
+        <v>9.199999999999999</v>
+      </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="8" t="s">
@@ -6245,6 +6791,9 @@
       <c r="H18" s="4">
         <v>6.4</v>
       </c>
+      <c r="I18" s="4">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="9" t="s">
@@ -6271,6 +6820,9 @@
       <c r="H19" s="4">
         <v>24.2</v>
       </c>
+      <c r="I19" s="4">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="10" t="s">
@@ -6297,6 +6849,9 @@
       <c r="H20" s="4">
         <v>20.3</v>
       </c>
+      <c r="I20" s="4">
+        <v>20.6</v>
+      </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="11" t="s">
@@ -6323,6 +6878,9 @@
       <c r="H21" s="4">
         <v>8.9</v>
       </c>
+      <c r="I21" s="4">
+        <v>8.800000000000001</v>
+      </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="12" t="s">
@@ -6349,6 +6907,9 @@
       <c r="H22" s="4">
         <v>28.7</v>
       </c>
+      <c r="I22" s="4">
+        <v>28.8</v>
+      </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="13" t="s">
@@ -6375,6 +6936,9 @@
       <c r="H23" s="4">
         <v>6.2</v>
       </c>
+      <c r="I23" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
@@ -6478,6 +7042,9 @@
       <c r="H26" s="4">
         <v>78</v>
       </c>
+      <c r="I26" s="4">
+        <v>66</v>
+      </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="5" t="s">
@@ -6504,6 +7071,9 @@
       <c r="H27" s="4">
         <v>133</v>
       </c>
+      <c r="I27" s="4">
+        <v>146</v>
+      </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="6" t="s">
@@ -6530,6 +7100,9 @@
       <c r="H28" s="4">
         <v>486</v>
       </c>
+      <c r="I28" s="4">
+        <v>554</v>
+      </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="7" t="s">
@@ -6556,6 +7129,9 @@
       <c r="H29" s="4">
         <v>134</v>
       </c>
+      <c r="I29" s="4">
+        <v>69</v>
+      </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="8" t="s">
@@ -6582,6 +7158,9 @@
       <c r="H30" s="4">
         <v>40</v>
       </c>
+      <c r="I30" s="4">
+        <v>52</v>
+      </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="9" t="s">
@@ -6608,6 +7187,9 @@
       <c r="H31" s="4">
         <v>332</v>
       </c>
+      <c r="I31" s="4">
+        <v>388</v>
+      </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="10" t="s">
@@ -6634,6 +7216,9 @@
       <c r="H32" s="4">
         <v>245</v>
       </c>
+      <c r="I32" s="4">
+        <v>291</v>
+      </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="11" t="s">
@@ -6660,6 +7245,9 @@
       <c r="H33" s="4">
         <v>73</v>
       </c>
+      <c r="I33" s="4">
+        <v>85</v>
+      </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="12" t="s">
@@ -6686,6 +7274,9 @@
       <c r="H34" s="4">
         <v>591</v>
       </c>
+      <c r="I34" s="4">
+        <v>599</v>
+      </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="13" t="s">
@@ -6712,6 +7303,9 @@
       <c r="H35" s="4">
         <v>16</v>
       </c>
+      <c r="I35" s="4">
+        <v>27</v>
+      </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="1" t="s">
@@ -6815,6 +7409,9 @@
       <c r="H38" s="4">
         <v>56</v>
       </c>
+      <c r="I38" s="4">
+        <v>64.8</v>
+      </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="5" t="s">
@@ -6841,6 +7438,9 @@
       <c r="H39" s="4">
         <v>100.9</v>
       </c>
+      <c r="I39" s="4">
+        <v>116</v>
+      </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="6" t="s">
@@ -6867,6 +7467,9 @@
       <c r="H40" s="4">
         <v>144.2</v>
       </c>
+      <c r="I40" s="4">
+        <v>166.3</v>
+      </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="7" t="s">
@@ -6893,6 +7496,9 @@
       <c r="H41" s="4">
         <v>51</v>
       </c>
+      <c r="I41" s="4">
+        <v>60.2</v>
+      </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="8" t="s">
@@ -6919,6 +7525,9 @@
       <c r="H42" s="4">
         <v>43.9</v>
       </c>
+      <c r="I42" s="4">
+        <v>50.2</v>
+      </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="9" t="s">
@@ -6945,6 +7554,9 @@
       <c r="H43" s="4">
         <v>166.3</v>
       </c>
+      <c r="I43" s="4">
+        <v>190.8</v>
+      </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="10" t="s">
@@ -6971,6 +7583,9 @@
       <c r="H44" s="4">
         <v>140.8</v>
       </c>
+      <c r="I44" s="4">
+        <v>161.4</v>
+      </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="11" t="s">
@@ -6997,6 +7612,9 @@
       <c r="H45" s="4">
         <v>59.9</v>
       </c>
+      <c r="I45" s="4">
+        <v>68.7</v>
+      </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="12" t="s">
@@ -7023,6 +7641,9 @@
       <c r="H46" s="4">
         <v>198</v>
       </c>
+      <c r="I46" s="4">
+        <v>226.8</v>
+      </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="13" t="s">
@@ -7049,6 +7670,9 @@
       <c r="H47" s="4">
         <v>44.7</v>
       </c>
+      <c r="I47" s="4">
+        <v>50.7</v>
+      </c>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" s="1" t="s">
@@ -7152,6 +7776,9 @@
       <c r="H50" s="4">
         <v>11.14285714285714</v>
       </c>
+      <c r="I50" s="4">
+        <v>8.25</v>
+      </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="5" t="s">
@@ -7178,6 +7805,9 @@
       <c r="H51" s="4">
         <v>19</v>
       </c>
+      <c r="I51" s="4">
+        <v>18.25</v>
+      </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" s="6" t="s">
@@ -7204,6 +7834,9 @@
       <c r="H52" s="4">
         <v>69.42857142857143</v>
       </c>
+      <c r="I52" s="4">
+        <v>69.25</v>
+      </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" s="7" t="s">
@@ -7230,6 +7863,9 @@
       <c r="H53" s="4">
         <v>19.14285714285714</v>
       </c>
+      <c r="I53" s="4">
+        <v>8.625</v>
+      </c>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" s="8" t="s">
@@ -7256,6 +7892,9 @@
       <c r="H54" s="4">
         <v>5.714285714285714</v>
       </c>
+      <c r="I54" s="4">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="9" t="s">
@@ -7282,6 +7921,9 @@
       <c r="H55" s="4">
         <v>47.42857142857143</v>
       </c>
+      <c r="I55" s="4">
+        <v>48.5</v>
+      </c>
     </row>
     <row r="56" spans="1:25">
       <c r="A56" s="10" t="s">
@@ -7308,6 +7950,9 @@
       <c r="H56" s="4">
         <v>35</v>
       </c>
+      <c r="I56" s="4">
+        <v>36.375</v>
+      </c>
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="11" t="s">
@@ -7334,6 +7979,9 @@
       <c r="H57" s="4">
         <v>10.42857142857143</v>
       </c>
+      <c r="I57" s="4">
+        <v>10.625</v>
+      </c>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" s="12" t="s">
@@ -7360,6 +8008,9 @@
       <c r="H58" s="4">
         <v>84.42857142857143</v>
       </c>
+      <c r="I58" s="4">
+        <v>74.875</v>
+      </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" s="13" t="s">
@@ -7386,6 +8037,9 @@
       <c r="H59" s="4">
         <v>2.285714285714286</v>
       </c>
+      <c r="I59" s="4">
+        <v>3.375</v>
+      </c>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="1" t="s">
@@ -7489,6 +8143,9 @@
       <c r="H62" s="4">
         <v>8</v>
       </c>
+      <c r="I62" s="4">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" s="5" t="s">
@@ -7515,6 +8172,9 @@
       <c r="H63" s="4">
         <v>14.41428571428571</v>
       </c>
+      <c r="I63" s="4">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" s="6" t="s">
@@ -7541,6 +8201,9 @@
       <c r="H64" s="4">
         <v>20.6</v>
       </c>
+      <c r="I64" s="4">
+        <v>20.7875</v>
+      </c>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="7" t="s">
@@ -7567,6 +8230,9 @@
       <c r="H65" s="4">
         <v>7.285714285714286</v>
       </c>
+      <c r="I65" s="4">
+        <v>7.525</v>
+      </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="8" t="s">
@@ -7593,6 +8259,9 @@
       <c r="H66" s="4">
         <v>6.271428571428571</v>
       </c>
+      <c r="I66" s="4">
+        <v>6.274999999999999</v>
+      </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="9" t="s">
@@ -7619,6 +8288,9 @@
       <c r="H67" s="4">
         <v>23.75714285714286</v>
       </c>
+      <c r="I67" s="4">
+        <v>23.85</v>
+      </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="10" t="s">
@@ -7645,6 +8317,9 @@
       <c r="H68" s="4">
         <v>20.11428571428571</v>
       </c>
+      <c r="I68" s="4">
+        <v>20.175</v>
+      </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="11" t="s">
@@ -7671,6 +8346,9 @@
       <c r="H69" s="4">
         <v>8.557142857142857</v>
       </c>
+      <c r="I69" s="4">
+        <v>8.5875</v>
+      </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="12" t="s">
@@ -7697,6 +8375,9 @@
       <c r="H70" s="4">
         <v>28.28571428571428</v>
       </c>
+      <c r="I70" s="4">
+        <v>28.35</v>
+      </c>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="13" t="s">
@@ -7723,6 +8404,9 @@
       <c r="H71" s="4">
         <v>6.385714285714285</v>
       </c>
+      <c r="I71" s="4">
+        <v>6.337499999999999</v>
+      </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="1" t="s">
@@ -7826,6 +8510,9 @@
       <c r="H74" s="4">
         <v>0.5617977528089887</v>
       </c>
+      <c r="I74" s="4">
+        <v>-1.363636363636364</v>
+      </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="5" t="s">
@@ -7852,6 +8539,9 @@
       <c r="H75" s="4">
         <v>1.027397260273973</v>
       </c>
+      <c r="I75" s="4">
+        <v>0.8609271523178809</v>
+      </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="6" t="s">
@@ -7878,6 +8568,9 @@
       <c r="H76" s="4">
         <v>2.339449541284404</v>
       </c>
+      <c r="I76" s="4">
+        <v>3.076923076923077</v>
+      </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="7" t="s">
@@ -7904,6 +8597,9 @@
       <c r="H77" s="4">
         <v>2.413793103448276</v>
       </c>
+      <c r="I77" s="4">
+        <v>-7.065217391304349</v>
+      </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="8" t="s">
@@ -7930,6 +8626,9 @@
       <c r="H78" s="4">
         <v>0.3125</v>
       </c>
+      <c r="I78" s="4">
+        <v>1.904761904761905</v>
+      </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="9" t="s">
@@ -7956,6 +8655,9 @@
       <c r="H79" s="4">
         <v>2.644628099173554</v>
       </c>
+      <c r="I79" s="4">
+        <v>2.285714285714286</v>
+      </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="10" t="s">
@@ -7982,6 +8684,9 @@
       <c r="H80" s="4">
         <v>2.660098522167488</v>
       </c>
+      <c r="I80" s="4">
+        <v>2.233009708737864</v>
+      </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" s="11" t="s">
@@ -8008,6 +8713,9 @@
       <c r="H81" s="4">
         <v>1.348314606741573</v>
       </c>
+      <c r="I81" s="4">
+        <v>1.363636363636364</v>
+      </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="12" t="s">
@@ -8034,6 +8742,9 @@
       <c r="H82" s="4">
         <v>2.125435540069686</v>
       </c>
+      <c r="I82" s="4">
+        <v>0.2777777777777778</v>
+      </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="13" t="s">
@@ -8060,6 +8771,9 @@
       <c r="H83" s="4">
         <v>-3.387096774193548</v>
       </c>
+      <c r="I83" s="4">
+        <v>1.833333333333333</v>
+      </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="1" t="s">
@@ -8163,6 +8877,9 @@
       <c r="H86" s="4">
         <v>1.392857142857143</v>
       </c>
+      <c r="I86" s="4">
+        <v>1.018518518518519</v>
+      </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" s="5" t="s">
@@ -8189,6 +8906,9 @@
       <c r="H87" s="4">
         <v>1.318136769078295</v>
       </c>
+      <c r="I87" s="4">
+        <v>1.258620689655172</v>
+      </c>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" s="6" t="s">
@@ -8215,6 +8935,9 @@
       <c r="H88" s="4">
         <v>3.370319001386963</v>
       </c>
+      <c r="I88" s="4">
+        <v>3.33132892363199</v>
+      </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" s="7" t="s">
@@ -8241,6 +8964,9 @@
       <c r="H89" s="4">
         <v>2.627450980392157</v>
       </c>
+      <c r="I89" s="4">
+        <v>1.146179401993356</v>
+      </c>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" s="8" t="s">
@@ -8267,6 +8993,9 @@
       <c r="H90" s="4">
         <v>0.9111617312072893</v>
       </c>
+      <c r="I90" s="4">
+        <v>1.035856573705179</v>
+      </c>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" s="9" t="s">
@@ -8293,6 +9022,9 @@
       <c r="H91" s="4">
         <v>1.996392062537583</v>
       </c>
+      <c r="I91" s="4">
+        <v>2.033542976939203</v>
+      </c>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" s="10" t="s">
@@ -8319,6 +9051,9 @@
       <c r="H92" s="4">
         <v>1.740056818181818</v>
       </c>
+      <c r="I92" s="4">
+        <v>1.802973977695167</v>
+      </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" s="11" t="s">
@@ -8345,6 +9080,9 @@
       <c r="H93" s="4">
         <v>1.218697829716193</v>
       </c>
+      <c r="I93" s="4">
+        <v>1.2372634643377</v>
+      </c>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" s="12" t="s">
@@ -8371,6 +9109,9 @@
       <c r="H94" s="4">
         <v>2.984848484848485</v>
       </c>
+      <c r="I94" s="4">
+        <v>2.641093474426808</v>
+      </c>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="13" t="s">
@@ -8396,6 +9137,9 @@
       </c>
       <c r="H95" s="4">
         <v>0.3579418344519015</v>
+      </c>
+      <c r="I95" s="4">
+        <v>0.5325443786982248</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2024/Lineup/Results.xlsx
+++ b/Data/2024/Lineup/Results.xlsx
@@ -810,6 +810,12 @@
       <c r="I2" s="4">
         <v>-19</v>
       </c>
+      <c r="J2" s="4">
+        <v>16</v>
+      </c>
+      <c r="K2" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="3" t="s">
@@ -839,6 +845,12 @@
       <c r="I3" s="4">
         <v>2</v>
       </c>
+      <c r="J3" s="4">
+        <v>14</v>
+      </c>
+      <c r="K3" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="5" t="s">
@@ -868,6 +880,12 @@
       <c r="I4" s="4">
         <v>2</v>
       </c>
+      <c r="J4" s="4">
+        <v>14</v>
+      </c>
+      <c r="K4" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="5" t="s">
@@ -897,6 +915,12 @@
       <c r="I5" s="4">
         <v>5</v>
       </c>
+      <c r="J5" s="4">
+        <v>14</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="6" t="s">
@@ -926,6 +950,12 @@
       <c r="I6" s="4">
         <v>45</v>
       </c>
+      <c r="J6" s="4">
+        <v>-16</v>
+      </c>
+      <c r="K6" s="4">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="6" t="s">
@@ -955,6 +985,12 @@
       <c r="I7" s="4">
         <v>23</v>
       </c>
+      <c r="J7" s="4">
+        <v>-16</v>
+      </c>
+      <c r="K7" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="6" t="s">
@@ -984,6 +1020,12 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="7" t="s">
@@ -1013,6 +1055,12 @@
       <c r="I9" s="4">
         <v>-33</v>
       </c>
+      <c r="J9" s="4">
+        <v>14</v>
+      </c>
+      <c r="K9" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="7" t="s">
@@ -1042,6 +1090,12 @@
       <c r="I10" s="4">
         <v>-32</v>
       </c>
+      <c r="J10" s="4">
+        <v>19</v>
+      </c>
+      <c r="K10" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="8" t="s">
@@ -1071,6 +1125,12 @@
       <c r="I11" s="4">
         <v>8</v>
       </c>
+      <c r="J11" s="4">
+        <v>8</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="8" t="s">
@@ -1100,6 +1160,12 @@
       <c r="I12" s="4">
         <v>2</v>
       </c>
+      <c r="J12" s="4">
+        <v>6</v>
+      </c>
+      <c r="K12" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="9" t="s">
@@ -1129,6 +1195,12 @@
       <c r="I13" s="4">
         <v>19</v>
       </c>
+      <c r="J13" s="4">
+        <v>40</v>
+      </c>
+      <c r="K13" s="4">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="9" t="s">
@@ -1158,6 +1230,12 @@
       <c r="I14" s="4">
         <v>27</v>
       </c>
+      <c r="J14" s="4">
+        <v>17</v>
+      </c>
+      <c r="K14" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="10" t="s">
@@ -1187,6 +1265,12 @@
       <c r="I15" s="4">
         <v>20</v>
       </c>
+      <c r="J15" s="4">
+        <v>32</v>
+      </c>
+      <c r="K15" s="4">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="10" t="s">
@@ -1216,6 +1300,12 @@
       <c r="I16" s="4">
         <v>16</v>
       </c>
+      <c r="J16" s="4">
+        <v>27</v>
+      </c>
+      <c r="K16" s="4">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="11" t="s">
@@ -1245,6 +1335,12 @@
       <c r="I17" s="4">
         <v>7</v>
       </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="11" t="s">
@@ -1274,6 +1370,12 @@
       <c r="I18" s="4">
         <v>0</v>
       </c>
+      <c r="J18" s="4">
+        <v>9</v>
+      </c>
+      <c r="K18" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="12" t="s">
@@ -1303,6 +1405,12 @@
       <c r="I19" s="4">
         <v>13</v>
       </c>
+      <c r="J19" s="4">
+        <v>37</v>
+      </c>
+      <c r="K19" s="4">
+        <v>38</v>
+      </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="12" t="s">
@@ -1332,6 +1440,12 @@
       <c r="I20" s="4">
         <v>-20</v>
       </c>
+      <c r="J20" s="4">
+        <v>-17</v>
+      </c>
+      <c r="K20" s="4">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="13" t="s">
@@ -1361,6 +1475,12 @@
       <c r="I21" s="4">
         <v>5</v>
       </c>
+      <c r="J21" s="4">
+        <v>-12</v>
+      </c>
+      <c r="K21" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="13" t="s">
@@ -1390,6 +1510,12 @@
       <c r="I22" s="4">
         <v>1</v>
       </c>
+      <c r="J22" s="4">
+        <v>-19</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
@@ -1496,6 +1622,12 @@
       <c r="I25" s="4">
         <v>9.4</v>
       </c>
+      <c r="J25" s="4">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K25" s="4">
+        <v>10.2</v>
+      </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="3" t="s">
@@ -1525,6 +1657,12 @@
       <c r="I26" s="4">
         <v>8.199999999999999</v>
       </c>
+      <c r="J26" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="K26" s="4">
+        <v>9.300000000000001</v>
+      </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="5" t="s">
@@ -1554,6 +1692,12 @@
       <c r="I27" s="4">
         <v>13.3</v>
       </c>
+      <c r="J27" s="4">
+        <v>13.2</v>
+      </c>
+      <c r="K27" s="4">
+        <v>14.2</v>
+      </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="5" t="s">
@@ -1583,6 +1727,12 @@
       <c r="I28" s="4">
         <v>16.3</v>
       </c>
+      <c r="J28" s="4">
+        <v>16.4</v>
+      </c>
+      <c r="K28" s="4">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="6" t="s">
@@ -1612,6 +1762,12 @@
       <c r="I29" s="4">
         <v>22.6</v>
       </c>
+      <c r="J29" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="K29" s="4">
+        <v>23.1</v>
+      </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="6" t="s">
@@ -1641,6 +1797,12 @@
       <c r="I30" s="4">
         <v>21</v>
       </c>
+      <c r="J30" s="4">
+        <v>21.6</v>
+      </c>
+      <c r="K30" s="4">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="6" t="s">
@@ -1670,6 +1832,12 @@
       <c r="I31" s="4">
         <v>0</v>
       </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="7" t="s">
@@ -1699,6 +1867,12 @@
       <c r="I32" s="4">
         <v>9.1</v>
       </c>
+      <c r="J32" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="K32" s="4">
+        <v>9.9</v>
+      </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="7" t="s">
@@ -1728,6 +1902,12 @@
       <c r="I33" s="4">
         <v>8</v>
       </c>
+      <c r="J33" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="K33" s="4">
+        <v>8.800000000000001</v>
+      </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="8" t="s">
@@ -1757,6 +1937,12 @@
       <c r="I34" s="4">
         <v>6.5</v>
       </c>
+      <c r="J34" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="K34" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="8" t="s">
@@ -1786,6 +1972,12 @@
       <c r="I35" s="4">
         <v>7.5</v>
       </c>
+      <c r="J35" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="K35" s="4">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="9" t="s">
@@ -1815,6 +2007,12 @@
       <c r="I36" s="4">
         <v>25.4</v>
       </c>
+      <c r="J36" s="4">
+        <v>25.6</v>
+      </c>
+      <c r="K36" s="4">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="9" t="s">
@@ -1844,6 +2042,12 @@
       <c r="I37" s="4">
         <v>20.3</v>
       </c>
+      <c r="J37" s="4">
+        <v>21.3</v>
+      </c>
+      <c r="K37" s="4">
+        <v>21.6</v>
+      </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="10" t="s">
@@ -1873,6 +2077,12 @@
       <c r="I38" s="4">
         <v>19.4</v>
       </c>
+      <c r="J38" s="4">
+        <v>19.4</v>
+      </c>
+      <c r="K38" s="4">
+        <v>21.4</v>
+      </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="10" t="s">
@@ -1902,6 +2112,12 @@
       <c r="I39" s="4">
         <v>19.5</v>
       </c>
+      <c r="J39" s="4">
+        <v>20.5</v>
+      </c>
+      <c r="K39" s="4">
+        <v>20.8</v>
+      </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="11" t="s">
@@ -1931,6 +2147,12 @@
       <c r="I40" s="4">
         <v>9.300000000000001</v>
       </c>
+      <c r="J40" s="4">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="K40" s="4">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="11" t="s">
@@ -1960,6 +2182,12 @@
       <c r="I41" s="4">
         <v>9.1</v>
       </c>
+      <c r="J41" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="K41" s="4">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="12" t="s">
@@ -1989,6 +2217,12 @@
       <c r="I42" s="4">
         <v>30.4</v>
       </c>
+      <c r="J42" s="4">
+        <v>30.5</v>
+      </c>
+      <c r="K42" s="4">
+        <v>30.7</v>
+      </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="12" t="s">
@@ -2018,6 +2252,12 @@
       <c r="I43" s="4">
         <v>23.4</v>
       </c>
+      <c r="J43" s="4">
+        <v>22.9</v>
+      </c>
+      <c r="K43" s="4">
+        <v>22.4</v>
+      </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="13" t="s">
@@ -2047,6 +2287,12 @@
       <c r="I44" s="4">
         <v>7.8</v>
       </c>
+      <c r="J44" s="4">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="K44" s="4">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="13" t="s">
@@ -2076,6 +2322,12 @@
       <c r="I45" s="4">
         <v>5.9</v>
       </c>
+      <c r="J45" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="K45" s="4">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="1" t="s">
@@ -2182,8 +2434,14 @@
       <c r="I48" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" s="4">
+        <v>41</v>
+      </c>
+      <c r="K48" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="3" t="s">
         <v>26</v>
       </c>
@@ -2211,8 +2469,14 @@
       <c r="I49" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" s="4">
+        <v>41</v>
+      </c>
+      <c r="K49" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="5" t="s">
         <v>27</v>
       </c>
@@ -2240,8 +2504,14 @@
       <c r="I50" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" s="4">
+        <v>38</v>
+      </c>
+      <c r="K50" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="5" t="s">
         <v>28</v>
       </c>
@@ -2269,8 +2539,14 @@
       <c r="I51" s="4">
         <v>77</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" s="4">
+        <v>91</v>
+      </c>
+      <c r="K51" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="6" t="s">
         <v>29</v>
       </c>
@@ -2298,8 +2574,14 @@
       <c r="I52" s="4">
         <v>264</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" s="4">
+        <v>248</v>
+      </c>
+      <c r="K52" s="4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="6" t="s">
         <v>30</v>
       </c>
@@ -2327,8 +2609,14 @@
       <c r="I53" s="4">
         <v>206</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" s="4">
+        <v>190</v>
+      </c>
+      <c r="K53" s="4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="7" t="s">
         <v>32</v>
       </c>
@@ -2356,8 +2644,14 @@
       <c r="I54" s="4">
         <v>29</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" s="4">
+        <v>43</v>
+      </c>
+      <c r="K54" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="7" t="s">
         <v>33</v>
       </c>
@@ -2385,8 +2679,14 @@
       <c r="I55" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" s="4">
+        <v>34</v>
+      </c>
+      <c r="K55" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="8" t="s">
         <v>34</v>
       </c>
@@ -2414,8 +2714,14 @@
       <c r="I56" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" s="4">
+        <v>19</v>
+      </c>
+      <c r="K56" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="8" t="s">
         <v>35</v>
       </c>
@@ -2443,8 +2749,14 @@
       <c r="I57" s="4">
         <v>36</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" s="4">
+        <v>42</v>
+      </c>
+      <c r="K57" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="9" t="s">
         <v>36</v>
       </c>
@@ -2472,8 +2784,14 @@
       <c r="I58" s="4">
         <v>183</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" s="4">
+        <v>223</v>
+      </c>
+      <c r="K58" s="4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="9" t="s">
         <v>37</v>
       </c>
@@ -2501,8 +2819,14 @@
       <c r="I59" s="4">
         <v>149</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" s="4">
+        <v>166</v>
+      </c>
+      <c r="K59" s="4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="10" t="s">
         <v>38</v>
       </c>
@@ -2530,8 +2854,14 @@
       <c r="I60" s="4">
         <v>90</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" s="4">
+        <v>122</v>
+      </c>
+      <c r="K60" s="4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="10" t="s">
         <v>39</v>
       </c>
@@ -2559,8 +2889,14 @@
       <c r="I61" s="4">
         <v>121</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" s="4">
+        <v>148</v>
+      </c>
+      <c r="K61" s="4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="11" t="s">
         <v>40</v>
       </c>
@@ -2588,8 +2924,14 @@
       <c r="I62" s="4">
         <v>47</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" s="4">
+        <v>47</v>
+      </c>
+      <c r="K62" s="4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="11" t="s">
         <v>41</v>
       </c>
@@ -2617,8 +2959,14 @@
       <c r="I63" s="4">
         <v>-1</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" s="4">
+        <v>8</v>
+      </c>
+      <c r="K63" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="12" t="s">
         <v>42</v>
       </c>
@@ -2645,6 +2993,12 @@
       </c>
       <c r="I64" s="4">
         <v>264</v>
+      </c>
+      <c r="J64" s="4">
+        <v>301</v>
+      </c>
+      <c r="K64" s="4">
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -2675,6 +3029,12 @@
       <c r="I65" s="4">
         <v>178</v>
       </c>
+      <c r="J65" s="4">
+        <v>161</v>
+      </c>
+      <c r="K65" s="4">
+        <v>180</v>
+      </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="13" t="s">
@@ -2704,6 +3064,12 @@
       <c r="I66" s="4">
         <v>-4</v>
       </c>
+      <c r="J66" s="4">
+        <v>-16</v>
+      </c>
+      <c r="K66" s="4">
+        <v>-12</v>
+      </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="13" t="s">
@@ -2733,6 +3099,12 @@
       <c r="I67" s="4">
         <v>19</v>
       </c>
+      <c r="J67" s="4">
+        <v>0</v>
+      </c>
+      <c r="K67" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="6" t="s">
@@ -2762,6 +3134,12 @@
       <c r="I68" s="4">
         <v>26</v>
       </c>
+      <c r="J68" s="4">
+        <v>26</v>
+      </c>
+      <c r="K68" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="1" t="s">
@@ -2868,6 +3246,12 @@
       <c r="I71" s="4">
         <v>69.8</v>
       </c>
+      <c r="J71" s="4">
+        <v>79</v>
+      </c>
+      <c r="K71" s="4">
+        <v>89.2</v>
+      </c>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" s="3" t="s">
@@ -2897,6 +3281,12 @@
       <c r="I72" s="4">
         <v>62.2</v>
       </c>
+      <c r="J72" s="4">
+        <v>70.3</v>
+      </c>
+      <c r="K72" s="4">
+        <v>79.59999999999999</v>
+      </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="5" t="s">
@@ -2926,6 +3316,12 @@
       <c r="I73" s="4">
         <v>96.5</v>
       </c>
+      <c r="J73" s="4">
+        <v>109.7</v>
+      </c>
+      <c r="K73" s="4">
+        <v>123.9</v>
+      </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" s="5" t="s">
@@ -2955,6 +3351,12 @@
       <c r="I74" s="4">
         <v>130</v>
       </c>
+      <c r="J74" s="4">
+        <v>146.4</v>
+      </c>
+      <c r="K74" s="4">
+        <v>163.1</v>
+      </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="6" t="s">
@@ -2984,6 +3386,12 @@
       <c r="I75" s="4">
         <v>168.9</v>
       </c>
+      <c r="J75" s="4">
+        <v>192.5</v>
+      </c>
+      <c r="K75" s="4">
+        <v>215.6</v>
+      </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="6" t="s">
@@ -3013,6 +3421,12 @@
       <c r="I76" s="4">
         <v>140.3</v>
       </c>
+      <c r="J76" s="4">
+        <v>161.9</v>
+      </c>
+      <c r="K76" s="4">
+        <v>183.4</v>
+      </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="7" t="s">
@@ -3042,6 +3456,12 @@
       <c r="I77" s="4">
         <v>62.90000000000001</v>
       </c>
+      <c r="J77" s="4">
+        <v>71.80000000000001</v>
+      </c>
+      <c r="K77" s="4">
+        <v>81.70000000000002</v>
+      </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="7" t="s">
@@ -3071,6 +3491,12 @@
       <c r="I78" s="4">
         <v>57.8</v>
       </c>
+      <c r="J78" s="4">
+        <v>65.60000000000001</v>
+      </c>
+      <c r="K78" s="4">
+        <v>74.40000000000001</v>
+      </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="8" t="s">
@@ -3100,6 +3526,12 @@
       <c r="I79" s="4">
         <v>50.3</v>
       </c>
+      <c r="J79" s="4">
+        <v>57.8</v>
+      </c>
+      <c r="K79" s="4">
+        <v>65.80000000000001</v>
+      </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="8" t="s">
@@ -3129,6 +3561,12 @@
       <c r="I80" s="4">
         <v>56.2</v>
       </c>
+      <c r="J80" s="4">
+        <v>63.6</v>
+      </c>
+      <c r="K80" s="4">
+        <v>71.5</v>
+      </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" s="9" t="s">
@@ -3158,6 +3596,12 @@
       <c r="I81" s="4">
         <v>190.5</v>
       </c>
+      <c r="J81" s="4">
+        <v>216.1</v>
+      </c>
+      <c r="K81" s="4">
+        <v>241.9</v>
+      </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="9" t="s">
@@ -3187,6 +3631,12 @@
       <c r="I82" s="4">
         <v>157.5</v>
       </c>
+      <c r="J82" s="4">
+        <v>178.8</v>
+      </c>
+      <c r="K82" s="4">
+        <v>200.4</v>
+      </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="10" t="s">
@@ -3216,6 +3666,12 @@
       <c r="I83" s="4">
         <v>153.4</v>
       </c>
+      <c r="J83" s="4">
+        <v>172.8</v>
+      </c>
+      <c r="K83" s="4">
+        <v>194.2</v>
+      </c>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" s="10" t="s">
@@ -3245,6 +3701,12 @@
       <c r="I84" s="4">
         <v>152.4</v>
       </c>
+      <c r="J84" s="4">
+        <v>172.9</v>
+      </c>
+      <c r="K84" s="4">
+        <v>193.7</v>
+      </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="11" t="s">
@@ -3274,6 +3736,12 @@
       <c r="I85" s="4">
         <v>67.2</v>
       </c>
+      <c r="J85" s="4">
+        <v>77</v>
+      </c>
+      <c r="K85" s="4">
+        <v>86.59999999999999</v>
+      </c>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" s="11" t="s">
@@ -3303,6 +3771,12 @@
       <c r="I86" s="4">
         <v>71.99999999999999</v>
       </c>
+      <c r="J86" s="4">
+        <v>81.09999999999998</v>
+      </c>
+      <c r="K86" s="4">
+        <v>90.49999999999999</v>
+      </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" s="12" t="s">
@@ -3332,6 +3806,12 @@
       <c r="I87" s="4">
         <v>240.9</v>
       </c>
+      <c r="J87" s="4">
+        <v>271.4</v>
+      </c>
+      <c r="K87" s="4">
+        <v>302.1</v>
+      </c>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" s="12" t="s">
@@ -3361,6 +3841,12 @@
       <c r="I88" s="4">
         <v>179</v>
       </c>
+      <c r="J88" s="4">
+        <v>201.9</v>
+      </c>
+      <c r="K88" s="4">
+        <v>224.3</v>
+      </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" s="13" t="s">
@@ -3390,6 +3876,12 @@
       <c r="I89" s="4">
         <v>58.8</v>
       </c>
+      <c r="J89" s="4">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="K89" s="4">
+        <v>75.19999999999999</v>
+      </c>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" s="13" t="s">
@@ -3419,6 +3911,12 @@
       <c r="I90" s="4">
         <v>47</v>
       </c>
+      <c r="J90" s="4">
+        <v>52.8</v>
+      </c>
+      <c r="K90" s="4">
+        <v>58.4</v>
+      </c>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" s="6" t="s">
@@ -3448,6 +3946,12 @@
       <c r="I91" s="4">
         <v>14</v>
       </c>
+      <c r="J91" s="4">
+        <v>14</v>
+      </c>
+      <c r="K91" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" s="1" t="s">
@@ -3554,6 +4058,12 @@
       <c r="I94" s="4">
         <v>3.125</v>
       </c>
+      <c r="J94" s="4">
+        <v>4.555555555555555</v>
+      </c>
+      <c r="K94" s="4">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="3" t="s">
@@ -3583,6 +4093,12 @@
       <c r="I95" s="4">
         <v>3.375</v>
       </c>
+      <c r="J95" s="4">
+        <v>4.555555555555555</v>
+      </c>
+      <c r="K95" s="4">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="96" spans="1:25">
       <c r="A96" s="5" t="s">
@@ -3612,8 +4128,14 @@
       <c r="I96" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96" s="4">
+        <v>4.222222222222222</v>
+      </c>
+      <c r="K96" s="4">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="5" t="s">
         <v>28</v>
       </c>
@@ -3641,8 +4163,14 @@
       <c r="I97" s="4">
         <v>9.625</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97" s="4">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="K97" s="4">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="6" t="s">
         <v>29</v>
       </c>
@@ -3670,8 +4198,14 @@
       <c r="I98" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="J98" s="4">
+        <v>27.55555555555556</v>
+      </c>
+      <c r="K98" s="4">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="6" t="s">
         <v>30</v>
       </c>
@@ -3699,8 +4233,14 @@
       <c r="I99" s="4">
         <v>25.75</v>
       </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="J99" s="4">
+        <v>21.11111111111111</v>
+      </c>
+      <c r="K99" s="4">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="7" t="s">
         <v>32</v>
       </c>
@@ -3728,8 +4268,14 @@
       <c r="I100" s="4">
         <v>3.625</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100" s="4">
+        <v>4.777777777777778</v>
+      </c>
+      <c r="K100" s="4">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="7" t="s">
         <v>33</v>
       </c>
@@ -3757,8 +4303,14 @@
       <c r="I101" s="4">
         <v>1.875</v>
       </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="J101" s="4">
+        <v>3.777777777777778</v>
+      </c>
+      <c r="K101" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="8" t="s">
         <v>34</v>
       </c>
@@ -3786,8 +4338,14 @@
       <c r="I102" s="4">
         <v>1.375</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102" s="4">
+        <v>2.111111111111111</v>
+      </c>
+      <c r="K102" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="8" t="s">
         <v>35</v>
       </c>
@@ -3815,8 +4373,14 @@
       <c r="I103" s="4">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103" s="4">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="K103" s="4">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="9" t="s">
         <v>36</v>
       </c>
@@ -3844,8 +4408,14 @@
       <c r="I104" s="4">
         <v>22.875</v>
       </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="J104" s="4">
+        <v>24.77777777777778</v>
+      </c>
+      <c r="K104" s="4">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="9" t="s">
         <v>37</v>
       </c>
@@ -3873,8 +4443,14 @@
       <c r="I105" s="4">
         <v>18.625</v>
       </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="J105" s="4">
+        <v>18.44444444444444</v>
+      </c>
+      <c r="K105" s="4">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="10" t="s">
         <v>38</v>
       </c>
@@ -3902,8 +4478,14 @@
       <c r="I106" s="4">
         <v>11.25</v>
       </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="J106" s="4">
+        <v>13.55555555555556</v>
+      </c>
+      <c r="K106" s="4">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="10" t="s">
         <v>39</v>
       </c>
@@ -3931,8 +4513,14 @@
       <c r="I107" s="4">
         <v>15.125</v>
       </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="J107" s="4">
+        <v>16.44444444444444</v>
+      </c>
+      <c r="K107" s="4">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="11" t="s">
         <v>40</v>
       </c>
@@ -3960,8 +4548,14 @@
       <c r="I108" s="4">
         <v>5.875</v>
       </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="J108" s="4">
+        <v>5.222222222222222</v>
+      </c>
+      <c r="K108" s="4">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="11" t="s">
         <v>41</v>
       </c>
@@ -3989,8 +4583,14 @@
       <c r="I109" s="4">
         <v>-0.125</v>
       </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="J109" s="4">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="K109" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="12" t="s">
         <v>42</v>
       </c>
@@ -4018,8 +4618,14 @@
       <c r="I110" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="J110" s="4">
+        <v>33.44444444444444</v>
+      </c>
+      <c r="K110" s="4">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="12" t="s">
         <v>43</v>
       </c>
@@ -4047,8 +4653,14 @@
       <c r="I111" s="4">
         <v>22.25</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="J111" s="4">
+        <v>17.88888888888889</v>
+      </c>
+      <c r="K111" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="13" t="s">
         <v>44</v>
       </c>
@@ -4075,6 +4687,12 @@
       </c>
       <c r="I112" s="4">
         <v>-0.5</v>
+      </c>
+      <c r="J112" s="4">
+        <v>-1.777777777777778</v>
+      </c>
+      <c r="K112" s="4">
+        <v>-1.2</v>
       </c>
     </row>
     <row r="113" spans="1:25">
@@ -4105,6 +4723,12 @@
       <c r="I113" s="4">
         <v>2.375</v>
       </c>
+      <c r="J113" s="4">
+        <v>0</v>
+      </c>
+      <c r="K113" s="4">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="114" spans="1:25">
       <c r="A114" s="6" t="s">
@@ -4134,6 +4758,12 @@
       <c r="I114" s="4">
         <v>3.25</v>
       </c>
+      <c r="J114" s="4">
+        <v>2.888888888888889</v>
+      </c>
+      <c r="K114" s="4">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="116" spans="1:25">
       <c r="A116" s="1" t="s">
@@ -4240,6 +4870,12 @@
       <c r="I117" s="4">
         <v>8.725</v>
       </c>
+      <c r="J117" s="4">
+        <v>8.777777777777779</v>
+      </c>
+      <c r="K117" s="4">
+        <v>8.92</v>
+      </c>
     </row>
     <row r="118" spans="1:25">
       <c r="A118" s="3" t="s">
@@ -4269,6 +4905,12 @@
       <c r="I118" s="4">
         <v>7.775</v>
       </c>
+      <c r="J118" s="4">
+        <v>7.811111111111111</v>
+      </c>
+      <c r="K118" s="4">
+        <v>7.959999999999999</v>
+      </c>
     </row>
     <row r="119" spans="1:25">
       <c r="A119" s="5" t="s">
@@ -4298,6 +4940,12 @@
       <c r="I119" s="4">
         <v>12.0625</v>
       </c>
+      <c r="J119" s="4">
+        <v>12.18888888888889</v>
+      </c>
+      <c r="K119" s="4">
+        <v>12.39</v>
+      </c>
     </row>
     <row r="120" spans="1:25">
       <c r="A120" s="5" t="s">
@@ -4327,6 +4975,12 @@
       <c r="I120" s="4">
         <v>16.25</v>
       </c>
+      <c r="J120" s="4">
+        <v>16.26666666666667</v>
+      </c>
+      <c r="K120" s="4">
+        <v>16.31</v>
+      </c>
     </row>
     <row r="121" spans="1:25">
       <c r="A121" s="6" t="s">
@@ -4356,6 +5010,12 @@
       <c r="I121" s="4">
         <v>21.1125</v>
       </c>
+      <c r="J121" s="4">
+        <v>21.38888888888889</v>
+      </c>
+      <c r="K121" s="4">
+        <v>21.56</v>
+      </c>
     </row>
     <row r="122" spans="1:25">
       <c r="A122" s="6" t="s">
@@ -4385,6 +5045,12 @@
       <c r="I122" s="4">
         <v>17.5375</v>
       </c>
+      <c r="J122" s="4">
+        <v>17.98888888888889</v>
+      </c>
+      <c r="K122" s="4">
+        <v>18.34</v>
+      </c>
     </row>
     <row r="123" spans="1:25">
       <c r="A123" s="7" t="s">
@@ -4414,6 +5080,12 @@
       <c r="I123" s="4">
         <v>7.862500000000001</v>
       </c>
+      <c r="J123" s="4">
+        <v>7.977777777777779</v>
+      </c>
+      <c r="K123" s="4">
+        <v>8.170000000000002</v>
+      </c>
     </row>
     <row r="124" spans="1:25">
       <c r="A124" s="7" t="s">
@@ -4443,6 +5115,12 @@
       <c r="I124" s="4">
         <v>7.225000000000001</v>
       </c>
+      <c r="J124" s="4">
+        <v>7.28888888888889</v>
+      </c>
+      <c r="K124" s="4">
+        <v>7.44</v>
+      </c>
     </row>
     <row r="125" spans="1:25">
       <c r="A125" s="8" t="s">
@@ -4472,6 +5150,12 @@
       <c r="I125" s="4">
         <v>6.287500000000001</v>
       </c>
+      <c r="J125" s="4">
+        <v>6.422222222222222</v>
+      </c>
+      <c r="K125" s="4">
+        <v>6.580000000000001</v>
+      </c>
     </row>
     <row r="126" spans="1:25">
       <c r="A126" s="8" t="s">
@@ -4501,6 +5185,12 @@
       <c r="I126" s="4">
         <v>7.025</v>
       </c>
+      <c r="J126" s="4">
+        <v>7.066666666666666</v>
+      </c>
+      <c r="K126" s="4">
+        <v>7.15</v>
+      </c>
     </row>
     <row r="127" spans="1:25">
       <c r="A127" s="9" t="s">
@@ -4530,6 +5220,12 @@
       <c r="I127" s="4">
         <v>23.8125</v>
       </c>
+      <c r="J127" s="4">
+        <v>24.01111111111111</v>
+      </c>
+      <c r="K127" s="4">
+        <v>24.19</v>
+      </c>
     </row>
     <row r="128" spans="1:25">
       <c r="A128" s="9" t="s">
@@ -4559,6 +5255,12 @@
       <c r="I128" s="4">
         <v>19.6875</v>
       </c>
+      <c r="J128" s="4">
+        <v>19.86666666666667</v>
+      </c>
+      <c r="K128" s="4">
+        <v>20.04</v>
+      </c>
     </row>
     <row r="129" spans="1:25">
       <c r="A129" s="10" t="s">
@@ -4588,6 +5290,12 @@
       <c r="I129" s="4">
         <v>19.175</v>
       </c>
+      <c r="J129" s="4">
+        <v>19.2</v>
+      </c>
+      <c r="K129" s="4">
+        <v>19.42</v>
+      </c>
     </row>
     <row r="130" spans="1:25">
       <c r="A130" s="10" t="s">
@@ -4617,6 +5325,12 @@
       <c r="I130" s="4">
         <v>19.05</v>
       </c>
+      <c r="J130" s="4">
+        <v>19.21111111111111</v>
+      </c>
+      <c r="K130" s="4">
+        <v>19.37</v>
+      </c>
     </row>
     <row r="131" spans="1:25">
       <c r="A131" s="11" t="s">
@@ -4646,6 +5360,12 @@
       <c r="I131" s="4">
         <v>8.4</v>
       </c>
+      <c r="J131" s="4">
+        <v>8.555555555555555</v>
+      </c>
+      <c r="K131" s="4">
+        <v>8.66</v>
+      </c>
     </row>
     <row r="132" spans="1:25">
       <c r="A132" s="11" t="s">
@@ -4675,6 +5395,12 @@
       <c r="I132" s="4">
         <v>8.999999999999998</v>
       </c>
+      <c r="J132" s="4">
+        <v>9.011111111111109</v>
+      </c>
+      <c r="K132" s="4">
+        <v>9.049999999999999</v>
+      </c>
     </row>
     <row r="133" spans="1:25">
       <c r="A133" s="12" t="s">
@@ -4704,6 +5430,12 @@
       <c r="I133" s="4">
         <v>30.1125</v>
       </c>
+      <c r="J133" s="4">
+        <v>30.15555555555555</v>
+      </c>
+      <c r="K133" s="4">
+        <v>30.21</v>
+      </c>
     </row>
     <row r="134" spans="1:25">
       <c r="A134" s="12" t="s">
@@ -4733,6 +5465,12 @@
       <c r="I134" s="4">
         <v>22.375</v>
       </c>
+      <c r="J134" s="4">
+        <v>22.43333333333333</v>
+      </c>
+      <c r="K134" s="4">
+        <v>22.43</v>
+      </c>
     </row>
     <row r="135" spans="1:25">
       <c r="A135" s="13" t="s">
@@ -4762,6 +5500,12 @@
       <c r="I135" s="4">
         <v>7.35</v>
       </c>
+      <c r="J135" s="4">
+        <v>7.455555555555555</v>
+      </c>
+      <c r="K135" s="4">
+        <v>7.519999999999999</v>
+      </c>
     </row>
     <row r="136" spans="1:25">
       <c r="A136" s="13" t="s">
@@ -4791,6 +5535,12 @@
       <c r="I136" s="4">
         <v>5.875</v>
       </c>
+      <c r="J136" s="4">
+        <v>5.866666666666666</v>
+      </c>
+      <c r="K136" s="4">
+        <v>5.84</v>
+      </c>
     </row>
     <row r="137" spans="1:25">
       <c r="A137" s="6" t="s">
@@ -4820,6 +5570,12 @@
       <c r="I137" s="4">
         <v>1.75</v>
       </c>
+      <c r="J137" s="4">
+        <v>1.555555555555556</v>
+      </c>
+      <c r="K137" s="4">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="139" spans="1:25">
       <c r="A139" s="1" t="s">
@@ -4926,6 +5682,12 @@
       <c r="I140" s="4">
         <v>-2.021276595744681</v>
       </c>
+      <c r="J140" s="4">
+        <v>1.739130434782609</v>
+      </c>
+      <c r="K140" s="4">
+        <v>0.3921568627450981</v>
+      </c>
     </row>
     <row r="141" spans="1:25">
       <c r="A141" s="3" t="s">
@@ -4955,6 +5717,12 @@
       <c r="I141" s="4">
         <v>0.2439024390243903</v>
       </c>
+      <c r="J141" s="4">
+        <v>1.728395061728395</v>
+      </c>
+      <c r="K141" s="4">
+        <v>0.7526881720430108</v>
+      </c>
     </row>
     <row r="142" spans="1:25">
       <c r="A142" s="5" t="s">
@@ -4984,6 +5752,12 @@
       <c r="I142" s="4">
         <v>0.1503759398496241</v>
       </c>
+      <c r="J142" s="4">
+        <v>1.060606060606061</v>
+      </c>
+      <c r="K142" s="4">
+        <v>0.4225352112676057</v>
+      </c>
     </row>
     <row r="143" spans="1:25">
       <c r="A143" s="5" t="s">
@@ -5013,6 +5787,12 @@
       <c r="I143" s="4">
         <v>0.3067484662576687</v>
       </c>
+      <c r="J143" s="4">
+        <v>0.8536585365853659</v>
+      </c>
+      <c r="K143" s="4">
+        <v>0.05988023952095808</v>
+      </c>
     </row>
     <row r="144" spans="1:25">
       <c r="A144" s="6" t="s">
@@ -5042,8 +5822,14 @@
       <c r="I144" s="4">
         <v>1.991150442477876</v>
       </c>
-    </row>
-    <row r="145" spans="1:9">
+      <c r="J144" s="4">
+        <v>-0.6779661016949152</v>
+      </c>
+      <c r="K144" s="4">
+        <v>0.7792207792207791</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="6" t="s">
         <v>30</v>
       </c>
@@ -5071,8 +5857,14 @@
       <c r="I145" s="4">
         <v>1.095238095238095</v>
       </c>
-    </row>
-    <row r="146" spans="1:9">
+      <c r="J145" s="4">
+        <v>-0.7407407407407407</v>
+      </c>
+      <c r="K145" s="4">
+        <v>0.7441860465116279</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="7" t="s">
         <v>32</v>
       </c>
@@ -5100,8 +5892,14 @@
       <c r="I146" s="4">
         <v>-3.626373626373626</v>
       </c>
-    </row>
-    <row r="147" spans="1:9">
+      <c r="J146" s="4">
+        <v>1.573033707865168</v>
+      </c>
+      <c r="K146" s="4">
+        <v>0.404040404040404</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="7" t="s">
         <v>33</v>
       </c>
@@ -5129,8 +5927,14 @@
       <c r="I147" s="4">
         <v>-4</v>
       </c>
-    </row>
-    <row r="148" spans="1:9">
+      <c r="J147" s="4">
+        <v>2.435897435897436</v>
+      </c>
+      <c r="K147" s="4">
+        <v>0.6818181818181818</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="8" t="s">
         <v>34</v>
       </c>
@@ -5158,8 +5962,14 @@
       <c r="I148" s="4">
         <v>1.230769230769231</v>
       </c>
-    </row>
-    <row r="149" spans="1:9">
+      <c r="J148" s="4">
+        <v>1.066666666666667</v>
+      </c>
+      <c r="K148" s="4">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="8" t="s">
         <v>35</v>
       </c>
@@ -5187,8 +5997,14 @@
       <c r="I149" s="4">
         <v>0.2666666666666667</v>
       </c>
-    </row>
-    <row r="150" spans="1:9">
+      <c r="J149" s="4">
+        <v>0.8108108108108107</v>
+      </c>
+      <c r="K149" s="4">
+        <v>0.5063291139240506</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="9" t="s">
         <v>36</v>
       </c>
@@ -5216,8 +6032,14 @@
       <c r="I150" s="4">
         <v>0.7480314960629921</v>
       </c>
-    </row>
-    <row r="151" spans="1:9">
+      <c r="J150" s="4">
+        <v>1.5625</v>
+      </c>
+      <c r="K150" s="4">
+        <v>1.976744186046512</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="9" t="s">
         <v>37</v>
       </c>
@@ -5245,8 +6067,14 @@
       <c r="I151" s="4">
         <v>1.330049261083744</v>
       </c>
-    </row>
-    <row r="152" spans="1:9">
+      <c r="J151" s="4">
+        <v>0.7981220657276995</v>
+      </c>
+      <c r="K151" s="4">
+        <v>0.6944444444444444</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="10" t="s">
         <v>38</v>
       </c>
@@ -5274,8 +6102,14 @@
       <c r="I152" s="4">
         <v>1.030927835051547</v>
       </c>
-    </row>
-    <row r="153" spans="1:9">
+      <c r="J152" s="4">
+        <v>1.649484536082474</v>
+      </c>
+      <c r="K152" s="4">
+        <v>1.355140186915888</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="10" t="s">
         <v>39</v>
       </c>
@@ -5303,8 +6137,14 @@
       <c r="I153" s="4">
         <v>0.8205128205128205</v>
       </c>
-    </row>
-    <row r="154" spans="1:9">
+      <c r="J153" s="4">
+        <v>1.317073170731707</v>
+      </c>
+      <c r="K153" s="4">
+        <v>1.298076923076923</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="11" t="s">
         <v>40</v>
       </c>
@@ -5332,8 +6172,14 @@
       <c r="I154" s="4">
         <v>0.7526881720430108</v>
       </c>
-    </row>
-    <row r="155" spans="1:9">
+      <c r="J154" s="4">
+        <v>0</v>
+      </c>
+      <c r="K154" s="4">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="11" t="s">
         <v>41</v>
       </c>
@@ -5361,8 +6207,14 @@
       <c r="I155" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:9">
+      <c r="J155" s="4">
+        <v>0.9890109890109891</v>
+      </c>
+      <c r="K155" s="4">
+        <v>0.7446808510638298</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="12" t="s">
         <v>42</v>
       </c>
@@ -5390,8 +6242,14 @@
       <c r="I156" s="4">
         <v>0.4276315789473684</v>
       </c>
-    </row>
-    <row r="157" spans="1:9">
+      <c r="J156" s="4">
+        <v>1.213114754098361</v>
+      </c>
+      <c r="K156" s="4">
+        <v>1.237785016286645</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="12" t="s">
         <v>43</v>
       </c>
@@ -5419,8 +6277,14 @@
       <c r="I157" s="4">
         <v>-0.8547008547008548</v>
       </c>
-    </row>
-    <row r="158" spans="1:9">
+      <c r="J157" s="4">
+        <v>-0.7423580786026202</v>
+      </c>
+      <c r="K157" s="4">
+        <v>0.8482142857142858</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="13" t="s">
         <v>44</v>
       </c>
@@ -5448,8 +6312,14 @@
       <c r="I158" s="4">
         <v>0.6410256410256411</v>
       </c>
-    </row>
-    <row r="159" spans="1:9">
+      <c r="J158" s="4">
+        <v>-1.44578313253012</v>
+      </c>
+      <c r="K158" s="4">
+        <v>0.4938271604938272</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="13" t="s">
         <v>45</v>
       </c>
@@ -5477,8 +6347,14 @@
       <c r="I159" s="4">
         <v>0.1694915254237288</v>
       </c>
-    </row>
-    <row r="160" spans="1:9">
+      <c r="J159" s="4">
+        <v>-3.275862068965517</v>
+      </c>
+      <c r="K159" s="4">
+        <v>0.1785714285714286</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="6" t="s">
         <v>31</v>
       </c>
@@ -5504,6 +6380,12 @@
         <v>0</v>
       </c>
       <c r="I160" s="4">
+        <v>0</v>
+      </c>
+      <c r="J160" s="4">
+        <v>0</v>
+      </c>
+      <c r="K160" s="4">
         <v>0</v>
       </c>
     </row>
@@ -5612,6 +6494,12 @@
       <c r="I163" s="4">
         <v>0.4098360655737705</v>
       </c>
+      <c r="J163" s="4">
+        <v>0.584045584045584</v>
+      </c>
+      <c r="K163" s="4">
+        <v>0.5597014925373134</v>
+      </c>
     </row>
     <row r="164" spans="1:25">
       <c r="A164" s="3" t="s">
@@ -5641,6 +6529,12 @@
       <c r="I164" s="4">
         <v>0.4340836012861736</v>
       </c>
+      <c r="J164" s="4">
+        <v>0.5832147937411095</v>
+      </c>
+      <c r="K164" s="4">
+        <v>0.6030150753768845</v>
+      </c>
     </row>
     <row r="165" spans="1:25">
       <c r="A165" s="5" t="s">
@@ -5670,6 +6564,12 @@
       <c r="I165" s="4">
         <v>0.2487046632124352</v>
       </c>
+      <c r="J165" s="4">
+        <v>0.3463992707383774</v>
+      </c>
+      <c r="K165" s="4">
+        <v>0.3551251008878127</v>
+      </c>
     </row>
     <row r="166" spans="1:25">
       <c r="A166" s="5" t="s">
@@ -5699,6 +6599,12 @@
       <c r="I166" s="4">
         <v>0.5923076923076923</v>
       </c>
+      <c r="J166" s="4">
+        <v>0.6215846994535519</v>
+      </c>
+      <c r="K166" s="4">
+        <v>0.5640711220110362</v>
+      </c>
     </row>
     <row r="167" spans="1:25">
       <c r="A167" s="6" t="s">
@@ -5728,6 +6634,12 @@
       <c r="I167" s="4">
         <v>1.563055062166963</v>
       </c>
+      <c r="J167" s="4">
+        <v>1.288311688311688</v>
+      </c>
+      <c r="K167" s="4">
+        <v>1.233766233766234</v>
+      </c>
     </row>
     <row r="168" spans="1:25">
       <c r="A168" s="6" t="s">
@@ -5757,6 +6669,12 @@
       <c r="I168" s="4">
         <v>1.468282252316465</v>
       </c>
+      <c r="J168" s="4">
+        <v>1.173563928350834</v>
+      </c>
+      <c r="K168" s="4">
+        <v>1.123227917121047</v>
+      </c>
     </row>
     <row r="169" spans="1:25">
       <c r="A169" s="7" t="s">
@@ -5786,6 +6704,12 @@
       <c r="I169" s="4">
         <v>0.4610492845786964</v>
       </c>
+      <c r="J169" s="4">
+        <v>0.5988857938718664</v>
+      </c>
+      <c r="K169" s="4">
+        <v>0.5752753977968176</v>
+      </c>
     </row>
     <row r="170" spans="1:25">
       <c r="A170" s="7" t="s">
@@ -5815,6 +6739,12 @@
       <c r="I170" s="4">
         <v>0.2595155709342561</v>
       </c>
+      <c r="J170" s="4">
+        <v>0.5182926829268293</v>
+      </c>
+      <c r="K170" s="4">
+        <v>0.5376344086021505</v>
+      </c>
     </row>
     <row r="171" spans="1:25">
       <c r="A171" s="8" t="s">
@@ -5844,6 +6774,12 @@
       <c r="I171" s="4">
         <v>0.2505694760820046</v>
       </c>
+      <c r="J171" s="4">
+        <v>0.3696498054474708</v>
+      </c>
+      <c r="K171" s="4">
+        <v>0.3367003367003367</v>
+      </c>
     </row>
     <row r="172" spans="1:25">
       <c r="A172" s="8" t="s">
@@ -5873,6 +6809,12 @@
       <c r="I172" s="4">
         <v>0.6405693950177936</v>
       </c>
+      <c r="J172" s="4">
+        <v>0.660377358490566</v>
+      </c>
+      <c r="K172" s="4">
+        <v>0.6433566433566433</v>
+      </c>
     </row>
     <row r="173" spans="1:25">
       <c r="A173" s="9" t="s">
@@ -5902,6 +6844,12 @@
       <c r="I173" s="4">
         <v>0.9606299212598425</v>
       </c>
+      <c r="J173" s="4">
+        <v>1.031929662193429</v>
+      </c>
+      <c r="K173" s="4">
+        <v>1.132699462587846</v>
+      </c>
     </row>
     <row r="174" spans="1:25">
       <c r="A174" s="9" t="s">
@@ -5931,6 +6879,12 @@
       <c r="I174" s="4">
         <v>0.946031746031746</v>
       </c>
+      <c r="J174" s="4">
+        <v>0.9284116331096196</v>
+      </c>
+      <c r="K174" s="4">
+        <v>0.9031936127744511</v>
+      </c>
     </row>
     <row r="175" spans="1:25">
       <c r="A175" s="10" t="s">
@@ -5960,6 +6914,12 @@
       <c r="I175" s="4">
         <v>0.5867014341590613</v>
       </c>
+      <c r="J175" s="4">
+        <v>0.7060185185185185</v>
+      </c>
+      <c r="K175" s="4">
+        <v>0.7775489186405767</v>
+      </c>
     </row>
     <row r="176" spans="1:25">
       <c r="A176" s="10" t="s">
@@ -5989,8 +6949,14 @@
       <c r="I176" s="4">
         <v>0.7939632545931758</v>
       </c>
-    </row>
-    <row r="177" spans="1:9">
+      <c r="J176" s="4">
+        <v>0.8559861191440139</v>
+      </c>
+      <c r="K176" s="4">
+        <v>0.9034589571502324</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" s="11" t="s">
         <v>40</v>
       </c>
@@ -6018,8 +6984,14 @@
       <c r="I177" s="4">
         <v>0.6994047619047619</v>
       </c>
-    </row>
-    <row r="178" spans="1:9">
+      <c r="J177" s="4">
+        <v>0.6994047619047619</v>
+      </c>
+      <c r="K177" s="4">
+        <v>0.6640625</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" s="11" t="s">
         <v>41</v>
       </c>
@@ -6047,8 +7019,14 @@
       <c r="I178" s="4">
         <v>-0.01851851851851852</v>
       </c>
-    </row>
-    <row r="179" spans="1:9">
+      <c r="J178" s="4">
+        <v>0.1267828843106181</v>
+      </c>
+      <c r="K178" s="4">
+        <v>0.2068965517241379</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" s="12" t="s">
         <v>42</v>
       </c>
@@ -6076,8 +7054,14 @@
       <c r="I179" s="4">
         <v>1.095890410958904</v>
       </c>
-    </row>
-    <row r="180" spans="1:9">
+      <c r="J179" s="4">
+        <v>1.109064112011791</v>
+      </c>
+      <c r="K179" s="4">
+        <v>1.12214498510427</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="12" t="s">
         <v>43</v>
       </c>
@@ -6105,8 +7089,14 @@
       <c r="I180" s="4">
         <v>0.994413407821229</v>
       </c>
-    </row>
-    <row r="181" spans="1:9">
+      <c r="J180" s="4">
+        <v>0.7974244675581971</v>
+      </c>
+      <c r="K180" s="4">
+        <v>0.8024966562639323</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" s="13" t="s">
         <v>44</v>
       </c>
@@ -6134,8 +7124,14 @@
       <c r="I181" s="4">
         <v>-0.07722007722007722</v>
       </c>
-    </row>
-    <row r="182" spans="1:9">
+      <c r="J181" s="4">
+        <v>-0.2662229617304492</v>
+      </c>
+      <c r="K181" s="4">
+        <v>-0.1759530791788856</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" s="13" t="s">
         <v>45</v>
       </c>
@@ -6163,8 +7159,14 @@
       <c r="I182" s="4">
         <v>0.462287104622871</v>
       </c>
-    </row>
-    <row r="183" spans="1:9">
+      <c r="J182" s="4">
+        <v>0</v>
+      </c>
+      <c r="K182" s="4">
+        <v>0.01904761904761905</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" s="6" t="s">
         <v>31</v>
       </c>
@@ -6190,6 +7192,12 @@
         <v>1.857142857142857</v>
       </c>
       <c r="I183" s="4">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="J183" s="4">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="K183" s="4">
         <v>1.857142857142857</v>
       </c>
     </row>
@@ -6311,6 +7319,12 @@
       <c r="I2" s="4">
         <v>-12</v>
       </c>
+      <c r="J2" s="4">
+        <v>31</v>
+      </c>
+      <c r="K2" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="5" t="s">
@@ -6340,6 +7354,12 @@
       <c r="I3" s="4">
         <v>13</v>
       </c>
+      <c r="J3" s="4">
+        <v>38</v>
+      </c>
+      <c r="K3" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="6" t="s">
@@ -6369,6 +7389,12 @@
       <c r="I4" s="4">
         <v>68</v>
       </c>
+      <c r="J4" s="4">
+        <v>-16</v>
+      </c>
+      <c r="K4" s="4">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="7" t="s">
@@ -6398,6 +7424,12 @@
       <c r="I5" s="4">
         <v>-65</v>
       </c>
+      <c r="J5" s="4">
+        <v>34</v>
+      </c>
+      <c r="K5" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="8" t="s">
@@ -6427,6 +7459,12 @@
       <c r="I6" s="4">
         <v>12</v>
       </c>
+      <c r="J6" s="4">
+        <v>13</v>
+      </c>
+      <c r="K6" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="9" t="s">
@@ -6456,6 +7494,12 @@
       <c r="I7" s="4">
         <v>56</v>
       </c>
+      <c r="J7" s="4">
+        <v>57</v>
+      </c>
+      <c r="K7" s="4">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="10" t="s">
@@ -6485,6 +7529,12 @@
       <c r="I8" s="4">
         <v>46</v>
       </c>
+      <c r="J8" s="4">
+        <v>74</v>
+      </c>
+      <c r="K8" s="4">
+        <v>66</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="11" t="s">
@@ -6514,6 +7564,12 @@
       <c r="I9" s="4">
         <v>12</v>
       </c>
+      <c r="J9" s="4">
+        <v>19</v>
+      </c>
+      <c r="K9" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="12" t="s">
@@ -6543,6 +7599,12 @@
       <c r="I10" s="4">
         <v>8</v>
       </c>
+      <c r="J10" s="4">
+        <v>25</v>
+      </c>
+      <c r="K10" s="4">
+        <v>82</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="13" t="s">
@@ -6572,6 +7634,12 @@
       <c r="I11" s="4">
         <v>11</v>
       </c>
+      <c r="J11" s="4">
+        <v>-26</v>
+      </c>
+      <c r="K11" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
@@ -6678,6 +7746,12 @@
       <c r="I14" s="4">
         <v>8.800000000000001</v>
       </c>
+      <c r="J14" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="K14" s="4">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="5" t="s">
@@ -6707,6 +7781,12 @@
       <c r="I15" s="4">
         <v>15.1</v>
       </c>
+      <c r="J15" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="K15" s="4">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="6" t="s">
@@ -6736,6 +7816,12 @@
       <c r="I16" s="4">
         <v>22.1</v>
       </c>
+      <c r="J16" s="4">
+        <v>23.1</v>
+      </c>
+      <c r="K16" s="4">
+        <v>22.6</v>
+      </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="7" t="s">
@@ -6765,6 +7851,12 @@
       <c r="I17" s="4">
         <v>9.199999999999999</v>
       </c>
+      <c r="J17" s="4">
+        <v>9</v>
+      </c>
+      <c r="K17" s="4">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="8" t="s">
@@ -6794,6 +7886,12 @@
       <c r="I18" s="4">
         <v>6.3</v>
       </c>
+      <c r="J18" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="K18" s="4">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="9" t="s">
@@ -6823,6 +7921,12 @@
       <c r="I19" s="4">
         <v>24.5</v>
       </c>
+      <c r="J19" s="4">
+        <v>25.5</v>
+      </c>
+      <c r="K19" s="4">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="10" t="s">
@@ -6852,6 +7956,12 @@
       <c r="I20" s="4">
         <v>20.6</v>
       </c>
+      <c r="J20" s="4">
+        <v>21.6</v>
+      </c>
+      <c r="K20" s="4">
+        <v>21.9</v>
+      </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="11" t="s">
@@ -6881,6 +7991,12 @@
       <c r="I21" s="4">
         <v>8.800000000000001</v>
       </c>
+      <c r="J21" s="4">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="K21" s="4">
+        <v>9.800000000000001</v>
+      </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="12" t="s">
@@ -6910,6 +8026,12 @@
       <c r="I22" s="4">
         <v>28.8</v>
       </c>
+      <c r="J22" s="4">
+        <v>28.8</v>
+      </c>
+      <c r="K22" s="4">
+        <v>28.8</v>
+      </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="13" t="s">
@@ -6939,6 +8061,12 @@
       <c r="I23" s="4">
         <v>6</v>
       </c>
+      <c r="J23" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="K23" s="4">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
@@ -7045,6 +8173,12 @@
       <c r="I26" s="4">
         <v>66</v>
       </c>
+      <c r="J26" s="4">
+        <v>97</v>
+      </c>
+      <c r="K26" s="4">
+        <v>121</v>
+      </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="5" t="s">
@@ -7074,6 +8208,12 @@
       <c r="I27" s="4">
         <v>146</v>
       </c>
+      <c r="J27" s="4">
+        <v>184</v>
+      </c>
+      <c r="K27" s="4">
+        <v>194</v>
+      </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="6" t="s">
@@ -7103,6 +8243,12 @@
       <c r="I28" s="4">
         <v>554</v>
       </c>
+      <c r="J28" s="4">
+        <v>538</v>
+      </c>
+      <c r="K28" s="4">
+        <v>582</v>
+      </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="7" t="s">
@@ -7132,6 +8278,12 @@
       <c r="I29" s="4">
         <v>69</v>
       </c>
+      <c r="J29" s="4">
+        <v>103</v>
+      </c>
+      <c r="K29" s="4">
+        <v>114</v>
+      </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="8" t="s">
@@ -7161,6 +8313,12 @@
       <c r="I30" s="4">
         <v>52</v>
       </c>
+      <c r="J30" s="4">
+        <v>65</v>
+      </c>
+      <c r="K30" s="4">
+        <v>73</v>
+      </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="9" t="s">
@@ -7190,6 +8348,12 @@
       <c r="I31" s="4">
         <v>388</v>
       </c>
+      <c r="J31" s="4">
+        <v>445</v>
+      </c>
+      <c r="K31" s="4">
+        <v>511</v>
+      </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="10" t="s">
@@ -7219,6 +8383,12 @@
       <c r="I32" s="4">
         <v>291</v>
       </c>
+      <c r="J32" s="4">
+        <v>365</v>
+      </c>
+      <c r="K32" s="4">
+        <v>431</v>
+      </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="11" t="s">
@@ -7248,6 +8418,12 @@
       <c r="I33" s="4">
         <v>85</v>
       </c>
+      <c r="J33" s="4">
+        <v>104</v>
+      </c>
+      <c r="K33" s="4">
+        <v>114</v>
+      </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="12" t="s">
@@ -7277,6 +8453,12 @@
       <c r="I34" s="4">
         <v>599</v>
       </c>
+      <c r="J34" s="4">
+        <v>624</v>
+      </c>
+      <c r="K34" s="4">
+        <v>706</v>
+      </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="13" t="s">
@@ -7306,6 +8488,12 @@
       <c r="I35" s="4">
         <v>27</v>
       </c>
+      <c r="J35" s="4">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="1" t="s">
@@ -7412,6 +8600,12 @@
       <c r="I38" s="4">
         <v>64.8</v>
       </c>
+      <c r="J38" s="4">
+        <v>73.39999999999999</v>
+      </c>
+      <c r="K38" s="4">
+        <v>82.49999999999999</v>
+      </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="5" t="s">
@@ -7441,6 +8635,12 @@
       <c r="I39" s="4">
         <v>116</v>
       </c>
+      <c r="J39" s="4">
+        <v>131.2</v>
+      </c>
+      <c r="K39" s="4">
+        <v>146.7</v>
+      </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="6" t="s">
@@ -7470,6 +8670,12 @@
       <c r="I40" s="4">
         <v>166.3</v>
       </c>
+      <c r="J40" s="4">
+        <v>189.4</v>
+      </c>
+      <c r="K40" s="4">
+        <v>212</v>
+      </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="7" t="s">
@@ -7499,6 +8705,12 @@
       <c r="I41" s="4">
         <v>60.2</v>
       </c>
+      <c r="J41" s="4">
+        <v>69.2</v>
+      </c>
+      <c r="K41" s="4">
+        <v>78.7</v>
+      </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="8" t="s">
@@ -7528,6 +8740,12 @@
       <c r="I42" s="4">
         <v>50.2</v>
       </c>
+      <c r="J42" s="4">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="K42" s="4">
+        <v>64.3</v>
+      </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="9" t="s">
@@ -7557,6 +8775,12 @@
       <c r="I43" s="4">
         <v>190.8</v>
       </c>
+      <c r="J43" s="4">
+        <v>216.3</v>
+      </c>
+      <c r="K43" s="4">
+        <v>241.9</v>
+      </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="10" t="s">
@@ -7586,6 +8810,12 @@
       <c r="I44" s="4">
         <v>161.4</v>
       </c>
+      <c r="J44" s="4">
+        <v>183</v>
+      </c>
+      <c r="K44" s="4">
+        <v>204.9</v>
+      </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="11" t="s">
@@ -7615,6 +8845,12 @@
       <c r="I45" s="4">
         <v>68.7</v>
       </c>
+      <c r="J45" s="4">
+        <v>78</v>
+      </c>
+      <c r="K45" s="4">
+        <v>87.8</v>
+      </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="12" t="s">
@@ -7644,6 +8880,12 @@
       <c r="I46" s="4">
         <v>226.8</v>
       </c>
+      <c r="J46" s="4">
+        <v>255.6</v>
+      </c>
+      <c r="K46" s="4">
+        <v>284.4</v>
+      </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="13" t="s">
@@ -7673,6 +8915,12 @@
       <c r="I47" s="4">
         <v>50.7</v>
       </c>
+      <c r="J47" s="4">
+        <v>57.2</v>
+      </c>
+      <c r="K47" s="4">
+        <v>63.49999999999999</v>
+      </c>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" s="1" t="s">
@@ -7779,6 +9027,12 @@
       <c r="I50" s="4">
         <v>8.25</v>
       </c>
+      <c r="J50" s="4">
+        <v>10.77777777777778</v>
+      </c>
+      <c r="K50" s="4">
+        <v>12.1</v>
+      </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="5" t="s">
@@ -7808,6 +9062,12 @@
       <c r="I51" s="4">
         <v>18.25</v>
       </c>
+      <c r="J51" s="4">
+        <v>20.44444444444444</v>
+      </c>
+      <c r="K51" s="4">
+        <v>19.4</v>
+      </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" s="6" t="s">
@@ -7837,6 +9097,12 @@
       <c r="I52" s="4">
         <v>69.25</v>
       </c>
+      <c r="J52" s="4">
+        <v>59.77777777777778</v>
+      </c>
+      <c r="K52" s="4">
+        <v>58.2</v>
+      </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" s="7" t="s">
@@ -7866,6 +9132,12 @@
       <c r="I53" s="4">
         <v>8.625</v>
       </c>
+      <c r="J53" s="4">
+        <v>11.44444444444444</v>
+      </c>
+      <c r="K53" s="4">
+        <v>11.4</v>
+      </c>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" s="8" t="s">
@@ -7895,6 +9167,12 @@
       <c r="I54" s="4">
         <v>6.5</v>
       </c>
+      <c r="J54" s="4">
+        <v>7.222222222222222</v>
+      </c>
+      <c r="K54" s="4">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="9" t="s">
@@ -7924,6 +9202,12 @@
       <c r="I55" s="4">
         <v>48.5</v>
       </c>
+      <c r="J55" s="4">
+        <v>49.44444444444444</v>
+      </c>
+      <c r="K55" s="4">
+        <v>51.1</v>
+      </c>
     </row>
     <row r="56" spans="1:25">
       <c r="A56" s="10" t="s">
@@ -7953,6 +9237,12 @@
       <c r="I56" s="4">
         <v>36.375</v>
       </c>
+      <c r="J56" s="4">
+        <v>40.55555555555556</v>
+      </c>
+      <c r="K56" s="4">
+        <v>43.1</v>
+      </c>
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="11" t="s">
@@ -7982,6 +9272,12 @@
       <c r="I57" s="4">
         <v>10.625</v>
       </c>
+      <c r="J57" s="4">
+        <v>11.55555555555556</v>
+      </c>
+      <c r="K57" s="4">
+        <v>11.4</v>
+      </c>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" s="12" t="s">
@@ -8011,6 +9307,12 @@
       <c r="I58" s="4">
         <v>74.875</v>
       </c>
+      <c r="J58" s="4">
+        <v>69.33333333333333</v>
+      </c>
+      <c r="K58" s="4">
+        <v>70.59999999999999</v>
+      </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" s="13" t="s">
@@ -8040,6 +9342,12 @@
       <c r="I59" s="4">
         <v>3.375</v>
       </c>
+      <c r="J59" s="4">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K59" s="4">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="1" t="s">
@@ -8146,6 +9454,12 @@
       <c r="I62" s="4">
         <v>8.1</v>
       </c>
+      <c r="J62" s="4">
+        <v>8.155555555555555</v>
+      </c>
+      <c r="K62" s="4">
+        <v>8.249999999999998</v>
+      </c>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" s="5" t="s">
@@ -8175,6 +9489,12 @@
       <c r="I63" s="4">
         <v>14.5</v>
       </c>
+      <c r="J63" s="4">
+        <v>14.57777777777778</v>
+      </c>
+      <c r="K63" s="4">
+        <v>14.67</v>
+      </c>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" s="6" t="s">
@@ -8204,6 +9524,12 @@
       <c r="I64" s="4">
         <v>20.7875</v>
       </c>
+      <c r="J64" s="4">
+        <v>21.04444444444444</v>
+      </c>
+      <c r="K64" s="4">
+        <v>21.2</v>
+      </c>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="7" t="s">
@@ -8233,6 +9559,12 @@
       <c r="I65" s="4">
         <v>7.525</v>
       </c>
+      <c r="J65" s="4">
+        <v>7.688888888888889</v>
+      </c>
+      <c r="K65" s="4">
+        <v>7.87</v>
+      </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="8" t="s">
@@ -8262,6 +9594,12 @@
       <c r="I66" s="4">
         <v>6.274999999999999</v>
       </c>
+      <c r="J66" s="4">
+        <v>6.333333333333332</v>
+      </c>
+      <c r="K66" s="4">
+        <v>6.43</v>
+      </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="9" t="s">
@@ -8291,6 +9629,12 @@
       <c r="I67" s="4">
         <v>23.85</v>
       </c>
+      <c r="J67" s="4">
+        <v>24.03333333333333</v>
+      </c>
+      <c r="K67" s="4">
+        <v>24.19</v>
+      </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="10" t="s">
@@ -8320,6 +9664,12 @@
       <c r="I68" s="4">
         <v>20.175</v>
       </c>
+      <c r="J68" s="4">
+        <v>20.33333333333333</v>
+      </c>
+      <c r="K68" s="4">
+        <v>20.49</v>
+      </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="11" t="s">
@@ -8349,6 +9699,12 @@
       <c r="I69" s="4">
         <v>8.5875</v>
       </c>
+      <c r="J69" s="4">
+        <v>8.666666666666666</v>
+      </c>
+      <c r="K69" s="4">
+        <v>8.779999999999999</v>
+      </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="12" t="s">
@@ -8378,6 +9734,12 @@
       <c r="I70" s="4">
         <v>28.35</v>
       </c>
+      <c r="J70" s="4">
+        <v>28.4</v>
+      </c>
+      <c r="K70" s="4">
+        <v>28.44</v>
+      </c>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="13" t="s">
@@ -8407,6 +9769,12 @@
       <c r="I71" s="4">
         <v>6.337499999999999</v>
       </c>
+      <c r="J71" s="4">
+        <v>6.355555555555555</v>
+      </c>
+      <c r="K71" s="4">
+        <v>6.35</v>
+      </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="1" t="s">
@@ -8513,6 +9881,12 @@
       <c r="I74" s="4">
         <v>-1.363636363636364</v>
       </c>
+      <c r="J74" s="4">
+        <v>3.604651162790698</v>
+      </c>
+      <c r="K74" s="4">
+        <v>2.637362637362637</v>
+      </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="5" t="s">
@@ -8542,6 +9916,12 @@
       <c r="I75" s="4">
         <v>0.8609271523178809</v>
       </c>
+      <c r="J75" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="K75" s="4">
+        <v>0.6451612903225806</v>
+      </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="6" t="s">
@@ -8571,6 +9951,12 @@
       <c r="I76" s="4">
         <v>3.076923076923077</v>
       </c>
+      <c r="J76" s="4">
+        <v>-0.6926406926406926</v>
+      </c>
+      <c r="K76" s="4">
+        <v>1.946902654867257</v>
+      </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="7" t="s">
@@ -8600,6 +9986,12 @@
       <c r="I77" s="4">
         <v>-7.065217391304349</v>
       </c>
+      <c r="J77" s="4">
+        <v>3.777777777777778</v>
+      </c>
+      <c r="K77" s="4">
+        <v>1.157894736842105</v>
+      </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="8" t="s">
@@ -8629,6 +10021,12 @@
       <c r="I78" s="4">
         <v>1.904761904761905</v>
       </c>
+      <c r="J78" s="4">
+        <v>1.911764705882353</v>
+      </c>
+      <c r="K78" s="4">
+        <v>1.095890410958904</v>
+      </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="9" t="s">
@@ -8658,6 +10056,12 @@
       <c r="I79" s="4">
         <v>2.285714285714286</v>
       </c>
+      <c r="J79" s="4">
+        <v>2.235294117647059</v>
+      </c>
+      <c r="K79" s="4">
+        <v>2.578125</v>
+      </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="10" t="s">
@@ -8687,6 +10091,12 @@
       <c r="I80" s="4">
         <v>2.233009708737864</v>
       </c>
+      <c r="J80" s="4">
+        <v>3.425925925925926</v>
+      </c>
+      <c r="K80" s="4">
+        <v>3.013698630136986</v>
+      </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" s="11" t="s">
@@ -8716,6 +10126,12 @@
       <c r="I81" s="4">
         <v>1.363636363636364</v>
       </c>
+      <c r="J81" s="4">
+        <v>2.043010752688172</v>
+      </c>
+      <c r="K81" s="4">
+        <v>1.020408163265306</v>
+      </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="12" t="s">
@@ -8745,6 +10161,12 @@
       <c r="I82" s="4">
         <v>0.2777777777777778</v>
       </c>
+      <c r="J82" s="4">
+        <v>0.8680555555555556</v>
+      </c>
+      <c r="K82" s="4">
+        <v>2.847222222222222</v>
+      </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="13" t="s">
@@ -8774,6 +10196,12 @@
       <c r="I83" s="4">
         <v>1.833333333333333</v>
       </c>
+      <c r="J83" s="4">
+        <v>-4</v>
+      </c>
+      <c r="K83" s="4">
+        <v>0.6349206349206349</v>
+      </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="1" t="s">
@@ -8880,6 +10308,12 @@
       <c r="I86" s="4">
         <v>1.018518518518519</v>
       </c>
+      <c r="J86" s="4">
+        <v>1.321525885558583</v>
+      </c>
+      <c r="K86" s="4">
+        <v>1.466666666666667</v>
+      </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" s="5" t="s">
@@ -8909,6 +10343,12 @@
       <c r="I87" s="4">
         <v>1.258620689655172</v>
       </c>
+      <c r="J87" s="4">
+        <v>1.402439024390244</v>
+      </c>
+      <c r="K87" s="4">
+        <v>1.322426721199727</v>
+      </c>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" s="6" t="s">
@@ -8938,6 +10378,12 @@
       <c r="I88" s="4">
         <v>3.33132892363199</v>
       </c>
+      <c r="J88" s="4">
+        <v>2.840549102428722</v>
+      </c>
+      <c r="K88" s="4">
+        <v>2.745283018867925</v>
+      </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" s="7" t="s">
@@ -8967,6 +10413,12 @@
       <c r="I89" s="4">
         <v>1.146179401993356</v>
       </c>
+      <c r="J89" s="4">
+        <v>1.488439306358381</v>
+      </c>
+      <c r="K89" s="4">
+        <v>1.44853875476493</v>
+      </c>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" s="8" t="s">
@@ -8996,6 +10448,12 @@
       <c r="I90" s="4">
         <v>1.035856573705179</v>
       </c>
+      <c r="J90" s="4">
+        <v>1.140350877192982</v>
+      </c>
+      <c r="K90" s="4">
+        <v>1.135303265940902</v>
+      </c>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" s="9" t="s">
@@ -9025,6 +10483,12 @@
       <c r="I91" s="4">
         <v>2.033542976939203</v>
       </c>
+      <c r="J91" s="4">
+        <v>2.057327785483125</v>
+      </c>
+      <c r="K91" s="4">
+        <v>2.112443158329888</v>
+      </c>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" s="10" t="s">
@@ -9054,6 +10518,12 @@
       <c r="I92" s="4">
         <v>1.802973977695167</v>
       </c>
+      <c r="J92" s="4">
+        <v>1.994535519125683</v>
+      </c>
+      <c r="K92" s="4">
+        <v>2.103465104929234</v>
+      </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" s="11" t="s">
@@ -9083,6 +10553,12 @@
       <c r="I93" s="4">
         <v>1.2372634643377</v>
       </c>
+      <c r="J93" s="4">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="K93" s="4">
+        <v>1.298405466970387</v>
+      </c>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" s="12" t="s">
@@ -9112,6 +10588,12 @@
       <c r="I94" s="4">
         <v>2.641093474426808</v>
       </c>
+      <c r="J94" s="4">
+        <v>2.44131455399061</v>
+      </c>
+      <c r="K94" s="4">
+        <v>2.482419127988749</v>
+      </c>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="13" t="s">
@@ -9140,6 +10622,12 @@
       </c>
       <c r="I95" s="4">
         <v>0.5325443786982248</v>
+      </c>
+      <c r="J95" s="4">
+        <v>0.01748251748251748</v>
+      </c>
+      <c r="K95" s="4">
+        <v>0.07874015748031496</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2024/Lineup/Results.xlsx
+++ b/Data/2024/Lineup/Results.xlsx
@@ -816,6 +816,15 @@
       <c r="K2" s="4">
         <v>4</v>
       </c>
+      <c r="L2" s="4">
+        <v>4</v>
+      </c>
+      <c r="M2" s="4">
+        <v>6</v>
+      </c>
+      <c r="N2" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="3" t="s">
@@ -851,6 +860,15 @@
       <c r="K3" s="4">
         <v>7</v>
       </c>
+      <c r="L3" s="4">
+        <v>12</v>
+      </c>
+      <c r="M3" s="4">
+        <v>-20</v>
+      </c>
+      <c r="N3" s="4">
+        <v>-19</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="5" t="s">
@@ -886,6 +904,15 @@
       <c r="K4" s="4">
         <v>6</v>
       </c>
+      <c r="L4" s="4">
+        <v>16</v>
+      </c>
+      <c r="M4" s="4">
+        <v>12</v>
+      </c>
+      <c r="N4" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="5" t="s">
@@ -921,6 +948,15 @@
       <c r="K5" s="4">
         <v>1</v>
       </c>
+      <c r="L5" s="4">
+        <v>10</v>
+      </c>
+      <c r="M5" s="4">
+        <v>9</v>
+      </c>
+      <c r="N5" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="6" t="s">
@@ -956,6 +992,15 @@
       <c r="K6" s="4">
         <v>18</v>
       </c>
+      <c r="L6" s="4">
+        <v>16</v>
+      </c>
+      <c r="M6" s="4">
+        <v>2</v>
+      </c>
+      <c r="N6" s="4">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="6" t="s">
@@ -991,6 +1036,15 @@
       <c r="K7" s="4">
         <v>16</v>
       </c>
+      <c r="L7" s="4">
+        <v>28</v>
+      </c>
+      <c r="M7" s="4">
+        <v>28</v>
+      </c>
+      <c r="N7" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="6" t="s">
@@ -1026,6 +1080,15 @@
       <c r="K8" s="4">
         <v>0</v>
       </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="7" t="s">
@@ -1061,6 +1124,15 @@
       <c r="K9" s="4">
         <v>4</v>
       </c>
+      <c r="L9" s="4">
+        <v>16</v>
+      </c>
+      <c r="M9" s="4">
+        <v>11</v>
+      </c>
+      <c r="N9" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="7" t="s">
@@ -1096,6 +1168,15 @@
       <c r="K10" s="4">
         <v>6</v>
       </c>
+      <c r="L10" s="4">
+        <v>20</v>
+      </c>
+      <c r="M10" s="4">
+        <v>14</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="8" t="s">
@@ -1131,6 +1212,15 @@
       <c r="K11" s="4">
         <v>1</v>
       </c>
+      <c r="L11" s="4">
+        <v>8</v>
+      </c>
+      <c r="M11" s="4">
+        <v>4</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="8" t="s">
@@ -1166,6 +1256,15 @@
       <c r="K12" s="4">
         <v>4</v>
       </c>
+      <c r="L12" s="4">
+        <v>2</v>
+      </c>
+      <c r="M12" s="4">
+        <v>-2</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="9" t="s">
@@ -1201,6 +1300,15 @@
       <c r="K13" s="4">
         <v>51</v>
       </c>
+      <c r="L13" s="4">
+        <v>13</v>
+      </c>
+      <c r="M13" s="4">
+        <v>26</v>
+      </c>
+      <c r="N13" s="4">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="9" t="s">
@@ -1236,6 +1344,15 @@
       <c r="K14" s="4">
         <v>15</v>
       </c>
+      <c r="L14" s="4">
+        <v>42</v>
+      </c>
+      <c r="M14" s="4">
+        <v>23</v>
+      </c>
+      <c r="N14" s="4">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="10" t="s">
@@ -1271,6 +1388,15 @@
       <c r="K15" s="4">
         <v>29</v>
       </c>
+      <c r="L15" s="4">
+        <v>23</v>
+      </c>
+      <c r="M15" s="4">
+        <v>47</v>
+      </c>
+      <c r="N15" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="10" t="s">
@@ -1306,6 +1432,15 @@
       <c r="K16" s="4">
         <v>27</v>
       </c>
+      <c r="L16" s="4">
+        <v>43</v>
+      </c>
+      <c r="M16" s="4">
+        <v>-9</v>
+      </c>
+      <c r="N16" s="4">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="11" t="s">
@@ -1341,6 +1476,15 @@
       <c r="K17" s="4">
         <v>4</v>
       </c>
+      <c r="L17" s="4">
+        <v>10</v>
+      </c>
+      <c r="M17" s="4">
+        <v>7</v>
+      </c>
+      <c r="N17" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="11" t="s">
@@ -1376,6 +1520,15 @@
       <c r="K18" s="4">
         <v>7</v>
       </c>
+      <c r="L18" s="4">
+        <v>10</v>
+      </c>
+      <c r="M18" s="4">
+        <v>6</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="12" t="s">
@@ -1411,6 +1564,15 @@
       <c r="K19" s="4">
         <v>38</v>
       </c>
+      <c r="L19" s="4">
+        <v>25</v>
+      </c>
+      <c r="M19" s="4">
+        <v>29</v>
+      </c>
+      <c r="N19" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="12" t="s">
@@ -1446,6 +1608,15 @@
       <c r="K20" s="4">
         <v>19</v>
       </c>
+      <c r="L20" s="4">
+        <v>18</v>
+      </c>
+      <c r="M20" s="4">
+        <v>6</v>
+      </c>
+      <c r="N20" s="4">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="13" t="s">
@@ -1481,6 +1652,15 @@
       <c r="K21" s="4">
         <v>4</v>
       </c>
+      <c r="L21" s="4">
+        <v>12</v>
+      </c>
+      <c r="M21" s="4">
+        <v>6</v>
+      </c>
+      <c r="N21" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="13" t="s">
@@ -1516,6 +1696,15 @@
       <c r="K22" s="4">
         <v>1</v>
       </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>4</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
@@ -1628,6 +1817,15 @@
       <c r="K25" s="4">
         <v>10.2</v>
       </c>
+      <c r="L25" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="M25" s="4">
+        <v>10</v>
+      </c>
+      <c r="N25" s="4">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="3" t="s">
@@ -1663,6 +1861,15 @@
       <c r="K26" s="4">
         <v>9.300000000000001</v>
       </c>
+      <c r="L26" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="M26" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="N26" s="4">
+        <v>9.9</v>
+      </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="5" t="s">
@@ -1698,6 +1905,15 @@
       <c r="K27" s="4">
         <v>14.2</v>
       </c>
+      <c r="L27" s="4">
+        <v>14.1</v>
+      </c>
+      <c r="M27" s="4">
+        <v>14.6</v>
+      </c>
+      <c r="N27" s="4">
+        <v>15.1</v>
+      </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="5" t="s">
@@ -1733,6 +1949,15 @@
       <c r="K28" s="4">
         <v>16.7</v>
       </c>
+      <c r="L28" s="4">
+        <v>16.4</v>
+      </c>
+      <c r="M28" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="N28" s="4">
+        <v>16.6</v>
+      </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="6" t="s">
@@ -1768,6 +1993,15 @@
       <c r="K29" s="4">
         <v>23.1</v>
       </c>
+      <c r="L29" s="4">
+        <v>23.2</v>
+      </c>
+      <c r="M29" s="4">
+        <v>23.3</v>
+      </c>
+      <c r="N29" s="4">
+        <v>23</v>
+      </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="6" t="s">
@@ -1803,6 +2037,15 @@
       <c r="K30" s="4">
         <v>21.5</v>
       </c>
+      <c r="L30" s="4">
+        <v>21.6</v>
+      </c>
+      <c r="M30" s="4">
+        <v>21.9</v>
+      </c>
+      <c r="N30" s="4">
+        <v>22.2</v>
+      </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="6" t="s">
@@ -1838,6 +2081,15 @@
       <c r="K31" s="4">
         <v>0</v>
       </c>
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="7" t="s">
@@ -1873,6 +2125,15 @@
       <c r="K32" s="4">
         <v>9.9</v>
       </c>
+      <c r="L32" s="4">
+        <v>10</v>
+      </c>
+      <c r="M32" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="N32" s="4">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="7" t="s">
@@ -1908,6 +2169,15 @@
       <c r="K33" s="4">
         <v>8.800000000000001</v>
       </c>
+      <c r="L33" s="4">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="M33" s="4">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="N33" s="4">
+        <v>9.699999999999999</v>
+      </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="8" t="s">
@@ -1943,6 +2213,15 @@
       <c r="K34" s="4">
         <v>8</v>
       </c>
+      <c r="L34" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="M34" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="N34" s="4">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="8" t="s">
@@ -1978,6 +2257,15 @@
       <c r="K35" s="4">
         <v>7.9</v>
       </c>
+      <c r="L35" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="M35" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="N35" s="4">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="9" t="s">
@@ -2013,6 +2301,15 @@
       <c r="K36" s="4">
         <v>25.8</v>
       </c>
+      <c r="L36" s="4">
+        <v>26</v>
+      </c>
+      <c r="M36" s="4">
+        <v>26</v>
+      </c>
+      <c r="N36" s="4">
+        <v>26.1</v>
+      </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="9" t="s">
@@ -2048,6 +2345,15 @@
       <c r="K37" s="4">
         <v>21.6</v>
       </c>
+      <c r="L37" s="4">
+        <v>21.7</v>
+      </c>
+      <c r="M37" s="4">
+        <v>22</v>
+      </c>
+      <c r="N37" s="4">
+        <v>22.3</v>
+      </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="10" t="s">
@@ -2083,6 +2389,15 @@
       <c r="K38" s="4">
         <v>21.4</v>
       </c>
+      <c r="L38" s="4">
+        <v>21.7</v>
+      </c>
+      <c r="M38" s="4">
+        <v>21.8</v>
+      </c>
+      <c r="N38" s="4">
+        <v>22.8</v>
+      </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="10" t="s">
@@ -2118,6 +2433,15 @@
       <c r="K39" s="4">
         <v>20.8</v>
       </c>
+      <c r="L39" s="4">
+        <v>21.1</v>
+      </c>
+      <c r="M39" s="4">
+        <v>21.4</v>
+      </c>
+      <c r="N39" s="4">
+        <v>20.9</v>
+      </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="11" t="s">
@@ -2153,6 +2477,15 @@
       <c r="K40" s="4">
         <v>9.6</v>
       </c>
+      <c r="L40" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="M40" s="4">
+        <v>10</v>
+      </c>
+      <c r="N40" s="4">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="11" t="s">
@@ -2188,6 +2521,15 @@
       <c r="K41" s="4">
         <v>9.4</v>
       </c>
+      <c r="L41" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="M41" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="N41" s="4">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="12" t="s">
@@ -2223,6 +2565,15 @@
       <c r="K42" s="4">
         <v>30.7</v>
       </c>
+      <c r="L42" s="4">
+        <v>30.8</v>
+      </c>
+      <c r="M42" s="4">
+        <v>30.9</v>
+      </c>
+      <c r="N42" s="4">
+        <v>31</v>
+      </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="12" t="s">
@@ -2258,6 +2609,15 @@
       <c r="K43" s="4">
         <v>22.4</v>
       </c>
+      <c r="L43" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="M43" s="4">
+        <v>22.6</v>
+      </c>
+      <c r="N43" s="4">
+        <v>22.7</v>
+      </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="13" t="s">
@@ -2293,6 +2653,15 @@
       <c r="K44" s="4">
         <v>8.1</v>
       </c>
+      <c r="L44" s="4">
+        <v>8</v>
+      </c>
+      <c r="M44" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="N44" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="13" t="s">
@@ -2328,6 +2697,15 @@
       <c r="K45" s="4">
         <v>5.6</v>
       </c>
+      <c r="L45" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M45" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="N45" s="4">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="1" t="s">
@@ -2440,8 +2818,17 @@
       <c r="K48" s="4">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48" s="4">
+        <v>49</v>
+      </c>
+      <c r="M48" s="4">
+        <v>55</v>
+      </c>
+      <c r="N48" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="3" t="s">
         <v>26</v>
       </c>
@@ -2475,8 +2862,17 @@
       <c r="K49" s="4">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49" s="4">
+        <v>60</v>
+      </c>
+      <c r="M49" s="4">
+        <v>40</v>
+      </c>
+      <c r="N49" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="5" t="s">
         <v>27</v>
       </c>
@@ -2510,8 +2906,17 @@
       <c r="K50" s="4">
         <v>44</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50" s="4">
+        <v>60</v>
+      </c>
+      <c r="M50" s="4">
+        <v>72</v>
+      </c>
+      <c r="N50" s="4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="5" t="s">
         <v>28</v>
       </c>
@@ -2545,8 +2950,17 @@
       <c r="K51" s="4">
         <v>92</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51" s="4">
+        <v>102</v>
+      </c>
+      <c r="M51" s="4">
+        <v>111</v>
+      </c>
+      <c r="N51" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="6" t="s">
         <v>29</v>
       </c>
@@ -2580,8 +2994,17 @@
       <c r="K52" s="4">
         <v>266</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52" s="4">
+        <v>282</v>
+      </c>
+      <c r="M52" s="4">
+        <v>284</v>
+      </c>
+      <c r="N52" s="4">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="6" t="s">
         <v>30</v>
       </c>
@@ -2615,8 +3038,17 @@
       <c r="K53" s="4">
         <v>206</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53" s="4">
+        <v>234</v>
+      </c>
+      <c r="M53" s="4">
+        <v>262</v>
+      </c>
+      <c r="N53" s="4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="7" t="s">
         <v>32</v>
       </c>
@@ -2650,8 +3082,17 @@
       <c r="K54" s="4">
         <v>47</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54" s="4">
+        <v>63</v>
+      </c>
+      <c r="M54" s="4">
+        <v>74</v>
+      </c>
+      <c r="N54" s="4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="7" t="s">
         <v>33</v>
       </c>
@@ -2685,8 +3126,17 @@
       <c r="K55" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55" s="4">
+        <v>60</v>
+      </c>
+      <c r="M55" s="4">
+        <v>74</v>
+      </c>
+      <c r="N55" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="8" t="s">
         <v>34</v>
       </c>
@@ -2720,8 +3170,17 @@
       <c r="K56" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56" s="4">
+        <v>28</v>
+      </c>
+      <c r="M56" s="4">
+        <v>32</v>
+      </c>
+      <c r="N56" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="8" t="s">
         <v>35</v>
       </c>
@@ -2755,8 +3214,17 @@
       <c r="K57" s="4">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57" s="4">
+        <v>48</v>
+      </c>
+      <c r="M57" s="4">
+        <v>46</v>
+      </c>
+      <c r="N57" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="9" t="s">
         <v>36</v>
       </c>
@@ -2790,8 +3258,17 @@
       <c r="K58" s="4">
         <v>274</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58" s="4">
+        <v>287</v>
+      </c>
+      <c r="M58" s="4">
+        <v>313</v>
+      </c>
+      <c r="N58" s="4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="9" t="s">
         <v>37</v>
       </c>
@@ -2825,8 +3302,17 @@
       <c r="K59" s="4">
         <v>181</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59" s="4">
+        <v>223</v>
+      </c>
+      <c r="M59" s="4">
+        <v>246</v>
+      </c>
+      <c r="N59" s="4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="10" t="s">
         <v>38</v>
       </c>
@@ -2860,8 +3346,17 @@
       <c r="K60" s="4">
         <v>151</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60" s="4">
+        <v>174</v>
+      </c>
+      <c r="M60" s="4">
+        <v>221</v>
+      </c>
+      <c r="N60" s="4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="10" t="s">
         <v>39</v>
       </c>
@@ -2895,8 +3390,17 @@
       <c r="K61" s="4">
         <v>175</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61" s="4">
+        <v>218</v>
+      </c>
+      <c r="M61" s="4">
+        <v>209</v>
+      </c>
+      <c r="N61" s="4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="11" t="s">
         <v>40</v>
       </c>
@@ -2930,8 +3434,17 @@
       <c r="K62" s="4">
         <v>51</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62" s="4">
+        <v>61</v>
+      </c>
+      <c r="M62" s="4">
+        <v>68</v>
+      </c>
+      <c r="N62" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="11" t="s">
         <v>41</v>
       </c>
@@ -2965,8 +3478,17 @@
       <c r="K63" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63" s="4">
+        <v>25</v>
+      </c>
+      <c r="M63" s="4">
+        <v>31</v>
+      </c>
+      <c r="N63" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="12" t="s">
         <v>42</v>
       </c>
@@ -2999,6 +3521,15 @@
       </c>
       <c r="K64" s="4">
         <v>339</v>
+      </c>
+      <c r="L64" s="4">
+        <v>364</v>
+      </c>
+      <c r="M64" s="4">
+        <v>393</v>
+      </c>
+      <c r="N64" s="4">
+        <v>410</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -3035,6 +3566,15 @@
       <c r="K65" s="4">
         <v>180</v>
       </c>
+      <c r="L65" s="4">
+        <v>198</v>
+      </c>
+      <c r="M65" s="4">
+        <v>204</v>
+      </c>
+      <c r="N65" s="4">
+        <v>224</v>
+      </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="13" t="s">
@@ -3070,6 +3610,15 @@
       <c r="K66" s="4">
         <v>-12</v>
       </c>
+      <c r="L66" s="4">
+        <v>0</v>
+      </c>
+      <c r="M66" s="4">
+        <v>6</v>
+      </c>
+      <c r="N66" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="13" t="s">
@@ -3105,6 +3654,15 @@
       <c r="K67" s="4">
         <v>1</v>
       </c>
+      <c r="L67" s="4">
+        <v>1</v>
+      </c>
+      <c r="M67" s="4">
+        <v>5</v>
+      </c>
+      <c r="N67" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="6" t="s">
@@ -3140,6 +3698,15 @@
       <c r="K68" s="4">
         <v>26</v>
       </c>
+      <c r="L68" s="4">
+        <v>26</v>
+      </c>
+      <c r="M68" s="4">
+        <v>26</v>
+      </c>
+      <c r="N68" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="1" t="s">
@@ -3252,6 +3819,15 @@
       <c r="K71" s="4">
         <v>89.2</v>
       </c>
+      <c r="L71" s="4">
+        <v>99.3</v>
+      </c>
+      <c r="M71" s="4">
+        <v>109.3</v>
+      </c>
+      <c r="N71" s="4">
+        <v>119.8</v>
+      </c>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" s="3" t="s">
@@ -3287,6 +3863,15 @@
       <c r="K72" s="4">
         <v>79.59999999999999</v>
       </c>
+      <c r="L72" s="4">
+        <v>89.19999999999999</v>
+      </c>
+      <c r="M72" s="4">
+        <v>99.29999999999998</v>
+      </c>
+      <c r="N72" s="4">
+        <v>109.2</v>
+      </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="5" t="s">
@@ -3322,6 +3907,15 @@
       <c r="K73" s="4">
         <v>123.9</v>
       </c>
+      <c r="L73" s="4">
+        <v>138</v>
+      </c>
+      <c r="M73" s="4">
+        <v>152.6</v>
+      </c>
+      <c r="N73" s="4">
+        <v>167.7</v>
+      </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" s="5" t="s">
@@ -3357,6 +3951,15 @@
       <c r="K74" s="4">
         <v>163.1</v>
       </c>
+      <c r="L74" s="4">
+        <v>179.5</v>
+      </c>
+      <c r="M74" s="4">
+        <v>196</v>
+      </c>
+      <c r="N74" s="4">
+        <v>212.6</v>
+      </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="6" t="s">
@@ -3392,6 +3995,15 @@
       <c r="K75" s="4">
         <v>215.6</v>
       </c>
+      <c r="L75" s="4">
+        <v>238.8</v>
+      </c>
+      <c r="M75" s="4">
+        <v>262.1</v>
+      </c>
+      <c r="N75" s="4">
+        <v>285.1</v>
+      </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="6" t="s">
@@ -3427,6 +4039,15 @@
       <c r="K76" s="4">
         <v>183.4</v>
       </c>
+      <c r="L76" s="4">
+        <v>205</v>
+      </c>
+      <c r="M76" s="4">
+        <v>226.9</v>
+      </c>
+      <c r="N76" s="4">
+        <v>249.1</v>
+      </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="7" t="s">
@@ -3462,6 +4083,15 @@
       <c r="K77" s="4">
         <v>81.70000000000002</v>
       </c>
+      <c r="L77" s="4">
+        <v>91.70000000000002</v>
+      </c>
+      <c r="M77" s="4">
+        <v>102</v>
+      </c>
+      <c r="N77" s="4">
+        <v>112.8</v>
+      </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="7" t="s">
@@ -3497,6 +4127,15 @@
       <c r="K78" s="4">
         <v>74.40000000000001</v>
       </c>
+      <c r="L78" s="4">
+        <v>83.10000000000001</v>
+      </c>
+      <c r="M78" s="4">
+        <v>92.30000000000001</v>
+      </c>
+      <c r="N78" s="4">
+        <v>102</v>
+      </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="8" t="s">
@@ -3532,6 +4171,15 @@
       <c r="K79" s="4">
         <v>65.80000000000001</v>
       </c>
+      <c r="L79" s="4">
+        <v>73.70000000000002</v>
+      </c>
+      <c r="M79" s="4">
+        <v>81.50000000000001</v>
+      </c>
+      <c r="N79" s="4">
+        <v>89.20000000000002</v>
+      </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="8" t="s">
@@ -3567,6 +4215,15 @@
       <c r="K80" s="4">
         <v>71.5</v>
       </c>
+      <c r="L80" s="4">
+        <v>79.3</v>
+      </c>
+      <c r="M80" s="4">
+        <v>87</v>
+      </c>
+      <c r="N80" s="4">
+        <v>94.5</v>
+      </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" s="9" t="s">
@@ -3602,6 +4259,15 @@
       <c r="K81" s="4">
         <v>241.9</v>
       </c>
+      <c r="L81" s="4">
+        <v>267.9</v>
+      </c>
+      <c r="M81" s="4">
+        <v>293.9</v>
+      </c>
+      <c r="N81" s="4">
+        <v>320</v>
+      </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="9" t="s">
@@ -3637,6 +4303,15 @@
       <c r="K82" s="4">
         <v>200.4</v>
       </c>
+      <c r="L82" s="4">
+        <v>222.1</v>
+      </c>
+      <c r="M82" s="4">
+        <v>244.1</v>
+      </c>
+      <c r="N82" s="4">
+        <v>266.4</v>
+      </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="10" t="s">
@@ -3672,6 +4347,15 @@
       <c r="K83" s="4">
         <v>194.2</v>
       </c>
+      <c r="L83" s="4">
+        <v>215.9</v>
+      </c>
+      <c r="M83" s="4">
+        <v>237.7</v>
+      </c>
+      <c r="N83" s="4">
+        <v>260.5</v>
+      </c>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" s="10" t="s">
@@ -3707,6 +4391,15 @@
       <c r="K84" s="4">
         <v>193.7</v>
       </c>
+      <c r="L84" s="4">
+        <v>214.8</v>
+      </c>
+      <c r="M84" s="4">
+        <v>236.2</v>
+      </c>
+      <c r="N84" s="4">
+        <v>257.1</v>
+      </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="11" t="s">
@@ -3742,6 +4435,15 @@
       <c r="K85" s="4">
         <v>86.59999999999999</v>
       </c>
+      <c r="L85" s="4">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="M85" s="4">
+        <v>106.1</v>
+      </c>
+      <c r="N85" s="4">
+        <v>116.6</v>
+      </c>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" s="11" t="s">
@@ -3777,6 +4479,15 @@
       <c r="K86" s="4">
         <v>90.49999999999999</v>
       </c>
+      <c r="L86" s="4">
+        <v>100.4</v>
+      </c>
+      <c r="M86" s="4">
+        <v>110.8</v>
+      </c>
+      <c r="N86" s="4">
+        <v>121.7</v>
+      </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" s="12" t="s">
@@ -3812,6 +4523,15 @@
       <c r="K87" s="4">
         <v>302.1</v>
       </c>
+      <c r="L87" s="4">
+        <v>332.9</v>
+      </c>
+      <c r="M87" s="4">
+        <v>363.8</v>
+      </c>
+      <c r="N87" s="4">
+        <v>394.8</v>
+      </c>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" s="12" t="s">
@@ -3847,6 +4567,15 @@
       <c r="K88" s="4">
         <v>224.3</v>
       </c>
+      <c r="L88" s="4">
+        <v>246.8</v>
+      </c>
+      <c r="M88" s="4">
+        <v>269.4</v>
+      </c>
+      <c r="N88" s="4">
+        <v>292.1</v>
+      </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" s="13" t="s">
@@ -3882,6 +4611,15 @@
       <c r="K89" s="4">
         <v>75.19999999999999</v>
       </c>
+      <c r="L89" s="4">
+        <v>83.19999999999999</v>
+      </c>
+      <c r="M89" s="4">
+        <v>91.69999999999999</v>
+      </c>
+      <c r="N89" s="4">
+        <v>100.7</v>
+      </c>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" s="13" t="s">
@@ -3917,6 +4655,15 @@
       <c r="K90" s="4">
         <v>58.4</v>
       </c>
+      <c r="L90" s="4">
+        <v>63.9</v>
+      </c>
+      <c r="M90" s="4">
+        <v>69.2</v>
+      </c>
+      <c r="N90" s="4">
+        <v>74.40000000000001</v>
+      </c>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" s="6" t="s">
@@ -3952,6 +4699,15 @@
       <c r="K91" s="4">
         <v>14</v>
       </c>
+      <c r="L91" s="4">
+        <v>14</v>
+      </c>
+      <c r="M91" s="4">
+        <v>14</v>
+      </c>
+      <c r="N91" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" s="1" t="s">
@@ -4064,6 +4820,15 @@
       <c r="K94" s="4">
         <v>4.5</v>
       </c>
+      <c r="L94" s="4">
+        <v>4.454545454545454</v>
+      </c>
+      <c r="M94" s="4">
+        <v>4.583333333333333</v>
+      </c>
+      <c r="N94" s="4">
+        <v>4.769230769230769</v>
+      </c>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="3" t="s">
@@ -4099,6 +4864,15 @@
       <c r="K95" s="4">
         <v>4.8</v>
       </c>
+      <c r="L95" s="4">
+        <v>5.454545454545454</v>
+      </c>
+      <c r="M95" s="4">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="N95" s="4">
+        <v>1.615384615384615</v>
+      </c>
     </row>
     <row r="96" spans="1:25">
       <c r="A96" s="5" t="s">
@@ -4134,8 +4908,17 @@
       <c r="K96" s="4">
         <v>4.4</v>
       </c>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="L96" s="4">
+        <v>5.454545454545454</v>
+      </c>
+      <c r="M96" s="4">
+        <v>6</v>
+      </c>
+      <c r="N96" s="4">
+        <v>6.230769230769231</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="5" t="s">
         <v>28</v>
       </c>
@@ -4169,8 +4952,17 @@
       <c r="K97" s="4">
         <v>9.199999999999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="L97" s="4">
+        <v>9.272727272727273</v>
+      </c>
+      <c r="M97" s="4">
+        <v>9.25</v>
+      </c>
+      <c r="N97" s="4">
+        <v>8.846153846153847</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="6" t="s">
         <v>29</v>
       </c>
@@ -4204,8 +4996,17 @@
       <c r="K98" s="4">
         <v>26.6</v>
       </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="L98" s="4">
+        <v>25.63636363636364</v>
+      </c>
+      <c r="M98" s="4">
+        <v>23.66666666666667</v>
+      </c>
+      <c r="N98" s="4">
+        <v>23.38461538461538</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="6" t="s">
         <v>30</v>
       </c>
@@ -4239,8 +5040,17 @@
       <c r="K99" s="4">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="L99" s="4">
+        <v>21.27272727272727</v>
+      </c>
+      <c r="M99" s="4">
+        <v>21.83333333333333</v>
+      </c>
+      <c r="N99" s="4">
+        <v>21.46153846153846</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="7" t="s">
         <v>32</v>
       </c>
@@ -4274,8 +5084,17 @@
       <c r="K100" s="4">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="L100" s="4">
+        <v>5.727272727272728</v>
+      </c>
+      <c r="M100" s="4">
+        <v>6.166666666666667</v>
+      </c>
+      <c r="N100" s="4">
+        <v>6.230769230769231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="7" t="s">
         <v>33</v>
       </c>
@@ -4309,8 +5128,17 @@
       <c r="K101" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="L101" s="4">
+        <v>5.454545454545454</v>
+      </c>
+      <c r="M101" s="4">
+        <v>6.166666666666667</v>
+      </c>
+      <c r="N101" s="4">
+        <v>5.692307692307693</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="8" t="s">
         <v>34</v>
       </c>
@@ -4344,8 +5172,17 @@
       <c r="K102" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="L102" s="4">
+        <v>2.545454545454545</v>
+      </c>
+      <c r="M102" s="4">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="N102" s="4">
+        <v>2.538461538461538</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" s="8" t="s">
         <v>35</v>
       </c>
@@ -4379,8 +5216,17 @@
       <c r="K103" s="4">
         <v>4.6</v>
       </c>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="L103" s="4">
+        <v>4.363636363636363</v>
+      </c>
+      <c r="M103" s="4">
+        <v>3.833333333333333</v>
+      </c>
+      <c r="N103" s="4">
+        <v>3.538461538461538</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="9" t="s">
         <v>36</v>
       </c>
@@ -4414,8 +5260,17 @@
       <c r="K104" s="4">
         <v>27.4</v>
       </c>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="L104" s="4">
+        <v>26.09090909090909</v>
+      </c>
+      <c r="M104" s="4">
+        <v>26.08333333333333</v>
+      </c>
+      <c r="N104" s="4">
+        <v>26.23076923076923</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" s="9" t="s">
         <v>37</v>
       </c>
@@ -4449,8 +5304,17 @@
       <c r="K105" s="4">
         <v>18.1</v>
       </c>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="L105" s="4">
+        <v>20.27272727272727</v>
+      </c>
+      <c r="M105" s="4">
+        <v>20.5</v>
+      </c>
+      <c r="N105" s="4">
+        <v>22.46153846153846</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" s="10" t="s">
         <v>38</v>
       </c>
@@ -4484,8 +5348,17 @@
       <c r="K106" s="4">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="L106" s="4">
+        <v>15.81818181818182</v>
+      </c>
+      <c r="M106" s="4">
+        <v>18.41666666666667</v>
+      </c>
+      <c r="N106" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" s="10" t="s">
         <v>39</v>
       </c>
@@ -4519,8 +5392,17 @@
       <c r="K107" s="4">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="L107" s="4">
+        <v>19.81818181818182</v>
+      </c>
+      <c r="M107" s="4">
+        <v>17.41666666666667</v>
+      </c>
+      <c r="N107" s="4">
+        <v>18.15384615384615</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" s="11" t="s">
         <v>40</v>
       </c>
@@ -4554,8 +5436,17 @@
       <c r="K108" s="4">
         <v>5.1</v>
       </c>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="L108" s="4">
+        <v>5.545454545454546</v>
+      </c>
+      <c r="M108" s="4">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="N108" s="4">
+        <v>5.538461538461538</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" s="11" t="s">
         <v>41</v>
       </c>
@@ -4589,8 +5480,17 @@
       <c r="K109" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="L109" s="4">
+        <v>2.272727272727273</v>
+      </c>
+      <c r="M109" s="4">
+        <v>2.583333333333333</v>
+      </c>
+      <c r="N109" s="4">
+        <v>2.461538461538462</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="12" t="s">
         <v>42</v>
       </c>
@@ -4624,8 +5524,17 @@
       <c r="K110" s="4">
         <v>33.9</v>
       </c>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="L110" s="4">
+        <v>33.09090909090909</v>
+      </c>
+      <c r="M110" s="4">
+        <v>32.75</v>
+      </c>
+      <c r="N110" s="4">
+        <v>31.53846153846154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" s="12" t="s">
         <v>43</v>
       </c>
@@ -4659,8 +5568,17 @@
       <c r="K111" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="L111" s="4">
+        <v>18</v>
+      </c>
+      <c r="M111" s="4">
+        <v>17</v>
+      </c>
+      <c r="N111" s="4">
+        <v>17.23076923076923</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" s="13" t="s">
         <v>44</v>
       </c>
@@ -4693,6 +5611,15 @@
       </c>
       <c r="K112" s="4">
         <v>-1.2</v>
+      </c>
+      <c r="L112" s="4">
+        <v>0</v>
+      </c>
+      <c r="M112" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="N112" s="4">
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="113" spans="1:25">
@@ -4729,6 +5656,15 @@
       <c r="K113" s="4">
         <v>0.1</v>
       </c>
+      <c r="L113" s="4">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="M113" s="4">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="N113" s="4">
+        <v>0.4615384615384616</v>
+      </c>
     </row>
     <row r="114" spans="1:25">
       <c r="A114" s="6" t="s">
@@ -4764,6 +5700,15 @@
       <c r="K114" s="4">
         <v>2.6</v>
       </c>
+      <c r="L114" s="4">
+        <v>2.363636363636364</v>
+      </c>
+      <c r="M114" s="4">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="N114" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="116" spans="1:25">
       <c r="A116" s="1" t="s">
@@ -4876,6 +5821,15 @@
       <c r="K117" s="4">
         <v>8.92</v>
       </c>
+      <c r="L117" s="4">
+        <v>9.027272727272727</v>
+      </c>
+      <c r="M117" s="4">
+        <v>9.108333333333333</v>
+      </c>
+      <c r="N117" s="4">
+        <v>9.215384615384615</v>
+      </c>
     </row>
     <row r="118" spans="1:25">
       <c r="A118" s="3" t="s">
@@ -4911,6 +5865,15 @@
       <c r="K118" s="4">
         <v>7.959999999999999</v>
       </c>
+      <c r="L118" s="4">
+        <v>8.109090909090908</v>
+      </c>
+      <c r="M118" s="4">
+        <v>8.274999999999999</v>
+      </c>
+      <c r="N118" s="4">
+        <v>8.399999999999999</v>
+      </c>
     </row>
     <row r="119" spans="1:25">
       <c r="A119" s="5" t="s">
@@ -4946,6 +5909,15 @@
       <c r="K119" s="4">
         <v>12.39</v>
       </c>
+      <c r="L119" s="4">
+        <v>12.54545454545454</v>
+      </c>
+      <c r="M119" s="4">
+        <v>12.71666666666667</v>
+      </c>
+      <c r="N119" s="4">
+        <v>12.9</v>
+      </c>
     </row>
     <row r="120" spans="1:25">
       <c r="A120" s="5" t="s">
@@ -4981,6 +5953,15 @@
       <c r="K120" s="4">
         <v>16.31</v>
       </c>
+      <c r="L120" s="4">
+        <v>16.31818181818182</v>
+      </c>
+      <c r="M120" s="4">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="N120" s="4">
+        <v>16.35384615384615</v>
+      </c>
     </row>
     <row r="121" spans="1:25">
       <c r="A121" s="6" t="s">
@@ -5016,6 +5997,15 @@
       <c r="K121" s="4">
         <v>21.56</v>
       </c>
+      <c r="L121" s="4">
+        <v>21.70909090909091</v>
+      </c>
+      <c r="M121" s="4">
+        <v>21.84166666666667</v>
+      </c>
+      <c r="N121" s="4">
+        <v>21.93076923076923</v>
+      </c>
     </row>
     <row r="122" spans="1:25">
       <c r="A122" s="6" t="s">
@@ -5051,6 +6041,15 @@
       <c r="K122" s="4">
         <v>18.34</v>
       </c>
+      <c r="L122" s="4">
+        <v>18.63636363636364</v>
+      </c>
+      <c r="M122" s="4">
+        <v>18.90833333333333</v>
+      </c>
+      <c r="N122" s="4">
+        <v>19.16153846153846</v>
+      </c>
     </row>
     <row r="123" spans="1:25">
       <c r="A123" s="7" t="s">
@@ -5086,6 +6085,15 @@
       <c r="K123" s="4">
         <v>8.170000000000002</v>
       </c>
+      <c r="L123" s="4">
+        <v>8.336363636363638</v>
+      </c>
+      <c r="M123" s="4">
+        <v>8.500000000000002</v>
+      </c>
+      <c r="N123" s="4">
+        <v>8.676923076923078</v>
+      </c>
     </row>
     <row r="124" spans="1:25">
       <c r="A124" s="7" t="s">
@@ -5121,6 +6129,15 @@
       <c r="K124" s="4">
         <v>7.44</v>
       </c>
+      <c r="L124" s="4">
+        <v>7.554545454545456</v>
+      </c>
+      <c r="M124" s="4">
+        <v>7.691666666666667</v>
+      </c>
+      <c r="N124" s="4">
+        <v>7.846153846153848</v>
+      </c>
     </row>
     <row r="125" spans="1:25">
       <c r="A125" s="8" t="s">
@@ -5156,6 +6173,15 @@
       <c r="K125" s="4">
         <v>6.580000000000001</v>
       </c>
+      <c r="L125" s="4">
+        <v>6.700000000000002</v>
+      </c>
+      <c r="M125" s="4">
+        <v>6.791666666666668</v>
+      </c>
+      <c r="N125" s="4">
+        <v>6.861538461538463</v>
+      </c>
     </row>
     <row r="126" spans="1:25">
       <c r="A126" s="8" t="s">
@@ -5191,6 +6217,15 @@
       <c r="K126" s="4">
         <v>7.15</v>
       </c>
+      <c r="L126" s="4">
+        <v>7.209090909090909</v>
+      </c>
+      <c r="M126" s="4">
+        <v>7.25</v>
+      </c>
+      <c r="N126" s="4">
+        <v>7.269230769230769</v>
+      </c>
     </row>
     <row r="127" spans="1:25">
       <c r="A127" s="9" t="s">
@@ -5226,6 +6261,15 @@
       <c r="K127" s="4">
         <v>24.19</v>
       </c>
+      <c r="L127" s="4">
+        <v>24.35454545454545</v>
+      </c>
+      <c r="M127" s="4">
+        <v>24.49166666666666</v>
+      </c>
+      <c r="N127" s="4">
+        <v>24.61538461538462</v>
+      </c>
     </row>
     <row r="128" spans="1:25">
       <c r="A128" s="9" t="s">
@@ -5261,6 +6305,15 @@
       <c r="K128" s="4">
         <v>20.04</v>
       </c>
+      <c r="L128" s="4">
+        <v>20.19090909090909</v>
+      </c>
+      <c r="M128" s="4">
+        <v>20.34166666666667</v>
+      </c>
+      <c r="N128" s="4">
+        <v>20.49230769230769</v>
+      </c>
     </row>
     <row r="129" spans="1:25">
       <c r="A129" s="10" t="s">
@@ -5296,6 +6349,15 @@
       <c r="K129" s="4">
         <v>19.42</v>
       </c>
+      <c r="L129" s="4">
+        <v>19.62727272727273</v>
+      </c>
+      <c r="M129" s="4">
+        <v>19.80833333333333</v>
+      </c>
+      <c r="N129" s="4">
+        <v>20.03846153846154</v>
+      </c>
     </row>
     <row r="130" spans="1:25">
       <c r="A130" s="10" t="s">
@@ -5331,6 +6393,15 @@
       <c r="K130" s="4">
         <v>19.37</v>
       </c>
+      <c r="L130" s="4">
+        <v>19.52727272727273</v>
+      </c>
+      <c r="M130" s="4">
+        <v>19.68333333333333</v>
+      </c>
+      <c r="N130" s="4">
+        <v>19.77692307692308</v>
+      </c>
     </row>
     <row r="131" spans="1:25">
       <c r="A131" s="11" t="s">
@@ -5366,6 +6437,15 @@
       <c r="K131" s="4">
         <v>8.66</v>
       </c>
+      <c r="L131" s="4">
+        <v>8.736363636363636</v>
+      </c>
+      <c r="M131" s="4">
+        <v>8.841666666666667</v>
+      </c>
+      <c r="N131" s="4">
+        <v>8.969230769230769</v>
+      </c>
     </row>
     <row r="132" spans="1:25">
       <c r="A132" s="11" t="s">
@@ -5401,6 +6481,15 @@
       <c r="K132" s="4">
         <v>9.049999999999999</v>
       </c>
+      <c r="L132" s="4">
+        <v>9.127272727272727</v>
+      </c>
+      <c r="M132" s="4">
+        <v>9.233333333333333</v>
+      </c>
+      <c r="N132" s="4">
+        <v>9.361538461538462</v>
+      </c>
     </row>
     <row r="133" spans="1:25">
       <c r="A133" s="12" t="s">
@@ -5436,6 +6525,15 @@
       <c r="K133" s="4">
         <v>30.21</v>
       </c>
+      <c r="L133" s="4">
+        <v>30.26363636363636</v>
+      </c>
+      <c r="M133" s="4">
+        <v>30.31666666666666</v>
+      </c>
+      <c r="N133" s="4">
+        <v>30.36923076923076</v>
+      </c>
     </row>
     <row r="134" spans="1:25">
       <c r="A134" s="12" t="s">
@@ -5471,6 +6569,15 @@
       <c r="K134" s="4">
         <v>22.43</v>
       </c>
+      <c r="L134" s="4">
+        <v>22.43636363636364</v>
+      </c>
+      <c r="M134" s="4">
+        <v>22.45</v>
+      </c>
+      <c r="N134" s="4">
+        <v>22.46923076923077</v>
+      </c>
     </row>
     <row r="135" spans="1:25">
       <c r="A135" s="13" t="s">
@@ -5506,6 +6613,15 @@
       <c r="K135" s="4">
         <v>7.519999999999999</v>
       </c>
+      <c r="L135" s="4">
+        <v>7.563636363636363</v>
+      </c>
+      <c r="M135" s="4">
+        <v>7.641666666666666</v>
+      </c>
+      <c r="N135" s="4">
+        <v>7.746153846153845</v>
+      </c>
     </row>
     <row r="136" spans="1:25">
       <c r="A136" s="13" t="s">
@@ -5541,6 +6657,15 @@
       <c r="K136" s="4">
         <v>5.84</v>
       </c>
+      <c r="L136" s="4">
+        <v>5.809090909090909</v>
+      </c>
+      <c r="M136" s="4">
+        <v>5.766666666666667</v>
+      </c>
+      <c r="N136" s="4">
+        <v>5.723076923076923</v>
+      </c>
     </row>
     <row r="137" spans="1:25">
       <c r="A137" s="6" t="s">
@@ -5576,6 +6701,15 @@
       <c r="K137" s="4">
         <v>1.4</v>
       </c>
+      <c r="L137" s="4">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="M137" s="4">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="N137" s="4">
+        <v>1.076923076923077</v>
+      </c>
     </row>
     <row r="139" spans="1:25">
       <c r="A139" s="1" t="s">
@@ -5688,6 +6822,15 @@
       <c r="K140" s="4">
         <v>0.3921568627450981</v>
       </c>
+      <c r="L140" s="4">
+        <v>0.3960396039603961</v>
+      </c>
+      <c r="M140" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="N140" s="4">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="141" spans="1:25">
       <c r="A141" s="3" t="s">
@@ -5723,6 +6866,15 @@
       <c r="K141" s="4">
         <v>0.7526881720430108</v>
       </c>
+      <c r="L141" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="M141" s="4">
+        <v>-1.98019801980198</v>
+      </c>
+      <c r="N141" s="4">
+        <v>-1.919191919191919</v>
+      </c>
     </row>
     <row r="142" spans="1:25">
       <c r="A142" s="5" t="s">
@@ -5758,6 +6910,15 @@
       <c r="K142" s="4">
         <v>0.4225352112676057</v>
       </c>
+      <c r="L142" s="4">
+        <v>1.134751773049645</v>
+      </c>
+      <c r="M142" s="4">
+        <v>0.8219178082191781</v>
+      </c>
+      <c r="N142" s="4">
+        <v>0.5960264900662252</v>
+      </c>
     </row>
     <row r="143" spans="1:25">
       <c r="A143" s="5" t="s">
@@ -5793,6 +6954,15 @@
       <c r="K143" s="4">
         <v>0.05988023952095808</v>
       </c>
+      <c r="L143" s="4">
+        <v>0.6097560975609757</v>
+      </c>
+      <c r="M143" s="4">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="N143" s="4">
+        <v>0.2409638554216867</v>
+      </c>
     </row>
     <row r="144" spans="1:25">
       <c r="A144" s="6" t="s">
@@ -5828,8 +6998,17 @@
       <c r="K144" s="4">
         <v>0.7792207792207791</v>
       </c>
-    </row>
-    <row r="145" spans="1:11">
+      <c r="L144" s="4">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="M144" s="4">
+        <v>0.08583690987124463</v>
+      </c>
+      <c r="N144" s="4">
+        <v>0.8695652173913043</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145" s="6" t="s">
         <v>30</v>
       </c>
@@ -5863,8 +7042,17 @@
       <c r="K145" s="4">
         <v>0.7441860465116279</v>
       </c>
-    </row>
-    <row r="146" spans="1:11">
+      <c r="L145" s="4">
+        <v>1.296296296296296</v>
+      </c>
+      <c r="M145" s="4">
+        <v>1.278538812785388</v>
+      </c>
+      <c r="N145" s="4">
+        <v>0.7657657657657658</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146" s="7" t="s">
         <v>32</v>
       </c>
@@ -5898,8 +7086,17 @@
       <c r="K146" s="4">
         <v>0.404040404040404</v>
       </c>
-    </row>
-    <row r="147" spans="1:11">
+      <c r="L146" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="M146" s="4">
+        <v>1.067961165048544</v>
+      </c>
+      <c r="N146" s="4">
+        <v>0.6481481481481481</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
       <c r="A147" s="7" t="s">
         <v>33</v>
       </c>
@@ -5933,8 +7130,17 @@
       <c r="K147" s="4">
         <v>0.6818181818181818</v>
       </c>
-    </row>
-    <row r="148" spans="1:11">
+      <c r="L147" s="4">
+        <v>2.298850574712644</v>
+      </c>
+      <c r="M147" s="4">
+        <v>1.521739130434783</v>
+      </c>
+      <c r="N147" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
       <c r="A148" s="8" t="s">
         <v>34</v>
       </c>
@@ -5968,8 +7174,17 @@
       <c r="K148" s="4">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="149" spans="1:11">
+      <c r="L148" s="4">
+        <v>1.012658227848101</v>
+      </c>
+      <c r="M148" s="4">
+        <v>0.5128205128205129</v>
+      </c>
+      <c r="N148" s="4">
+        <v>0.1298701298701299</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
       <c r="A149" s="8" t="s">
         <v>35</v>
       </c>
@@ -6003,8 +7218,17 @@
       <c r="K149" s="4">
         <v>0.5063291139240506</v>
       </c>
-    </row>
-    <row r="150" spans="1:11">
+      <c r="L149" s="4">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="M149" s="4">
+        <v>-0.2597402597402597</v>
+      </c>
+      <c r="N149" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
       <c r="A150" s="9" t="s">
         <v>36</v>
       </c>
@@ -6038,8 +7262,17 @@
       <c r="K150" s="4">
         <v>1.976744186046512</v>
       </c>
-    </row>
-    <row r="151" spans="1:11">
+      <c r="L150" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="M150" s="4">
+        <v>1</v>
+      </c>
+      <c r="N150" s="4">
+        <v>1.0727969348659</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
       <c r="A151" s="9" t="s">
         <v>37</v>
       </c>
@@ -6073,8 +7306,17 @@
       <c r="K151" s="4">
         <v>0.6944444444444444</v>
       </c>
-    </row>
-    <row r="152" spans="1:11">
+      <c r="L151" s="4">
+        <v>1.935483870967742</v>
+      </c>
+      <c r="M151" s="4">
+        <v>1.045454545454545</v>
+      </c>
+      <c r="N151" s="4">
+        <v>2.062780269058296</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
       <c r="A152" s="10" t="s">
         <v>38</v>
       </c>
@@ -6108,8 +7350,17 @@
       <c r="K152" s="4">
         <v>1.355140186915888</v>
       </c>
-    </row>
-    <row r="153" spans="1:11">
+      <c r="L152" s="4">
+        <v>1.059907834101383</v>
+      </c>
+      <c r="M152" s="4">
+        <v>2.155963302752293</v>
+      </c>
+      <c r="N152" s="4">
+        <v>1.140350877192982</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
       <c r="A153" s="10" t="s">
         <v>39</v>
       </c>
@@ -6143,8 +7394,17 @@
       <c r="K153" s="4">
         <v>1.298076923076923</v>
       </c>
-    </row>
-    <row r="154" spans="1:11">
+      <c r="L153" s="4">
+        <v>2.037914691943128</v>
+      </c>
+      <c r="M153" s="4">
+        <v>-0.4205607476635514</v>
+      </c>
+      <c r="N153" s="4">
+        <v>1.291866028708134</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
       <c r="A154" s="11" t="s">
         <v>40</v>
       </c>
@@ -6178,8 +7438,17 @@
       <c r="K154" s="4">
         <v>0.4166666666666667</v>
       </c>
-    </row>
-    <row r="155" spans="1:11">
+      <c r="L154" s="4">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="M154" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="N154" s="4">
+        <v>0.3809523809523809</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
       <c r="A155" s="11" t="s">
         <v>41</v>
       </c>
@@ -6213,8 +7482,17 @@
       <c r="K155" s="4">
         <v>0.7446808510638298</v>
       </c>
-    </row>
-    <row r="156" spans="1:11">
+      <c r="L155" s="4">
+        <v>1.01010101010101</v>
+      </c>
+      <c r="M155" s="4">
+        <v>0.5769230769230769</v>
+      </c>
+      <c r="N155" s="4">
+        <v>0.09174311926605504</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
       <c r="A156" s="12" t="s">
         <v>42</v>
       </c>
@@ -6248,8 +7526,17 @@
       <c r="K156" s="4">
         <v>1.237785016286645</v>
       </c>
-    </row>
-    <row r="157" spans="1:11">
+      <c r="L156" s="4">
+        <v>0.8116883116883117</v>
+      </c>
+      <c r="M156" s="4">
+        <v>0.9385113268608415</v>
+      </c>
+      <c r="N156" s="4">
+        <v>0.5483870967741935</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
       <c r="A157" s="12" t="s">
         <v>43</v>
       </c>
@@ -6283,8 +7570,17 @@
       <c r="K157" s="4">
         <v>0.8482142857142858</v>
       </c>
-    </row>
-    <row r="158" spans="1:11">
+      <c r="L157" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="M157" s="4">
+        <v>0.2654867256637168</v>
+      </c>
+      <c r="N157" s="4">
+        <v>0.881057268722467</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
       <c r="A158" s="13" t="s">
         <v>44</v>
       </c>
@@ -6318,8 +7614,17 @@
       <c r="K158" s="4">
         <v>0.4938271604938272</v>
       </c>
-    </row>
-    <row r="159" spans="1:11">
+      <c r="L158" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="M158" s="4">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="N158" s="4">
+        <v>0.5555555555555556</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
       <c r="A159" s="13" t="s">
         <v>45</v>
       </c>
@@ -6353,8 +7658,17 @@
       <c r="K159" s="4">
         <v>0.1785714285714286</v>
       </c>
-    </row>
-    <row r="160" spans="1:11">
+      <c r="L159" s="4">
+        <v>0</v>
+      </c>
+      <c r="M159" s="4">
+        <v>0.7547169811320755</v>
+      </c>
+      <c r="N159" s="4">
+        <v>0.1923076923076923</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
       <c r="A160" s="6" t="s">
         <v>31</v>
       </c>
@@ -6386,6 +7700,15 @@
         <v>0</v>
       </c>
       <c r="K160" s="4">
+        <v>0</v>
+      </c>
+      <c r="L160" s="4">
+        <v>0</v>
+      </c>
+      <c r="M160" s="4">
+        <v>0</v>
+      </c>
+      <c r="N160" s="4">
         <v>0</v>
       </c>
     </row>
@@ -6500,6 +7823,15 @@
       <c r="K163" s="4">
         <v>0.5597014925373134</v>
       </c>
+      <c r="L163" s="4">
+        <v>0.5414364640883977</v>
+      </c>
+      <c r="M163" s="4">
+        <v>0.5472636815920398</v>
+      </c>
+      <c r="N163" s="4">
+        <v>0.5585585585585585</v>
+      </c>
     </row>
     <row r="164" spans="1:25">
       <c r="A164" s="3" t="s">
@@ -6535,6 +7867,15 @@
       <c r="K164" s="4">
         <v>0.6030150753768845</v>
       </c>
+      <c r="L164" s="4">
+        <v>0.6726457399103138</v>
+      </c>
+      <c r="M164" s="4">
+        <v>0.4028197381671702</v>
+      </c>
+      <c r="N164" s="4">
+        <v>0.1923076923076923</v>
+      </c>
     </row>
     <row r="165" spans="1:25">
       <c r="A165" s="5" t="s">
@@ -6570,6 +7911,15 @@
       <c r="K165" s="4">
         <v>0.3551251008878127</v>
       </c>
+      <c r="L165" s="4">
+        <v>0.4347826086956522</v>
+      </c>
+      <c r="M165" s="4">
+        <v>0.471821756225426</v>
+      </c>
+      <c r="N165" s="4">
+        <v>0.483005366726297</v>
+      </c>
     </row>
     <row r="166" spans="1:25">
       <c r="A166" s="5" t="s">
@@ -6605,6 +7955,15 @@
       <c r="K166" s="4">
         <v>0.5640711220110362</v>
       </c>
+      <c r="L166" s="4">
+        <v>0.5682451253481894</v>
+      </c>
+      <c r="M166" s="4">
+        <v>0.5663265306122449</v>
+      </c>
+      <c r="N166" s="4">
+        <v>0.5409219190968956</v>
+      </c>
     </row>
     <row r="167" spans="1:25">
       <c r="A167" s="6" t="s">
@@ -6640,6 +7999,15 @@
       <c r="K167" s="4">
         <v>1.233766233766234</v>
       </c>
+      <c r="L167" s="4">
+        <v>1.180904522613065</v>
+      </c>
+      <c r="M167" s="4">
+        <v>1.083555894696681</v>
+      </c>
+      <c r="N167" s="4">
+        <v>1.066292528937215</v>
+      </c>
     </row>
     <row r="168" spans="1:25">
       <c r="A168" s="6" t="s">
@@ -6675,6 +8043,15 @@
       <c r="K168" s="4">
         <v>1.123227917121047</v>
       </c>
+      <c r="L168" s="4">
+        <v>1.141463414634146</v>
+      </c>
+      <c r="M168" s="4">
+        <v>1.154693697664169</v>
+      </c>
+      <c r="N168" s="4">
+        <v>1.120032115616219</v>
+      </c>
     </row>
     <row r="169" spans="1:25">
       <c r="A169" s="7" t="s">
@@ -6710,6 +8087,15 @@
       <c r="K169" s="4">
         <v>0.5752753977968176</v>
       </c>
+      <c r="L169" s="4">
+        <v>0.6870229007633588</v>
+      </c>
+      <c r="M169" s="4">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="N169" s="4">
+        <v>0.7180851063829787</v>
+      </c>
     </row>
     <row r="170" spans="1:25">
       <c r="A170" s="7" t="s">
@@ -6745,6 +8131,15 @@
       <c r="K170" s="4">
         <v>0.5376344086021505</v>
       </c>
+      <c r="L170" s="4">
+        <v>0.7220216606498195</v>
+      </c>
+      <c r="M170" s="4">
+        <v>0.8017334777898159</v>
+      </c>
+      <c r="N170" s="4">
+        <v>0.8017334777898159</v>
+      </c>
     </row>
     <row r="171" spans="1:25">
       <c r="A171" s="8" t="s">
@@ -6780,6 +8175,15 @@
       <c r="K171" s="4">
         <v>0.3367003367003367</v>
       </c>
+      <c r="L171" s="4">
+        <v>0.4160475482912333</v>
+      </c>
+      <c r="M171" s="4">
+        <v>0.426098535286285</v>
+      </c>
+      <c r="N171" s="4">
+        <v>0.3985507246376812</v>
+      </c>
     </row>
     <row r="172" spans="1:25">
       <c r="A172" s="8" t="s">
@@ -6815,6 +8219,15 @@
       <c r="K172" s="4">
         <v>0.6433566433566433</v>
       </c>
+      <c r="L172" s="4">
+        <v>0.605296343001261</v>
+      </c>
+      <c r="M172" s="4">
+        <v>0.5287356321839081</v>
+      </c>
+      <c r="N172" s="4">
+        <v>0.5287356321839081</v>
+      </c>
     </row>
     <row r="173" spans="1:25">
       <c r="A173" s="9" t="s">
@@ -6850,6 +8263,15 @@
       <c r="K173" s="4">
         <v>1.132699462587846</v>
       </c>
+      <c r="L173" s="4">
+        <v>1.071295259425159</v>
+      </c>
+      <c r="M173" s="4">
+        <v>1.064988091187479</v>
+      </c>
+      <c r="N173" s="4">
+        <v>1.065625</v>
+      </c>
     </row>
     <row r="174" spans="1:25">
       <c r="A174" s="9" t="s">
@@ -6885,6 +8307,15 @@
       <c r="K174" s="4">
         <v>0.9031936127744511</v>
       </c>
+      <c r="L174" s="4">
+        <v>1.004052228725799</v>
+      </c>
+      <c r="M174" s="4">
+        <v>1.007783695206882</v>
+      </c>
+      <c r="N174" s="4">
+        <v>1.096096096096096</v>
+      </c>
     </row>
     <row r="175" spans="1:25">
       <c r="A175" s="10" t="s">
@@ -6920,6 +8351,15 @@
       <c r="K175" s="4">
         <v>0.7775489186405767</v>
       </c>
+      <c r="L175" s="4">
+        <v>0.8059286706808707</v>
+      </c>
+      <c r="M175" s="4">
+        <v>0.9297433740008414</v>
+      </c>
+      <c r="N175" s="4">
+        <v>0.9481765834932822</v>
+      </c>
     </row>
     <row r="176" spans="1:25">
       <c r="A176" s="10" t="s">
@@ -6955,8 +8395,17 @@
       <c r="K176" s="4">
         <v>0.9034589571502324</v>
       </c>
-    </row>
-    <row r="177" spans="1:11">
+      <c r="L176" s="4">
+        <v>1.014897579143389</v>
+      </c>
+      <c r="M176" s="4">
+        <v>0.8848433530906012</v>
+      </c>
+      <c r="N176" s="4">
+        <v>0.9179307662388175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
       <c r="A177" s="11" t="s">
         <v>40</v>
       </c>
@@ -6990,8 +8439,17 @@
       <c r="K177" s="4">
         <v>0.6640625</v>
       </c>
-    </row>
-    <row r="178" spans="1:11">
+      <c r="L177" s="4">
+        <v>0.7068366164542295</v>
+      </c>
+      <c r="M177" s="4">
+        <v>0.7061266874350987</v>
+      </c>
+      <c r="N177" s="4">
+        <v>0.6741573033707865</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
       <c r="A178" s="11" t="s">
         <v>41</v>
       </c>
@@ -7025,8 +8483,17 @@
       <c r="K178" s="4">
         <v>0.2068965517241379</v>
       </c>
-    </row>
-    <row r="179" spans="1:11">
+      <c r="L178" s="4">
+        <v>0.3033980582524272</v>
+      </c>
+      <c r="M178" s="4">
+        <v>0.334051724137931</v>
+      </c>
+      <c r="N178" s="4">
+        <v>0.3085824493731919</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
       <c r="A179" s="12" t="s">
         <v>42</v>
       </c>
@@ -7060,8 +8527,17 @@
       <c r="K179" s="4">
         <v>1.12214498510427</v>
       </c>
-    </row>
-    <row r="180" spans="1:11">
+      <c r="L179" s="4">
+        <v>1.093421447882247</v>
+      </c>
+      <c r="M179" s="4">
+        <v>1.080263881253436</v>
+      </c>
+      <c r="N179" s="4">
+        <v>1.038500506585613</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14">
       <c r="A180" s="12" t="s">
         <v>43</v>
       </c>
@@ -7095,8 +8571,17 @@
       <c r="K180" s="4">
         <v>0.8024966562639323</v>
       </c>
-    </row>
-    <row r="181" spans="1:11">
+      <c r="L180" s="4">
+        <v>0.8022690437601298</v>
+      </c>
+      <c r="M180" s="4">
+        <v>0.757238307349666</v>
+      </c>
+      <c r="N180" s="4">
+        <v>0.7668606641561109</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
       <c r="A181" s="13" t="s">
         <v>44</v>
       </c>
@@ -7130,8 +8615,17 @@
       <c r="K181" s="4">
         <v>-0.1759530791788856</v>
       </c>
-    </row>
-    <row r="182" spans="1:11">
+      <c r="L181" s="4">
+        <v>0</v>
+      </c>
+      <c r="M181" s="4">
+        <v>0.07083825265643447</v>
+      </c>
+      <c r="N181" s="4">
+        <v>0.1173959445037353</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
       <c r="A182" s="13" t="s">
         <v>45</v>
       </c>
@@ -7165,8 +8659,17 @@
       <c r="K182" s="4">
         <v>0.01904761904761905</v>
       </c>
-    </row>
-    <row r="183" spans="1:11">
+      <c r="L182" s="4">
+        <v>0.01904761904761905</v>
+      </c>
+      <c r="M182" s="4">
+        <v>0.08650519031141869</v>
+      </c>
+      <c r="N182" s="4">
+        <v>0.09523809523809523</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14">
       <c r="A183" s="6" t="s">
         <v>31</v>
       </c>
@@ -7198,6 +8701,15 @@
         <v>1.857142857142857</v>
       </c>
       <c r="K183" s="4">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="L183" s="4">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="M183" s="4">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="N183" s="4">
         <v>1.857142857142857</v>
       </c>
     </row>
@@ -7325,6 +8837,15 @@
       <c r="K2" s="4">
         <v>24</v>
       </c>
+      <c r="L2" s="4">
+        <v>21</v>
+      </c>
+      <c r="M2" s="4">
+        <v>-12</v>
+      </c>
+      <c r="N2" s="4">
+        <v>-5</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="5" t="s">
@@ -7360,6 +8881,15 @@
       <c r="K3" s="4">
         <v>10</v>
       </c>
+      <c r="L3" s="4">
+        <v>27</v>
+      </c>
+      <c r="M3" s="4">
+        <v>31</v>
+      </c>
+      <c r="N3" s="4">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="6" t="s">
@@ -7395,6 +8925,15 @@
       <c r="K4" s="4">
         <v>44</v>
       </c>
+      <c r="L4" s="4">
+        <v>69</v>
+      </c>
+      <c r="M4" s="4">
+        <v>35</v>
+      </c>
+      <c r="N4" s="4">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="7" t="s">
@@ -7430,6 +8969,15 @@
       <c r="K5" s="4">
         <v>11</v>
       </c>
+      <c r="L5" s="4">
+        <v>41</v>
+      </c>
+      <c r="M5" s="4">
+        <v>30</v>
+      </c>
+      <c r="N5" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="8" t="s">
@@ -7465,6 +9013,15 @@
       <c r="K6" s="4">
         <v>8</v>
       </c>
+      <c r="L6" s="4">
+        <v>9</v>
+      </c>
+      <c r="M6" s="4">
+        <v>3</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="9" t="s">
@@ -7500,6 +9057,15 @@
       <c r="K7" s="4">
         <v>66</v>
       </c>
+      <c r="L7" s="4">
+        <v>55</v>
+      </c>
+      <c r="M7" s="4">
+        <v>59</v>
+      </c>
+      <c r="N7" s="4">
+        <v>74</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="10" t="s">
@@ -7535,6 +9101,15 @@
       <c r="K8" s="4">
         <v>66</v>
       </c>
+      <c r="L8" s="4">
+        <v>76</v>
+      </c>
+      <c r="M8" s="4">
+        <v>38</v>
+      </c>
+      <c r="N8" s="4">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="11" t="s">
@@ -7570,6 +9145,15 @@
       <c r="K9" s="4">
         <v>10</v>
       </c>
+      <c r="L9" s="4">
+        <v>23</v>
+      </c>
+      <c r="M9" s="4">
+        <v>16</v>
+      </c>
+      <c r="N9" s="4">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="12" t="s">
@@ -7605,6 +9189,15 @@
       <c r="K10" s="4">
         <v>82</v>
       </c>
+      <c r="L10" s="4">
+        <v>56</v>
+      </c>
+      <c r="M10" s="4">
+        <v>55</v>
+      </c>
+      <c r="N10" s="4">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="13" t="s">
@@ -7640,6 +9233,15 @@
       <c r="K11" s="4">
         <v>4</v>
       </c>
+      <c r="L11" s="4">
+        <v>11</v>
+      </c>
+      <c r="M11" s="4">
+        <v>15</v>
+      </c>
+      <c r="N11" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
@@ -7752,6 +9354,15 @@
       <c r="K14" s="4">
         <v>9.1</v>
       </c>
+      <c r="L14" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="M14" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="N14" s="4">
+        <v>9.9</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="5" t="s">
@@ -7787,6 +9398,15 @@
       <c r="K15" s="4">
         <v>15.5</v>
       </c>
+      <c r="L15" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="M15" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="N15" s="4">
+        <v>15.4</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="6" t="s">
@@ -7822,6 +9442,15 @@
       <c r="K16" s="4">
         <v>22.6</v>
       </c>
+      <c r="L16" s="4">
+        <v>22.7</v>
+      </c>
+      <c r="M16" s="4">
+        <v>23</v>
+      </c>
+      <c r="N16" s="4">
+        <v>23.7</v>
+      </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="7" t="s">
@@ -7857,6 +9486,15 @@
       <c r="K17" s="4">
         <v>9.5</v>
       </c>
+      <c r="L17" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="M17" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="N17" s="4">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="8" t="s">
@@ -7892,6 +9530,15 @@
       <c r="K18" s="4">
         <v>7.3</v>
       </c>
+      <c r="L18" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="M18" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="N18" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="9" t="s">
@@ -7927,6 +9574,15 @@
       <c r="K19" s="4">
         <v>25.6</v>
       </c>
+      <c r="L19" s="4">
+        <v>25.7</v>
+      </c>
+      <c r="M19" s="4">
+        <v>25.7</v>
+      </c>
+      <c r="N19" s="4">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="10" t="s">
@@ -7962,6 +9618,15 @@
       <c r="K20" s="4">
         <v>21.9</v>
       </c>
+      <c r="L20" s="4">
+        <v>22.2</v>
+      </c>
+      <c r="M20" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="N20" s="4">
+        <v>22.6</v>
+      </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="11" t="s">
@@ -7997,6 +9662,15 @@
       <c r="K21" s="4">
         <v>9.800000000000001</v>
       </c>
+      <c r="L21" s="4">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M21" s="4">
+        <v>10.2</v>
+      </c>
+      <c r="N21" s="4">
+        <v>10.7</v>
+      </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="12" t="s">
@@ -8032,6 +9706,15 @@
       <c r="K22" s="4">
         <v>28.8</v>
       </c>
+      <c r="L22" s="4">
+        <v>28.9</v>
+      </c>
+      <c r="M22" s="4">
+        <v>28.9</v>
+      </c>
+      <c r="N22" s="4">
+        <v>29</v>
+      </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="13" t="s">
@@ -8067,6 +9750,15 @@
       <c r="K23" s="4">
         <v>6.3</v>
       </c>
+      <c r="L23" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="M23" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="N23" s="4">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
@@ -8179,6 +9871,15 @@
       <c r="K26" s="4">
         <v>121</v>
       </c>
+      <c r="L26" s="4">
+        <v>142</v>
+      </c>
+      <c r="M26" s="4">
+        <v>130</v>
+      </c>
+      <c r="N26" s="4">
+        <v>125</v>
+      </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="5" t="s">
@@ -8214,6 +9915,15 @@
       <c r="K27" s="4">
         <v>194</v>
       </c>
+      <c r="L27" s="4">
+        <v>221</v>
+      </c>
+      <c r="M27" s="4">
+        <v>252</v>
+      </c>
+      <c r="N27" s="4">
+        <v>275</v>
+      </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="6" t="s">
@@ -8249,6 +9959,15 @@
       <c r="K28" s="4">
         <v>582</v>
       </c>
+      <c r="L28" s="4">
+        <v>651</v>
+      </c>
+      <c r="M28" s="4">
+        <v>686</v>
+      </c>
+      <c r="N28" s="4">
+        <v>733</v>
+      </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="7" t="s">
@@ -8284,6 +10003,15 @@
       <c r="K29" s="4">
         <v>114</v>
       </c>
+      <c r="L29" s="4">
+        <v>155</v>
+      </c>
+      <c r="M29" s="4">
+        <v>185</v>
+      </c>
+      <c r="N29" s="4">
+        <v>195</v>
+      </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="8" t="s">
@@ -8319,6 +10047,15 @@
       <c r="K30" s="4">
         <v>73</v>
       </c>
+      <c r="L30" s="4">
+        <v>82</v>
+      </c>
+      <c r="M30" s="4">
+        <v>85</v>
+      </c>
+      <c r="N30" s="4">
+        <v>87</v>
+      </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="9" t="s">
@@ -8354,6 +10091,15 @@
       <c r="K31" s="4">
         <v>511</v>
       </c>
+      <c r="L31" s="4">
+        <v>566</v>
+      </c>
+      <c r="M31" s="4">
+        <v>625</v>
+      </c>
+      <c r="N31" s="4">
+        <v>699</v>
+      </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="10" t="s">
@@ -8389,6 +10135,15 @@
       <c r="K32" s="4">
         <v>431</v>
       </c>
+      <c r="L32" s="4">
+        <v>507</v>
+      </c>
+      <c r="M32" s="4">
+        <v>545</v>
+      </c>
+      <c r="N32" s="4">
+        <v>603</v>
+      </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="11" t="s">
@@ -8424,6 +10179,15 @@
       <c r="K33" s="4">
         <v>114</v>
       </c>
+      <c r="L33" s="4">
+        <v>137</v>
+      </c>
+      <c r="M33" s="4">
+        <v>153</v>
+      </c>
+      <c r="N33" s="4">
+        <v>178</v>
+      </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="12" t="s">
@@ -8459,6 +10223,15 @@
       <c r="K34" s="4">
         <v>706</v>
       </c>
+      <c r="L34" s="4">
+        <v>762</v>
+      </c>
+      <c r="M34" s="4">
+        <v>817</v>
+      </c>
+      <c r="N34" s="4">
+        <v>859</v>
+      </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="13" t="s">
@@ -8494,6 +10267,15 @@
       <c r="K35" s="4">
         <v>5</v>
       </c>
+      <c r="L35" s="4">
+        <v>16</v>
+      </c>
+      <c r="M35" s="4">
+        <v>31</v>
+      </c>
+      <c r="N35" s="4">
+        <v>40</v>
+      </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="1" t="s">
@@ -8606,6 +10388,15 @@
       <c r="K38" s="4">
         <v>82.49999999999999</v>
       </c>
+      <c r="L38" s="4">
+        <v>92.09999999999998</v>
+      </c>
+      <c r="M38" s="4">
+        <v>102.2</v>
+      </c>
+      <c r="N38" s="4">
+        <v>112.1</v>
+      </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="5" t="s">
@@ -8641,6 +10432,15 @@
       <c r="K39" s="4">
         <v>146.7</v>
       </c>
+      <c r="L39" s="4">
+        <v>161.9</v>
+      </c>
+      <c r="M39" s="4">
+        <v>177.2</v>
+      </c>
+      <c r="N39" s="4">
+        <v>192.6</v>
+      </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="6" t="s">
@@ -8676,6 +10476,15 @@
       <c r="K40" s="4">
         <v>212</v>
       </c>
+      <c r="L40" s="4">
+        <v>234.7</v>
+      </c>
+      <c r="M40" s="4">
+        <v>257.7</v>
+      </c>
+      <c r="N40" s="4">
+        <v>281.4</v>
+      </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="7" t="s">
@@ -8711,6 +10520,15 @@
       <c r="K41" s="4">
         <v>78.7</v>
       </c>
+      <c r="L41" s="4">
+        <v>88.10000000000001</v>
+      </c>
+      <c r="M41" s="4">
+        <v>98.00000000000001</v>
+      </c>
+      <c r="N41" s="4">
+        <v>108.4</v>
+      </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="8" t="s">
@@ -8746,6 +10564,15 @@
       <c r="K42" s="4">
         <v>64.3</v>
       </c>
+      <c r="L42" s="4">
+        <v>71.5</v>
+      </c>
+      <c r="M42" s="4">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="N42" s="4">
+        <v>85.59999999999999</v>
+      </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="9" t="s">
@@ -8781,6 +10608,15 @@
       <c r="K43" s="4">
         <v>241.9</v>
       </c>
+      <c r="L43" s="4">
+        <v>267.6</v>
+      </c>
+      <c r="M43" s="4">
+        <v>293.3</v>
+      </c>
+      <c r="N43" s="4">
+        <v>319.1</v>
+      </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="10" t="s">
@@ -8816,6 +10652,15 @@
       <c r="K44" s="4">
         <v>204.9</v>
       </c>
+      <c r="L44" s="4">
+        <v>227.1</v>
+      </c>
+      <c r="M44" s="4">
+        <v>249.6</v>
+      </c>
+      <c r="N44" s="4">
+        <v>272.2</v>
+      </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="11" t="s">
@@ -8851,6 +10696,15 @@
       <c r="K45" s="4">
         <v>87.8</v>
       </c>
+      <c r="L45" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="M45" s="4">
+        <v>107.7</v>
+      </c>
+      <c r="N45" s="4">
+        <v>118.4</v>
+      </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="12" t="s">
@@ -8886,6 +10740,15 @@
       <c r="K46" s="4">
         <v>284.4</v>
       </c>
+      <c r="L46" s="4">
+        <v>313.3</v>
+      </c>
+      <c r="M46" s="4">
+        <v>342.1999999999999</v>
+      </c>
+      <c r="N46" s="4">
+        <v>371.1999999999999</v>
+      </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="13" t="s">
@@ -8921,6 +10784,15 @@
       <c r="K47" s="4">
         <v>63.49999999999999</v>
       </c>
+      <c r="L47" s="4">
+        <v>69.69999999999999</v>
+      </c>
+      <c r="M47" s="4">
+        <v>75.79999999999998</v>
+      </c>
+      <c r="N47" s="4">
+        <v>82.39999999999998</v>
+      </c>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" s="1" t="s">
@@ -9033,6 +10905,15 @@
       <c r="K50" s="4">
         <v>12.1</v>
       </c>
+      <c r="L50" s="4">
+        <v>12.90909090909091</v>
+      </c>
+      <c r="M50" s="4">
+        <v>10.83333333333333</v>
+      </c>
+      <c r="N50" s="4">
+        <v>9.615384615384615</v>
+      </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="5" t="s">
@@ -9068,6 +10949,15 @@
       <c r="K51" s="4">
         <v>19.4</v>
       </c>
+      <c r="L51" s="4">
+        <v>20.09090909090909</v>
+      </c>
+      <c r="M51" s="4">
+        <v>21</v>
+      </c>
+      <c r="N51" s="4">
+        <v>21.15384615384615</v>
+      </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" s="6" t="s">
@@ -9103,6 +10993,15 @@
       <c r="K52" s="4">
         <v>58.2</v>
       </c>
+      <c r="L52" s="4">
+        <v>59.18181818181818</v>
+      </c>
+      <c r="M52" s="4">
+        <v>57.16666666666666</v>
+      </c>
+      <c r="N52" s="4">
+        <v>56.38461538461539</v>
+      </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" s="7" t="s">
@@ -9138,6 +11037,15 @@
       <c r="K53" s="4">
         <v>11.4</v>
       </c>
+      <c r="L53" s="4">
+        <v>14.09090909090909</v>
+      </c>
+      <c r="M53" s="4">
+        <v>15.41666666666667</v>
+      </c>
+      <c r="N53" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" s="8" t="s">
@@ -9173,6 +11081,15 @@
       <c r="K54" s="4">
         <v>7.3</v>
       </c>
+      <c r="L54" s="4">
+        <v>7.454545454545454</v>
+      </c>
+      <c r="M54" s="4">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="N54" s="4">
+        <v>6.692307692307693</v>
+      </c>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="9" t="s">
@@ -9208,6 +11125,15 @@
       <c r="K55" s="4">
         <v>51.1</v>
       </c>
+      <c r="L55" s="4">
+        <v>51.45454545454545</v>
+      </c>
+      <c r="M55" s="4">
+        <v>52.08333333333334</v>
+      </c>
+      <c r="N55" s="4">
+        <v>53.76923076923077</v>
+      </c>
     </row>
     <row r="56" spans="1:25">
       <c r="A56" s="10" t="s">
@@ -9243,6 +11169,15 @@
       <c r="K56" s="4">
         <v>43.1</v>
       </c>
+      <c r="L56" s="4">
+        <v>46.09090909090909</v>
+      </c>
+      <c r="M56" s="4">
+        <v>45.41666666666666</v>
+      </c>
+      <c r="N56" s="4">
+        <v>46.38461538461539</v>
+      </c>
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="11" t="s">
@@ -9278,6 +11213,15 @@
       <c r="K57" s="4">
         <v>11.4</v>
       </c>
+      <c r="L57" s="4">
+        <v>12.45454545454546</v>
+      </c>
+      <c r="M57" s="4">
+        <v>12.75</v>
+      </c>
+      <c r="N57" s="4">
+        <v>13.69230769230769</v>
+      </c>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" s="12" t="s">
@@ -9313,6 +11257,15 @@
       <c r="K58" s="4">
         <v>70.59999999999999</v>
       </c>
+      <c r="L58" s="4">
+        <v>69.27272727272727</v>
+      </c>
+      <c r="M58" s="4">
+        <v>68.08333333333333</v>
+      </c>
+      <c r="N58" s="4">
+        <v>66.07692307692308</v>
+      </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" s="13" t="s">
@@ -9348,6 +11301,15 @@
       <c r="K59" s="4">
         <v>0.5</v>
       </c>
+      <c r="L59" s="4">
+        <v>1.454545454545455</v>
+      </c>
+      <c r="M59" s="4">
+        <v>2.583333333333333</v>
+      </c>
+      <c r="N59" s="4">
+        <v>3.076923076923077</v>
+      </c>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="1" t="s">
@@ -9460,6 +11422,15 @@
       <c r="K62" s="4">
         <v>8.249999999999998</v>
       </c>
+      <c r="L62" s="4">
+        <v>8.372727272727271</v>
+      </c>
+      <c r="M62" s="4">
+        <v>8.516666666666664</v>
+      </c>
+      <c r="N62" s="4">
+        <v>8.623076923076921</v>
+      </c>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" s="5" t="s">
@@ -9495,6 +11466,15 @@
       <c r="K63" s="4">
         <v>14.67</v>
       </c>
+      <c r="L63" s="4">
+        <v>14.71818181818182</v>
+      </c>
+      <c r="M63" s="4">
+        <v>14.76666666666667</v>
+      </c>
+      <c r="N63" s="4">
+        <v>14.81538461538461</v>
+      </c>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" s="6" t="s">
@@ -9530,6 +11510,15 @@
       <c r="K64" s="4">
         <v>21.2</v>
       </c>
+      <c r="L64" s="4">
+        <v>21.33636363636364</v>
+      </c>
+      <c r="M64" s="4">
+        <v>21.475</v>
+      </c>
+      <c r="N64" s="4">
+        <v>21.64615384615384</v>
+      </c>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="7" t="s">
@@ -9565,6 +11554,15 @@
       <c r="K65" s="4">
         <v>7.87</v>
       </c>
+      <c r="L65" s="4">
+        <v>8.00909090909091</v>
+      </c>
+      <c r="M65" s="4">
+        <v>8.166666666666668</v>
+      </c>
+      <c r="N65" s="4">
+        <v>8.338461538461541</v>
+      </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="8" t="s">
@@ -9600,6 +11598,15 @@
       <c r="K66" s="4">
         <v>6.43</v>
       </c>
+      <c r="L66" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="M66" s="4">
+        <v>6.55</v>
+      </c>
+      <c r="N66" s="4">
+        <v>6.584615384615384</v>
+      </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="9" t="s">
@@ -9635,6 +11642,15 @@
       <c r="K67" s="4">
         <v>24.19</v>
       </c>
+      <c r="L67" s="4">
+        <v>24.32727272727272</v>
+      </c>
+      <c r="M67" s="4">
+        <v>24.44166666666666</v>
+      </c>
+      <c r="N67" s="4">
+        <v>24.54615384615384</v>
+      </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="10" t="s">
@@ -9670,6 +11686,15 @@
       <c r="K68" s="4">
         <v>20.49</v>
       </c>
+      <c r="L68" s="4">
+        <v>20.64545454545454</v>
+      </c>
+      <c r="M68" s="4">
+        <v>20.8</v>
+      </c>
+      <c r="N68" s="4">
+        <v>20.93846153846154</v>
+      </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="11" t="s">
@@ -9705,6 +11730,15 @@
       <c r="K69" s="4">
         <v>8.779999999999999</v>
       </c>
+      <c r="L69" s="4">
+        <v>8.863636363636363</v>
+      </c>
+      <c r="M69" s="4">
+        <v>8.975</v>
+      </c>
+      <c r="N69" s="4">
+        <v>9.107692307692307</v>
+      </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="12" t="s">
@@ -9740,6 +11774,15 @@
       <c r="K70" s="4">
         <v>28.44</v>
       </c>
+      <c r="L70" s="4">
+        <v>28.48181818181818</v>
+      </c>
+      <c r="M70" s="4">
+        <v>28.51666666666666</v>
+      </c>
+      <c r="N70" s="4">
+        <v>28.55384615384615</v>
+      </c>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="13" t="s">
@@ -9775,6 +11818,15 @@
       <c r="K71" s="4">
         <v>6.35</v>
       </c>
+      <c r="L71" s="4">
+        <v>6.336363636363635</v>
+      </c>
+      <c r="M71" s="4">
+        <v>6.316666666666666</v>
+      </c>
+      <c r="N71" s="4">
+        <v>6.338461538461536</v>
+      </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="1" t="s">
@@ -9887,6 +11939,15 @@
       <c r="K74" s="4">
         <v>2.637362637362637</v>
       </c>
+      <c r="L74" s="4">
+        <v>2.1875</v>
+      </c>
+      <c r="M74" s="4">
+        <v>-1.188118811881188</v>
+      </c>
+      <c r="N74" s="4">
+        <v>-0.5050505050505051</v>
+      </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="5" t="s">
@@ -9922,6 +11983,15 @@
       <c r="K75" s="4">
         <v>0.6451612903225806</v>
       </c>
+      <c r="L75" s="4">
+        <v>1.776315789473684</v>
+      </c>
+      <c r="M75" s="4">
+        <v>2.026143790849673</v>
+      </c>
+      <c r="N75" s="4">
+        <v>1.493506493506493</v>
+      </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="6" t="s">
@@ -9957,6 +12027,15 @@
       <c r="K76" s="4">
         <v>1.946902654867257</v>
       </c>
+      <c r="L76" s="4">
+        <v>3.039647577092511</v>
+      </c>
+      <c r="M76" s="4">
+        <v>1.521739130434783</v>
+      </c>
+      <c r="N76" s="4">
+        <v>1.983122362869198</v>
+      </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="7" t="s">
@@ -9992,6 +12071,15 @@
       <c r="K77" s="4">
         <v>1.157894736842105</v>
       </c>
+      <c r="L77" s="4">
+        <v>4.361702127659575</v>
+      </c>
+      <c r="M77" s="4">
+        <v>3.03030303030303</v>
+      </c>
+      <c r="N77" s="4">
+        <v>0.9615384615384615</v>
+      </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="8" t="s">
@@ -10027,6 +12115,15 @@
       <c r="K78" s="4">
         <v>1.095890410958904</v>
       </c>
+      <c r="L78" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="M78" s="4">
+        <v>0.4225352112676057</v>
+      </c>
+      <c r="N78" s="4">
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="9" t="s">
@@ -10062,6 +12159,15 @@
       <c r="K79" s="4">
         <v>2.578125</v>
       </c>
+      <c r="L79" s="4">
+        <v>2.140077821011673</v>
+      </c>
+      <c r="M79" s="4">
+        <v>2.295719844357977</v>
+      </c>
+      <c r="N79" s="4">
+        <v>2.868217054263566</v>
+      </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="10" t="s">
@@ -10097,6 +12203,15 @@
       <c r="K80" s="4">
         <v>3.013698630136986</v>
       </c>
+      <c r="L80" s="4">
+        <v>3.423423423423424</v>
+      </c>
+      <c r="M80" s="4">
+        <v>1.688888888888889</v>
+      </c>
+      <c r="N80" s="4">
+        <v>2.566371681415929</v>
+      </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" s="11" t="s">
@@ -10132,6 +12247,15 @@
       <c r="K81" s="4">
         <v>1.020408163265306</v>
       </c>
+      <c r="L81" s="4">
+        <v>2.371134020618557</v>
+      </c>
+      <c r="M81" s="4">
+        <v>1.568627450980392</v>
+      </c>
+      <c r="N81" s="4">
+        <v>2.336448598130841</v>
+      </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="12" t="s">
@@ -10167,6 +12291,15 @@
       <c r="K82" s="4">
         <v>2.847222222222222</v>
       </c>
+      <c r="L82" s="4">
+        <v>1.937716262975779</v>
+      </c>
+      <c r="M82" s="4">
+        <v>1.903114186851211</v>
+      </c>
+      <c r="N82" s="4">
+        <v>1.448275862068966</v>
+      </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="13" t="s">
@@ -10202,6 +12335,15 @@
       <c r="K83" s="4">
         <v>0.6349206349206349</v>
       </c>
+      <c r="L83" s="4">
+        <v>1.774193548387097</v>
+      </c>
+      <c r="M83" s="4">
+        <v>2.459016393442623</v>
+      </c>
+      <c r="N83" s="4">
+        <v>1.363636363636364</v>
+      </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="1" t="s">
@@ -10314,6 +12456,15 @@
       <c r="K86" s="4">
         <v>1.466666666666667</v>
       </c>
+      <c r="L86" s="4">
+        <v>1.541802388707926</v>
+      </c>
+      <c r="M86" s="4">
+        <v>1.272015655577299</v>
+      </c>
+      <c r="N86" s="4">
+        <v>1.115075825156111</v>
+      </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" s="5" t="s">
@@ -10349,6 +12500,15 @@
       <c r="K87" s="4">
         <v>1.322426721199727</v>
       </c>
+      <c r="L87" s="4">
+        <v>1.365040148239654</v>
+      </c>
+      <c r="M87" s="4">
+        <v>1.422121896162528</v>
+      </c>
+      <c r="N87" s="4">
+        <v>1.427829698857736</v>
+      </c>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" s="6" t="s">
@@ -10384,6 +12544,15 @@
       <c r="K88" s="4">
         <v>2.745283018867925</v>
       </c>
+      <c r="L88" s="4">
+        <v>2.773753728163613</v>
+      </c>
+      <c r="M88" s="4">
+        <v>2.662010089251067</v>
+      </c>
+      <c r="N88" s="4">
+        <v>2.604832977967307</v>
+      </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" s="7" t="s">
@@ -10419,6 +12588,15 @@
       <c r="K89" s="4">
         <v>1.44853875476493</v>
       </c>
+      <c r="L89" s="4">
+        <v>1.759364358683315</v>
+      </c>
+      <c r="M89" s="4">
+        <v>1.887755102040816</v>
+      </c>
+      <c r="N89" s="4">
+        <v>1.798892988929889</v>
+      </c>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" s="8" t="s">
@@ -10454,6 +12632,15 @@
       <c r="K90" s="4">
         <v>1.135303265940902</v>
       </c>
+      <c r="L90" s="4">
+        <v>1.146853146853147</v>
+      </c>
+      <c r="M90" s="4">
+        <v>1.081424936386769</v>
+      </c>
+      <c r="N90" s="4">
+        <v>1.016355140186916</v>
+      </c>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" s="9" t="s">
@@ -10489,6 +12676,15 @@
       <c r="K91" s="4">
         <v>2.112443158329888</v>
       </c>
+      <c r="L91" s="4">
+        <v>2.115097159940209</v>
+      </c>
+      <c r="M91" s="4">
+        <v>2.130923968632799</v>
+      </c>
+      <c r="N91" s="4">
+        <v>2.190535882168599</v>
+      </c>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" s="10" t="s">
@@ -10524,6 +12720,15 @@
       <c r="K92" s="4">
         <v>2.103465104929234</v>
       </c>
+      <c r="L92" s="4">
+        <v>2.232496697490093</v>
+      </c>
+      <c r="M92" s="4">
+        <v>2.18349358974359</v>
+      </c>
+      <c r="N92" s="4">
+        <v>2.215282880235121</v>
+      </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" s="11" t="s">
@@ -10559,6 +12764,15 @@
       <c r="K93" s="4">
         <v>1.298405466970387</v>
       </c>
+      <c r="L93" s="4">
+        <v>1.405128205128205</v>
+      </c>
+      <c r="M93" s="4">
+        <v>1.420612813370473</v>
+      </c>
+      <c r="N93" s="4">
+        <v>1.503378378378378</v>
+      </c>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" s="12" t="s">
@@ -10594,6 +12808,15 @@
       <c r="K94" s="4">
         <v>2.482419127988749</v>
       </c>
+      <c r="L94" s="4">
+        <v>2.432173635493137</v>
+      </c>
+      <c r="M94" s="4">
+        <v>2.387492694330801</v>
+      </c>
+      <c r="N94" s="4">
+        <v>2.314116379310345</v>
+      </c>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="13" t="s">
@@ -10628,6 +12851,15 @@
       </c>
       <c r="K95" s="4">
         <v>0.07874015748031496</v>
+      </c>
+      <c r="L95" s="4">
+        <v>0.2295552367288379</v>
+      </c>
+      <c r="M95" s="4">
+        <v>0.4089709762532981</v>
+      </c>
+      <c r="N95" s="4">
+        <v>0.4854368932038834</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2024/Lineup/Results.xlsx
+++ b/Data/2024/Lineup/Results.xlsx
@@ -825,6 +825,9 @@
       <c r="N2" s="4">
         <v>7</v>
       </c>
+      <c r="O2" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="3" t="s">
@@ -869,6 +872,9 @@
       <c r="N3" s="4">
         <v>-19</v>
       </c>
+      <c r="O3" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="5" t="s">
@@ -913,6 +919,9 @@
       <c r="N4" s="4">
         <v>9</v>
       </c>
+      <c r="O4" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="5" t="s">
@@ -957,6 +966,9 @@
       <c r="N5" s="4">
         <v>4</v>
       </c>
+      <c r="O5" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="6" t="s">
@@ -1001,6 +1013,9 @@
       <c r="N6" s="4">
         <v>20</v>
       </c>
+      <c r="O6" s="4">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="6" t="s">
@@ -1045,6 +1060,9 @@
       <c r="N7" s="4">
         <v>17</v>
       </c>
+      <c r="O7" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="6" t="s">
@@ -1089,6 +1107,9 @@
       <c r="N8" s="4">
         <v>0</v>
       </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="7" t="s">
@@ -1133,6 +1154,9 @@
       <c r="N9" s="4">
         <v>7</v>
       </c>
+      <c r="O9" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="7" t="s">
@@ -1177,6 +1201,9 @@
       <c r="N10" s="4">
         <v>0</v>
       </c>
+      <c r="O10" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="8" t="s">
@@ -1221,6 +1248,9 @@
       <c r="N11" s="4">
         <v>1</v>
       </c>
+      <c r="O11" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="8" t="s">
@@ -1265,6 +1295,9 @@
       <c r="N12" s="4">
         <v>0</v>
       </c>
+      <c r="O12" s="4">
+        <v>-18</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="9" t="s">
@@ -1309,6 +1342,9 @@
       <c r="N13" s="4">
         <v>28</v>
       </c>
+      <c r="O13" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="9" t="s">
@@ -1353,6 +1389,9 @@
       <c r="N14" s="4">
         <v>46</v>
       </c>
+      <c r="O14" s="4">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="10" t="s">
@@ -1397,6 +1436,9 @@
       <c r="N15" s="4">
         <v>26</v>
       </c>
+      <c r="O15" s="4">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="10" t="s">
@@ -1441,6 +1483,9 @@
       <c r="N16" s="4">
         <v>27</v>
       </c>
+      <c r="O16" s="4">
+        <v>-21</v>
+      </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="11" t="s">
@@ -1485,6 +1530,9 @@
       <c r="N17" s="4">
         <v>4</v>
       </c>
+      <c r="O17" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="11" t="s">
@@ -1529,6 +1577,9 @@
       <c r="N18" s="4">
         <v>1</v>
       </c>
+      <c r="O18" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="12" t="s">
@@ -1573,6 +1624,9 @@
       <c r="N19" s="4">
         <v>17</v>
       </c>
+      <c r="O19" s="4">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="12" t="s">
@@ -1617,6 +1671,9 @@
       <c r="N20" s="4">
         <v>20</v>
       </c>
+      <c r="O20" s="4">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="13" t="s">
@@ -1661,6 +1718,9 @@
       <c r="N21" s="4">
         <v>5</v>
       </c>
+      <c r="O21" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="13" t="s">
@@ -1705,6 +1765,9 @@
       <c r="N22" s="4">
         <v>1</v>
       </c>
+      <c r="O22" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
@@ -1826,6 +1889,9 @@
       <c r="N25" s="4">
         <v>10.5</v>
       </c>
+      <c r="O25" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="3" t="s">
@@ -1870,6 +1936,9 @@
       <c r="N26" s="4">
         <v>9.9</v>
       </c>
+      <c r="O26" s="4">
+        <v>9.699999999999999</v>
+      </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="5" t="s">
@@ -1914,6 +1983,9 @@
       <c r="N27" s="4">
         <v>15.1</v>
       </c>
+      <c r="O27" s="4">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="5" t="s">
@@ -1958,6 +2030,9 @@
       <c r="N28" s="4">
         <v>16.6</v>
       </c>
+      <c r="O28" s="4">
+        <v>16.3</v>
+      </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="6" t="s">
@@ -2002,6 +2077,9 @@
       <c r="N29" s="4">
         <v>23</v>
       </c>
+      <c r="O29" s="4">
+        <v>23.3</v>
+      </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="6" t="s">
@@ -2046,6 +2124,9 @@
       <c r="N30" s="4">
         <v>22.2</v>
       </c>
+      <c r="O30" s="4">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="6" t="s">
@@ -2090,6 +2171,9 @@
       <c r="N31" s="4">
         <v>0</v>
       </c>
+      <c r="O31" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="7" t="s">
@@ -2134,6 +2218,9 @@
       <c r="N32" s="4">
         <v>10.8</v>
       </c>
+      <c r="O32" s="4">
+        <v>11.3</v>
+      </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="7" t="s">
@@ -2178,6 +2265,9 @@
       <c r="N33" s="4">
         <v>9.699999999999999</v>
       </c>
+      <c r="O33" s="4">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="8" t="s">
@@ -2222,6 +2312,9 @@
       <c r="N34" s="4">
         <v>7.7</v>
       </c>
+      <c r="O34" s="4">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="8" t="s">
@@ -2266,6 +2359,9 @@
       <c r="N35" s="4">
         <v>7.5</v>
       </c>
+      <c r="O35" s="4">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" s="9" t="s">
@@ -2310,6 +2406,9 @@
       <c r="N36" s="4">
         <v>26.1</v>
       </c>
+      <c r="O36" s="4">
+        <v>26.2</v>
+      </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="9" t="s">
@@ -2354,6 +2453,9 @@
       <c r="N37" s="4">
         <v>22.3</v>
       </c>
+      <c r="O37" s="4">
+        <v>23.3</v>
+      </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" s="10" t="s">
@@ -2398,6 +2500,9 @@
       <c r="N38" s="4">
         <v>22.8</v>
       </c>
+      <c r="O38" s="4">
+        <v>23.1</v>
+      </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="10" t="s">
@@ -2442,6 +2547,9 @@
       <c r="N39" s="4">
         <v>20.9</v>
       </c>
+      <c r="O39" s="4">
+        <v>21.2</v>
+      </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="11" t="s">
@@ -2486,6 +2594,9 @@
       <c r="N40" s="4">
         <v>10.5</v>
       </c>
+      <c r="O40" s="4">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="11" t="s">
@@ -2530,6 +2641,9 @@
       <c r="N41" s="4">
         <v>10.9</v>
       </c>
+      <c r="O41" s="4">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="12" t="s">
@@ -2574,6 +2688,9 @@
       <c r="N42" s="4">
         <v>31</v>
       </c>
+      <c r="O42" s="4">
+        <v>31.1</v>
+      </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="12" t="s">
@@ -2618,6 +2735,9 @@
       <c r="N43" s="4">
         <v>22.7</v>
       </c>
+      <c r="O43" s="4">
+        <v>23</v>
+      </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="13" t="s">
@@ -2662,6 +2782,9 @@
       <c r="N44" s="4">
         <v>9</v>
       </c>
+      <c r="O44" s="4">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="13" t="s">
@@ -2706,6 +2829,9 @@
       <c r="N45" s="4">
         <v>5.2</v>
       </c>
+      <c r="O45" s="4">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="1" t="s">
@@ -2827,8 +2953,11 @@
       <c r="N48" s="4">
         <v>62</v>
       </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="O48" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="3" t="s">
         <v>26</v>
       </c>
@@ -2871,8 +3000,11 @@
       <c r="N49" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="O49" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="5" t="s">
         <v>27</v>
       </c>
@@ -2915,8 +3047,11 @@
       <c r="N50" s="4">
         <v>81</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="O50" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="5" t="s">
         <v>28</v>
       </c>
@@ -2959,8 +3094,11 @@
       <c r="N51" s="4">
         <v>115</v>
       </c>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="O51" s="4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="6" t="s">
         <v>29</v>
       </c>
@@ -3003,8 +3141,11 @@
       <c r="N52" s="4">
         <v>304</v>
       </c>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="O52" s="4">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="6" t="s">
         <v>30</v>
       </c>
@@ -3047,8 +3188,11 @@
       <c r="N53" s="4">
         <v>279</v>
       </c>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="O53" s="4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="7" t="s">
         <v>32</v>
       </c>
@@ -3091,8 +3235,11 @@
       <c r="N54" s="4">
         <v>81</v>
       </c>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="O54" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="7" t="s">
         <v>33</v>
       </c>
@@ -3135,8 +3282,11 @@
       <c r="N55" s="4">
         <v>74</v>
       </c>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="O55" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="8" t="s">
         <v>34</v>
       </c>
@@ -3179,8 +3329,11 @@
       <c r="N56" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="O56" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="8" t="s">
         <v>35</v>
       </c>
@@ -3223,8 +3376,11 @@
       <c r="N57" s="4">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:14">
+      <c r="O57" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="9" t="s">
         <v>36</v>
       </c>
@@ -3267,8 +3423,11 @@
       <c r="N58" s="4">
         <v>341</v>
       </c>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="O58" s="4">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="9" t="s">
         <v>37</v>
       </c>
@@ -3311,8 +3470,11 @@
       <c r="N59" s="4">
         <v>292</v>
       </c>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="O59" s="4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="10" t="s">
         <v>38</v>
       </c>
@@ -3355,8 +3517,11 @@
       <c r="N60" s="4">
         <v>247</v>
       </c>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="O60" s="4">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="10" t="s">
         <v>39</v>
       </c>
@@ -3399,8 +3564,11 @@
       <c r="N61" s="4">
         <v>236</v>
       </c>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="O61" s="4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="11" t="s">
         <v>40</v>
       </c>
@@ -3443,8 +3611,11 @@
       <c r="N62" s="4">
         <v>72</v>
       </c>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="O62" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="11" t="s">
         <v>41</v>
       </c>
@@ -3487,8 +3658,11 @@
       <c r="N63" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="O63" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="12" t="s">
         <v>42</v>
       </c>
@@ -3530,6 +3704,9 @@
       </c>
       <c r="N64" s="4">
         <v>410</v>
+      </c>
+      <c r="O64" s="4">
+        <v>445</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -3575,6 +3752,9 @@
       <c r="N65" s="4">
         <v>224</v>
       </c>
+      <c r="O65" s="4">
+        <v>243</v>
+      </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="13" t="s">
@@ -3619,6 +3799,9 @@
       <c r="N66" s="4">
         <v>11</v>
       </c>
+      <c r="O66" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="13" t="s">
@@ -3663,6 +3846,9 @@
       <c r="N67" s="4">
         <v>6</v>
       </c>
+      <c r="O67" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="6" t="s">
@@ -3707,6 +3893,9 @@
       <c r="N68" s="4">
         <v>26</v>
       </c>
+      <c r="O68" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="1" t="s">
@@ -3828,6 +4017,9 @@
       <c r="N71" s="4">
         <v>119.8</v>
       </c>
+      <c r="O71" s="4">
+        <v>130.8</v>
+      </c>
     </row>
     <row r="72" spans="1:25">
       <c r="A72" s="3" t="s">
@@ -3872,6 +4064,9 @@
       <c r="N72" s="4">
         <v>109.2</v>
       </c>
+      <c r="O72" s="4">
+        <v>118.9</v>
+      </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="5" t="s">
@@ -3916,6 +4111,9 @@
       <c r="N73" s="4">
         <v>167.7</v>
       </c>
+      <c r="O73" s="4">
+        <v>182.9</v>
+      </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" s="5" t="s">
@@ -3960,6 +4158,9 @@
       <c r="N74" s="4">
         <v>212.6</v>
       </c>
+      <c r="O74" s="4">
+        <v>228.9</v>
+      </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="6" t="s">
@@ -4004,6 +4205,9 @@
       <c r="N75" s="4">
         <v>285.1</v>
       </c>
+      <c r="O75" s="4">
+        <v>308.4</v>
+      </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="6" t="s">
@@ -4048,6 +4252,9 @@
       <c r="N76" s="4">
         <v>249.1</v>
       </c>
+      <c r="O76" s="4">
+        <v>271.6</v>
+      </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="7" t="s">
@@ -4092,6 +4299,9 @@
       <c r="N77" s="4">
         <v>112.8</v>
       </c>
+      <c r="O77" s="4">
+        <v>124.1</v>
+      </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="7" t="s">
@@ -4136,6 +4346,9 @@
       <c r="N78" s="4">
         <v>102</v>
       </c>
+      <c r="O78" s="4">
+        <v>111.5</v>
+      </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="8" t="s">
@@ -4180,6 +4393,9 @@
       <c r="N79" s="4">
         <v>89.20000000000002</v>
       </c>
+      <c r="O79" s="4">
+        <v>96.80000000000001</v>
+      </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="8" t="s">
@@ -4224,6 +4440,9 @@
       <c r="N80" s="4">
         <v>94.5</v>
       </c>
+      <c r="O80" s="4">
+        <v>101.8</v>
+      </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" s="9" t="s">
@@ -4268,6 +4487,9 @@
       <c r="N81" s="4">
         <v>320</v>
       </c>
+      <c r="O81" s="4">
+        <v>346.2</v>
+      </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="9" t="s">
@@ -4312,6 +4534,9 @@
       <c r="N82" s="4">
         <v>266.4</v>
       </c>
+      <c r="O82" s="4">
+        <v>289.7</v>
+      </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="10" t="s">
@@ -4356,6 +4581,9 @@
       <c r="N83" s="4">
         <v>260.5</v>
       </c>
+      <c r="O83" s="4">
+        <v>283.6</v>
+      </c>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" s="10" t="s">
@@ -4400,6 +4628,9 @@
       <c r="N84" s="4">
         <v>257.1</v>
       </c>
+      <c r="O84" s="4">
+        <v>278.3</v>
+      </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="11" t="s">
@@ -4444,6 +4675,9 @@
       <c r="N85" s="4">
         <v>116.6</v>
       </c>
+      <c r="O85" s="4">
+        <v>127</v>
+      </c>
     </row>
     <row r="86" spans="1:25">
       <c r="A86" s="11" t="s">
@@ -4488,6 +4722,9 @@
       <c r="N86" s="4">
         <v>121.7</v>
       </c>
+      <c r="O86" s="4">
+        <v>132.5</v>
+      </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" s="12" t="s">
@@ -4532,6 +4769,9 @@
       <c r="N87" s="4">
         <v>394.8</v>
       </c>
+      <c r="O87" s="4">
+        <v>425.9</v>
+      </c>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" s="12" t="s">
@@ -4576,6 +4816,9 @@
       <c r="N88" s="4">
         <v>292.1</v>
       </c>
+      <c r="O88" s="4">
+        <v>315.1</v>
+      </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" s="13" t="s">
@@ -4620,6 +4863,9 @@
       <c r="N89" s="4">
         <v>100.7</v>
       </c>
+      <c r="O89" s="4">
+        <v>109.6</v>
+      </c>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" s="13" t="s">
@@ -4664,6 +4910,9 @@
       <c r="N90" s="4">
         <v>74.40000000000001</v>
       </c>
+      <c r="O90" s="4">
+        <v>79.5</v>
+      </c>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" s="6" t="s">
@@ -4708,6 +4957,9 @@
       <c r="N91" s="4">
         <v>14</v>
       </c>
+      <c r="O91" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" s="1" t="s">
@@ -4829,6 +5081,9 @@
       <c r="N94" s="4">
         <v>4.769230769230769</v>
       </c>
+      <c r="O94" s="4">
+        <v>5.142857142857143</v>
+      </c>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="3" t="s">
@@ -4873,6 +5128,9 @@
       <c r="N95" s="4">
         <v>1.615384615384615</v>
       </c>
+      <c r="O95" s="4">
+        <v>1.714285714285714</v>
+      </c>
     </row>
     <row r="96" spans="1:25">
       <c r="A96" s="5" t="s">
@@ -4917,8 +5175,11 @@
       <c r="N96" s="4">
         <v>6.230769230769231</v>
       </c>
-    </row>
-    <row r="97" spans="1:14">
+      <c r="O96" s="4">
+        <v>6.285714285714286</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" s="5" t="s">
         <v>28</v>
       </c>
@@ -4961,8 +5222,11 @@
       <c r="N97" s="4">
         <v>8.846153846153847</v>
       </c>
-    </row>
-    <row r="98" spans="1:14">
+      <c r="O97" s="4">
+        <v>8.857142857142858</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" s="6" t="s">
         <v>29</v>
       </c>
@@ -5005,8 +5269,11 @@
       <c r="N98" s="4">
         <v>23.38461538461538</v>
       </c>
-    </row>
-    <row r="99" spans="1:14">
+      <c r="O98" s="4">
+        <v>23.28571428571428</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" s="6" t="s">
         <v>30</v>
       </c>
@@ -5049,8 +5316,11 @@
       <c r="N99" s="4">
         <v>21.46153846153846</v>
       </c>
-    </row>
-    <row r="100" spans="1:14">
+      <c r="O99" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" s="7" t="s">
         <v>32</v>
       </c>
@@ -5093,8 +5363,11 @@
       <c r="N100" s="4">
         <v>6.230769230769231</v>
       </c>
-    </row>
-    <row r="101" spans="1:14">
+      <c r="O100" s="4">
+        <v>6.214285714285714</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" s="7" t="s">
         <v>33</v>
       </c>
@@ -5137,8 +5410,11 @@
       <c r="N101" s="4">
         <v>5.692307692307693</v>
       </c>
-    </row>
-    <row r="102" spans="1:14">
+      <c r="O101" s="4">
+        <v>5.428571428571429</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" s="8" t="s">
         <v>34</v>
       </c>
@@ -5181,8 +5457,11 @@
       <c r="N102" s="4">
         <v>2.538461538461538</v>
       </c>
-    </row>
-    <row r="103" spans="1:14">
+      <c r="O102" s="4">
+        <v>2.571428571428572</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" s="8" t="s">
         <v>35</v>
       </c>
@@ -5225,8 +5504,11 @@
       <c r="N103" s="4">
         <v>3.538461538461538</v>
       </c>
-    </row>
-    <row r="104" spans="1:14">
+      <c r="O103" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" s="9" t="s">
         <v>36</v>
       </c>
@@ -5269,8 +5551,11 @@
       <c r="N104" s="4">
         <v>26.23076923076923</v>
       </c>
-    </row>
-    <row r="105" spans="1:14">
+      <c r="O104" s="4">
+        <v>25.57142857142857</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" s="9" t="s">
         <v>37</v>
       </c>
@@ -5313,8 +5598,11 @@
       <c r="N105" s="4">
         <v>22.46153846153846</v>
       </c>
-    </row>
-    <row r="106" spans="1:14">
+      <c r="O105" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" s="10" t="s">
         <v>38</v>
       </c>
@@ -5357,8 +5645,11 @@
       <c r="N106" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="107" spans="1:14">
+      <c r="O106" s="4">
+        <v>20.92857142857143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" s="10" t="s">
         <v>39</v>
       </c>
@@ -5401,8 +5692,11 @@
       <c r="N107" s="4">
         <v>18.15384615384615</v>
       </c>
-    </row>
-    <row r="108" spans="1:14">
+      <c r="O107" s="4">
+        <v>15.35714285714286</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="11" t="s">
         <v>40</v>
       </c>
@@ -5445,8 +5739,11 @@
       <c r="N108" s="4">
         <v>5.538461538461538</v>
       </c>
-    </row>
-    <row r="109" spans="1:14">
+      <c r="O108" s="4">
+        <v>5.571428571428571</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" s="11" t="s">
         <v>41</v>
       </c>
@@ -5489,8 +5786,11 @@
       <c r="N109" s="4">
         <v>2.461538461538462</v>
       </c>
-    </row>
-    <row r="110" spans="1:14">
+      <c r="O109" s="4">
+        <v>2.857142857142857</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" s="12" t="s">
         <v>42</v>
       </c>
@@ -5533,8 +5833,11 @@
       <c r="N110" s="4">
         <v>31.53846153846154</v>
       </c>
-    </row>
-    <row r="111" spans="1:14">
+      <c r="O110" s="4">
+        <v>31.78571428571428</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" s="12" t="s">
         <v>43</v>
       </c>
@@ -5577,8 +5880,11 @@
       <c r="N111" s="4">
         <v>17.23076923076923</v>
       </c>
-    </row>
-    <row r="112" spans="1:14">
+      <c r="O111" s="4">
+        <v>17.35714285714286</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" s="13" t="s">
         <v>44</v>
       </c>
@@ -5620,6 +5926,9 @@
       </c>
       <c r="N112" s="4">
         <v>0.8461538461538461</v>
+      </c>
+      <c r="O112" s="4">
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="113" spans="1:25">
@@ -5665,6 +5974,9 @@
       <c r="N113" s="4">
         <v>0.4615384615384616</v>
       </c>
+      <c r="O113" s="4">
+        <v>0.5714285714285714</v>
+      </c>
     </row>
     <row r="114" spans="1:25">
       <c r="A114" s="6" t="s">
@@ -5709,6 +6021,9 @@
       <c r="N114" s="4">
         <v>2</v>
       </c>
+      <c r="O114" s="4">
+        <v>1.857142857142857</v>
+      </c>
     </row>
     <row r="116" spans="1:25">
       <c r="A116" s="1" t="s">
@@ -5830,6 +6145,9 @@
       <c r="N117" s="4">
         <v>9.215384615384615</v>
       </c>
+      <c r="O117" s="4">
+        <v>9.342857142857143</v>
+      </c>
     </row>
     <row r="118" spans="1:25">
       <c r="A118" s="3" t="s">
@@ -5874,6 +6192,9 @@
       <c r="N118" s="4">
         <v>8.399999999999999</v>
       </c>
+      <c r="O118" s="4">
+        <v>8.492857142857142</v>
+      </c>
     </row>
     <row r="119" spans="1:25">
       <c r="A119" s="5" t="s">
@@ -5918,6 +6239,9 @@
       <c r="N119" s="4">
         <v>12.9</v>
       </c>
+      <c r="O119" s="4">
+        <v>13.06428571428571</v>
+      </c>
     </row>
     <row r="120" spans="1:25">
       <c r="A120" s="5" t="s">
@@ -5962,6 +6286,9 @@
       <c r="N120" s="4">
         <v>16.35384615384615</v>
       </c>
+      <c r="O120" s="4">
+        <v>16.35</v>
+      </c>
     </row>
     <row r="121" spans="1:25">
       <c r="A121" s="6" t="s">
@@ -6006,6 +6333,9 @@
       <c r="N121" s="4">
         <v>21.93076923076923</v>
       </c>
+      <c r="O121" s="4">
+        <v>22.02857142857143</v>
+      </c>
     </row>
     <row r="122" spans="1:25">
       <c r="A122" s="6" t="s">
@@ -6050,6 +6380,9 @@
       <c r="N122" s="4">
         <v>19.16153846153846</v>
       </c>
+      <c r="O122" s="4">
+        <v>19.4</v>
+      </c>
     </row>
     <row r="123" spans="1:25">
       <c r="A123" s="7" t="s">
@@ -6094,6 +6427,9 @@
       <c r="N123" s="4">
         <v>8.676923076923078</v>
       </c>
+      <c r="O123" s="4">
+        <v>8.864285714285716</v>
+      </c>
     </row>
     <row r="124" spans="1:25">
       <c r="A124" s="7" t="s">
@@ -6138,6 +6474,9 @@
       <c r="N124" s="4">
         <v>7.846153846153848</v>
       </c>
+      <c r="O124" s="4">
+        <v>7.964285714285715</v>
+      </c>
     </row>
     <row r="125" spans="1:25">
       <c r="A125" s="8" t="s">
@@ -6182,6 +6521,9 @@
       <c r="N125" s="4">
         <v>6.861538461538463</v>
       </c>
+      <c r="O125" s="4">
+        <v>6.914285714285715</v>
+      </c>
     </row>
     <row r="126" spans="1:25">
       <c r="A126" s="8" t="s">
@@ -6226,6 +6568,9 @@
       <c r="N126" s="4">
         <v>7.269230769230769</v>
       </c>
+      <c r="O126" s="4">
+        <v>7.271428571428571</v>
+      </c>
     </row>
     <row r="127" spans="1:25">
       <c r="A127" s="9" t="s">
@@ -6270,6 +6615,9 @@
       <c r="N127" s="4">
         <v>24.61538461538462</v>
       </c>
+      <c r="O127" s="4">
+        <v>24.72857142857143</v>
+      </c>
     </row>
     <row r="128" spans="1:25">
       <c r="A128" s="9" t="s">
@@ -6314,6 +6662,9 @@
       <c r="N128" s="4">
         <v>20.49230769230769</v>
       </c>
+      <c r="O128" s="4">
+        <v>20.69285714285715</v>
+      </c>
     </row>
     <row r="129" spans="1:25">
       <c r="A129" s="10" t="s">
@@ -6358,6 +6709,9 @@
       <c r="N129" s="4">
         <v>20.03846153846154</v>
       </c>
+      <c r="O129" s="4">
+        <v>20.25714285714286</v>
+      </c>
     </row>
     <row r="130" spans="1:25">
       <c r="A130" s="10" t="s">
@@ -6402,6 +6756,9 @@
       <c r="N130" s="4">
         <v>19.77692307692308</v>
       </c>
+      <c r="O130" s="4">
+        <v>19.87857142857143</v>
+      </c>
     </row>
     <row r="131" spans="1:25">
       <c r="A131" s="11" t="s">
@@ -6446,6 +6803,9 @@
       <c r="N131" s="4">
         <v>8.969230769230769</v>
       </c>
+      <c r="O131" s="4">
+        <v>9.071428571428571</v>
+      </c>
     </row>
     <row r="132" spans="1:25">
       <c r="A132" s="11" t="s">
@@ -6490,6 +6850,9 @@
       <c r="N132" s="4">
         <v>9.361538461538462</v>
       </c>
+      <c r="O132" s="4">
+        <v>9.464285714285714</v>
+      </c>
     </row>
     <row r="133" spans="1:25">
       <c r="A133" s="12" t="s">
@@ -6534,6 +6897,9 @@
       <c r="N133" s="4">
         <v>30.36923076923076</v>
       </c>
+      <c r="O133" s="4">
+        <v>30.42142857142857</v>
+      </c>
     </row>
     <row r="134" spans="1:25">
       <c r="A134" s="12" t="s">
@@ -6578,6 +6944,9 @@
       <c r="N134" s="4">
         <v>22.46923076923077</v>
       </c>
+      <c r="O134" s="4">
+        <v>22.50714285714286</v>
+      </c>
     </row>
     <row r="135" spans="1:25">
       <c r="A135" s="13" t="s">
@@ -6622,6 +6991,9 @@
       <c r="N135" s="4">
         <v>7.746153846153845</v>
       </c>
+      <c r="O135" s="4">
+        <v>7.828571428571428</v>
+      </c>
     </row>
     <row r="136" spans="1:25">
       <c r="A136" s="13" t="s">
@@ -6666,6 +7038,9 @@
       <c r="N136" s="4">
         <v>5.723076923076923</v>
       </c>
+      <c r="O136" s="4">
+        <v>5.678571428571429</v>
+      </c>
     </row>
     <row r="137" spans="1:25">
       <c r="A137" s="6" t="s">
@@ -6710,6 +7085,9 @@
       <c r="N137" s="4">
         <v>1.076923076923077</v>
       </c>
+      <c r="O137" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" spans="1:25">
       <c r="A139" s="1" t="s">
@@ -6831,6 +7209,9 @@
       <c r="N140" s="4">
         <v>0.6666666666666666</v>
       </c>
+      <c r="O140" s="4">
+        <v>0.9090909090909091</v>
+      </c>
     </row>
     <row r="141" spans="1:25">
       <c r="A141" s="3" t="s">
@@ -6875,6 +7256,9 @@
       <c r="N141" s="4">
         <v>-1.919191919191919</v>
       </c>
+      <c r="O141" s="4">
+        <v>0.3092783505154639</v>
+      </c>
     </row>
     <row r="142" spans="1:25">
       <c r="A142" s="5" t="s">
@@ -6919,6 +7303,9 @@
       <c r="N142" s="4">
         <v>0.5960264900662252</v>
       </c>
+      <c r="O142" s="4">
+        <v>0.4605263157894737</v>
+      </c>
     </row>
     <row r="143" spans="1:25">
       <c r="A143" s="5" t="s">
@@ -6963,6 +7350,9 @@
       <c r="N143" s="4">
         <v>0.2409638554216867</v>
       </c>
+      <c r="O143" s="4">
+        <v>0.5521472392638036</v>
+      </c>
     </row>
     <row r="144" spans="1:25">
       <c r="A144" s="6" t="s">
@@ -7007,8 +7397,11 @@
       <c r="N144" s="4">
         <v>0.8695652173913043</v>
       </c>
-    </row>
-    <row r="145" spans="1:14">
+      <c r="O144" s="4">
+        <v>0.944206008583691</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="6" t="s">
         <v>30</v>
       </c>
@@ -7051,8 +7444,11 @@
       <c r="N145" s="4">
         <v>0.7657657657657658</v>
       </c>
-    </row>
-    <row r="146" spans="1:14">
+      <c r="O145" s="4">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" s="7" t="s">
         <v>32</v>
       </c>
@@ -7095,8 +7491,11 @@
       <c r="N146" s="4">
         <v>0.6481481481481481</v>
       </c>
-    </row>
-    <row r="147" spans="1:14">
+      <c r="O146" s="4">
+        <v>0.5309734513274336</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="7" t="s">
         <v>33</v>
       </c>
@@ -7139,8 +7538,11 @@
       <c r="N147" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:14">
+      <c r="O147" s="4">
+        <v>0.2105263157894737</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" s="8" t="s">
         <v>34</v>
       </c>
@@ -7183,8 +7585,11 @@
       <c r="N148" s="4">
         <v>0.1298701298701299</v>
       </c>
-    </row>
-    <row r="149" spans="1:14">
+      <c r="O148" s="4">
+        <v>0.3947368421052632</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" s="8" t="s">
         <v>35</v>
       </c>
@@ -7227,8 +7632,11 @@
       <c r="N149" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:14">
+      <c r="O149" s="4">
+        <v>-2.465753424657534</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="9" t="s">
         <v>36</v>
       </c>
@@ -7271,8 +7679,11 @@
       <c r="N150" s="4">
         <v>1.0727969348659</v>
       </c>
-    </row>
-    <row r="151" spans="1:14">
+      <c r="O150" s="4">
+        <v>0.648854961832061</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" s="9" t="s">
         <v>37</v>
       </c>
@@ -7315,8 +7726,11 @@
       <c r="N151" s="4">
         <v>2.062780269058296</v>
       </c>
-    </row>
-    <row r="152" spans="1:14">
+      <c r="O151" s="4">
+        <v>1.28755364806867</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" s="10" t="s">
         <v>38</v>
       </c>
@@ -7359,8 +7773,11 @@
       <c r="N152" s="4">
         <v>1.140350877192982</v>
       </c>
-    </row>
-    <row r="153" spans="1:14">
+      <c r="O152" s="4">
+        <v>1.991341991341991</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" s="10" t="s">
         <v>39</v>
       </c>
@@ -7403,8 +7820,11 @@
       <c r="N153" s="4">
         <v>1.291866028708134</v>
       </c>
-    </row>
-    <row r="154" spans="1:14">
+      <c r="O153" s="4">
+        <v>-0.9905660377358491</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" s="11" t="s">
         <v>40</v>
       </c>
@@ -7447,8 +7867,11 @@
       <c r="N154" s="4">
         <v>0.3809523809523809</v>
       </c>
-    </row>
-    <row r="155" spans="1:14">
+      <c r="O154" s="4">
+        <v>0.5769230769230769</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" s="11" t="s">
         <v>41</v>
       </c>
@@ -7491,8 +7914,11 @@
       <c r="N155" s="4">
         <v>0.09174311926605504</v>
       </c>
-    </row>
-    <row r="156" spans="1:14">
+      <c r="O155" s="4">
+        <v>0.7407407407407407</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" s="12" t="s">
         <v>42</v>
       </c>
@@ -7535,8 +7961,11 @@
       <c r="N156" s="4">
         <v>0.5483870967741935</v>
       </c>
-    </row>
-    <row r="157" spans="1:14">
+      <c r="O156" s="4">
+        <v>1.12540192926045</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" s="12" t="s">
         <v>43</v>
       </c>
@@ -7579,8 +8008,11 @@
       <c r="N157" s="4">
         <v>0.881057268722467</v>
       </c>
-    </row>
-    <row r="158" spans="1:14">
+      <c r="O157" s="4">
+        <v>0.8260869565217391</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" s="13" t="s">
         <v>44</v>
       </c>
@@ -7623,8 +8055,11 @@
       <c r="N158" s="4">
         <v>0.5555555555555556</v>
       </c>
-    </row>
-    <row r="159" spans="1:14">
+      <c r="O158" s="4">
+        <v>0.2247191011235955</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
       <c r="A159" s="13" t="s">
         <v>45</v>
       </c>
@@ -7667,8 +8102,11 @@
       <c r="N159" s="4">
         <v>0.1923076923076923</v>
       </c>
-    </row>
-    <row r="160" spans="1:14">
+      <c r="O159" s="4">
+        <v>0.3921568627450981</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160" s="6" t="s">
         <v>31</v>
       </c>
@@ -7709,6 +8147,9 @@
         <v>0</v>
       </c>
       <c r="N160" s="4">
+        <v>0</v>
+      </c>
+      <c r="O160" s="4">
         <v>0</v>
       </c>
     </row>
@@ -7832,6 +8273,9 @@
       <c r="N163" s="4">
         <v>0.5585585585585585</v>
       </c>
+      <c r="O163" s="4">
+        <v>0.5901639344262295</v>
+      </c>
     </row>
     <row r="164" spans="1:25">
       <c r="A164" s="3" t="s">
@@ -7876,6 +8320,9 @@
       <c r="N164" s="4">
         <v>0.1923076923076923</v>
       </c>
+      <c r="O164" s="4">
+        <v>0.2018502943650126</v>
+      </c>
     </row>
     <row r="165" spans="1:25">
       <c r="A165" s="5" t="s">
@@ -7920,6 +8367,9 @@
       <c r="N165" s="4">
         <v>0.483005366726297</v>
       </c>
+      <c r="O165" s="4">
+        <v>0.4811372334609076</v>
+      </c>
     </row>
     <row r="166" spans="1:25">
       <c r="A166" s="5" t="s">
@@ -7964,6 +8414,9 @@
       <c r="N166" s="4">
         <v>0.5409219190968956</v>
       </c>
+      <c r="O166" s="4">
+        <v>0.5417212756662297</v>
+      </c>
     </row>
     <row r="167" spans="1:25">
       <c r="A167" s="6" t="s">
@@ -8008,6 +8461,9 @@
       <c r="N167" s="4">
         <v>1.066292528937215</v>
       </c>
+      <c r="O167" s="4">
+        <v>1.057068741893645</v>
+      </c>
     </row>
     <row r="168" spans="1:25">
       <c r="A168" s="6" t="s">
@@ -8052,6 +8508,9 @@
       <c r="N168" s="4">
         <v>1.120032115616219</v>
       </c>
+      <c r="O168" s="4">
+        <v>1.082474226804124</v>
+      </c>
     </row>
     <row r="169" spans="1:25">
       <c r="A169" s="7" t="s">
@@ -8096,6 +8555,9 @@
       <c r="N169" s="4">
         <v>0.7180851063829787</v>
       </c>
+      <c r="O169" s="4">
+        <v>0.7010475423045931</v>
+      </c>
     </row>
     <row r="170" spans="1:25">
       <c r="A170" s="7" t="s">
@@ -8140,6 +8602,9 @@
       <c r="N170" s="4">
         <v>0.8017334777898159</v>
       </c>
+      <c r="O170" s="4">
+        <v>0.7465618860510805</v>
+      </c>
     </row>
     <row r="171" spans="1:25">
       <c r="A171" s="8" t="s">
@@ -8184,6 +8649,9 @@
       <c r="N171" s="4">
         <v>0.3985507246376812</v>
       </c>
+      <c r="O171" s="4">
+        <v>0.3982300884955752</v>
+      </c>
     </row>
     <row r="172" spans="1:25">
       <c r="A172" s="8" t="s">
@@ -8228,6 +8696,9 @@
       <c r="N172" s="4">
         <v>0.5287356321839081</v>
       </c>
+      <c r="O172" s="4">
+        <v>0.2969247083775186</v>
+      </c>
     </row>
     <row r="173" spans="1:25">
       <c r="A173" s="9" t="s">
@@ -8272,6 +8743,9 @@
       <c r="N173" s="4">
         <v>1.065625</v>
       </c>
+      <c r="O173" s="4">
+        <v>1.034084344309648</v>
+      </c>
     </row>
     <row r="174" spans="1:25">
       <c r="A174" s="9" t="s">
@@ -8316,6 +8790,9 @@
       <c r="N174" s="4">
         <v>1.096096096096096</v>
       </c>
+      <c r="O174" s="4">
+        <v>1.111494649637556</v>
+      </c>
     </row>
     <row r="175" spans="1:25">
       <c r="A175" s="10" t="s">
@@ -8360,6 +8837,9 @@
       <c r="N175" s="4">
         <v>0.9481765834932822</v>
       </c>
+      <c r="O175" s="4">
+        <v>1.033145275035261</v>
+      </c>
     </row>
     <row r="176" spans="1:25">
       <c r="A176" s="10" t="s">
@@ -8404,8 +8884,11 @@
       <c r="N176" s="4">
         <v>0.9179307662388175</v>
       </c>
-    </row>
-    <row r="177" spans="1:14">
+      <c r="O176" s="4">
+        <v>0.7725476104922745</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
       <c r="A177" s="11" t="s">
         <v>40</v>
       </c>
@@ -8448,8 +8931,11 @@
       <c r="N177" s="4">
         <v>0.6741573033707865</v>
       </c>
-    </row>
-    <row r="178" spans="1:14">
+      <c r="O177" s="4">
+        <v>0.6655290102389079</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15">
       <c r="A178" s="11" t="s">
         <v>41</v>
       </c>
@@ -8492,8 +8978,11 @@
       <c r="N178" s="4">
         <v>0.3085824493731919</v>
       </c>
-    </row>
-    <row r="179" spans="1:14">
+      <c r="O178" s="4">
+        <v>0.3493449781659388</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15">
       <c r="A179" s="12" t="s">
         <v>42</v>
       </c>
@@ -8536,8 +9025,11 @@
       <c r="N179" s="4">
         <v>1.038500506585613</v>
       </c>
-    </row>
-    <row r="180" spans="1:14">
+      <c r="O179" s="4">
+        <v>1.044846208030054</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15">
       <c r="A180" s="12" t="s">
         <v>43</v>
       </c>
@@ -8580,8 +9072,11 @@
       <c r="N180" s="4">
         <v>0.7668606641561109</v>
       </c>
-    </row>
-    <row r="181" spans="1:14">
+      <c r="O180" s="4">
+        <v>0.7711837511900983</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15">
       <c r="A181" s="13" t="s">
         <v>44</v>
       </c>
@@ -8624,8 +9119,11 @@
       <c r="N181" s="4">
         <v>0.1173959445037353</v>
       </c>
-    </row>
-    <row r="182" spans="1:14">
+      <c r="O181" s="4">
+        <v>0.1267056530214425</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15">
       <c r="A182" s="13" t="s">
         <v>45</v>
       </c>
@@ -8668,8 +9166,11 @@
       <c r="N182" s="4">
         <v>0.09523809523809523</v>
       </c>
-    </row>
-    <row r="183" spans="1:14">
+      <c r="O182" s="4">
+        <v>0.1174743024963289</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15">
       <c r="A183" s="6" t="s">
         <v>31</v>
       </c>
@@ -8710,6 +9211,9 @@
         <v>1.857142857142857</v>
       </c>
       <c r="N183" s="4">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="O183" s="4">
         <v>1.857142857142857</v>
       </c>
     </row>
@@ -8846,6 +9350,9 @@
       <c r="N2" s="4">
         <v>-5</v>
       </c>
+      <c r="O2" s="4">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="5" t="s">
@@ -8890,6 +9397,9 @@
       <c r="N3" s="4">
         <v>23</v>
       </c>
+      <c r="O3" s="4">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="6" t="s">
@@ -8934,6 +9444,9 @@
       <c r="N4" s="4">
         <v>47</v>
       </c>
+      <c r="O4" s="4">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="7" t="s">
@@ -8978,6 +9491,9 @@
       <c r="N5" s="4">
         <v>10</v>
       </c>
+      <c r="O5" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="8" t="s">
@@ -9022,6 +9538,9 @@
       <c r="N6" s="4">
         <v>2</v>
       </c>
+      <c r="O6" s="4">
+        <v>-14</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="9" t="s">
@@ -9066,6 +9585,9 @@
       <c r="N7" s="4">
         <v>74</v>
       </c>
+      <c r="O7" s="4">
+        <v>67</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="10" t="s">
@@ -9110,6 +9632,9 @@
       <c r="N8" s="4">
         <v>58</v>
       </c>
+      <c r="O8" s="4">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="11" t="s">
@@ -9154,6 +9679,9 @@
       <c r="N9" s="4">
         <v>25</v>
       </c>
+      <c r="O9" s="4">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="12" t="s">
@@ -9198,6 +9726,9 @@
       <c r="N10" s="4">
         <v>42</v>
       </c>
+      <c r="O10" s="4">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="13" t="s">
@@ -9242,6 +9773,9 @@
       <c r="N11" s="4">
         <v>9</v>
       </c>
+      <c r="O11" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
@@ -9363,6 +9897,9 @@
       <c r="N14" s="4">
         <v>9.9</v>
       </c>
+      <c r="O14" s="4">
+        <v>9.699999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="5" t="s">
@@ -9407,6 +9944,9 @@
       <c r="N15" s="4">
         <v>15.4</v>
       </c>
+      <c r="O15" s="4">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="6" t="s">
@@ -9451,6 +9991,9 @@
       <c r="N16" s="4">
         <v>23.7</v>
       </c>
+      <c r="O16" s="4">
+        <v>23.4</v>
+      </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="7" t="s">
@@ -9495,6 +10038,9 @@
       <c r="N17" s="4">
         <v>10.4</v>
       </c>
+      <c r="O17" s="4">
+        <v>10.3</v>
+      </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="8" t="s">
@@ -9539,6 +10085,9 @@
       <c r="N18" s="4">
         <v>7</v>
       </c>
+      <c r="O18" s="4">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="9" t="s">
@@ -9583,6 +10132,9 @@
       <c r="N19" s="4">
         <v>25.8</v>
       </c>
+      <c r="O19" s="4">
+        <v>25.9</v>
+      </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="10" t="s">
@@ -9627,6 +10179,9 @@
       <c r="N20" s="4">
         <v>22.6</v>
       </c>
+      <c r="O20" s="4">
+        <v>22.9</v>
+      </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="11" t="s">
@@ -9671,6 +10226,9 @@
       <c r="N21" s="4">
         <v>10.7</v>
       </c>
+      <c r="O21" s="4">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="12" t="s">
@@ -9715,6 +10273,9 @@
       <c r="N22" s="4">
         <v>29</v>
       </c>
+      <c r="O22" s="4">
+        <v>29</v>
+      </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="13" t="s">
@@ -9759,6 +10320,9 @@
       <c r="N23" s="4">
         <v>6.6</v>
       </c>
+      <c r="O23" s="4">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
@@ -9880,6 +10444,9 @@
       <c r="N26" s="4">
         <v>125</v>
       </c>
+      <c r="O26" s="4">
+        <v>143</v>
+      </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" s="5" t="s">
@@ -9924,6 +10491,9 @@
       <c r="N27" s="4">
         <v>275</v>
       </c>
+      <c r="O27" s="4">
+        <v>296</v>
+      </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="6" t="s">
@@ -9968,6 +10538,9 @@
       <c r="N28" s="4">
         <v>733</v>
       </c>
+      <c r="O28" s="4">
+        <v>780</v>
+      </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" s="7" t="s">
@@ -10012,6 +10585,9 @@
       <c r="N29" s="4">
         <v>195</v>
       </c>
+      <c r="O29" s="4">
+        <v>202</v>
+      </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="8" t="s">
@@ -10056,6 +10632,9 @@
       <c r="N30" s="4">
         <v>87</v>
       </c>
+      <c r="O30" s="4">
+        <v>73</v>
+      </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="9" t="s">
@@ -10100,6 +10679,9 @@
       <c r="N31" s="4">
         <v>699</v>
       </c>
+      <c r="O31" s="4">
+        <v>766</v>
+      </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" s="10" t="s">
@@ -10144,6 +10726,9 @@
       <c r="N32" s="4">
         <v>603</v>
       </c>
+      <c r="O32" s="4">
+        <v>628</v>
+      </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="11" t="s">
@@ -10188,6 +10773,9 @@
       <c r="N33" s="4">
         <v>178</v>
       </c>
+      <c r="O33" s="4">
+        <v>195</v>
+      </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="12" t="s">
@@ -10232,6 +10820,9 @@
       <c r="N34" s="4">
         <v>859</v>
       </c>
+      <c r="O34" s="4">
+        <v>928</v>
+      </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" s="13" t="s">
@@ -10276,6 +10867,9 @@
       <c r="N35" s="4">
         <v>40</v>
       </c>
+      <c r="O35" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" s="1" t="s">
@@ -10397,6 +10991,9 @@
       <c r="N38" s="4">
         <v>112.1</v>
       </c>
+      <c r="O38" s="4">
+        <v>121.8</v>
+      </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" s="5" t="s">
@@ -10441,6 +11038,9 @@
       <c r="N39" s="4">
         <v>192.6</v>
       </c>
+      <c r="O39" s="4">
+        <v>208.1</v>
+      </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" s="6" t="s">
@@ -10485,6 +11085,9 @@
       <c r="N40" s="4">
         <v>281.4</v>
       </c>
+      <c r="O40" s="4">
+        <v>304.8</v>
+      </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="7" t="s">
@@ -10529,6 +11132,9 @@
       <c r="N41" s="4">
         <v>108.4</v>
       </c>
+      <c r="O41" s="4">
+        <v>118.7</v>
+      </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="8" t="s">
@@ -10573,6 +11179,9 @@
       <c r="N42" s="4">
         <v>85.59999999999999</v>
       </c>
+      <c r="O42" s="4">
+        <v>92.5</v>
+      </c>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="9" t="s">
@@ -10617,6 +11226,9 @@
       <c r="N43" s="4">
         <v>319.1</v>
       </c>
+      <c r="O43" s="4">
+        <v>344.9999999999999</v>
+      </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="10" t="s">
@@ -10661,6 +11273,9 @@
       <c r="N44" s="4">
         <v>272.2</v>
       </c>
+      <c r="O44" s="4">
+        <v>295.1</v>
+      </c>
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="11" t="s">
@@ -10705,6 +11320,9 @@
       <c r="N45" s="4">
         <v>118.4</v>
       </c>
+      <c r="O45" s="4">
+        <v>129.6</v>
+      </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="12" t="s">
@@ -10749,6 +11367,9 @@
       <c r="N46" s="4">
         <v>371.1999999999999</v>
       </c>
+      <c r="O46" s="4">
+        <v>400.1999999999999</v>
+      </c>
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="13" t="s">
@@ -10793,6 +11414,9 @@
       <c r="N47" s="4">
         <v>82.39999999999998</v>
       </c>
+      <c r="O47" s="4">
+        <v>88.89999999999998</v>
+      </c>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" s="1" t="s">
@@ -10914,6 +11538,9 @@
       <c r="N50" s="4">
         <v>9.615384615384615</v>
       </c>
+      <c r="O50" s="4">
+        <v>10.21428571428571</v>
+      </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="5" t="s">
@@ -10958,6 +11585,9 @@
       <c r="N51" s="4">
         <v>21.15384615384615</v>
       </c>
+      <c r="O51" s="4">
+        <v>21.14285714285714</v>
+      </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" s="6" t="s">
@@ -11002,6 +11632,9 @@
       <c r="N52" s="4">
         <v>56.38461538461539</v>
       </c>
+      <c r="O52" s="4">
+        <v>55.71428571428572</v>
+      </c>
     </row>
     <row r="53" spans="1:25">
       <c r="A53" s="7" t="s">
@@ -11046,6 +11679,9 @@
       <c r="N53" s="4">
         <v>15</v>
       </c>
+      <c r="O53" s="4">
+        <v>14.42857142857143</v>
+      </c>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" s="8" t="s">
@@ -11090,6 +11726,9 @@
       <c r="N54" s="4">
         <v>6.692307692307693</v>
       </c>
+      <c r="O54" s="4">
+        <v>5.214285714285714</v>
+      </c>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="9" t="s">
@@ -11134,6 +11773,9 @@
       <c r="N55" s="4">
         <v>53.76923076923077</v>
       </c>
+      <c r="O55" s="4">
+        <v>54.71428571428572</v>
+      </c>
     </row>
     <row r="56" spans="1:25">
       <c r="A56" s="10" t="s">
@@ -11178,6 +11820,9 @@
       <c r="N56" s="4">
         <v>46.38461538461539</v>
       </c>
+      <c r="O56" s="4">
+        <v>44.85714285714285</v>
+      </c>
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="11" t="s">
@@ -11222,6 +11867,9 @@
       <c r="N57" s="4">
         <v>13.69230769230769</v>
       </c>
+      <c r="O57" s="4">
+        <v>13.92857142857143</v>
+      </c>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" s="12" t="s">
@@ -11266,6 +11914,9 @@
       <c r="N58" s="4">
         <v>66.07692307692308</v>
       </c>
+      <c r="O58" s="4">
+        <v>66.28571428571429</v>
+      </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" s="13" t="s">
@@ -11310,6 +11961,9 @@
       <c r="N59" s="4">
         <v>3.076923076923077</v>
       </c>
+      <c r="O59" s="4">
+        <v>3.214285714285714</v>
+      </c>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="1" t="s">
@@ -11431,6 +12085,9 @@
       <c r="N62" s="4">
         <v>8.623076923076921</v>
       </c>
+      <c r="O62" s="4">
+        <v>8.699999999999999</v>
+      </c>
     </row>
     <row r="63" spans="1:25">
       <c r="A63" s="5" t="s">
@@ -11475,6 +12132,9 @@
       <c r="N63" s="4">
         <v>14.81538461538461</v>
       </c>
+      <c r="O63" s="4">
+        <v>14.86428571428571</v>
+      </c>
     </row>
     <row r="64" spans="1:25">
       <c r="A64" s="6" t="s">
@@ -11519,6 +12179,9 @@
       <c r="N64" s="4">
         <v>21.64615384615384</v>
       </c>
+      <c r="O64" s="4">
+        <v>21.77142857142857</v>
+      </c>
     </row>
     <row r="65" spans="1:25">
       <c r="A65" s="7" t="s">
@@ -11563,6 +12226,9 @@
       <c r="N65" s="4">
         <v>8.338461538461541</v>
       </c>
+      <c r="O65" s="4">
+        <v>8.47857142857143</v>
+      </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" s="8" t="s">
@@ -11607,6 +12273,9 @@
       <c r="N66" s="4">
         <v>6.584615384615384</v>
       </c>
+      <c r="O66" s="4">
+        <v>6.607142857142857</v>
+      </c>
     </row>
     <row r="67" spans="1:25">
       <c r="A67" s="9" t="s">
@@ -11651,6 +12320,9 @@
       <c r="N67" s="4">
         <v>24.54615384615384</v>
       </c>
+      <c r="O67" s="4">
+        <v>24.64285714285714</v>
+      </c>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="10" t="s">
@@ -11695,6 +12367,9 @@
       <c r="N68" s="4">
         <v>20.93846153846154</v>
       </c>
+      <c r="O68" s="4">
+        <v>21.07857142857143</v>
+      </c>
     </row>
     <row r="69" spans="1:25">
       <c r="A69" s="11" t="s">
@@ -11739,6 +12414,9 @@
       <c r="N69" s="4">
         <v>9.107692307692307</v>
       </c>
+      <c r="O69" s="4">
+        <v>9.257142857142856</v>
+      </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" s="12" t="s">
@@ -11783,6 +12461,9 @@
       <c r="N70" s="4">
         <v>28.55384615384615</v>
       </c>
+      <c r="O70" s="4">
+        <v>28.58571428571428</v>
+      </c>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" s="13" t="s">
@@ -11827,6 +12508,9 @@
       <c r="N71" s="4">
         <v>6.338461538461536</v>
       </c>
+      <c r="O71" s="4">
+        <v>6.349999999999999</v>
+      </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" s="1" t="s">
@@ -11948,6 +12632,9 @@
       <c r="N74" s="4">
         <v>-0.5050505050505051</v>
       </c>
+      <c r="O74" s="4">
+        <v>1.855670103092784</v>
+      </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" s="5" t="s">
@@ -11992,6 +12679,9 @@
       <c r="N75" s="4">
         <v>1.493506493506493</v>
       </c>
+      <c r="O75" s="4">
+        <v>1.354838709677419</v>
+      </c>
     </row>
     <row r="76" spans="1:25">
       <c r="A76" s="6" t="s">
@@ -12036,6 +12726,9 @@
       <c r="N76" s="4">
         <v>1.983122362869198</v>
       </c>
+      <c r="O76" s="4">
+        <v>2.008547008547009</v>
+      </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" s="7" t="s">
@@ -12080,6 +12773,9 @@
       <c r="N77" s="4">
         <v>0.9615384615384615</v>
       </c>
+      <c r="O77" s="4">
+        <v>0.6796116504854368</v>
+      </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="8" t="s">
@@ -12124,6 +12820,9 @@
       <c r="N78" s="4">
         <v>0.2857142857142857</v>
       </c>
+      <c r="O78" s="4">
+        <v>-2.028985507246376</v>
+      </c>
     </row>
     <row r="79" spans="1:25">
       <c r="A79" s="9" t="s">
@@ -12168,6 +12867,9 @@
       <c r="N79" s="4">
         <v>2.868217054263566</v>
       </c>
+      <c r="O79" s="4">
+        <v>2.586872586872587</v>
+      </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" s="10" t="s">
@@ -12212,6 +12914,9 @@
       <c r="N80" s="4">
         <v>2.566371681415929</v>
       </c>
+      <c r="O80" s="4">
+        <v>1.091703056768559</v>
+      </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" s="11" t="s">
@@ -12256,6 +12961,9 @@
       <c r="N81" s="4">
         <v>2.336448598130841</v>
       </c>
+      <c r="O81" s="4">
+        <v>1.517857142857143</v>
+      </c>
     </row>
     <row r="82" spans="1:25">
       <c r="A82" s="12" t="s">
@@ -12300,6 +13008,9 @@
       <c r="N82" s="4">
         <v>1.448275862068966</v>
       </c>
+      <c r="O82" s="4">
+        <v>2.379310344827586</v>
+      </c>
     </row>
     <row r="83" spans="1:25">
       <c r="A83" s="13" t="s">
@@ -12344,6 +13055,9 @@
       <c r="N83" s="4">
         <v>1.363636363636364</v>
       </c>
+      <c r="O83" s="4">
+        <v>0.7692307692307693</v>
+      </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" s="1" t="s">
@@ -12465,6 +13179,9 @@
       <c r="N86" s="4">
         <v>1.115075825156111</v>
       </c>
+      <c r="O86" s="4">
+        <v>1.174055829228243</v>
+      </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" s="5" t="s">
@@ -12509,6 +13226,9 @@
       <c r="N87" s="4">
         <v>1.427829698857736</v>
       </c>
+      <c r="O87" s="4">
+        <v>1.42239308024988</v>
+      </c>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" s="6" t="s">
@@ -12553,6 +13273,9 @@
       <c r="N88" s="4">
         <v>2.604832977967307</v>
       </c>
+      <c r="O88" s="4">
+        <v>2.559055118110236</v>
+      </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" s="7" t="s">
@@ -12597,6 +13320,9 @@
       <c r="N89" s="4">
         <v>1.798892988929889</v>
       </c>
+      <c r="O89" s="4">
+        <v>1.701769165964617</v>
+      </c>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" s="8" t="s">
@@ -12641,6 +13367,9 @@
       <c r="N90" s="4">
         <v>1.016355140186916</v>
       </c>
+      <c r="O90" s="4">
+        <v>0.7891891891891892</v>
+      </c>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" s="9" t="s">
@@ -12685,6 +13414,9 @@
       <c r="N91" s="4">
         <v>2.190535882168599</v>
       </c>
+      <c r="O91" s="4">
+        <v>2.220289855072464</v>
+      </c>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" s="10" t="s">
@@ -12729,6 +13461,9 @@
       <c r="N92" s="4">
         <v>2.215282880235121</v>
       </c>
+      <c r="O92" s="4">
+        <v>2.128092172145035</v>
+      </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" s="11" t="s">
@@ -12773,6 +13508,9 @@
       <c r="N93" s="4">
         <v>1.503378378378378</v>
       </c>
+      <c r="O93" s="4">
+        <v>1.50462962962963</v>
+      </c>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" s="12" t="s">
@@ -12817,6 +13555,9 @@
       <c r="N94" s="4">
         <v>2.314116379310345</v>
       </c>
+      <c r="O94" s="4">
+        <v>2.318840579710145</v>
+      </c>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" s="13" t="s">
@@ -12860,6 +13601,9 @@
       </c>
       <c r="N95" s="4">
         <v>0.4854368932038834</v>
+      </c>
+      <c r="O95" s="4">
+        <v>0.5061867266591675</v>
       </c>
     </row>
   </sheetData>
